--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -112,10 +112,10 @@
     <t>Al Faisaly Harmah</t>
   </si>
   <si>
-    <t>Al Orubah</t>
+    <t>Al Jabalain</t>
   </si>
   <si>
-    <t>Al Jabalain</t>
+    <t>Al Orubah</t>
   </si>
   <si>
     <t>Al Sahel</t>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5418509</v>
+        <v>5418508</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,73 +928,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O5">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5418508</v>
+        <v>5418509</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1017,73 +1017,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1370,7 +1370,7 @@
         <v>44935.40277777778</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1462,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2263,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>44942.40277777778</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -3153,7 +3153,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3687,7 +3687,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>44954.41319444445</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>38</v>
@@ -4399,7 +4399,7 @@
         <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4663,7 +4663,7 @@
         <v>44959.41319444445</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -5464,7 +5464,7 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5556,7 +5556,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5642,7 +5642,7 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5823,7 +5823,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>44977.42361111111</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
@@ -6980,7 +6980,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>44984.42013888889</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7692,7 +7692,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8490,10 +8490,10 @@
         <v>44993.42708333334</v>
       </c>
       <c r="F90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s">
         <v>32</v>
-      </c>
-      <c r="G90" t="s">
-        <v>33</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8846,7 +8846,7 @@
         <v>44998.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>39</v>
@@ -8938,7 +8938,7 @@
         <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9650,7 +9650,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>45004.46875</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -10184,7 +10184,7 @@
         <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6125224</v>
+        <v>6125187</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10448,55 +10448,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>1</v>
-      </c>
-      <c r="I112">
-        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>56</v>
       </c>
       <c r="K112">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M112">
+        <v>2.4</v>
+      </c>
+      <c r="N112">
+        <v>2.8</v>
+      </c>
+      <c r="O112">
+        <v>2.8</v>
+      </c>
+      <c r="P112">
+        <v>2.45</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>2.05</v>
+      </c>
+      <c r="S112">
         <v>1.75</v>
       </c>
-      <c r="N112">
-        <v>4.333</v>
-      </c>
-      <c r="O112">
-        <v>3</v>
-      </c>
-      <c r="P112">
-        <v>1.833</v>
-      </c>
-      <c r="Q112">
-        <v>0.5</v>
-      </c>
-      <c r="R112">
-        <v>1.975</v>
-      </c>
-      <c r="S112">
-        <v>1.825</v>
-      </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10505,19 +10505,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,7 +10525,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6125187</v>
+        <v>6125224</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10537,55 +10537,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>56</v>
       </c>
       <c r="K113">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L113">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N113">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O113">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P113">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10594,19 +10594,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10792,7 +10792,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6125325</v>
+        <v>6125190</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10804,76 +10804,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K116">
-        <v>1.1</v>
+        <v>1.444</v>
       </c>
       <c r="L116">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M116">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="N116">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O116">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q116">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X116">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10881,7 +10881,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6125190</v>
+        <v>6125325</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10893,76 +10893,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K117">
-        <v>1.444</v>
+        <v>1.1</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M117">
+        <v>13</v>
+      </c>
+      <c r="N117">
+        <v>1.222</v>
+      </c>
+      <c r="O117">
         <v>5.5</v>
       </c>
-      <c r="N117">
-        <v>1.533</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
+        <v>1.75</v>
+      </c>
+      <c r="V117">
         <v>1.95</v>
       </c>
-      <c r="S117">
-        <v>1.85</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.8</v>
-      </c>
-      <c r="V117">
-        <v>2</v>
-      </c>
       <c r="W117">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>0.925</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
-      <c r="AB117">
-        <v>0.8</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11074,7 +11074,7 @@
         <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>45041.5625</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12317,7 +12317,7 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>41</v>
@@ -12854,7 +12854,7 @@
         <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13210,7 +13210,7 @@
         <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>45054.5625</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
@@ -13741,7 +13741,7 @@
         <v>45054.56944444445</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
@@ -14545,7 +14545,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         <v>45069.625</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
         <v>37</v>
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6125205</v>
+        <v>6125327</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,10 +15254,10 @@
         <v>45069.625</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15269,40 +15269,40 @@
         <v>56</v>
       </c>
       <c r="K166">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L166">
         <v>3.1</v>
       </c>
       <c r="M166">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N166">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15311,19 +15311,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15435,7 +15435,7 @@
         <v>45</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15598,7 +15598,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6125327</v>
+        <v>6125205</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15610,10 +15610,10 @@
         <v>45069.625</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15625,40 +15625,40 @@
         <v>56</v>
       </c>
       <c r="K170">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
         <v>3.1</v>
       </c>
       <c r="M170">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N170">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="O170">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15667,19 +15667,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6125329</v>
+        <v>6125551</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,40 +15877,40 @@
         <v>45075.625</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>55</v>
       </c>
       <c r="K173">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L173">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N173">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O173">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
         <v>2.025</v>
@@ -15919,34 +15919,34 @@
         <v>1.775</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA173">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6125551</v>
+        <v>6125464</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,76 +15966,76 @@
         <v>45075.625</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K174">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N174">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P174">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R174">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T174">
         <v>2.5</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X174">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6125464</v>
+        <v>6125328</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,58 +16055,58 @@
         <v>45075.625</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>57</v>
       </c>
       <c r="K175">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N175">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O175">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.363</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16115,16 +16115,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6125328</v>
+        <v>6125329</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,76 +16144,76 @@
         <v>45075.625</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>55</v>
+      </c>
+      <c r="K176">
+        <v>2.75</v>
+      </c>
+      <c r="L176">
         <v>3</v>
       </c>
-      <c r="I176">
-        <v>2</v>
-      </c>
-      <c r="J176" t="s">
-        <v>57</v>
-      </c>
-      <c r="K176">
-        <v>1.666</v>
-      </c>
-      <c r="L176">
-        <v>3.3</v>
-      </c>
       <c r="M176">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N176">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16233,7 +16233,7 @@
         <v>45075.625</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
         <v>30</v>
@@ -16503,7 +16503,7 @@
         <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16589,7 +16589,7 @@
         <v>45152.56597222222</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>30</v>
@@ -16678,7 +16678,7 @@
         <v>45152.56597222222</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
         <v>52</v>
@@ -17393,7 +17393,7 @@
         <v>50</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -18105,7 +18105,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18713,7 +18713,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6991314</v>
+        <v>6991281</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18728,70 +18728,70 @@
         <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K205">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M205">
+        <v>2.4</v>
+      </c>
+      <c r="N205">
+        <v>3.6</v>
+      </c>
+      <c r="O205">
         <v>3.2</v>
       </c>
-      <c r="N205">
-        <v>2.15</v>
-      </c>
-      <c r="O205">
-        <v>3</v>
-      </c>
       <c r="P205">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T205">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18802,7 +18802,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6991281</v>
+        <v>6991314</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18817,70 +18817,70 @@
         <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H206">
+        <v>4</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>57</v>
+      </c>
+      <c r="K206">
+        <v>2.15</v>
+      </c>
+      <c r="L206">
         <v>3</v>
       </c>
-      <c r="I206">
+      <c r="M206">
+        <v>3.2</v>
+      </c>
+      <c r="N206">
+        <v>2.15</v>
+      </c>
+      <c r="O206">
         <v>3</v>
       </c>
-      <c r="J206" t="s">
-        <v>55</v>
-      </c>
-      <c r="K206">
-        <v>2.8</v>
-      </c>
-      <c r="L206">
-        <v>2.9</v>
-      </c>
-      <c r="M206">
-        <v>2.4</v>
-      </c>
-      <c r="N206">
-        <v>3.6</v>
-      </c>
-      <c r="O206">
+      <c r="P206">
         <v>3.2</v>
       </c>
-      <c r="P206">
-        <v>1.909</v>
-      </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X206">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -19247,7 +19247,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19259,76 +19259,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K211">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L211">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M211">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N211">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P211">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q211">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S211">
+        <v>1.95</v>
+      </c>
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
         <v>1.8</v>
       </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>2.025</v>
-      </c>
       <c r="V211">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC211">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19336,7 +19336,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19348,76 +19348,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>55</v>
+      </c>
+      <c r="K212">
+        <v>3.3</v>
+      </c>
+      <c r="L212">
+        <v>3.1</v>
+      </c>
+      <c r="M212">
+        <v>2.05</v>
+      </c>
+      <c r="N212">
+        <v>5.5</v>
+      </c>
+      <c r="O212">
+        <v>3.5</v>
+      </c>
+      <c r="P212">
+        <v>1.571</v>
+      </c>
+      <c r="Q212">
+        <v>0.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
+        <v>1.775</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>2.5</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
         <v>1</v>
       </c>
-      <c r="I212">
-        <v>2</v>
-      </c>
-      <c r="J212" t="s">
-        <v>56</v>
-      </c>
-      <c r="K212">
-        <v>2.6</v>
-      </c>
-      <c r="L212">
-        <v>2.875</v>
-      </c>
-      <c r="M212">
-        <v>2.625</v>
-      </c>
-      <c r="N212">
-        <v>2.55</v>
-      </c>
-      <c r="O212">
-        <v>2.875</v>
-      </c>
-      <c r="P212">
-        <v>2.7</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.85</v>
-      </c>
-      <c r="S212">
-        <v>1.95</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.8</v>
-      </c>
-      <c r="V212">
-        <v>2</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>-1</v>
-      </c>
-      <c r="Y212">
-        <v>1.7</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
       <c r="AA212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19526,7 +19526,7 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -20060,7 +20060,7 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
         <v>49</v>
@@ -20152,7 +20152,7 @@
         <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20683,7 +20683,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
         <v>37</v>
@@ -21306,7 +21306,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G234" t="s">
         <v>40</v>
@@ -21398,7 +21398,7 @@
         <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21487,7 +21487,7 @@
         <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -22199,7 +22199,7 @@
         <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22288,7 +22288,7 @@
         <v>53</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -23341,7 +23341,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6991425</v>
+        <v>6991356</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23353,76 +23353,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K257">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L257">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M257">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N257">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O257">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P257">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q257">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R257">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S257">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T257">
+        <v>2</v>
+      </c>
+      <c r="U257">
+        <v>1.85</v>
+      </c>
+      <c r="V257">
+        <v>1.95</v>
+      </c>
+      <c r="W257">
         <v>2.25</v>
       </c>
-      <c r="U257">
-        <v>2.025</v>
-      </c>
-      <c r="V257">
-        <v>1.775</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23430,7 +23430,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6991356</v>
+        <v>6991425</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23442,76 +23442,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G258" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J258" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K258">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L258">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M258">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N258">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O258">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P258">
+        <v>2.6</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>1.9</v>
+      </c>
+      <c r="S258">
+        <v>1.9</v>
+      </c>
+      <c r="T258">
         <v>2.25</v>
       </c>
-      <c r="Q258">
-        <v>0.25</v>
-      </c>
-      <c r="R258">
-        <v>1.825</v>
-      </c>
-      <c r="S258">
-        <v>1.975</v>
-      </c>
-      <c r="T258">
-        <v>2</v>
-      </c>
       <c r="U258">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V258">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W258">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z258">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC258">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23531,7 +23531,7 @@
         <v>45231.5</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
         <v>52</v>
@@ -24068,7 +24068,7 @@
         <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>37</v>
       </c>
       <c r="G268" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25136,73 +25136,73 @@
         <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J277" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K277">
         <v>1.727</v>
       </c>
       <c r="L277">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M277">
         <v>4.333</v>
       </c>
       <c r="N277">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O277">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P277">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q277">
         <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V277">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W277">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z277">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB277">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC277">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25225,73 +25225,73 @@
         <v>32</v>
       </c>
       <c r="G278" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K278">
         <v>1.727</v>
       </c>
       <c r="L278">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M278">
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O278">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P278">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q278">
         <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S278">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA278">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25759,7 +25759,7 @@
         <v>47</v>
       </c>
       <c r="G284" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -25937,7 +25937,7 @@
         <v>30</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H286">
         <v>3</v>
@@ -26290,7 +26290,7 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G290" t="s">
         <v>48</v>
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6991382</v>
+        <v>6991381</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,56 +26646,56 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F294" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G294" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J294" t="s">
         <v>56</v>
       </c>
       <c r="K294">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L294">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M294">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N294">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O294">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P294">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q294">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R294">
+        <v>1.825</v>
+      </c>
+      <c r="S294">
+        <v>1.975</v>
+      </c>
+      <c r="T294">
+        <v>2</v>
+      </c>
+      <c r="U294">
+        <v>2</v>
+      </c>
+      <c r="V294">
         <v>1.8</v>
       </c>
-      <c r="S294">
-        <v>2</v>
-      </c>
-      <c r="T294">
-        <v>2.5</v>
-      </c>
-      <c r="U294">
-        <v>1.925</v>
-      </c>
-      <c r="V294">
-        <v>1.875</v>
-      </c>
       <c r="W294">
         <v>-1</v>
       </c>
@@ -26703,19 +26703,19 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>3</v>
+        <v>0.909</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB294">
         <v>1</v>
       </c>
-      <c r="AB294">
-        <v>-1</v>
-      </c>
       <c r="AC294">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26723,7 +26723,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6991381</v>
+        <v>6991382</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26735,55 +26735,55 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G295" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
         <v>56</v>
       </c>
       <c r="K295">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L295">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N295">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="O295">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P295">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q295">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R295">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S295">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26792,19 +26792,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>0.909</v>
+        <v>3</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB295">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27272,7 +27272,7 @@
         <v>35</v>
       </c>
       <c r="G301" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27539,7 +27539,7 @@
         <v>44</v>
       </c>
       <c r="G304" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H304">
         <v>3</v>
@@ -28248,7 +28248,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F312" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G312" t="s">
         <v>53</v>
@@ -28426,7 +28426,7 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G314" t="s">
         <v>48</v>
@@ -29227,10 +29227,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F323" t="s">
+        <v>32</v>
+      </c>
+      <c r="G323" t="s">
         <v>33</v>
-      </c>
-      <c r="G323" t="s">
-        <v>32</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,76 +29405,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F325" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G325" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325">
         <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K325">
         <v>2.4</v>
       </c>
       <c r="L325">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M325">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N325">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O325">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P325">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S325">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T325">
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V325">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y325">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA325">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC325">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29482,7 +29482,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29494,76 +29494,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F326" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G326" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326">
         <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K326">
         <v>2.4</v>
       </c>
       <c r="L326">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M326">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N326">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O326">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P326">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q326">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R326">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V326">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z326">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB326">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29660,7 +29660,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6991443</v>
+        <v>6991407</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29672,76 +29672,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F328" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G328" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328">
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K328">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L328">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M328">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N328">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P328">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q328">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R328">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S328">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T328">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U328">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V328">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W328">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA328">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB328">
         <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29749,7 +29749,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6991407</v>
+        <v>6991443</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29761,76 +29761,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F329" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G329" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329">
         <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K329">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L329">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M329">
+        <v>3</v>
+      </c>
+      <c r="N329">
+        <v>2.05</v>
+      </c>
+      <c r="O329">
+        <v>3.1</v>
+      </c>
+      <c r="P329">
+        <v>3.3</v>
+      </c>
+      <c r="Q329">
+        <v>-0.25</v>
+      </c>
+      <c r="R329">
+        <v>1.85</v>
+      </c>
+      <c r="S329">
+        <v>1.95</v>
+      </c>
+      <c r="T329">
         <v>2.5</v>
       </c>
-      <c r="N329">
-        <v>2.5</v>
-      </c>
-      <c r="O329">
-        <v>3.2</v>
-      </c>
-      <c r="P329">
-        <v>2.5</v>
-      </c>
-      <c r="Q329">
-        <v>0</v>
-      </c>
-      <c r="R329">
-        <v>1.9</v>
-      </c>
-      <c r="S329">
-        <v>1.9</v>
-      </c>
-      <c r="T329">
-        <v>2</v>
-      </c>
       <c r="U329">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V329">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X329">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA329">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
         <v>-1</v>
       </c>
       <c r="AC329">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30117,7 +30117,7 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F333" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G333" t="s">
         <v>31</v>
@@ -30387,7 +30387,7 @@
         <v>52</v>
       </c>
       <c r="G336" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H336">
         <v>2</v>
@@ -30654,7 +30654,7 @@
         <v>30</v>
       </c>
       <c r="G339" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -31007,7 +31007,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F343" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G343" t="s">
         <v>50</v>
@@ -31363,7 +31363,7 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F347" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G347" t="s">
         <v>29</v>
@@ -31811,7 +31811,7 @@
         <v>35</v>
       </c>
       <c r="G352" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -32167,7 +32167,7 @@
         <v>44</v>
       </c>
       <c r="G356" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -32508,7 +32508,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32520,40 +32520,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F360" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J360" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K360">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L360">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M360">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N360">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O360">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P360">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q360">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R360">
         <v>1.975</v>
@@ -32562,34 +32562,34 @@
         <v>1.825</v>
       </c>
       <c r="T360">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U360">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V360">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W360">
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z360">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC360">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32597,7 +32597,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32609,40 +32609,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F361" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G361" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K361">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L361">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M361">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N361">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O361">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P361">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q361">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R361">
         <v>1.975</v>
@@ -32651,34 +32651,34 @@
         <v>1.825</v>
       </c>
       <c r="T361">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V361">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W361">
         <v>-1</v>
       </c>
       <c r="X361">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y361">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA361">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32787,7 +32787,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F363" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G363" t="s">
         <v>45</v>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -112,10 +112,10 @@
     <t>Al Faisaly Harmah</t>
   </si>
   <si>
-    <t>Al Jabalain</t>
+    <t>Al Orubah</t>
   </si>
   <si>
-    <t>Al Orubah</t>
+    <t>Al Jabalain</t>
   </si>
   <si>
     <t>Al Sahel</t>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5418508</v>
+        <v>5418509</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,73 +928,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5418509</v>
+        <v>5418508</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1017,73 +1017,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1370,7 +1370,7 @@
         <v>44935.40277777778</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1462,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2263,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>44942.40277777778</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -3153,7 +3153,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3687,7 +3687,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>44954.41319444445</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>38</v>
@@ -4399,7 +4399,7 @@
         <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4663,7 +4663,7 @@
         <v>44959.41319444445</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -5464,7 +5464,7 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5556,7 +5556,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5642,7 +5642,7 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5823,7 +5823,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>44977.42361111111</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
@@ -6980,7 +6980,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>44984.42013888889</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7692,7 +7692,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8490,10 +8490,10 @@
         <v>44993.42708333334</v>
       </c>
       <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
         <v>33</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8846,7 +8846,7 @@
         <v>44998.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>39</v>
@@ -8938,7 +8938,7 @@
         <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9650,7 +9650,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>45004.46875</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -10184,7 +10184,7 @@
         <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6125187</v>
+        <v>6125224</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10448,55 +10448,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>56</v>
       </c>
       <c r="K112">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L112">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N112">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O112">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10505,19 +10505,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,7 +10525,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6125224</v>
+        <v>6125187</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10537,55 +10537,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <v>1</v>
-      </c>
-      <c r="I113">
-        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>56</v>
       </c>
       <c r="K113">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M113">
+        <v>2.4</v>
+      </c>
+      <c r="N113">
+        <v>2.8</v>
+      </c>
+      <c r="O113">
+        <v>2.8</v>
+      </c>
+      <c r="P113">
+        <v>2.45</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>2.05</v>
+      </c>
+      <c r="S113">
         <v>1.75</v>
       </c>
-      <c r="N113">
-        <v>4.333</v>
-      </c>
-      <c r="O113">
-        <v>3</v>
-      </c>
-      <c r="P113">
-        <v>1.833</v>
-      </c>
-      <c r="Q113">
-        <v>0.5</v>
-      </c>
-      <c r="R113">
-        <v>1.975</v>
-      </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10594,19 +10594,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10792,7 +10792,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6125190</v>
+        <v>6125325</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10804,76 +10804,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>1.1</v>
       </c>
       <c r="L116">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M116">
+        <v>13</v>
+      </c>
+      <c r="N116">
+        <v>1.222</v>
+      </c>
+      <c r="O116">
         <v>5.5</v>
       </c>
-      <c r="N116">
-        <v>1.533</v>
-      </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.925</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>1.75</v>
+      </c>
+      <c r="V116">
         <v>1.95</v>
       </c>
-      <c r="S116">
-        <v>1.85</v>
-      </c>
-      <c r="T116">
-        <v>2.25</v>
-      </c>
-      <c r="U116">
-        <v>1.8</v>
-      </c>
-      <c r="V116">
-        <v>2</v>
-      </c>
       <c r="W116">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
+        <v>0.925</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>0.95</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
-      <c r="AB116">
-        <v>0.8</v>
-      </c>
-      <c r="AC116">
-        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10881,7 +10881,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6125325</v>
+        <v>6125190</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10893,76 +10893,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K117">
-        <v>1.1</v>
+        <v>1.444</v>
       </c>
       <c r="L117">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="N117">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O117">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X117">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11074,7 +11074,7 @@
         <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>45041.5625</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12317,7 +12317,7 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>41</v>
@@ -12854,7 +12854,7 @@
         <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13210,7 +13210,7 @@
         <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>45054.5625</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
@@ -13741,7 +13741,7 @@
         <v>45054.56944444445</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
@@ -14545,7 +14545,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         <v>45069.625</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
         <v>37</v>
@@ -15435,7 +15435,7 @@
         <v>45</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6125551</v>
+        <v>6125464</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,76 +15877,76 @@
         <v>45075.625</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K173">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L173">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N173">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P173">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
         <v>2.5</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X173">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6125464</v>
+        <v>6125551</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,76 +15966,76 @@
         <v>45075.625</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K174">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N174">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O174">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q174">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S174">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T174">
         <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6125328</v>
+        <v>6125329</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,76 +16055,76 @@
         <v>45075.625</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175" t="s">
+        <v>55</v>
+      </c>
+      <c r="K175">
+        <v>2.75</v>
+      </c>
+      <c r="L175">
         <v>3</v>
       </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
-      <c r="J175" t="s">
-        <v>57</v>
-      </c>
-      <c r="K175">
-        <v>1.666</v>
-      </c>
-      <c r="L175">
-        <v>3.3</v>
-      </c>
       <c r="M175">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N175">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6125329</v>
+        <v>6125151</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,40 +16144,40 @@
         <v>45075.625</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K176">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L176">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M176">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N176">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O176">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P176">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
         <v>2.025</v>
@@ -16189,31 +16189,31 @@
         <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X176">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16221,7 +16221,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6125550</v>
+        <v>6125328</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16233,73 +16233,73 @@
         <v>45075.625</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>57</v>
       </c>
       <c r="K177">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L177">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N177">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="Q177">
+        <v>-0.75</v>
+      </c>
+      <c r="R177">
+        <v>1.925</v>
+      </c>
+      <c r="S177">
+        <v>1.875</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
+        <v>1.875</v>
+      </c>
+      <c r="V177">
+        <v>1.925</v>
+      </c>
+      <c r="W177">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.4625</v>
+      </c>
+      <c r="AA177">
         <v>-0.5</v>
       </c>
-      <c r="R177">
-        <v>1.85</v>
-      </c>
-      <c r="S177">
-        <v>1.95</v>
-      </c>
-      <c r="T177">
-        <v>2.25</v>
-      </c>
-      <c r="U177">
-        <v>1.9</v>
-      </c>
-      <c r="V177">
-        <v>1.9</v>
-      </c>
-      <c r="W177">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
-      <c r="Y177">
-        <v>-1</v>
-      </c>
-      <c r="Z177">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6125151</v>
+        <v>6125550</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,16 +16411,16 @@
         <v>45075.625</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
         <v>1</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>57</v>
@@ -16432,37 +16432,37 @@
         <v>3.1</v>
       </c>
       <c r="M179">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N179">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P179">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="Q179">
         <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16471,16 +16471,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16503,7 +16503,7 @@
         <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6990923</v>
+        <v>6991273</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16592,10 +16592,10 @@
         <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -16604,43 +16604,43 @@
         <v>57</v>
       </c>
       <c r="K181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N181">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O181">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P181">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T181">
         <v>2</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16649,16 +16649,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16666,7 +16666,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6991273</v>
+        <v>6990923</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16681,10 +16681,10 @@
         <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -16693,43 +16693,43 @@
         <v>57</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L182">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M182">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N182">
+        <v>2.55</v>
+      </c>
+      <c r="O182">
+        <v>2.7</v>
+      </c>
+      <c r="P182">
+        <v>2.9</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
         <v>1.95</v>
       </c>
-      <c r="O182">
-        <v>3.2</v>
-      </c>
-      <c r="P182">
-        <v>3.6</v>
-      </c>
-      <c r="Q182">
-        <v>-0.5</v>
-      </c>
-      <c r="R182">
-        <v>2</v>
-      </c>
-      <c r="S182">
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
+      <c r="V182">
         <v>1.8</v>
       </c>
-      <c r="T182">
-        <v>2</v>
-      </c>
-      <c r="U182">
-        <v>1.775</v>
-      </c>
-      <c r="V182">
-        <v>2.025</v>
-      </c>
       <c r="W182">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16738,16 +16738,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17393,7 +17393,7 @@
         <v>50</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -18105,7 +18105,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18713,7 +18713,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6991281</v>
+        <v>6991314</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18728,70 +18728,70 @@
         <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H205">
+        <v>4</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>57</v>
+      </c>
+      <c r="K205">
+        <v>2.15</v>
+      </c>
+      <c r="L205">
         <v>3</v>
       </c>
-      <c r="I205">
+      <c r="M205">
+        <v>3.2</v>
+      </c>
+      <c r="N205">
+        <v>2.15</v>
+      </c>
+      <c r="O205">
         <v>3</v>
       </c>
-      <c r="J205" t="s">
-        <v>55</v>
-      </c>
-      <c r="K205">
-        <v>2.8</v>
-      </c>
-      <c r="L205">
-        <v>2.9</v>
-      </c>
-      <c r="M205">
-        <v>2.4</v>
-      </c>
-      <c r="N205">
-        <v>3.6</v>
-      </c>
-      <c r="O205">
+      <c r="P205">
         <v>3.2</v>
       </c>
-      <c r="P205">
-        <v>1.909</v>
-      </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X205">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18802,7 +18802,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6991314</v>
+        <v>6991281</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18817,70 +18817,70 @@
         <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K206">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L206">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M206">
+        <v>2.4</v>
+      </c>
+      <c r="N206">
+        <v>3.6</v>
+      </c>
+      <c r="O206">
         <v>3.2</v>
       </c>
-      <c r="N206">
-        <v>2.15</v>
-      </c>
-      <c r="O206">
-        <v>3</v>
-      </c>
       <c r="P206">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -19247,7 +19247,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19259,76 +19259,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>55</v>
+      </c>
+      <c r="K211">
+        <v>3.3</v>
+      </c>
+      <c r="L211">
+        <v>3.1</v>
+      </c>
+      <c r="M211">
+        <v>2.05</v>
+      </c>
+      <c r="N211">
+        <v>5.5</v>
+      </c>
+      <c r="O211">
+        <v>3.5</v>
+      </c>
+      <c r="P211">
+        <v>1.571</v>
+      </c>
+      <c r="Q211">
+        <v>0.75</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>1.8</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
+        <v>1.775</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>2.5</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
         <v>1</v>
       </c>
-      <c r="I211">
-        <v>2</v>
-      </c>
-      <c r="J211" t="s">
-        <v>56</v>
-      </c>
-      <c r="K211">
-        <v>2.6</v>
-      </c>
-      <c r="L211">
-        <v>2.875</v>
-      </c>
-      <c r="M211">
-        <v>2.625</v>
-      </c>
-      <c r="N211">
-        <v>2.55</v>
-      </c>
-      <c r="O211">
-        <v>2.875</v>
-      </c>
-      <c r="P211">
-        <v>2.7</v>
-      </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
-        <v>1.85</v>
-      </c>
-      <c r="S211">
-        <v>1.95</v>
-      </c>
-      <c r="T211">
-        <v>2</v>
-      </c>
-      <c r="U211">
-        <v>1.8</v>
-      </c>
-      <c r="V211">
-        <v>2</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
-      <c r="X211">
-        <v>-1</v>
-      </c>
-      <c r="Y211">
-        <v>1.7</v>
-      </c>
-      <c r="Z211">
-        <v>-1</v>
-      </c>
       <c r="AA211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19336,7 +19336,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19348,76 +19348,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K212">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N212">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P212">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q212">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S212">
+        <v>1.95</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
         <v>1.8</v>
       </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>2.025</v>
-      </c>
       <c r="V212">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC212">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19526,7 +19526,7 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -20060,7 +20060,7 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
         <v>49</v>
@@ -20152,7 +20152,7 @@
         <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20683,7 +20683,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
         <v>37</v>
@@ -21306,7 +21306,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G234" t="s">
         <v>40</v>
@@ -21398,7 +21398,7 @@
         <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21487,7 +21487,7 @@
         <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -22199,7 +22199,7 @@
         <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22288,7 +22288,7 @@
         <v>53</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -23353,7 +23353,7 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G257" t="s">
         <v>39</v>
@@ -23531,7 +23531,7 @@
         <v>45231.5</v>
       </c>
       <c r="F259" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G259" t="s">
         <v>52</v>
@@ -24068,7 +24068,7 @@
         <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>37</v>
       </c>
       <c r="G268" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -25133,7 +25133,7 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G277" t="s">
         <v>47</v>
@@ -25222,7 +25222,7 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F278" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G278" t="s">
         <v>51</v>
@@ -25759,7 +25759,7 @@
         <v>47</v>
       </c>
       <c r="G284" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -25937,7 +25937,7 @@
         <v>30</v>
       </c>
       <c r="G286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H286">
         <v>3</v>
@@ -26290,7 +26290,7 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F290" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G290" t="s">
         <v>48</v>
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6991381</v>
+        <v>6991382</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,55 +26646,55 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F294" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G294" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H294">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
         <v>56</v>
       </c>
       <c r="K294">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L294">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M294">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N294">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="O294">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P294">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q294">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R294">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S294">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T294">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U294">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V294">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -26703,19 +26703,19 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0.909</v>
+        <v>3</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB294">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26723,7 +26723,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6991382</v>
+        <v>6991381</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26735,56 +26735,56 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J295" t="s">
         <v>56</v>
       </c>
       <c r="K295">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L295">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M295">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N295">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O295">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P295">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q295">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R295">
+        <v>1.825</v>
+      </c>
+      <c r="S295">
+        <v>1.975</v>
+      </c>
+      <c r="T295">
+        <v>2</v>
+      </c>
+      <c r="U295">
+        <v>2</v>
+      </c>
+      <c r="V295">
         <v>1.8</v>
       </c>
-      <c r="S295">
-        <v>2</v>
-      </c>
-      <c r="T295">
-        <v>2.5</v>
-      </c>
-      <c r="U295">
-        <v>1.925</v>
-      </c>
-      <c r="V295">
-        <v>1.875</v>
-      </c>
       <c r="W295">
         <v>-1</v>
       </c>
@@ -26792,19 +26792,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>3</v>
+        <v>0.909</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB295">
         <v>1</v>
       </c>
-      <c r="AB295">
-        <v>-1</v>
-      </c>
       <c r="AC295">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27272,7 +27272,7 @@
         <v>35</v>
       </c>
       <c r="G301" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27524,7 +27524,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6991390</v>
+        <v>6991389</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27536,73 +27536,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F304" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G304" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304">
+        <v>2</v>
+      </c>
+      <c r="J304" t="s">
+        <v>55</v>
+      </c>
+      <c r="K304">
+        <v>2.6</v>
+      </c>
+      <c r="L304">
+        <v>3.2</v>
+      </c>
+      <c r="M304">
+        <v>2.4</v>
+      </c>
+      <c r="N304">
+        <v>2.7</v>
+      </c>
+      <c r="O304">
+        <v>3.2</v>
+      </c>
+      <c r="P304">
+        <v>2.3</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>2.05</v>
+      </c>
+      <c r="S304">
+        <v>1.75</v>
+      </c>
+      <c r="T304">
+        <v>2.25</v>
+      </c>
+      <c r="U304">
+        <v>2</v>
+      </c>
+      <c r="V304">
+        <v>1.8</v>
+      </c>
+      <c r="W304">
+        <v>-1</v>
+      </c>
+      <c r="X304">
+        <v>2.2</v>
+      </c>
+      <c r="Y304">
+        <v>-1</v>
+      </c>
+      <c r="Z304">
+        <v>0</v>
+      </c>
+      <c r="AA304">
+        <v>-0</v>
+      </c>
+      <c r="AB304">
         <v>1</v>
-      </c>
-      <c r="J304" t="s">
-        <v>57</v>
-      </c>
-      <c r="K304">
-        <v>2.25</v>
-      </c>
-      <c r="L304">
-        <v>3.5</v>
-      </c>
-      <c r="M304">
-        <v>2.6</v>
-      </c>
-      <c r="N304">
-        <v>2.2</v>
-      </c>
-      <c r="O304">
-        <v>3.6</v>
-      </c>
-      <c r="P304">
-        <v>2.7</v>
-      </c>
-      <c r="Q304">
-        <v>-0.25</v>
-      </c>
-      <c r="R304">
-        <v>1.975</v>
-      </c>
-      <c r="S304">
-        <v>1.825</v>
-      </c>
-      <c r="T304">
-        <v>2.5</v>
-      </c>
-      <c r="U304">
-        <v>1.95</v>
-      </c>
-      <c r="V304">
-        <v>1.85</v>
-      </c>
-      <c r="W304">
-        <v>1.2</v>
-      </c>
-      <c r="X304">
-        <v>-1</v>
-      </c>
-      <c r="Y304">
-        <v>-1</v>
-      </c>
-      <c r="Z304">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA304">
-        <v>-1</v>
-      </c>
-      <c r="AB304">
-        <v>0.95</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27613,7 +27613,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6991389</v>
+        <v>6991390</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27625,73 +27625,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F305" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K305">
+        <v>2.25</v>
+      </c>
+      <c r="L305">
+        <v>3.5</v>
+      </c>
+      <c r="M305">
         <v>2.6</v>
       </c>
-      <c r="L305">
-        <v>3.2</v>
-      </c>
-      <c r="M305">
-        <v>2.4</v>
-      </c>
       <c r="N305">
+        <v>2.2</v>
+      </c>
+      <c r="O305">
+        <v>3.6</v>
+      </c>
+      <c r="P305">
         <v>2.7</v>
       </c>
-      <c r="O305">
-        <v>3.2</v>
-      </c>
-      <c r="P305">
-        <v>2.3</v>
-      </c>
       <c r="Q305">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R305">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V305">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X305">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA305">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -28248,7 +28248,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G312" t="s">
         <v>53</v>
@@ -28426,7 +28426,7 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F314" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G314" t="s">
         <v>48</v>
@@ -29227,10 +29227,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F323" t="s">
+        <v>33</v>
+      </c>
+      <c r="G323" t="s">
         <v>32</v>
-      </c>
-      <c r="G323" t="s">
-        <v>33</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,76 +29405,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F325" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G325" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325">
         <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K325">
         <v>2.4</v>
       </c>
       <c r="L325">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M325">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N325">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O325">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P325">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q325">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R325">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T325">
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V325">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z325">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB325">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29482,7 +29482,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29494,76 +29494,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F326" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G326" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326">
         <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K326">
         <v>2.4</v>
       </c>
       <c r="L326">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M326">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N326">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O326">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P326">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q326">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R326">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V326">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y326">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA326">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC326">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29675,7 +29675,7 @@
         <v>49</v>
       </c>
       <c r="G328" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -30117,7 +30117,7 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F333" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G333" t="s">
         <v>31</v>
@@ -30387,7 +30387,7 @@
         <v>52</v>
       </c>
       <c r="G336" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H336">
         <v>2</v>
@@ -30654,7 +30654,7 @@
         <v>30</v>
       </c>
       <c r="G339" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -31007,7 +31007,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G343" t="s">
         <v>50</v>
@@ -31363,7 +31363,7 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F347" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G347" t="s">
         <v>29</v>
@@ -31811,7 +31811,7 @@
         <v>35</v>
       </c>
       <c r="G352" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -32167,7 +32167,7 @@
         <v>44</v>
       </c>
       <c r="G356" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -32523,7 +32523,7 @@
         <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H360">
         <v>0</v>
@@ -32787,7 +32787,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F363" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G363" t="s">
         <v>45</v>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Al Faisaly Harmah</t>
   </si>
   <si>
-    <t>Al Orubah</t>
+    <t>Al Jabalain</t>
   </si>
   <si>
-    <t>Al Jabalain</t>
+    <t>Al Orubah</t>
   </si>
   <si>
     <t>Al Sahel</t>
@@ -160,10 +160,10 @@
     <t>Al Najma</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
     <t>Al Adalh</t>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC368"/>
+  <dimension ref="A1:AC372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5418509</v>
+        <v>5418508</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,73 +928,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O5">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5418508</v>
+        <v>5418509</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1017,73 +1017,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1370,7 +1370,7 @@
         <v>44935.40277777778</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1462,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2263,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>44942.40277777778</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -3153,7 +3153,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3687,7 +3687,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6095144</v>
+        <v>6095143</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3862,76 +3862,76 @@
         <v>44954.41319444445</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3939,7 +3939,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6095143</v>
+        <v>6095144</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3951,76 +3951,76 @@
         <v>44954.41319444445</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X39">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>-0.5</v>
       </c>
-      <c r="AA39">
-        <v>0.45</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4399,7 +4399,7 @@
         <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4663,7 +4663,7 @@
         <v>44959.41319444445</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -5464,7 +5464,7 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5556,7 +5556,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5642,7 +5642,7 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5823,7 +5823,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>44977.42361111111</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
@@ -6980,7 +6980,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>44984.42013888889</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7692,7 +7692,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8490,10 +8490,10 @@
         <v>44993.42708333334</v>
       </c>
       <c r="F90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s">
         <v>32</v>
-      </c>
-      <c r="G90" t="s">
-        <v>33</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8846,7 +8846,7 @@
         <v>44998.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>39</v>
@@ -8938,7 +8938,7 @@
         <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9650,7 +9650,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>45004.46875</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -10184,7 +10184,7 @@
         <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10448,7 +10448,7 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>36</v>
@@ -10792,7 +10792,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6125325</v>
+        <v>6125190</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10804,76 +10804,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K116">
-        <v>1.1</v>
+        <v>1.444</v>
       </c>
       <c r="L116">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M116">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="N116">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O116">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q116">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X116">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10881,7 +10881,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6125190</v>
+        <v>6125325</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10893,76 +10893,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K117">
-        <v>1.444</v>
+        <v>1.1</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M117">
+        <v>13</v>
+      </c>
+      <c r="N117">
+        <v>1.222</v>
+      </c>
+      <c r="O117">
         <v>5.5</v>
       </c>
-      <c r="N117">
-        <v>1.533</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
+        <v>1.75</v>
+      </c>
+      <c r="V117">
         <v>1.95</v>
       </c>
-      <c r="S117">
-        <v>1.85</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.8</v>
-      </c>
-      <c r="V117">
-        <v>2</v>
-      </c>
       <c r="W117">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>0.925</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
-      <c r="AB117">
-        <v>0.8</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11074,7 +11074,7 @@
         <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6409782</v>
+        <v>6469853</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11605,40 +11605,40 @@
         <v>45031.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K125">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N125">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O125">
         <v>3.1</v>
       </c>
       <c r="P125">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
         <v>1.85</v>
@@ -11650,31 +11650,31 @@
         <v>2</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V125">
         <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11682,7 +11682,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6469853</v>
+        <v>6409782</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11694,40 +11694,40 @@
         <v>45031.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K126">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M126">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N126">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O126">
         <v>3.1</v>
       </c>
       <c r="P126">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
         <v>1.85</v>
@@ -11739,31 +11739,31 @@
         <v>2</v>
       </c>
       <c r="U126">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
         <v>1.975</v>
       </c>
       <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>2.1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
         <v>0.95</v>
       </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12139,7 +12139,7 @@
         <v>45041.5625</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12317,7 +12317,7 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>41</v>
@@ -12854,7 +12854,7 @@
         <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13210,7 +13210,7 @@
         <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>45054.5625</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
@@ -13741,7 +13741,7 @@
         <v>45054.56944444445</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
@@ -14545,7 +14545,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14886,7 +14886,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6125231</v>
+        <v>6125203</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14898,58 +14898,58 @@
         <v>45063.55902777778</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>57</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L162">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M162">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N162">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14958,13 +14958,13 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB162">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14975,7 +14975,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6125203</v>
+        <v>6125231</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14987,58 +14987,58 @@
         <v>45063.55902777778</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>3</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>57</v>
       </c>
       <c r="K163">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M163">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N163">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P163">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>2.25</v>
+      </c>
+      <c r="U163">
+        <v>1.975</v>
+      </c>
+      <c r="V163">
         <v>1.825</v>
       </c>
-      <c r="S163">
-        <v>1.975</v>
-      </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>1.95</v>
-      </c>
-      <c r="V163">
-        <v>1.85</v>
-      </c>
       <c r="W163">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15047,13 +15047,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15153,7 +15153,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6125204</v>
+        <v>6125149</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15165,76 +15165,76 @@
         <v>45069.625</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K165">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L165">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N165">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O165">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X165">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA165">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6125327</v>
+        <v>6125204</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,76 +15254,76 @@
         <v>45069.625</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K166">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>3.3</v>
+      </c>
+      <c r="N166">
+        <v>2.3</v>
+      </c>
+      <c r="O166">
+        <v>2.9</v>
+      </c>
+      <c r="P166">
         <v>3.1</v>
       </c>
-      <c r="M166">
-        <v>2</v>
-      </c>
-      <c r="N166">
-        <v>3.1</v>
-      </c>
-      <c r="O166">
-        <v>3.3</v>
-      </c>
-      <c r="P166">
-        <v>2.05</v>
-      </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y166">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15420,7 +15420,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6125207</v>
+        <v>6125205</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15432,76 +15432,76 @@
         <v>45069.625</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K168">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M168">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N168">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O168">
+        <v>3.2</v>
+      </c>
+      <c r="P168">
         <v>2.9</v>
       </c>
-      <c r="P168">
-        <v>2.6</v>
-      </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z168">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15509,7 +15509,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6125149</v>
+        <v>6125207</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15521,10 +15521,10 @@
         <v>45069.625</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15536,61 +15536,61 @@
         <v>57</v>
       </c>
       <c r="K169">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L169">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N169">
+        <v>2.6</v>
+      </c>
+      <c r="O169">
+        <v>2.9</v>
+      </c>
+      <c r="P169">
+        <v>2.6</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
         <v>1.85</v>
       </c>
-      <c r="O169">
-        <v>3.4</v>
-      </c>
-      <c r="P169">
-        <v>3.6</v>
-      </c>
-      <c r="Q169">
+      <c r="S169">
+        <v>1.95</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>1.925</v>
+      </c>
+      <c r="V169">
+        <v>1.875</v>
+      </c>
+      <c r="W169">
+        <v>1.6</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
         <v>-0.5</v>
       </c>
-      <c r="R169">
-        <v>1.95</v>
-      </c>
-      <c r="S169">
-        <v>1.85</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>1.9</v>
-      </c>
-      <c r="V169">
-        <v>1.9</v>
-      </c>
-      <c r="W169">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>0.95</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6125205</v>
+        <v>6125327</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15610,10 +15610,10 @@
         <v>45069.625</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15625,40 +15625,40 @@
         <v>56</v>
       </c>
       <c r="K170">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L170">
         <v>3.1</v>
       </c>
       <c r="M170">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N170">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P170">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15667,19 +15667,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6125464</v>
+        <v>6125550</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,58 +15877,58 @@
         <v>45075.625</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>57</v>
       </c>
       <c r="K173">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L173">
+        <v>3.1</v>
+      </c>
+      <c r="M173">
+        <v>3.8</v>
+      </c>
+      <c r="N173">
+        <v>1.4</v>
+      </c>
+      <c r="O173">
         <v>4</v>
       </c>
-      <c r="M173">
-        <v>5.5</v>
-      </c>
-      <c r="N173">
-        <v>1.363</v>
-      </c>
-      <c r="O173">
-        <v>4.5</v>
-      </c>
       <c r="P173">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15937,16 +15937,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6125551</v>
+        <v>6125329</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,40 +15966,40 @@
         <v>45075.625</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>55</v>
       </c>
       <c r="K174">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M174">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N174">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P174">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R174">
         <v>2.025</v>
@@ -16008,34 +16008,34 @@
         <v>1.775</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6125329</v>
+        <v>6125328</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,76 +16055,76 @@
         <v>45075.625</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K175">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L175">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N175">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O175">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X175">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA175">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC175">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6125151</v>
+        <v>6125464</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,13 +16144,13 @@
         <v>45075.625</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16159,34 +16159,34 @@
         <v>57</v>
       </c>
       <c r="K176">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="L176">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M176">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N176">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P176">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
         <v>1.95</v>
@@ -16195,7 +16195,7 @@
         <v>1.85</v>
       </c>
       <c r="W176">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16204,7 +16204,7 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
         <v>-1</v>
@@ -16221,7 +16221,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6125328</v>
+        <v>6125150</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16233,58 +16233,58 @@
         <v>45075.625</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>57</v>
       </c>
       <c r="K177">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N177">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>0.6659999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16293,13 +16293,13 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16310,7 +16310,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6125150</v>
+        <v>6125551</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16322,40 +16322,40 @@
         <v>45075.625</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K178">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N178">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
         <v>2.025</v>
@@ -16367,31 +16367,31 @@
         <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W178">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6125550</v>
+        <v>6125151</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,16 +16411,16 @@
         <v>45075.625</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>57</v>
@@ -16432,37 +16432,37 @@
         <v>3.1</v>
       </c>
       <c r="M179">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N179">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q179">
         <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16471,16 +16471,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>1.025</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16503,7 +16503,7 @@
         <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16589,7 +16589,7 @@
         <v>45152.56597222222</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>52</v>
@@ -16678,7 +16678,7 @@
         <v>45152.56597222222</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
         <v>30</v>
@@ -16755,7 +16755,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6991274</v>
+        <v>6991275</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16767,40 +16767,40 @@
         <v>45153.55208333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G183" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>55</v>
+      </c>
+      <c r="K183">
+        <v>2.375</v>
+      </c>
+      <c r="L183">
         <v>3</v>
       </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183" t="s">
-        <v>57</v>
-      </c>
-      <c r="K183">
-        <v>1.666</v>
-      </c>
-      <c r="L183">
-        <v>3.5</v>
-      </c>
       <c r="M183">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P183">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
         <v>1.95</v>
@@ -16812,31 +16812,31 @@
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V183">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W183">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB183">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16844,7 +16844,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6991275</v>
+        <v>6991274</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16856,40 +16856,40 @@
         <v>45153.55208333334</v>
       </c>
       <c r="F184" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K184">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L184">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M184">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N184">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O184">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R184">
         <v>1.95</v>
@@ -16901,31 +16901,31 @@
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X184">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA184">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC184">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17111,7 +17111,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17126,10 +17126,10 @@
         <v>48</v>
       </c>
       <c r="G187" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17138,61 +17138,61 @@
         <v>57</v>
       </c>
       <c r="K187">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N187">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O187">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2.25</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W187">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA187">
+        <v>-1</v>
+      </c>
+      <c r="AB187">
         <v>0.8</v>
       </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>0.825</v>
-      </c>
-      <c r="AA187">
-        <v>-1</v>
-      </c>
-      <c r="AB187">
-        <v>-0.5</v>
-      </c>
       <c r="AC187">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17200,7 +17200,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17215,10 +17215,10 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17227,43 +17227,43 @@
         <v>57</v>
       </c>
       <c r="K188">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N188">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W188">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17272,16 +17272,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17393,7 +17393,7 @@
         <v>50</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17927,7 +17927,7 @@
         <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18016,7 +18016,7 @@
         <v>53</v>
       </c>
       <c r="G197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18105,7 +18105,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18446,7 +18446,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6991279</v>
+        <v>6991313</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18458,58 +18458,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H202">
         <v>2</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
         <v>57</v>
       </c>
       <c r="K202">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L202">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M202">
         <v>2.875</v>
       </c>
       <c r="N202">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O202">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P202">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q202">
         <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S202">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W202">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18518,16 +18518,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC202">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18535,7 +18535,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6991313</v>
+        <v>6991279</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18547,58 +18547,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>57</v>
       </c>
       <c r="K203">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
         <v>2.875</v>
       </c>
       <c r="N203">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O203">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q203">
         <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S203">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18607,16 +18607,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18725,7 +18725,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
         <v>35</v>
@@ -18814,7 +18814,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
         <v>44</v>
@@ -18903,7 +18903,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>
@@ -19247,7 +19247,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19259,76 +19259,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K211">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L211">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M211">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N211">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P211">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q211">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S211">
+        <v>1.95</v>
+      </c>
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
         <v>1.8</v>
       </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>2.025</v>
-      </c>
       <c r="V211">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC211">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19336,7 +19336,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19348,76 +19348,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>55</v>
+      </c>
+      <c r="K212">
+        <v>3.3</v>
+      </c>
+      <c r="L212">
+        <v>3.1</v>
+      </c>
+      <c r="M212">
+        <v>2.05</v>
+      </c>
+      <c r="N212">
+        <v>5.5</v>
+      </c>
+      <c r="O212">
+        <v>3.5</v>
+      </c>
+      <c r="P212">
+        <v>1.571</v>
+      </c>
+      <c r="Q212">
+        <v>0.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
+        <v>1.775</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>2.5</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
         <v>1</v>
       </c>
-      <c r="I212">
-        <v>2</v>
-      </c>
-      <c r="J212" t="s">
-        <v>56</v>
-      </c>
-      <c r="K212">
-        <v>2.6</v>
-      </c>
-      <c r="L212">
-        <v>2.875</v>
-      </c>
-      <c r="M212">
-        <v>2.625</v>
-      </c>
-      <c r="N212">
-        <v>2.55</v>
-      </c>
-      <c r="O212">
-        <v>2.875</v>
-      </c>
-      <c r="P212">
-        <v>2.7</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.85</v>
-      </c>
-      <c r="S212">
-        <v>1.95</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.8</v>
-      </c>
-      <c r="V212">
-        <v>2</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>-1</v>
-      </c>
-      <c r="Y212">
-        <v>1.7</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
       <c r="AA212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19440,7 +19440,7 @@
         <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19514,7 +19514,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6991416</v>
+        <v>6991320</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19526,58 +19526,58 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
         <v>57</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L214">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
+        <v>5</v>
+      </c>
+      <c r="N214">
+        <v>1.533</v>
+      </c>
+      <c r="O214">
         <v>3.6</v>
       </c>
-      <c r="N214">
-        <v>1.95</v>
-      </c>
-      <c r="O214">
-        <v>3</v>
-      </c>
       <c r="P214">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
+        <v>2</v>
+      </c>
+      <c r="V214">
         <v>1.8</v>
       </c>
-      <c r="V214">
-        <v>2</v>
-      </c>
       <c r="W214">
-        <v>0.95</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19586,13 +19586,13 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19603,7 +19603,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6991320</v>
+        <v>6991416</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19615,58 +19615,58 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>57</v>
       </c>
       <c r="K215">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M215">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N215">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>0.5329999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19675,13 +19675,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19704,7 +19704,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19781,7 +19781,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6991325</v>
+        <v>6991324</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19793,76 +19793,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G217" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L217">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M217">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="N217">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P217">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19870,7 +19870,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6991324</v>
+        <v>6991325</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19882,76 +19882,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F218" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>55</v>
+      </c>
+      <c r="K218">
+        <v>2.1</v>
+      </c>
+      <c r="L218">
+        <v>3.3</v>
+      </c>
+      <c r="M218">
         <v>3</v>
       </c>
-      <c r="J218" t="s">
-        <v>56</v>
-      </c>
-      <c r="K218">
-        <v>9</v>
-      </c>
-      <c r="L218">
-        <v>5</v>
-      </c>
-      <c r="M218">
-        <v>1.25</v>
-      </c>
       <c r="N218">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O218">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q218">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S218">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y218">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19971,7 +19971,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G219" t="s">
         <v>45</v>
@@ -20060,10 +20060,10 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20152,7 +20152,7 @@
         <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20315,7 +20315,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6991322</v>
+        <v>6991418</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20327,76 +20327,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K223">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N223">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P223">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z223">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC223">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20404,7 +20404,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6991418</v>
+        <v>6991322</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20416,76 +20416,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H224">
         <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K224">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L224">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M224">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N224">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O224">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P224">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S224">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA224">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20594,7 +20594,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G226" t="s">
         <v>45</v>
@@ -20683,7 +20683,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
         <v>37</v>
@@ -20760,7 +20760,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20772,55 +20772,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>56</v>
       </c>
       <c r="K228">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L228">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M228">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N228">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O228">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P228">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20829,19 +20829,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20849,7 +20849,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20861,55 +20861,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
         <v>1</v>
-      </c>
-      <c r="I229">
-        <v>2</v>
       </c>
       <c r="J229" t="s">
         <v>56</v>
       </c>
       <c r="K229">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M229">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N229">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P229">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20918,19 +20918,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21220,7 +21220,7 @@
         <v>52</v>
       </c>
       <c r="G233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21306,7 +21306,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G234" t="s">
         <v>40</v>
@@ -21398,7 +21398,7 @@
         <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21487,7 +21487,7 @@
         <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21650,7 +21650,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6991339</v>
+        <v>7291339</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21662,76 +21662,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K238">
-        <v>1.952</v>
+        <v>1.65</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
+        <v>4.75</v>
+      </c>
+      <c r="N238">
+        <v>1.6</v>
+      </c>
+      <c r="O238">
         <v>3.4</v>
       </c>
-      <c r="N238">
-        <v>2</v>
-      </c>
-      <c r="O238">
-        <v>3.2</v>
-      </c>
       <c r="P238">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X238">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21739,7 +21739,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7291339</v>
+        <v>6991339</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21751,76 +21751,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F239" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.65</v>
+        <v>1.952</v>
       </c>
       <c r="L239">
+        <v>3.2</v>
+      </c>
+      <c r="M239">
+        <v>3.4</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239">
+        <v>3.2</v>
+      </c>
+      <c r="P239">
         <v>3.3</v>
       </c>
-      <c r="M239">
-        <v>4.75</v>
-      </c>
-      <c r="N239">
-        <v>1.6</v>
-      </c>
-      <c r="O239">
-        <v>3.4</v>
-      </c>
-      <c r="P239">
-        <v>5</v>
-      </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>2</v>
+      </c>
+      <c r="U239">
+        <v>1.725</v>
+      </c>
+      <c r="V239">
         <v>1.975</v>
       </c>
-      <c r="T239">
-        <v>2.25</v>
-      </c>
-      <c r="U239">
-        <v>1.975</v>
-      </c>
-      <c r="V239">
-        <v>1.825</v>
-      </c>
       <c r="W239">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC239">
-        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21840,7 +21840,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G240" t="s">
         <v>31</v>
@@ -22110,7 +22110,7 @@
         <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22199,7 +22199,7 @@
         <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22288,7 +22288,7 @@
         <v>53</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -22374,7 +22374,7 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G246" t="s">
         <v>31</v>
@@ -22463,7 +22463,7 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G247" t="s">
         <v>29</v>
@@ -22718,7 +22718,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6991423</v>
+        <v>6991424</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22730,73 +22730,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F250" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G250" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K250">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L250">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M250">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N250">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O250">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P250">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T250">
         <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V250">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W250">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA250">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC250">
         <v>-1</v>
@@ -22807,7 +22807,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6991424</v>
+        <v>6991423</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22819,73 +22819,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F251" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K251">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L251">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M251">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N251">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O251">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P251">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S251">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T251">
         <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V251">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W251">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z251">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB251">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC251">
         <v>-1</v>
@@ -22997,10 +22997,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F253" t="s">
+        <v>48</v>
+      </c>
+      <c r="G253" t="s">
         <v>49</v>
-      </c>
-      <c r="G253" t="s">
-        <v>48</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23341,7 +23341,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6991356</v>
+        <v>6991425</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23353,76 +23353,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G257" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J257" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K257">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L257">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M257">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N257">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O257">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P257">
+        <v>2.6</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>1.9</v>
+      </c>
+      <c r="S257">
+        <v>1.9</v>
+      </c>
+      <c r="T257">
         <v>2.25</v>
       </c>
-      <c r="Q257">
-        <v>0.25</v>
-      </c>
-      <c r="R257">
-        <v>1.825</v>
-      </c>
-      <c r="S257">
-        <v>1.975</v>
-      </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
       <c r="U257">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W257">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z257">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC257">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23430,7 +23430,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6991425</v>
+        <v>6991356</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23442,76 +23442,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F258" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G258" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K258">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L258">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M258">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N258">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O258">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P258">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q258">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R258">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S258">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T258">
+        <v>2</v>
+      </c>
+      <c r="U258">
+        <v>1.85</v>
+      </c>
+      <c r="V258">
+        <v>1.95</v>
+      </c>
+      <c r="W258">
         <v>2.25</v>
       </c>
-      <c r="U258">
-        <v>2.025</v>
-      </c>
-      <c r="V258">
-        <v>1.775</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23531,7 +23531,7 @@
         <v>45231.5</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
         <v>52</v>
@@ -23608,7 +23608,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23620,19 +23620,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G260" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K260">
         <v>2.75</v>
@@ -23644,52 +23644,52 @@
         <v>2.4</v>
       </c>
       <c r="N260">
+        <v>2.15</v>
+      </c>
+      <c r="O260">
         <v>3.2</v>
       </c>
-      <c r="O260">
-        <v>3.1</v>
-      </c>
       <c r="P260">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q260">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S260">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T260">
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V260">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X260">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC260">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23697,7 +23697,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23709,19 +23709,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H261">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K261">
         <v>2.75</v>
@@ -23733,52 +23733,52 @@
         <v>2.4</v>
       </c>
       <c r="N261">
+        <v>3.2</v>
+      </c>
+      <c r="O261">
+        <v>3.1</v>
+      </c>
+      <c r="P261">
         <v>2.15</v>
       </c>
-      <c r="O261">
-        <v>3.2</v>
-      </c>
-      <c r="P261">
-        <v>3.25</v>
-      </c>
       <c r="Q261">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R261">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S261">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T261">
         <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V261">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W261">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB261">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23798,7 +23798,7 @@
         <v>45236.5625</v>
       </c>
       <c r="F262" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G262" t="s">
         <v>47</v>
@@ -24068,7 +24068,7 @@
         <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>37</v>
       </c>
       <c r="G268" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F272" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G272" t="s">
         <v>40</v>
@@ -25133,7 +25133,7 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F277" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
         <v>47</v>
@@ -25222,7 +25222,7 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F278" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G278" t="s">
         <v>51</v>
@@ -25314,7 +25314,7 @@
         <v>50</v>
       </c>
       <c r="G279" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -25581,7 +25581,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25759,7 +25759,7 @@
         <v>47</v>
       </c>
       <c r="G284" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -25922,7 +25922,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6991373</v>
+        <v>6991374</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25934,58 +25934,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F286" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>57</v>
       </c>
       <c r="K286">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L286">
+        <v>3</v>
+      </c>
+      <c r="M286">
         <v>3.2</v>
       </c>
-      <c r="M286">
-        <v>2.625</v>
-      </c>
       <c r="N286">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O286">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P286">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R286">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S286">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T286">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U286">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V286">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W286">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25994,16 +25994,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26011,7 +26011,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6991374</v>
+        <v>6991373</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26023,58 +26023,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F287" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G287" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H287">
+        <v>3</v>
+      </c>
+      <c r="I287">
         <v>1</v>
-      </c>
-      <c r="I287">
-        <v>0</v>
       </c>
       <c r="J287" t="s">
         <v>57</v>
       </c>
       <c r="K287">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L287">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M287">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N287">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O287">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P287">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q287">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R287">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S287">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T287">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U287">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V287">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W287">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26083,16 +26083,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA287">
         <v>-1</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC287">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26290,10 +26290,10 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G290" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26471,7 +26471,7 @@
         <v>47</v>
       </c>
       <c r="G292" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6991382</v>
+        <v>6991381</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,56 +26646,56 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F294" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G294" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J294" t="s">
         <v>56</v>
       </c>
       <c r="K294">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L294">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M294">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N294">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O294">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P294">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q294">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R294">
+        <v>1.825</v>
+      </c>
+      <c r="S294">
+        <v>1.975</v>
+      </c>
+      <c r="T294">
+        <v>2</v>
+      </c>
+      <c r="U294">
+        <v>2</v>
+      </c>
+      <c r="V294">
         <v>1.8</v>
       </c>
-      <c r="S294">
-        <v>2</v>
-      </c>
-      <c r="T294">
-        <v>2.5</v>
-      </c>
-      <c r="U294">
-        <v>1.925</v>
-      </c>
-      <c r="V294">
-        <v>1.875</v>
-      </c>
       <c r="W294">
         <v>-1</v>
       </c>
@@ -26703,19 +26703,19 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>3</v>
+        <v>0.909</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB294">
         <v>1</v>
       </c>
-      <c r="AB294">
-        <v>-1</v>
-      </c>
       <c r="AC294">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26723,7 +26723,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6991381</v>
+        <v>6991382</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26735,55 +26735,55 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G295" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
         <v>56</v>
       </c>
       <c r="K295">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L295">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N295">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="O295">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P295">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q295">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R295">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S295">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26792,19 +26792,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>0.909</v>
+        <v>3</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB295">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27002,7 +27002,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F298" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G298" t="s">
         <v>29</v>
@@ -27272,7 +27272,7 @@
         <v>35</v>
       </c>
       <c r="G301" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27536,7 +27536,7 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F304" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G304" t="s">
         <v>50</v>
@@ -27628,7 +27628,7 @@
         <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H305">
         <v>3</v>
@@ -27791,7 +27791,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6991391</v>
+        <v>6991392</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27803,46 +27803,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F307" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G307" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J307" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K307">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L307">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M307">
+        <v>2</v>
+      </c>
+      <c r="N307">
+        <v>2.9</v>
+      </c>
+      <c r="O307">
         <v>3.1</v>
       </c>
-      <c r="N307">
-        <v>1.75</v>
-      </c>
-      <c r="O307">
-        <v>3.2</v>
-      </c>
       <c r="P307">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q307">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T307">
         <v>2.25</v>
@@ -27854,19 +27854,19 @@
         <v>1.775</v>
       </c>
       <c r="W307">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X307">
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z307">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB307">
         <v>1.025</v>
@@ -27880,7 +27880,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6991392</v>
+        <v>6991391</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27892,46 +27892,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F308" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G308" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K308">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M308">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N308">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O308">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P308">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q308">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R308">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S308">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T308">
         <v>2.25</v>
@@ -27943,19 +27943,19 @@
         <v>1.775</v>
       </c>
       <c r="W308">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X308">
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA308">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB308">
         <v>1.025</v>
@@ -28248,7 +28248,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F312" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G312" t="s">
         <v>53</v>
@@ -28426,10 +28426,10 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G314" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -28963,7 +28963,7 @@
         <v>44</v>
       </c>
       <c r="G320" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -29141,7 +29141,7 @@
         <v>51</v>
       </c>
       <c r="G322" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H322">
         <v>2</v>
@@ -29227,10 +29227,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F323" t="s">
+        <v>32</v>
+      </c>
+      <c r="G323" t="s">
         <v>33</v>
-      </c>
-      <c r="G323" t="s">
-        <v>32</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29660,7 +29660,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6991407</v>
+        <v>6991443</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29672,76 +29672,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F328" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G328" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I328">
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K328">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L328">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M328">
+        <v>3</v>
+      </c>
+      <c r="N328">
+        <v>2.05</v>
+      </c>
+      <c r="O328">
+        <v>3.1</v>
+      </c>
+      <c r="P328">
+        <v>3.3</v>
+      </c>
+      <c r="Q328">
+        <v>-0.25</v>
+      </c>
+      <c r="R328">
+        <v>1.85</v>
+      </c>
+      <c r="S328">
+        <v>1.95</v>
+      </c>
+      <c r="T328">
         <v>2.5</v>
       </c>
-      <c r="N328">
-        <v>2.5</v>
-      </c>
-      <c r="O328">
-        <v>3.2</v>
-      </c>
-      <c r="P328">
-        <v>2.5</v>
-      </c>
-      <c r="Q328">
-        <v>0</v>
-      </c>
-      <c r="R328">
-        <v>1.9</v>
-      </c>
-      <c r="S328">
-        <v>1.9</v>
-      </c>
-      <c r="T328">
-        <v>2</v>
-      </c>
       <c r="U328">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V328">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W328">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X328">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA328">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB328">
         <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29749,7 +29749,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6991443</v>
+        <v>6991407</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29761,76 +29761,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F329" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G329" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329">
         <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K329">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L329">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M329">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N329">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O329">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P329">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q329">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R329">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S329">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T329">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U329">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V329">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W329">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X329">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB329">
         <v>-1</v>
       </c>
       <c r="AC329">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30028,7 +30028,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G332" t="s">
         <v>44</v>
@@ -30117,7 +30117,7 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F333" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G333" t="s">
         <v>31</v>
@@ -30387,7 +30387,7 @@
         <v>52</v>
       </c>
       <c r="G336" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H336">
         <v>2</v>
@@ -30654,7 +30654,7 @@
         <v>30</v>
       </c>
       <c r="G339" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -30743,7 +30743,7 @@
         <v>35</v>
       </c>
       <c r="G340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -30832,7 +30832,7 @@
         <v>53</v>
       </c>
       <c r="G341" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31007,7 +31007,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F343" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G343" t="s">
         <v>50</v>
@@ -31262,7 +31262,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31274,61 +31274,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F346" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G346" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K346">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L346">
+        <v>4.2</v>
+      </c>
+      <c r="M346">
+        <v>5</v>
+      </c>
+      <c r="N346">
+        <v>1.45</v>
+      </c>
+      <c r="O346">
+        <v>4.2</v>
+      </c>
+      <c r="P346">
+        <v>5.25</v>
+      </c>
+      <c r="Q346">
+        <v>-1.25</v>
+      </c>
+      <c r="R346">
+        <v>1.975</v>
+      </c>
+      <c r="S346">
+        <v>1.825</v>
+      </c>
+      <c r="T346">
         <v>2.75</v>
       </c>
-      <c r="M346">
-        <v>3.1</v>
-      </c>
-      <c r="N346">
-        <v>2</v>
-      </c>
-      <c r="O346">
-        <v>2.875</v>
-      </c>
-      <c r="P346">
-        <v>3.75</v>
-      </c>
-      <c r="Q346">
-        <v>-0.25</v>
-      </c>
-      <c r="R346">
-        <v>1.725</v>
-      </c>
-      <c r="S346">
-        <v>1.975</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
-      </c>
       <c r="U346">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V346">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X346">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
         <v>-1</v>
@@ -31337,13 +31337,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC346">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31351,7 +31351,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31363,61 +31363,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F347" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G347" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K347">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L347">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M347">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N347">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O347">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P347">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q347">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
+        <v>1.725</v>
+      </c>
+      <c r="S347">
         <v>1.975</v>
       </c>
-      <c r="S347">
+      <c r="T347">
+        <v>2</v>
+      </c>
+      <c r="U347">
         <v>1.825</v>
       </c>
-      <c r="T347">
-        <v>2.75</v>
-      </c>
-      <c r="U347">
-        <v>1.95</v>
-      </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W347">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y347">
         <v>-1</v>
@@ -31426,13 +31426,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB347">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31452,7 +31452,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F348" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G348" t="s">
         <v>53</v>
@@ -31707,7 +31707,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31719,40 +31719,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F351" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G351" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J351" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K351">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L351">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M351">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N351">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O351">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P351">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q351">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R351">
         <v>1.95</v>
@@ -31761,34 +31761,34 @@
         <v>1.85</v>
       </c>
       <c r="T351">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U351">
+        <v>1.85</v>
+      </c>
+      <c r="V351">
         <v>1.95</v>
       </c>
-      <c r="V351">
-        <v>1.85</v>
-      </c>
       <c r="W351">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z351">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC351">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31796,7 +31796,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31808,40 +31808,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F352" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G352" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K352">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L352">
+        <v>3.25</v>
+      </c>
+      <c r="M352">
+        <v>4</v>
+      </c>
+      <c r="N352">
+        <v>1.909</v>
+      </c>
+      <c r="O352">
         <v>3.1</v>
       </c>
-      <c r="M352">
-        <v>2.2</v>
-      </c>
-      <c r="N352">
-        <v>2.7</v>
-      </c>
-      <c r="O352">
-        <v>3</v>
-      </c>
       <c r="P352">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q352">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R352">
         <v>1.95</v>
@@ -31850,34 +31850,34 @@
         <v>1.85</v>
       </c>
       <c r="T352">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
+        <v>1.95</v>
+      </c>
+      <c r="V352">
         <v>1.85</v>
       </c>
-      <c r="V352">
-        <v>1.95</v>
-      </c>
       <c r="W352">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA352">
+        <v>-1</v>
+      </c>
+      <c r="AB352">
+        <v>-1</v>
+      </c>
+      <c r="AC352">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB352">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC352">
-        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32075,7 +32075,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F355" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G355" t="s">
         <v>39</v>
@@ -32167,7 +32167,7 @@
         <v>44</v>
       </c>
       <c r="G356" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -32256,7 +32256,7 @@
         <v>30</v>
       </c>
       <c r="G357" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -32508,7 +32508,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32520,40 +32520,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F360" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J360" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K360">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L360">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M360">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N360">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O360">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P360">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q360">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R360">
         <v>1.975</v>
@@ -32562,34 +32562,34 @@
         <v>1.825</v>
       </c>
       <c r="T360">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U360">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V360">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W360">
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y360">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA360">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB360">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32597,7 +32597,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32609,40 +32609,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F361" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G361" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J361" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K361">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L361">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M361">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N361">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O361">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P361">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q361">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R361">
         <v>1.975</v>
@@ -32651,34 +32651,34 @@
         <v>1.825</v>
       </c>
       <c r="T361">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U361">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V361">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W361">
         <v>-1</v>
       </c>
       <c r="X361">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z361">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA361">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC361">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32787,7 +32787,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F363" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G363" t="s">
         <v>45</v>
@@ -33054,7 +33054,7 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F366" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G366" t="s">
         <v>37</v>
@@ -33146,7 +33146,7 @@
         <v>30</v>
       </c>
       <c r="G367" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33302,6 +33302,317 @@
       </c>
       <c r="AC368">
         <v>0.7250000000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>7721873</v>
+      </c>
+      <c r="C369" t="s">
+        <v>28</v>
+      </c>
+      <c r="D369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45339.42708333334</v>
+      </c>
+      <c r="F369" t="s">
+        <v>45</v>
+      </c>
+      <c r="G369" t="s">
+        <v>40</v>
+      </c>
+      <c r="H369">
+        <v>2</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369" t="s">
+        <v>57</v>
+      </c>
+      <c r="K369">
+        <v>1.8</v>
+      </c>
+      <c r="L369">
+        <v>3.2</v>
+      </c>
+      <c r="M369">
+        <v>4</v>
+      </c>
+      <c r="N369">
+        <v>1.727</v>
+      </c>
+      <c r="O369">
+        <v>3.25</v>
+      </c>
+      <c r="P369">
+        <v>4.75</v>
+      </c>
+      <c r="Q369">
+        <v>-0.75</v>
+      </c>
+      <c r="R369">
+        <v>2</v>
+      </c>
+      <c r="S369">
+        <v>1.8</v>
+      </c>
+      <c r="T369">
+        <v>2</v>
+      </c>
+      <c r="U369">
+        <v>1.8</v>
+      </c>
+      <c r="V369">
+        <v>2</v>
+      </c>
+      <c r="W369">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X369">
+        <v>-1</v>
+      </c>
+      <c r="Y369">
+        <v>-1</v>
+      </c>
+      <c r="Z369">
+        <v>0.5</v>
+      </c>
+      <c r="AA369">
+        <v>-0.5</v>
+      </c>
+      <c r="AB369">
+        <v>0.8</v>
+      </c>
+      <c r="AC369">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>7712421</v>
+      </c>
+      <c r="C370" t="s">
+        <v>28</v>
+      </c>
+      <c r="D370" t="s">
+        <v>28</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45341.42013888889</v>
+      </c>
+      <c r="F370" t="s">
+        <v>32</v>
+      </c>
+      <c r="G370" t="s">
+        <v>31</v>
+      </c>
+      <c r="K370">
+        <v>2</v>
+      </c>
+      <c r="L370">
+        <v>3.1</v>
+      </c>
+      <c r="M370">
+        <v>3.4</v>
+      </c>
+      <c r="N370">
+        <v>2.8</v>
+      </c>
+      <c r="O370">
+        <v>3</v>
+      </c>
+      <c r="P370">
+        <v>2.45</v>
+      </c>
+      <c r="Q370">
+        <v>0</v>
+      </c>
+      <c r="R370">
+        <v>2</v>
+      </c>
+      <c r="S370">
+        <v>1.8</v>
+      </c>
+      <c r="T370">
+        <v>2</v>
+      </c>
+      <c r="U370">
+        <v>2.025</v>
+      </c>
+      <c r="V370">
+        <v>1.775</v>
+      </c>
+      <c r="W370">
+        <v>0</v>
+      </c>
+      <c r="X370">
+        <v>0</v>
+      </c>
+      <c r="Y370">
+        <v>0</v>
+      </c>
+      <c r="Z370">
+        <v>0</v>
+      </c>
+      <c r="AA370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>7712422</v>
+      </c>
+      <c r="C371" t="s">
+        <v>28</v>
+      </c>
+      <c r="D371" t="s">
+        <v>28</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45341.42013888889</v>
+      </c>
+      <c r="F371" t="s">
+        <v>35</v>
+      </c>
+      <c r="G371" t="s">
+        <v>29</v>
+      </c>
+      <c r="K371">
+        <v>1.909</v>
+      </c>
+      <c r="L371">
+        <v>3.2</v>
+      </c>
+      <c r="M371">
+        <v>3.6</v>
+      </c>
+      <c r="N371">
+        <v>1.95</v>
+      </c>
+      <c r="O371">
+        <v>3.2</v>
+      </c>
+      <c r="P371">
+        <v>3.4</v>
+      </c>
+      <c r="Q371">
+        <v>-0.25</v>
+      </c>
+      <c r="R371">
+        <v>1.725</v>
+      </c>
+      <c r="S371">
+        <v>2.075</v>
+      </c>
+      <c r="T371">
+        <v>2</v>
+      </c>
+      <c r="U371">
+        <v>1.75</v>
+      </c>
+      <c r="V371">
+        <v>2.05</v>
+      </c>
+      <c r="W371">
+        <v>0</v>
+      </c>
+      <c r="X371">
+        <v>0</v>
+      </c>
+      <c r="Y371">
+        <v>0</v>
+      </c>
+      <c r="Z371">
+        <v>0</v>
+      </c>
+      <c r="AA371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>7712423</v>
+      </c>
+      <c r="C372" t="s">
+        <v>28</v>
+      </c>
+      <c r="D372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45341.51041666666</v>
+      </c>
+      <c r="F372" t="s">
+        <v>50</v>
+      </c>
+      <c r="G372" t="s">
+        <v>47</v>
+      </c>
+      <c r="K372">
+        <v>2.1</v>
+      </c>
+      <c r="L372">
+        <v>3</v>
+      </c>
+      <c r="M372">
+        <v>3.25</v>
+      </c>
+      <c r="N372">
+        <v>1.8</v>
+      </c>
+      <c r="O372">
+        <v>3.2</v>
+      </c>
+      <c r="P372">
+        <v>4.333</v>
+      </c>
+      <c r="Q372">
+        <v>-0.5</v>
+      </c>
+      <c r="R372">
+        <v>1.825</v>
+      </c>
+      <c r="S372">
+        <v>1.975</v>
+      </c>
+      <c r="T372">
+        <v>2.5</v>
+      </c>
+      <c r="U372">
+        <v>1.975</v>
+      </c>
+      <c r="V372">
+        <v>1.825</v>
+      </c>
+      <c r="W372">
+        <v>0</v>
+      </c>
+      <c r="X372">
+        <v>0</v>
+      </c>
+      <c r="Y372">
+        <v>0</v>
+      </c>
+      <c r="Z372">
+        <v>0</v>
+      </c>
+      <c r="AA372">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -160,10 +160,10 @@
     <t>Al Najma</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
     <t>Al Adalh</t>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC372"/>
+  <dimension ref="A1:AC375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10792,7 +10792,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6125190</v>
+        <v>6125325</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10804,76 +10804,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>1.1</v>
       </c>
       <c r="L116">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M116">
+        <v>13</v>
+      </c>
+      <c r="N116">
+        <v>1.222</v>
+      </c>
+      <c r="O116">
         <v>5.5</v>
       </c>
-      <c r="N116">
-        <v>1.533</v>
-      </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.925</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>1.75</v>
+      </c>
+      <c r="V116">
         <v>1.95</v>
       </c>
-      <c r="S116">
-        <v>1.85</v>
-      </c>
-      <c r="T116">
-        <v>2.25</v>
-      </c>
-      <c r="U116">
-        <v>1.8</v>
-      </c>
-      <c r="V116">
-        <v>2</v>
-      </c>
       <c r="W116">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
+        <v>0.925</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>0.95</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
-      <c r="AB116">
-        <v>0.8</v>
-      </c>
-      <c r="AC116">
-        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10881,7 +10881,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6125325</v>
+        <v>6125190</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10893,76 +10893,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K117">
-        <v>1.1</v>
+        <v>1.444</v>
       </c>
       <c r="L117">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="N117">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O117">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X117">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -12305,7 +12305,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6125227</v>
+        <v>6125194</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12317,76 +12317,76 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K133">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P133">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
+        <v>1.775</v>
+      </c>
+      <c r="V133">
         <v>2.025</v>
       </c>
-      <c r="V133">
-        <v>1.775</v>
-      </c>
       <c r="W133">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>1.025</v>
-      </c>
-      <c r="AC133">
-        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6125194</v>
+        <v>6125227</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12406,76 +12406,76 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K134">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
+        <v>1.85</v>
+      </c>
+      <c r="N134">
+        <v>4.333</v>
+      </c>
+      <c r="O134">
         <v>3</v>
       </c>
-      <c r="M134">
-        <v>2.55</v>
-      </c>
-      <c r="N134">
-        <v>3.1</v>
-      </c>
-      <c r="O134">
-        <v>2.875</v>
-      </c>
       <c r="P134">
+        <v>1.833</v>
+      </c>
+      <c r="Q134">
+        <v>0.5</v>
+      </c>
+      <c r="R134">
+        <v>1.925</v>
+      </c>
+      <c r="S134">
+        <v>1.875</v>
+      </c>
+      <c r="T134">
         <v>2.25</v>
       </c>
-      <c r="Q134">
-        <v>0.25</v>
-      </c>
-      <c r="R134">
-        <v>1.825</v>
-      </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
-        <v>2</v>
-      </c>
       <c r="U134">
+        <v>2.025</v>
+      </c>
+      <c r="V134">
         <v>1.775</v>
       </c>
-      <c r="V134">
-        <v>2.025</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -14886,7 +14886,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6125203</v>
+        <v>6125231</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14898,58 +14898,58 @@
         <v>45063.55902777778</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>57</v>
       </c>
       <c r="K162">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M162">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N162">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P162">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q162">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>2.025</v>
+      </c>
+      <c r="S162">
+        <v>1.775</v>
+      </c>
+      <c r="T162">
+        <v>2.25</v>
+      </c>
+      <c r="U162">
+        <v>1.975</v>
+      </c>
+      <c r="V162">
         <v>1.825</v>
       </c>
-      <c r="S162">
-        <v>1.975</v>
-      </c>
-      <c r="T162">
-        <v>2.75</v>
-      </c>
-      <c r="U162">
-        <v>1.95</v>
-      </c>
-      <c r="V162">
-        <v>1.85</v>
-      </c>
       <c r="W162">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14958,13 +14958,13 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA162">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14975,7 +14975,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6125231</v>
+        <v>6125203</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14987,58 +14987,58 @@
         <v>45063.55902777778</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>3</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
         <v>57</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M163">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N163">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W163">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15047,13 +15047,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15153,7 +15153,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6125149</v>
+        <v>6125204</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15165,76 +15165,76 @@
         <v>45069.625</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K165">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M165">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N165">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P165">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
+        <v>-0.25</v>
+      </c>
+      <c r="R165">
+        <v>1.975</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
+        <v>1.775</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>1.9</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
         <v>-0.5</v>
       </c>
-      <c r="R165">
-        <v>1.95</v>
-      </c>
-      <c r="S165">
-        <v>1.85</v>
-      </c>
-      <c r="T165">
-        <v>2.5</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.9</v>
-      </c>
-      <c r="W165">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>0.95</v>
-      </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6125204</v>
+        <v>6125149</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,76 +15254,76 @@
         <v>45069.625</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K166">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L166">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O166">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X166">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6125206</v>
+        <v>6125205</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,76 +15343,76 @@
         <v>45069.625</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K167">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L167">
         <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N167">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P167">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15420,7 +15420,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6125205</v>
+        <v>6125206</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15432,76 +15432,76 @@
         <v>45069.625</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K168">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L168">
         <v>3.1</v>
       </c>
       <c r="M168">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N168">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O168">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA168">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6125550</v>
+        <v>6125464</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,58 +15877,58 @@
         <v>45075.625</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>57</v>
       </c>
       <c r="K173">
+        <v>1.5</v>
+      </c>
+      <c r="L173">
+        <v>4</v>
+      </c>
+      <c r="M173">
+        <v>5.5</v>
+      </c>
+      <c r="N173">
+        <v>1.363</v>
+      </c>
+      <c r="O173">
+        <v>4.5</v>
+      </c>
+      <c r="P173">
+        <v>6.5</v>
+      </c>
+      <c r="Q173">
+        <v>-1</v>
+      </c>
+      <c r="R173">
+        <v>1.825</v>
+      </c>
+      <c r="S173">
+        <v>1.975</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
         <v>1.95</v>
       </c>
-      <c r="L173">
-        <v>3.1</v>
-      </c>
-      <c r="M173">
-        <v>3.8</v>
-      </c>
-      <c r="N173">
-        <v>1.4</v>
-      </c>
-      <c r="O173">
-        <v>4</v>
-      </c>
-      <c r="P173">
-        <v>8.5</v>
-      </c>
-      <c r="Q173">
-        <v>-0.5</v>
-      </c>
-      <c r="R173">
+      <c r="V173">
         <v>1.85</v>
       </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
-      <c r="V173">
-        <v>1.9</v>
-      </c>
       <c r="W173">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15937,16 +15937,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
+        <v>0.825</v>
+      </c>
+      <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6125329</v>
+        <v>6125550</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,46 +15966,46 @@
         <v>45075.625</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K174">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N174">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P174">
-        <v>2.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -16017,25 +16017,25 @@
         <v>1.9</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X174">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC174">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6125328</v>
+        <v>6125150</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,58 +16055,58 @@
         <v>45075.625</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>57</v>
       </c>
       <c r="K175">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N175">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P175">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>0.6659999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16115,13 +16115,13 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6125464</v>
+        <v>6125329</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,76 +16144,76 @@
         <v>45075.625</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K176">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M176">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N176">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16221,7 +16221,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6125150</v>
+        <v>6125328</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16233,58 +16233,58 @@
         <v>45075.625</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>57</v>
       </c>
       <c r="K177">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N177">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>1.4</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16293,13 +16293,13 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16310,7 +16310,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6125551</v>
+        <v>6125151</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16322,40 +16322,40 @@
         <v>45075.625</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K178">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M178">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N178">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="O178">
         <v>3.2</v>
       </c>
       <c r="P178">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
         <v>2.025</v>
@@ -16364,34 +16364,34 @@
         <v>1.775</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X178">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6125151</v>
+        <v>6125551</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,40 +16411,40 @@
         <v>45075.625</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K179">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="L179">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N179">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O179">
         <v>3.2</v>
       </c>
       <c r="P179">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
         <v>2.025</v>
@@ -16453,34 +16453,34 @@
         <v>1.775</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -17111,7 +17111,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17126,10 +17126,10 @@
         <v>48</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17138,43 +17138,43 @@
         <v>57</v>
       </c>
       <c r="K187">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N187">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P187">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
         <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17183,16 +17183,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17200,7 +17200,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17215,10 +17215,10 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17227,61 +17227,61 @@
         <v>57</v>
       </c>
       <c r="K188">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N188">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O188">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W188">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0.8</v>
       </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0.825</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
-      <c r="AB188">
-        <v>-0.5</v>
-      </c>
       <c r="AC188">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17927,7 +17927,7 @@
         <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18016,7 +18016,7 @@
         <v>53</v>
       </c>
       <c r="G197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18179,7 +18179,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6991277</v>
+        <v>6991276</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18191,13 +18191,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F199" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18206,43 +18206,43 @@
         <v>57</v>
       </c>
       <c r="K199">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L199">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N199">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O199">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P199">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
         <v>1.8</v>
       </c>
-      <c r="V199">
-        <v>2</v>
-      </c>
       <c r="W199">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18251,16 +18251,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
         <v>0.8</v>
-      </c>
-      <c r="AC199">
-        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18268,7 +18268,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6991276</v>
+        <v>6991277</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18280,13 +18280,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G200" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -18295,43 +18295,43 @@
         <v>57</v>
       </c>
       <c r="K200">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M200">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N200">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O200">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P200">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q200">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
         <v>1.8</v>
       </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
-      <c r="U200">
-        <v>2</v>
-      </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W200">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18340,16 +18340,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA200">
         <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18461,7 +18461,7 @@
         <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -18903,7 +18903,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>
@@ -19247,7 +19247,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19259,76 +19259,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>55</v>
+      </c>
+      <c r="K211">
+        <v>3.3</v>
+      </c>
+      <c r="L211">
+        <v>3.1</v>
+      </c>
+      <c r="M211">
+        <v>2.05</v>
+      </c>
+      <c r="N211">
+        <v>5.5</v>
+      </c>
+      <c r="O211">
+        <v>3.5</v>
+      </c>
+      <c r="P211">
+        <v>1.571</v>
+      </c>
+      <c r="Q211">
+        <v>0.75</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>1.8</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
+        <v>1.775</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>2.5</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
         <v>1</v>
       </c>
-      <c r="I211">
-        <v>2</v>
-      </c>
-      <c r="J211" t="s">
-        <v>56</v>
-      </c>
-      <c r="K211">
-        <v>2.6</v>
-      </c>
-      <c r="L211">
-        <v>2.875</v>
-      </c>
-      <c r="M211">
-        <v>2.625</v>
-      </c>
-      <c r="N211">
-        <v>2.55</v>
-      </c>
-      <c r="O211">
-        <v>2.875</v>
-      </c>
-      <c r="P211">
-        <v>2.7</v>
-      </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
-        <v>1.85</v>
-      </c>
-      <c r="S211">
-        <v>1.95</v>
-      </c>
-      <c r="T211">
-        <v>2</v>
-      </c>
-      <c r="U211">
-        <v>1.8</v>
-      </c>
-      <c r="V211">
-        <v>2</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
-      <c r="X211">
-        <v>-1</v>
-      </c>
-      <c r="Y211">
-        <v>1.7</v>
-      </c>
-      <c r="Z211">
-        <v>-1</v>
-      </c>
       <c r="AA211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19336,7 +19336,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19348,76 +19348,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K212">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N212">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P212">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q212">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S212">
+        <v>1.95</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
         <v>1.8</v>
       </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>2.025</v>
-      </c>
       <c r="V212">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC212">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19440,7 +19440,7 @@
         <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19704,7 +19704,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19971,7 +19971,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G219" t="s">
         <v>45</v>
@@ -20063,7 +20063,7 @@
         <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20315,7 +20315,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6991418</v>
+        <v>6991322</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20327,76 +20327,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K223">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N223">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P223">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S223">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA223">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20404,7 +20404,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6991322</v>
+        <v>6991418</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20416,76 +20416,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G224" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H224">
         <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K224">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L224">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N224">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O224">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P224">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z224">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC224">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20594,7 +20594,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G226" t="s">
         <v>45</v>
@@ -20760,7 +20760,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20772,55 +20772,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
         <v>1</v>
-      </c>
-      <c r="I228">
-        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>56</v>
       </c>
       <c r="K228">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M228">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N228">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O228">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P228">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20829,19 +20829,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20849,7 +20849,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20861,55 +20861,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
         <v>56</v>
       </c>
       <c r="K229">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L229">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O229">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S229">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20918,19 +20918,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21220,7 +21220,7 @@
         <v>52</v>
       </c>
       <c r="G233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21650,7 +21650,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7291339</v>
+        <v>6991339</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21662,76 +21662,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F238" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>1.65</v>
+        <v>1.952</v>
       </c>
       <c r="L238">
+        <v>3.2</v>
+      </c>
+      <c r="M238">
+        <v>3.4</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238">
+        <v>3.2</v>
+      </c>
+      <c r="P238">
         <v>3.3</v>
       </c>
-      <c r="M238">
-        <v>4.75</v>
-      </c>
-      <c r="N238">
-        <v>1.6</v>
-      </c>
-      <c r="O238">
-        <v>3.4</v>
-      </c>
-      <c r="P238">
-        <v>5</v>
-      </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
+        <v>2</v>
+      </c>
+      <c r="T238">
+        <v>2</v>
+      </c>
+      <c r="U238">
+        <v>1.725</v>
+      </c>
+      <c r="V238">
         <v>1.975</v>
       </c>
-      <c r="T238">
-        <v>2.25</v>
-      </c>
-      <c r="U238">
-        <v>1.975</v>
-      </c>
-      <c r="V238">
-        <v>1.825</v>
-      </c>
       <c r="W238">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC238">
-        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21739,7 +21739,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6991339</v>
+        <v>7291339</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21751,76 +21751,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F239" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G239" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K239">
-        <v>1.952</v>
+        <v>1.65</v>
       </c>
       <c r="L239">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
+        <v>4.75</v>
+      </c>
+      <c r="N239">
+        <v>1.6</v>
+      </c>
+      <c r="O239">
         <v>3.4</v>
       </c>
-      <c r="N239">
-        <v>2</v>
-      </c>
-      <c r="O239">
-        <v>3.2</v>
-      </c>
       <c r="P239">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X239">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21840,7 +21840,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G240" t="s">
         <v>31</v>
@@ -22110,7 +22110,7 @@
         <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22374,7 +22374,7 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G246" t="s">
         <v>31</v>
@@ -22463,7 +22463,7 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G247" t="s">
         <v>29</v>
@@ -22997,10 +22997,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F253" t="s">
+        <v>49</v>
+      </c>
+      <c r="G253" t="s">
         <v>48</v>
-      </c>
-      <c r="G253" t="s">
-        <v>49</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23608,7 +23608,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23620,19 +23620,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F260" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G260" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K260">
         <v>2.75</v>
@@ -23644,52 +23644,52 @@
         <v>2.4</v>
       </c>
       <c r="N260">
+        <v>3.2</v>
+      </c>
+      <c r="O260">
+        <v>3.1</v>
+      </c>
+      <c r="P260">
         <v>2.15</v>
       </c>
-      <c r="O260">
-        <v>3.2</v>
-      </c>
-      <c r="P260">
-        <v>3.25</v>
-      </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R260">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T260">
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V260">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W260">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB260">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23697,7 +23697,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23709,19 +23709,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G261" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K261">
         <v>2.75</v>
@@ -23733,52 +23733,52 @@
         <v>2.4</v>
       </c>
       <c r="N261">
+        <v>2.15</v>
+      </c>
+      <c r="O261">
         <v>3.2</v>
       </c>
-      <c r="O261">
-        <v>3.1</v>
-      </c>
       <c r="P261">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q261">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S261">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T261">
         <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V261">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X261">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA261">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC261">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23798,7 +23798,7 @@
         <v>45236.5625</v>
       </c>
       <c r="F262" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G262" t="s">
         <v>47</v>
@@ -24688,7 +24688,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F272" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G272" t="s">
         <v>40</v>
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,76 +25133,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G277" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K277">
         <v>1.727</v>
       </c>
       <c r="L277">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M277">
         <v>4.333</v>
       </c>
       <c r="N277">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O277">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P277">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q277">
         <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V277">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA277">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25222,76 +25222,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F278" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G278" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J278" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K278">
         <v>1.727</v>
       </c>
       <c r="L278">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M278">
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O278">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P278">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q278">
         <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S278">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T278">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U278">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V278">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB278">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC278">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25314,7 +25314,7 @@
         <v>50</v>
       </c>
       <c r="G279" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -25581,7 +25581,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25934,7 +25934,7 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F286" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G286" t="s">
         <v>52</v>
@@ -26293,7 +26293,7 @@
         <v>32</v>
       </c>
       <c r="G290" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26471,7 +26471,7 @@
         <v>47</v>
       </c>
       <c r="G292" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6991381</v>
+        <v>6991382</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,55 +26646,55 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F294" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G294" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H294">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
         <v>56</v>
       </c>
       <c r="K294">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L294">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M294">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N294">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="O294">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P294">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q294">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R294">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S294">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T294">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U294">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V294">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -26703,19 +26703,19 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0.909</v>
+        <v>3</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB294">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26723,7 +26723,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6991382</v>
+        <v>6991381</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26735,56 +26735,56 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J295" t="s">
         <v>56</v>
       </c>
       <c r="K295">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L295">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M295">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N295">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O295">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P295">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q295">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R295">
+        <v>1.825</v>
+      </c>
+      <c r="S295">
+        <v>1.975</v>
+      </c>
+      <c r="T295">
+        <v>2</v>
+      </c>
+      <c r="U295">
+        <v>2</v>
+      </c>
+      <c r="V295">
         <v>1.8</v>
       </c>
-      <c r="S295">
-        <v>2</v>
-      </c>
-      <c r="T295">
-        <v>2.5</v>
-      </c>
-      <c r="U295">
-        <v>1.925</v>
-      </c>
-      <c r="V295">
-        <v>1.875</v>
-      </c>
       <c r="W295">
         <v>-1</v>
       </c>
@@ -26792,19 +26792,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>3</v>
+        <v>0.909</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB295">
         <v>1</v>
       </c>
-      <c r="AB295">
-        <v>-1</v>
-      </c>
       <c r="AC295">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27002,7 +27002,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F298" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G298" t="s">
         <v>29</v>
@@ -27536,7 +27536,7 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G304" t="s">
         <v>50</v>
@@ -27791,7 +27791,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6991392</v>
+        <v>6991391</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27803,46 +27803,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F307" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G307" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K307">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L307">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M307">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N307">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O307">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P307">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q307">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R307">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S307">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T307">
         <v>2.25</v>
@@ -27854,19 +27854,19 @@
         <v>1.775</v>
       </c>
       <c r="W307">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X307">
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA307">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB307">
         <v>1.025</v>
@@ -27880,7 +27880,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6991391</v>
+        <v>6991392</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27892,46 +27892,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F308" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G308" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J308" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K308">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L308">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M308">
+        <v>2</v>
+      </c>
+      <c r="N308">
+        <v>2.9</v>
+      </c>
+      <c r="O308">
         <v>3.1</v>
       </c>
-      <c r="N308">
-        <v>1.75</v>
-      </c>
-      <c r="O308">
-        <v>3.2</v>
-      </c>
       <c r="P308">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q308">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R308">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S308">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T308">
         <v>2.25</v>
@@ -27943,19 +27943,19 @@
         <v>1.775</v>
       </c>
       <c r="W308">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X308">
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z308">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB308">
         <v>1.025</v>
@@ -28429,7 +28429,7 @@
         <v>33</v>
       </c>
       <c r="G314" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -28963,7 +28963,7 @@
         <v>44</v>
       </c>
       <c r="G320" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -29141,7 +29141,7 @@
         <v>51</v>
       </c>
       <c r="G322" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H322">
         <v>2</v>
@@ -29660,7 +29660,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6991443</v>
+        <v>6991407</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29672,76 +29672,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F328" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G328" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328">
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K328">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L328">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M328">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N328">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P328">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q328">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R328">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S328">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T328">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U328">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V328">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W328">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA328">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB328">
         <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29749,7 +29749,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6991407</v>
+        <v>6991443</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29761,76 +29761,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F329" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G329" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329">
         <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K329">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L329">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M329">
+        <v>3</v>
+      </c>
+      <c r="N329">
+        <v>2.05</v>
+      </c>
+      <c r="O329">
+        <v>3.1</v>
+      </c>
+      <c r="P329">
+        <v>3.3</v>
+      </c>
+      <c r="Q329">
+        <v>-0.25</v>
+      </c>
+      <c r="R329">
+        <v>1.85</v>
+      </c>
+      <c r="S329">
+        <v>1.95</v>
+      </c>
+      <c r="T329">
         <v>2.5</v>
       </c>
-      <c r="N329">
-        <v>2.5</v>
-      </c>
-      <c r="O329">
-        <v>3.2</v>
-      </c>
-      <c r="P329">
-        <v>2.5</v>
-      </c>
-      <c r="Q329">
-        <v>0</v>
-      </c>
-      <c r="R329">
-        <v>1.9</v>
-      </c>
-      <c r="S329">
-        <v>1.9</v>
-      </c>
-      <c r="T329">
-        <v>2</v>
-      </c>
       <c r="U329">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V329">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X329">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA329">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
         <v>-1</v>
       </c>
       <c r="AC329">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30028,7 +30028,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G332" t="s">
         <v>44</v>
@@ -30743,7 +30743,7 @@
         <v>35</v>
       </c>
       <c r="G340" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -30832,7 +30832,7 @@
         <v>53</v>
       </c>
       <c r="G341" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31262,7 +31262,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31274,61 +31274,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F346" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G346" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K346">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L346">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M346">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N346">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O346">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P346">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q346">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
+        <v>1.725</v>
+      </c>
+      <c r="S346">
         <v>1.975</v>
       </c>
-      <c r="S346">
+      <c r="T346">
+        <v>2</v>
+      </c>
+      <c r="U346">
         <v>1.825</v>
       </c>
-      <c r="T346">
-        <v>2.75</v>
-      </c>
-      <c r="U346">
-        <v>1.95</v>
-      </c>
       <c r="V346">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W346">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y346">
         <v>-1</v>
@@ -31337,13 +31337,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB346">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31351,7 +31351,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31363,61 +31363,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F347" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G347" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K347">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L347">
+        <v>4.2</v>
+      </c>
+      <c r="M347">
+        <v>5</v>
+      </c>
+      <c r="N347">
+        <v>1.45</v>
+      </c>
+      <c r="O347">
+        <v>4.2</v>
+      </c>
+      <c r="P347">
+        <v>5.25</v>
+      </c>
+      <c r="Q347">
+        <v>-1.25</v>
+      </c>
+      <c r="R347">
+        <v>1.975</v>
+      </c>
+      <c r="S347">
+        <v>1.825</v>
+      </c>
+      <c r="T347">
         <v>2.75</v>
       </c>
-      <c r="M347">
-        <v>3.1</v>
-      </c>
-      <c r="N347">
-        <v>2</v>
-      </c>
-      <c r="O347">
-        <v>2.875</v>
-      </c>
-      <c r="P347">
-        <v>3.75</v>
-      </c>
-      <c r="Q347">
-        <v>-0.25</v>
-      </c>
-      <c r="R347">
-        <v>1.725</v>
-      </c>
-      <c r="S347">
-        <v>1.975</v>
-      </c>
-      <c r="T347">
-        <v>2</v>
-      </c>
       <c r="U347">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X347">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
@@ -31426,13 +31426,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC347">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31452,7 +31452,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F348" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G348" t="s">
         <v>53</v>
@@ -31707,7 +31707,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31719,40 +31719,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F351" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G351" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K351">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L351">
+        <v>3.25</v>
+      </c>
+      <c r="M351">
+        <v>4</v>
+      </c>
+      <c r="N351">
+        <v>1.909</v>
+      </c>
+      <c r="O351">
         <v>3.1</v>
       </c>
-      <c r="M351">
-        <v>2.2</v>
-      </c>
-      <c r="N351">
-        <v>2.7</v>
-      </c>
-      <c r="O351">
-        <v>3</v>
-      </c>
       <c r="P351">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q351">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
         <v>1.95</v>
@@ -31761,34 +31761,34 @@
         <v>1.85</v>
       </c>
       <c r="T351">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U351">
+        <v>1.95</v>
+      </c>
+      <c r="V351">
         <v>1.85</v>
       </c>
-      <c r="V351">
-        <v>1.95</v>
-      </c>
       <c r="W351">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA351">
+        <v>-1</v>
+      </c>
+      <c r="AB351">
+        <v>-1</v>
+      </c>
+      <c r="AC351">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB351">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC351">
-        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31796,7 +31796,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31808,40 +31808,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F352" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G352" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J352" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K352">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L352">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M352">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N352">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O352">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P352">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q352">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R352">
         <v>1.95</v>
@@ -31850,34 +31850,34 @@
         <v>1.85</v>
       </c>
       <c r="T352">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U352">
+        <v>1.85</v>
+      </c>
+      <c r="V352">
         <v>1.95</v>
       </c>
-      <c r="V352">
-        <v>1.85</v>
-      </c>
       <c r="W352">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z352">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC352">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32075,7 +32075,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F355" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G355" t="s">
         <v>39</v>
@@ -32256,7 +32256,7 @@
         <v>30</v>
       </c>
       <c r="G357" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -32508,7 +32508,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32520,40 +32520,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F360" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J360" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K360">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L360">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M360">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N360">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O360">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P360">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q360">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R360">
         <v>1.975</v>
@@ -32562,34 +32562,34 @@
         <v>1.825</v>
       </c>
       <c r="T360">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U360">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V360">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W360">
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z360">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC360">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32597,7 +32597,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32609,40 +32609,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F361" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G361" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K361">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L361">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M361">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N361">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O361">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P361">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q361">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R361">
         <v>1.975</v>
@@ -32651,34 +32651,34 @@
         <v>1.825</v>
       </c>
       <c r="T361">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V361">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W361">
         <v>-1</v>
       </c>
       <c r="X361">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y361">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA361">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -33042,7 +33042,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7712418</v>
+        <v>7712419</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33054,76 +33054,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F366" t="s">
+        <v>30</v>
+      </c>
+      <c r="G366" t="s">
         <v>49</v>
       </c>
-      <c r="G366" t="s">
-        <v>37</v>
-      </c>
       <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366" t="s">
+        <v>55</v>
+      </c>
+      <c r="K366">
+        <v>2.1</v>
+      </c>
+      <c r="L366">
         <v>3</v>
       </c>
-      <c r="I366">
-        <v>2</v>
-      </c>
-      <c r="J366" t="s">
-        <v>57</v>
-      </c>
-      <c r="K366">
-        <v>2.25</v>
-      </c>
-      <c r="L366">
-        <v>2.9</v>
-      </c>
       <c r="M366">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N366">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O366">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P366">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q366">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R366">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S366">
+        <v>1.825</v>
+      </c>
+      <c r="T366">
+        <v>2</v>
+      </c>
+      <c r="U366">
+        <v>1.825</v>
+      </c>
+      <c r="V366">
         <v>1.975</v>
       </c>
-      <c r="T366">
-        <v>2</v>
-      </c>
-      <c r="U366">
-        <v>1.975</v>
-      </c>
-      <c r="V366">
-        <v>1.825</v>
-      </c>
       <c r="W366">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X366">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB366">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC366">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33131,7 +33131,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7712419</v>
+        <v>7712418</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33143,76 +33143,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F367" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G367" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H367">
+        <v>3</v>
+      </c>
+      <c r="I367">
+        <v>2</v>
+      </c>
+      <c r="J367" t="s">
+        <v>57</v>
+      </c>
+      <c r="K367">
+        <v>2.25</v>
+      </c>
+      <c r="L367">
+        <v>2.9</v>
+      </c>
+      <c r="M367">
+        <v>3.1</v>
+      </c>
+      <c r="N367">
+        <v>2</v>
+      </c>
+      <c r="O367">
+        <v>3</v>
+      </c>
+      <c r="P367">
+        <v>3.75</v>
+      </c>
+      <c r="Q367">
+        <v>-0.25</v>
+      </c>
+      <c r="R367">
+        <v>1.725</v>
+      </c>
+      <c r="S367">
+        <v>1.975</v>
+      </c>
+      <c r="T367">
+        <v>2</v>
+      </c>
+      <c r="U367">
+        <v>1.975</v>
+      </c>
+      <c r="V367">
+        <v>1.825</v>
+      </c>
+      <c r="W367">
         <v>1</v>
       </c>
-      <c r="I367">
-        <v>1</v>
-      </c>
-      <c r="J367" t="s">
-        <v>55</v>
-      </c>
-      <c r="K367">
-        <v>2.1</v>
-      </c>
-      <c r="L367">
-        <v>3</v>
-      </c>
-      <c r="M367">
-        <v>3.25</v>
-      </c>
-      <c r="N367">
-        <v>1.727</v>
-      </c>
-      <c r="O367">
-        <v>3.2</v>
-      </c>
-      <c r="P367">
-        <v>4.5</v>
-      </c>
-      <c r="Q367">
-        <v>-0.75</v>
-      </c>
-      <c r="R367">
-        <v>1.975</v>
-      </c>
-      <c r="S367">
-        <v>1.825</v>
-      </c>
-      <c r="T367">
-        <v>2</v>
-      </c>
-      <c r="U367">
-        <v>1.825</v>
-      </c>
-      <c r="V367">
-        <v>1.975</v>
-      </c>
-      <c r="W367">
-        <v>-1</v>
-      </c>
       <c r="X367">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA367">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC367">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33415,6 +33415,15 @@
       <c r="G370" t="s">
         <v>31</v>
       </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370" t="s">
+        <v>55</v>
+      </c>
       <c r="K370">
         <v>2</v>
       </c>
@@ -33428,43 +33437,49 @@
         <v>2.8</v>
       </c>
       <c r="O370">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P370">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q370">
         <v>0</v>
       </c>
       <c r="R370">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S370">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T370">
         <v>2</v>
       </c>
       <c r="U370">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V370">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X370">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Y370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
         <v>0</v>
       </c>
       <c r="AA370">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB370">
+        <v>0</v>
+      </c>
+      <c r="AC370">
+        <v>-0</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33489,6 +33504,15 @@
       <c r="G371" t="s">
         <v>29</v>
       </c>
+      <c r="H371">
+        <v>2</v>
+      </c>
+      <c r="I371">
+        <v>2</v>
+      </c>
+      <c r="J371" t="s">
+        <v>55</v>
+      </c>
       <c r="K371">
         <v>1.909</v>
       </c>
@@ -33499,46 +33523,52 @@
         <v>3.6</v>
       </c>
       <c r="N371">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O371">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P371">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q371">
         <v>-0.25</v>
       </c>
       <c r="R371">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S371">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T371">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U371">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V371">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X371">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA371">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB371">
+        <v>1.025</v>
+      </c>
+      <c r="AC371">
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33563,6 +33593,15 @@
       <c r="G372" t="s">
         <v>47</v>
       </c>
+      <c r="H372">
+        <v>2</v>
+      </c>
+      <c r="I372">
+        <v>2</v>
+      </c>
+      <c r="J372" t="s">
+        <v>55</v>
+      </c>
       <c r="K372">
         <v>2.1</v>
       </c>
@@ -33573,45 +33612,273 @@
         <v>3.25</v>
       </c>
       <c r="N372">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O372">
         <v>3.2</v>
       </c>
       <c r="P372">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q372">
         <v>-0.5</v>
       </c>
       <c r="R372">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S372">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T372">
         <v>2.5</v>
       </c>
       <c r="U372">
+        <v>1.95</v>
+      </c>
+      <c r="V372">
+        <v>1.85</v>
+      </c>
+      <c r="W372">
+        <v>-1</v>
+      </c>
+      <c r="X372">
+        <v>2.2</v>
+      </c>
+      <c r="Y372">
+        <v>-1</v>
+      </c>
+      <c r="Z372">
+        <v>-1</v>
+      </c>
+      <c r="AA372">
+        <v>0.95</v>
+      </c>
+      <c r="AB372">
+        <v>0.95</v>
+      </c>
+      <c r="AC372">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>7712424</v>
+      </c>
+      <c r="C373" t="s">
+        <v>28</v>
+      </c>
+      <c r="D373" t="s">
+        <v>28</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45342.41319444445</v>
+      </c>
+      <c r="F373" t="s">
+        <v>44</v>
+      </c>
+      <c r="G373" t="s">
+        <v>53</v>
+      </c>
+      <c r="K373">
+        <v>1.6</v>
+      </c>
+      <c r="L373">
+        <v>3.5</v>
+      </c>
+      <c r="M373">
+        <v>5</v>
+      </c>
+      <c r="N373">
+        <v>1.571</v>
+      </c>
+      <c r="O373">
+        <v>3.6</v>
+      </c>
+      <c r="P373">
+        <v>5.25</v>
+      </c>
+      <c r="Q373">
+        <v>-1</v>
+      </c>
+      <c r="R373">
+        <v>2</v>
+      </c>
+      <c r="S373">
+        <v>1.8</v>
+      </c>
+      <c r="T373">
+        <v>2.5</v>
+      </c>
+      <c r="U373">
+        <v>1.9</v>
+      </c>
+      <c r="V373">
+        <v>1.9</v>
+      </c>
+      <c r="W373">
+        <v>0</v>
+      </c>
+      <c r="X373">
+        <v>0</v>
+      </c>
+      <c r="Y373">
+        <v>0</v>
+      </c>
+      <c r="Z373">
+        <v>0</v>
+      </c>
+      <c r="AA373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>7712425</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45342.42013888889</v>
+      </c>
+      <c r="F374" t="s">
+        <v>54</v>
+      </c>
+      <c r="G374" t="s">
+        <v>30</v>
+      </c>
+      <c r="K374">
+        <v>3.2</v>
+      </c>
+      <c r="L374">
+        <v>2.9</v>
+      </c>
+      <c r="M374">
+        <v>2.2</v>
+      </c>
+      <c r="N374">
+        <v>3.25</v>
+      </c>
+      <c r="O374">
+        <v>2.9</v>
+      </c>
+      <c r="P374">
+        <v>2.15</v>
+      </c>
+      <c r="Q374">
+        <v>0.25</v>
+      </c>
+      <c r="R374">
+        <v>1.9</v>
+      </c>
+      <c r="S374">
+        <v>1.9</v>
+      </c>
+      <c r="T374">
+        <v>2</v>
+      </c>
+      <c r="U374">
+        <v>1.825</v>
+      </c>
+      <c r="V374">
         <v>1.975</v>
       </c>
-      <c r="V372">
-        <v>1.825</v>
-      </c>
-      <c r="W372">
-        <v>0</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="Y372">
-        <v>0</v>
-      </c>
-      <c r="Z372">
-        <v>0</v>
-      </c>
-      <c r="AA372">
+      <c r="W374">
+        <v>0</v>
+      </c>
+      <c r="X374">
+        <v>0</v>
+      </c>
+      <c r="Y374">
+        <v>0</v>
+      </c>
+      <c r="Z374">
+        <v>0</v>
+      </c>
+      <c r="AA374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>7712426</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45342.54166666666</v>
+      </c>
+      <c r="F375" t="s">
+        <v>37</v>
+      </c>
+      <c r="G375" t="s">
+        <v>40</v>
+      </c>
+      <c r="K375">
+        <v>2</v>
+      </c>
+      <c r="L375">
+        <v>3</v>
+      </c>
+      <c r="M375">
+        <v>3.6</v>
+      </c>
+      <c r="N375">
+        <v>2</v>
+      </c>
+      <c r="O375">
+        <v>3</v>
+      </c>
+      <c r="P375">
+        <v>3.8</v>
+      </c>
+      <c r="Q375">
+        <v>-0.5</v>
+      </c>
+      <c r="R375">
+        <v>2.025</v>
+      </c>
+      <c r="S375">
+        <v>1.775</v>
+      </c>
+      <c r="T375">
+        <v>2.25</v>
+      </c>
+      <c r="U375">
+        <v>2.025</v>
+      </c>
+      <c r="V375">
+        <v>1.775</v>
+      </c>
+      <c r="W375">
+        <v>0</v>
+      </c>
+      <c r="X375">
+        <v>0</v>
+      </c>
+      <c r="Y375">
+        <v>0</v>
+      </c>
+      <c r="Z375">
+        <v>0</v>
+      </c>
+      <c r="AA375">
         <v>0</v>
       </c>
     </row>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -160,10 +160,10 @@
     <t>Al Najma</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
     <t>Al Adalh</t>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC375"/>
+  <dimension ref="A1:AC377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5363,7 +5363,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6095160</v>
+        <v>6095161</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5375,16 +5375,16 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>1</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
@@ -5393,37 +5393,37 @@
         <v>2.5</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N55">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5432,19 +5432,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5452,7 +5452,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6095161</v>
+        <v>6095160</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5464,16 +5464,16 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>56</v>
@@ -5482,37 +5482,37 @@
         <v>2.5</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N56">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O56">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
         <v>1.8</v>
       </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
       <c r="T56">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5521,19 +5521,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -11593,7 +11593,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6469853</v>
+        <v>6409782</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11605,40 +11605,40 @@
         <v>45031.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O125">
         <v>3.1</v>
       </c>
       <c r="P125">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
         <v>1.85</v>
@@ -11650,31 +11650,31 @@
         <v>2</v>
       </c>
       <c r="U125">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
         <v>1.975</v>
       </c>
       <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>2.1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
         <v>0.95</v>
       </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11682,7 +11682,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6409782</v>
+        <v>6469853</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11694,40 +11694,40 @@
         <v>45031.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K126">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L126">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M126">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N126">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O126">
         <v>3.1</v>
       </c>
       <c r="P126">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
         <v>1.85</v>
@@ -11739,31 +11739,31 @@
         <v>2</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V126">
         <v>1.975</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X126">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11860,7 +11860,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6125192</v>
+        <v>6125193</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11872,49 +11872,49 @@
         <v>45040.61111111111</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J128" t="s">
         <v>56</v>
       </c>
       <c r="K128">
-        <v>6.25</v>
+        <v>4</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N128">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U128">
         <v>1.925</v>
@@ -11929,13 +11929,13 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB128">
         <v>0.925</v>
@@ -11949,7 +11949,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6125193</v>
+        <v>6125192</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11961,49 +11961,49 @@
         <v>45040.61111111111</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>56</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
         <v>1.925</v>
@@ -12018,13 +12018,13 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB129">
         <v>0.925</v>
@@ -15153,7 +15153,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6125204</v>
+        <v>6125549</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15165,76 +15165,76 @@
         <v>45069.625</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K165">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L165">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
+        <v>5.5</v>
+      </c>
+      <c r="N165">
+        <v>1.666</v>
+      </c>
+      <c r="O165">
         <v>3.3</v>
       </c>
-      <c r="N165">
-        <v>2.3</v>
-      </c>
-      <c r="O165">
-        <v>2.9</v>
-      </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>2.25</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X165">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
+        <v>0.475</v>
+      </c>
+      <c r="AA165">
         <v>-0.5</v>
       </c>
-      <c r="AA165">
-        <v>0.4125</v>
-      </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6125149</v>
+        <v>6125207</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,10 +15254,10 @@
         <v>45069.625</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15269,61 +15269,61 @@
         <v>57</v>
       </c>
       <c r="K166">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M166">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N166">
+        <v>2.6</v>
+      </c>
+      <c r="O166">
+        <v>2.9</v>
+      </c>
+      <c r="P166">
+        <v>2.6</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
         <v>1.85</v>
       </c>
-      <c r="O166">
-        <v>3.4</v>
-      </c>
-      <c r="P166">
-        <v>3.6</v>
-      </c>
-      <c r="Q166">
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
+        <v>1.925</v>
+      </c>
+      <c r="V166">
+        <v>1.875</v>
+      </c>
+      <c r="W166">
+        <v>1.6</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
         <v>-0.5</v>
       </c>
-      <c r="R166">
-        <v>1.95</v>
-      </c>
-      <c r="S166">
-        <v>1.85</v>
-      </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>1.9</v>
-      </c>
-      <c r="V166">
-        <v>1.9</v>
-      </c>
-      <c r="W166">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X166">
-        <v>-1</v>
-      </c>
-      <c r="Y166">
-        <v>-1</v>
-      </c>
-      <c r="Z166">
-        <v>0.95</v>
-      </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
-      <c r="AB166">
-        <v>-1</v>
-      </c>
       <c r="AC166">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6125205</v>
+        <v>6125327</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,10 +15343,10 @@
         <v>45069.625</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15358,40 +15358,40 @@
         <v>56</v>
       </c>
       <c r="K167">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L167">
         <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N167">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="O167">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15400,19 +15400,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15509,7 +15509,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6125207</v>
+        <v>6125205</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15521,76 +15521,76 @@
         <v>45069.625</v>
       </c>
       <c r="F169" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K169">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M169">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N169">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O169">
+        <v>3.2</v>
+      </c>
+      <c r="P169">
         <v>2.9</v>
       </c>
-      <c r="P169">
-        <v>2.6</v>
-      </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T169">
         <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z169">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6125327</v>
+        <v>6125204</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15610,76 +15610,76 @@
         <v>45069.625</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K170">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>3.3</v>
+      </c>
+      <c r="N170">
+        <v>2.3</v>
+      </c>
+      <c r="O170">
+        <v>2.9</v>
+      </c>
+      <c r="P170">
         <v>3.1</v>
       </c>
-      <c r="M170">
-        <v>2</v>
-      </c>
-      <c r="N170">
-        <v>3.1</v>
-      </c>
-      <c r="O170">
-        <v>3.3</v>
-      </c>
-      <c r="P170">
-        <v>2.05</v>
-      </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y170">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6125549</v>
+        <v>6125149</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15699,13 +15699,13 @@
         <v>45069.625</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -15714,25 +15714,25 @@
         <v>57</v>
       </c>
       <c r="K171">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
+        <v>3.2</v>
+      </c>
+      <c r="M171">
+        <v>4</v>
+      </c>
+      <c r="N171">
+        <v>1.85</v>
+      </c>
+      <c r="O171">
         <v>3.4</v>
       </c>
-      <c r="M171">
-        <v>5.5</v>
-      </c>
-      <c r="N171">
-        <v>1.666</v>
-      </c>
-      <c r="O171">
-        <v>3.3</v>
-      </c>
       <c r="P171">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
         <v>1.95</v>
@@ -15741,16 +15741,16 @@
         <v>1.85</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
-        <v>0.6659999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15759,16 +15759,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6125464</v>
+        <v>6125150</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,46 +15877,46 @@
         <v>45075.625</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>57</v>
       </c>
       <c r="K173">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N173">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O173">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P173">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
         <v>2.5</v>
@@ -15928,7 +15928,7 @@
         <v>1.85</v>
       </c>
       <c r="W173">
-        <v>0.363</v>
+        <v>1.4</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15937,16 +15937,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6125550</v>
+        <v>6125151</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,16 +15966,16 @@
         <v>45075.625</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>57</v>
@@ -15987,37 +15987,37 @@
         <v>3.1</v>
       </c>
       <c r="M174">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N174">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q174">
         <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T174">
         <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16026,16 +16026,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>1.025</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6125150</v>
+        <v>6125550</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,13 +16055,13 @@
         <v>45075.625</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -16070,43 +16070,43 @@
         <v>57</v>
       </c>
       <c r="K175">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="N175">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P175">
-        <v>2.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>1.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16115,13 +16115,13 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6125329</v>
+        <v>6125551</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,40 +16144,40 @@
         <v>45075.625</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
         <v>55</v>
       </c>
       <c r="K176">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L176">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M176">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N176">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O176">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P176">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
         <v>2.025</v>
@@ -16186,34 +16186,34 @@
         <v>1.775</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16221,7 +16221,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6125328</v>
+        <v>6125464</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16233,58 +16233,58 @@
         <v>45075.625</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>57</v>
       </c>
       <c r="K177">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M177">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N177">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P177">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>0.6659999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16293,16 +16293,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16310,7 +16310,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6125151</v>
+        <v>6125329</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16322,40 +16322,40 @@
         <v>45075.625</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K178">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L178">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M178">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N178">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P178">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R178">
         <v>2.025</v>
@@ -16367,31 +16367,31 @@
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6125551</v>
+        <v>6125328</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,76 +16411,76 @@
         <v>45075.625</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K179">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N179">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S179">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X179">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.5125</v>
+        <v>0.4625</v>
       </c>
       <c r="AA179">
         <v>-0.5</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -17111,7 +17111,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17126,10 +17126,10 @@
         <v>48</v>
       </c>
       <c r="G187" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17138,61 +17138,61 @@
         <v>57</v>
       </c>
       <c r="K187">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N187">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O187">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2.25</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W187">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA187">
+        <v>-1</v>
+      </c>
+      <c r="AB187">
         <v>0.8</v>
       </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>0.825</v>
-      </c>
-      <c r="AA187">
-        <v>-1</v>
-      </c>
-      <c r="AB187">
-        <v>-0.5</v>
-      </c>
       <c r="AC187">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17200,7 +17200,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17215,10 +17215,10 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17227,43 +17227,43 @@
         <v>57</v>
       </c>
       <c r="K188">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N188">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W188">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17272,16 +17272,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17927,7 +17927,7 @@
         <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18016,7 +18016,7 @@
         <v>53</v>
       </c>
       <c r="G197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18446,7 +18446,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6991313</v>
+        <v>6991279</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18458,58 +18458,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H202">
         <v>2</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
         <v>57</v>
       </c>
       <c r="K202">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M202">
         <v>2.875</v>
       </c>
       <c r="N202">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O202">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P202">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q202">
         <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18518,16 +18518,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18535,7 +18535,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6991279</v>
+        <v>6991313</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18547,58 +18547,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>57</v>
       </c>
       <c r="K203">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M203">
         <v>2.875</v>
       </c>
       <c r="N203">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P203">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q203">
         <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T203">
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18607,16 +18607,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC203">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18713,7 +18713,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6991314</v>
+        <v>6991281</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18725,73 +18725,73 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K205">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M205">
+        <v>2.4</v>
+      </c>
+      <c r="N205">
+        <v>3.6</v>
+      </c>
+      <c r="O205">
         <v>3.2</v>
       </c>
-      <c r="N205">
-        <v>2.15</v>
-      </c>
-      <c r="O205">
-        <v>3</v>
-      </c>
       <c r="P205">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T205">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18802,7 +18802,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6991281</v>
+        <v>6991314</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18814,73 +18814,73 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H206">
+        <v>4</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>57</v>
+      </c>
+      <c r="K206">
+        <v>2.15</v>
+      </c>
+      <c r="L206">
         <v>3</v>
       </c>
-      <c r="I206">
+      <c r="M206">
+        <v>3.2</v>
+      </c>
+      <c r="N206">
+        <v>2.15</v>
+      </c>
+      <c r="O206">
         <v>3</v>
       </c>
-      <c r="J206" t="s">
-        <v>55</v>
-      </c>
-      <c r="K206">
-        <v>2.8</v>
-      </c>
-      <c r="L206">
-        <v>2.9</v>
-      </c>
-      <c r="M206">
-        <v>2.4</v>
-      </c>
-      <c r="N206">
-        <v>3.6</v>
-      </c>
-      <c r="O206">
+      <c r="P206">
         <v>3.2</v>
       </c>
-      <c r="P206">
-        <v>1.909</v>
-      </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X206">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18903,7 +18903,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>
@@ -19247,7 +19247,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19259,76 +19259,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K211">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L211">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M211">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N211">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P211">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q211">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S211">
+        <v>1.95</v>
+      </c>
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
         <v>1.8</v>
       </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>2.025</v>
-      </c>
       <c r="V211">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC211">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19336,7 +19336,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19348,76 +19348,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>55</v>
+      </c>
+      <c r="K212">
+        <v>3.3</v>
+      </c>
+      <c r="L212">
+        <v>3.1</v>
+      </c>
+      <c r="M212">
+        <v>2.05</v>
+      </c>
+      <c r="N212">
+        <v>5.5</v>
+      </c>
+      <c r="O212">
+        <v>3.5</v>
+      </c>
+      <c r="P212">
+        <v>1.571</v>
+      </c>
+      <c r="Q212">
+        <v>0.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
+        <v>1.775</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>2.5</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
         <v>1</v>
       </c>
-      <c r="I212">
-        <v>2</v>
-      </c>
-      <c r="J212" t="s">
-        <v>56</v>
-      </c>
-      <c r="K212">
-        <v>2.6</v>
-      </c>
-      <c r="L212">
-        <v>2.875</v>
-      </c>
-      <c r="M212">
-        <v>2.625</v>
-      </c>
-      <c r="N212">
-        <v>2.55</v>
-      </c>
-      <c r="O212">
-        <v>2.875</v>
-      </c>
-      <c r="P212">
-        <v>2.7</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.85</v>
-      </c>
-      <c r="S212">
-        <v>1.95</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.8</v>
-      </c>
-      <c r="V212">
-        <v>2</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>-1</v>
-      </c>
-      <c r="Y212">
-        <v>1.7</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
       <c r="AA212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19440,7 +19440,7 @@
         <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19704,7 +19704,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19781,7 +19781,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6991324</v>
+        <v>6991325</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19793,76 +19793,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F217" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G217" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217" t="s">
+        <v>55</v>
+      </c>
+      <c r="K217">
+        <v>2.1</v>
+      </c>
+      <c r="L217">
+        <v>3.3</v>
+      </c>
+      <c r="M217">
         <v>3</v>
       </c>
-      <c r="J217" t="s">
-        <v>56</v>
-      </c>
-      <c r="K217">
-        <v>9</v>
-      </c>
-      <c r="L217">
-        <v>5</v>
-      </c>
-      <c r="M217">
-        <v>1.25</v>
-      </c>
       <c r="N217">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O217">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q217">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V217">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y217">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB217">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19870,7 +19870,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6991325</v>
+        <v>6991324</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19882,76 +19882,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K218">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L218">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M218">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="N218">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O218">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P218">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R218">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T218">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19971,7 +19971,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G219" t="s">
         <v>45</v>
@@ -20063,7 +20063,7 @@
         <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20315,7 +20315,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6991322</v>
+        <v>6991418</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20327,76 +20327,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K223">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N223">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P223">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z223">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC223">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20404,7 +20404,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6991418</v>
+        <v>6991322</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20416,76 +20416,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H224">
         <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K224">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L224">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M224">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N224">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O224">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P224">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S224">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA224">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20594,7 +20594,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G226" t="s">
         <v>45</v>
@@ -20760,7 +20760,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20772,55 +20772,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>56</v>
       </c>
       <c r="K228">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L228">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M228">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N228">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O228">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P228">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20829,19 +20829,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20849,7 +20849,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20861,55 +20861,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
         <v>1</v>
-      </c>
-      <c r="I229">
-        <v>2</v>
       </c>
       <c r="J229" t="s">
         <v>56</v>
       </c>
       <c r="K229">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M229">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N229">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P229">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20918,19 +20918,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21220,7 +21220,7 @@
         <v>52</v>
       </c>
       <c r="G233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21840,7 +21840,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G240" t="s">
         <v>31</v>
@@ -21917,7 +21917,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21929,73 +21929,73 @@
         <v>45203.5</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G241" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H241">
+        <v>3</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241" t="s">
+        <v>57</v>
+      </c>
+      <c r="K241">
+        <v>5.5</v>
+      </c>
+      <c r="L241">
+        <v>3.75</v>
+      </c>
+      <c r="M241">
+        <v>1.5</v>
+      </c>
+      <c r="N241">
+        <v>4.5</v>
+      </c>
+      <c r="O241">
+        <v>3.5</v>
+      </c>
+      <c r="P241">
+        <v>1.615</v>
+      </c>
+      <c r="Q241">
+        <v>0.75</v>
+      </c>
+      <c r="R241">
+        <v>2</v>
+      </c>
+      <c r="S241">
+        <v>1.8</v>
+      </c>
+      <c r="T241">
+        <v>2.5</v>
+      </c>
+      <c r="U241">
+        <v>1.9</v>
+      </c>
+      <c r="V241">
+        <v>1.9</v>
+      </c>
+      <c r="W241">
+        <v>3.5</v>
+      </c>
+      <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
         <v>1</v>
       </c>
-      <c r="I241">
-        <v>2</v>
-      </c>
-      <c r="J241" t="s">
-        <v>56</v>
-      </c>
-      <c r="K241">
-        <v>2.1</v>
-      </c>
-      <c r="L241">
-        <v>3</v>
-      </c>
-      <c r="M241">
-        <v>3.25</v>
-      </c>
-      <c r="N241">
-        <v>2</v>
-      </c>
-      <c r="O241">
-        <v>3</v>
-      </c>
-      <c r="P241">
-        <v>3.8</v>
-      </c>
-      <c r="Q241">
-        <v>-0.25</v>
-      </c>
-      <c r="R241">
-        <v>1.775</v>
-      </c>
-      <c r="S241">
-        <v>2.025</v>
-      </c>
-      <c r="T241">
-        <v>2</v>
-      </c>
-      <c r="U241">
-        <v>1.725</v>
-      </c>
-      <c r="V241">
-        <v>1.975</v>
-      </c>
-      <c r="W241">
-        <v>-1</v>
-      </c>
-      <c r="X241">
-        <v>-1</v>
-      </c>
-      <c r="Y241">
-        <v>2.8</v>
-      </c>
-      <c r="Z241">
-        <v>-1</v>
-      </c>
       <c r="AA241">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -22006,7 +22006,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22018,73 +22018,73 @@
         <v>45203.5</v>
       </c>
       <c r="F242" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G242" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242" t="s">
+        <v>56</v>
+      </c>
+      <c r="K242">
+        <v>2.1</v>
+      </c>
+      <c r="L242">
         <v>3</v>
       </c>
-      <c r="I242">
-        <v>2</v>
-      </c>
-      <c r="J242" t="s">
-        <v>57</v>
-      </c>
-      <c r="K242">
-        <v>5.5</v>
-      </c>
-      <c r="L242">
-        <v>3.75</v>
-      </c>
       <c r="M242">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N242">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O242">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P242">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q242">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U242">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W242">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z242">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB242">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22110,7 +22110,7 @@
         <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22184,7 +22184,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6991345</v>
+        <v>6991344</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22196,40 +22196,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K244">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M244">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="N244">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O244">
         <v>3.4</v>
       </c>
       <c r="P244">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R244">
         <v>1.75</v>
@@ -22241,31 +22241,31 @@
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V244">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W244">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z244">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB244">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22273,7 +22273,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6991344</v>
+        <v>6991345</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22285,40 +22285,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F245" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K245">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L245">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M245">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="N245">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O245">
         <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q245">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
         <v>1.75</v>
@@ -22330,31 +22330,31 @@
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA245">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC245">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22374,7 +22374,7 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G246" t="s">
         <v>31</v>
@@ -22463,7 +22463,7 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G247" t="s">
         <v>29</v>
@@ -22718,7 +22718,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6991424</v>
+        <v>6991423</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22730,73 +22730,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F250" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G250" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J250" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K250">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L250">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M250">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N250">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O250">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P250">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R250">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S250">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T250">
         <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z250">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB250">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC250">
         <v>-1</v>
@@ -22807,7 +22807,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6991423</v>
+        <v>6991424</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22819,73 +22819,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F251" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G251" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K251">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L251">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M251">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N251">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O251">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P251">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T251">
         <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
         <v>-1</v>
@@ -22997,10 +22997,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F253" t="s">
+        <v>48</v>
+      </c>
+      <c r="G253" t="s">
         <v>49</v>
-      </c>
-      <c r="G253" t="s">
-        <v>48</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23341,7 +23341,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6991425</v>
+        <v>6991356</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23353,76 +23353,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K257">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L257">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M257">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N257">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O257">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P257">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q257">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R257">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S257">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T257">
+        <v>2</v>
+      </c>
+      <c r="U257">
+        <v>1.85</v>
+      </c>
+      <c r="V257">
+        <v>1.95</v>
+      </c>
+      <c r="W257">
         <v>2.25</v>
       </c>
-      <c r="U257">
-        <v>2.025</v>
-      </c>
-      <c r="V257">
-        <v>1.775</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23430,7 +23430,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6991356</v>
+        <v>6991425</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23442,76 +23442,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G258" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J258" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K258">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L258">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M258">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N258">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O258">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P258">
+        <v>2.6</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>1.9</v>
+      </c>
+      <c r="S258">
+        <v>1.9</v>
+      </c>
+      <c r="T258">
         <v>2.25</v>
       </c>
-      <c r="Q258">
-        <v>0.25</v>
-      </c>
-      <c r="R258">
-        <v>1.825</v>
-      </c>
-      <c r="S258">
-        <v>1.975</v>
-      </c>
-      <c r="T258">
-        <v>2</v>
-      </c>
       <c r="U258">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V258">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W258">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z258">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC258">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23608,7 +23608,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23620,19 +23620,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G260" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K260">
         <v>2.75</v>
@@ -23644,52 +23644,52 @@
         <v>2.4</v>
       </c>
       <c r="N260">
+        <v>2.15</v>
+      </c>
+      <c r="O260">
         <v>3.2</v>
       </c>
-      <c r="O260">
-        <v>3.1</v>
-      </c>
       <c r="P260">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q260">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S260">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T260">
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V260">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X260">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC260">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23697,7 +23697,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23709,19 +23709,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H261">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K261">
         <v>2.75</v>
@@ -23733,52 +23733,52 @@
         <v>2.4</v>
       </c>
       <c r="N261">
+        <v>3.2</v>
+      </c>
+      <c r="O261">
+        <v>3.1</v>
+      </c>
+      <c r="P261">
         <v>2.15</v>
       </c>
-      <c r="O261">
-        <v>3.2</v>
-      </c>
-      <c r="P261">
-        <v>3.25</v>
-      </c>
       <c r="Q261">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R261">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S261">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T261">
         <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V261">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W261">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB261">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23798,7 +23798,7 @@
         <v>45236.5625</v>
       </c>
       <c r="F262" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G262" t="s">
         <v>47</v>
@@ -24688,7 +24688,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F272" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G272" t="s">
         <v>40</v>
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,76 +25133,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F277" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J277" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K277">
         <v>1.727</v>
       </c>
       <c r="L277">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M277">
         <v>4.333</v>
       </c>
       <c r="N277">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O277">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P277">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q277">
         <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V277">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W277">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z277">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB277">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC277">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25222,76 +25222,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F278" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G278" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K278">
         <v>1.727</v>
       </c>
       <c r="L278">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M278">
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O278">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P278">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q278">
         <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S278">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA278">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25314,7 +25314,7 @@
         <v>50</v>
       </c>
       <c r="G279" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -25581,7 +25581,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25934,7 +25934,7 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F286" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G286" t="s">
         <v>52</v>
@@ -26293,7 +26293,7 @@
         <v>32</v>
       </c>
       <c r="G290" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26471,7 +26471,7 @@
         <v>47</v>
       </c>
       <c r="G292" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -27002,7 +27002,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F298" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G298" t="s">
         <v>29</v>
@@ -27536,7 +27536,7 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F304" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G304" t="s">
         <v>50</v>
@@ -27803,7 +27803,7 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F307" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G307" t="s">
         <v>51</v>
@@ -28429,7 +28429,7 @@
         <v>33</v>
       </c>
       <c r="G314" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -28963,7 +28963,7 @@
         <v>44</v>
       </c>
       <c r="G320" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -29141,7 +29141,7 @@
         <v>51</v>
       </c>
       <c r="G322" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H322">
         <v>2</v>
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,76 +29405,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F325" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G325" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325">
         <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K325">
         <v>2.4</v>
       </c>
       <c r="L325">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M325">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N325">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O325">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P325">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S325">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T325">
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V325">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y325">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA325">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC325">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29482,7 +29482,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29494,76 +29494,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F326" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G326" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326">
         <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K326">
         <v>2.4</v>
       </c>
       <c r="L326">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M326">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N326">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O326">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P326">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q326">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R326">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V326">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z326">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB326">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29672,7 +29672,7 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F328" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G328" t="s">
         <v>32</v>
@@ -30028,7 +30028,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G332" t="s">
         <v>44</v>
@@ -30743,7 +30743,7 @@
         <v>35</v>
       </c>
       <c r="G340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -30832,7 +30832,7 @@
         <v>53</v>
       </c>
       <c r="G341" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31262,7 +31262,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31274,61 +31274,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F346" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G346" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K346">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L346">
+        <v>4.2</v>
+      </c>
+      <c r="M346">
+        <v>5</v>
+      </c>
+      <c r="N346">
+        <v>1.45</v>
+      </c>
+      <c r="O346">
+        <v>4.2</v>
+      </c>
+      <c r="P346">
+        <v>5.25</v>
+      </c>
+      <c r="Q346">
+        <v>-1.25</v>
+      </c>
+      <c r="R346">
+        <v>1.975</v>
+      </c>
+      <c r="S346">
+        <v>1.825</v>
+      </c>
+      <c r="T346">
         <v>2.75</v>
       </c>
-      <c r="M346">
-        <v>3.1</v>
-      </c>
-      <c r="N346">
-        <v>2</v>
-      </c>
-      <c r="O346">
-        <v>2.875</v>
-      </c>
-      <c r="P346">
-        <v>3.75</v>
-      </c>
-      <c r="Q346">
-        <v>-0.25</v>
-      </c>
-      <c r="R346">
-        <v>1.725</v>
-      </c>
-      <c r="S346">
-        <v>1.975</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
-      </c>
       <c r="U346">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V346">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X346">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
         <v>-1</v>
@@ -31337,13 +31337,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC346">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31351,7 +31351,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31363,61 +31363,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F347" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G347" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K347">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L347">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M347">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N347">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O347">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P347">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q347">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
+        <v>1.725</v>
+      </c>
+      <c r="S347">
         <v>1.975</v>
       </c>
-      <c r="S347">
+      <c r="T347">
+        <v>2</v>
+      </c>
+      <c r="U347">
         <v>1.825</v>
       </c>
-      <c r="T347">
-        <v>2.75</v>
-      </c>
-      <c r="U347">
-        <v>1.95</v>
-      </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W347">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y347">
         <v>-1</v>
@@ -31426,13 +31426,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB347">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31452,7 +31452,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F348" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G348" t="s">
         <v>53</v>
@@ -31707,7 +31707,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31719,40 +31719,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F351" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G351" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J351" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K351">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L351">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M351">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N351">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O351">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P351">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q351">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R351">
         <v>1.95</v>
@@ -31761,34 +31761,34 @@
         <v>1.85</v>
       </c>
       <c r="T351">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U351">
+        <v>1.85</v>
+      </c>
+      <c r="V351">
         <v>1.95</v>
       </c>
-      <c r="V351">
-        <v>1.85</v>
-      </c>
       <c r="W351">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z351">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC351">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31796,7 +31796,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31808,40 +31808,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F352" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G352" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K352">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L352">
+        <v>3.25</v>
+      </c>
+      <c r="M352">
+        <v>4</v>
+      </c>
+      <c r="N352">
+        <v>1.909</v>
+      </c>
+      <c r="O352">
         <v>3.1</v>
       </c>
-      <c r="M352">
-        <v>2.2</v>
-      </c>
-      <c r="N352">
-        <v>2.7</v>
-      </c>
-      <c r="O352">
-        <v>3</v>
-      </c>
       <c r="P352">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q352">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R352">
         <v>1.95</v>
@@ -31850,34 +31850,34 @@
         <v>1.85</v>
       </c>
       <c r="T352">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
+        <v>1.95</v>
+      </c>
+      <c r="V352">
         <v>1.85</v>
       </c>
-      <c r="V352">
-        <v>1.95</v>
-      </c>
       <c r="W352">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA352">
+        <v>-1</v>
+      </c>
+      <c r="AB352">
+        <v>-1</v>
+      </c>
+      <c r="AC352">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB352">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC352">
-        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32075,7 +32075,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F355" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G355" t="s">
         <v>39</v>
@@ -32256,7 +32256,7 @@
         <v>30</v>
       </c>
       <c r="G357" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -32508,7 +32508,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32520,40 +32520,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F360" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G360" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J360" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K360">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L360">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M360">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N360">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O360">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P360">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q360">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R360">
         <v>1.975</v>
@@ -32562,34 +32562,34 @@
         <v>1.825</v>
       </c>
       <c r="T360">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U360">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V360">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W360">
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y360">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA360">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB360">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32597,7 +32597,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32609,40 +32609,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F361" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G361" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J361" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K361">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L361">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M361">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N361">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O361">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P361">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q361">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R361">
         <v>1.975</v>
@@ -32651,34 +32651,34 @@
         <v>1.825</v>
       </c>
       <c r="T361">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U361">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V361">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W361">
         <v>-1</v>
       </c>
       <c r="X361">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z361">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA361">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC361">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -33042,7 +33042,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7712419</v>
+        <v>7712418</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33054,76 +33054,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F366" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G366" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H366">
+        <v>3</v>
+      </c>
+      <c r="I366">
+        <v>2</v>
+      </c>
+      <c r="J366" t="s">
+        <v>57</v>
+      </c>
+      <c r="K366">
+        <v>2.25</v>
+      </c>
+      <c r="L366">
+        <v>2.9</v>
+      </c>
+      <c r="M366">
+        <v>3.1</v>
+      </c>
+      <c r="N366">
+        <v>2</v>
+      </c>
+      <c r="O366">
+        <v>3</v>
+      </c>
+      <c r="P366">
+        <v>3.75</v>
+      </c>
+      <c r="Q366">
+        <v>-0.25</v>
+      </c>
+      <c r="R366">
+        <v>1.725</v>
+      </c>
+      <c r="S366">
+        <v>1.975</v>
+      </c>
+      <c r="T366">
+        <v>2</v>
+      </c>
+      <c r="U366">
+        <v>1.975</v>
+      </c>
+      <c r="V366">
+        <v>1.825</v>
+      </c>
+      <c r="W366">
         <v>1</v>
       </c>
-      <c r="I366">
-        <v>1</v>
-      </c>
-      <c r="J366" t="s">
-        <v>55</v>
-      </c>
-      <c r="K366">
-        <v>2.1</v>
-      </c>
-      <c r="L366">
-        <v>3</v>
-      </c>
-      <c r="M366">
-        <v>3.25</v>
-      </c>
-      <c r="N366">
-        <v>1.727</v>
-      </c>
-      <c r="O366">
-        <v>3.2</v>
-      </c>
-      <c r="P366">
-        <v>4.5</v>
-      </c>
-      <c r="Q366">
-        <v>-0.75</v>
-      </c>
-      <c r="R366">
-        <v>1.975</v>
-      </c>
-      <c r="S366">
-        <v>1.825</v>
-      </c>
-      <c r="T366">
-        <v>2</v>
-      </c>
-      <c r="U366">
-        <v>1.825</v>
-      </c>
-      <c r="V366">
-        <v>1.975</v>
-      </c>
-      <c r="W366">
-        <v>-1</v>
-      </c>
       <c r="X366">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA366">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC366">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33131,7 +33131,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7712418</v>
+        <v>7712419</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33143,76 +33143,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F367" t="s">
+        <v>30</v>
+      </c>
+      <c r="G367" t="s">
         <v>48</v>
       </c>
-      <c r="G367" t="s">
-        <v>37</v>
-      </c>
       <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>1</v>
+      </c>
+      <c r="J367" t="s">
+        <v>55</v>
+      </c>
+      <c r="K367">
+        <v>2.1</v>
+      </c>
+      <c r="L367">
         <v>3</v>
       </c>
-      <c r="I367">
-        <v>2</v>
-      </c>
-      <c r="J367" t="s">
-        <v>57</v>
-      </c>
-      <c r="K367">
-        <v>2.25</v>
-      </c>
-      <c r="L367">
-        <v>2.9</v>
-      </c>
       <c r="M367">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N367">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O367">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P367">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q367">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R367">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S367">
+        <v>1.825</v>
+      </c>
+      <c r="T367">
+        <v>2</v>
+      </c>
+      <c r="U367">
+        <v>1.825</v>
+      </c>
+      <c r="V367">
         <v>1.975</v>
       </c>
-      <c r="T367">
-        <v>2</v>
-      </c>
-      <c r="U367">
-        <v>1.975</v>
-      </c>
-      <c r="V367">
-        <v>1.825</v>
-      </c>
       <c r="W367">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB367">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33398,7 +33398,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7712421</v>
+        <v>7712422</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33410,76 +33410,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F370" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G370" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J370" t="s">
         <v>55</v>
       </c>
       <c r="K370">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L370">
+        <v>3.2</v>
+      </c>
+      <c r="M370">
+        <v>3.6</v>
+      </c>
+      <c r="N370">
+        <v>2.05</v>
+      </c>
+      <c r="O370">
+        <v>3.25</v>
+      </c>
+      <c r="P370">
         <v>3.1</v>
       </c>
-      <c r="M370">
-        <v>3.4</v>
-      </c>
-      <c r="N370">
-        <v>2.8</v>
-      </c>
-      <c r="O370">
-        <v>2.875</v>
-      </c>
-      <c r="P370">
-        <v>2.55</v>
-      </c>
       <c r="Q370">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R370">
+        <v>1.8</v>
+      </c>
+      <c r="S370">
+        <v>2</v>
+      </c>
+      <c r="T370">
+        <v>2.25</v>
+      </c>
+      <c r="U370">
         <v>2.025</v>
       </c>
-      <c r="S370">
+      <c r="V370">
         <v>1.775</v>
       </c>
-      <c r="T370">
-        <v>2</v>
-      </c>
-      <c r="U370">
-        <v>1.975</v>
-      </c>
-      <c r="V370">
-        <v>1.825</v>
-      </c>
       <c r="W370">
         <v>-1</v>
       </c>
       <c r="X370">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y370">
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA370">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB370">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC370">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33487,7 +33487,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7712422</v>
+        <v>7712421</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33499,76 +33499,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F371" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G371" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J371" t="s">
         <v>55</v>
       </c>
       <c r="K371">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L371">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M371">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N371">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O371">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P371">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q371">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R371">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S371">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T371">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U371">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V371">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W371">
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA371">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB371">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC371">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33682,6 +33682,15 @@
       <c r="G373" t="s">
         <v>53</v>
       </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373" t="s">
+        <v>56</v>
+      </c>
       <c r="K373">
         <v>1.6</v>
       </c>
@@ -33698,40 +33707,46 @@
         <v>3.6</v>
       </c>
       <c r="P373">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q373">
         <v>-1</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S373">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U373">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V373">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB373">
+        <v>-1</v>
+      </c>
+      <c r="AC373">
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33756,6 +33771,15 @@
       <c r="G374" t="s">
         <v>30</v>
       </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>2</v>
+      </c>
+      <c r="J374" t="s">
+        <v>56</v>
+      </c>
       <c r="K374">
         <v>3.2</v>
       </c>
@@ -33766,10 +33790,10 @@
         <v>2.2</v>
       </c>
       <c r="N374">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O374">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P374">
         <v>2.15</v>
@@ -33778,34 +33802,40 @@
         <v>0.25</v>
       </c>
       <c r="R374">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S374">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T374">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U374">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V374">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA374">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB374">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC374">
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33830,6 +33860,15 @@
       <c r="G375" t="s">
         <v>40</v>
       </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>3</v>
+      </c>
+      <c r="J375" t="s">
+        <v>56</v>
+      </c>
       <c r="K375">
         <v>2</v>
       </c>
@@ -33840,45 +33879,199 @@
         <v>3.6</v>
       </c>
       <c r="N375">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O375">
         <v>3</v>
       </c>
       <c r="P375">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q375">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R375">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S375">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T375">
         <v>2.25</v>
       </c>
       <c r="U375">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y375">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB375">
+        <v>1</v>
+      </c>
+      <c r="AC375">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>7712428</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45343.42708333334</v>
+      </c>
+      <c r="F376" t="s">
+        <v>45</v>
+      </c>
+      <c r="G376" t="s">
+        <v>49</v>
+      </c>
+      <c r="K376">
+        <v>2.3</v>
+      </c>
+      <c r="L376">
+        <v>2.8</v>
+      </c>
+      <c r="M376">
+        <v>3.1</v>
+      </c>
+      <c r="N376">
+        <v>2.25</v>
+      </c>
+      <c r="O376">
+        <v>2.8</v>
+      </c>
+      <c r="P376">
+        <v>3.2</v>
+      </c>
+      <c r="Q376">
+        <v>-0.25</v>
+      </c>
+      <c r="R376">
+        <v>1.975</v>
+      </c>
+      <c r="S376">
+        <v>1.825</v>
+      </c>
+      <c r="T376">
+        <v>2</v>
+      </c>
+      <c r="U376">
+        <v>1.95</v>
+      </c>
+      <c r="V376">
+        <v>1.85</v>
+      </c>
+      <c r="W376">
+        <v>0</v>
+      </c>
+      <c r="X376">
+        <v>0</v>
+      </c>
+      <c r="Y376">
+        <v>0</v>
+      </c>
+      <c r="Z376">
+        <v>0</v>
+      </c>
+      <c r="AA376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>7712429</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45343.51041666666</v>
+      </c>
+      <c r="F377" t="s">
+        <v>52</v>
+      </c>
+      <c r="G377" t="s">
+        <v>39</v>
+      </c>
+      <c r="K377">
+        <v>7.5</v>
+      </c>
+      <c r="L377">
+        <v>3.8</v>
+      </c>
+      <c r="M377">
+        <v>1.4</v>
+      </c>
+      <c r="N377">
+        <v>9</v>
+      </c>
+      <c r="O377">
+        <v>4.5</v>
+      </c>
+      <c r="P377">
+        <v>1.285</v>
+      </c>
+      <c r="Q377">
+        <v>1.5</v>
+      </c>
+      <c r="R377">
+        <v>1.925</v>
+      </c>
+      <c r="S377">
+        <v>1.875</v>
+      </c>
+      <c r="T377">
+        <v>2.5</v>
+      </c>
+      <c r="U377">
+        <v>1.925</v>
+      </c>
+      <c r="V377">
+        <v>1.875</v>
+      </c>
+      <c r="W377">
+        <v>0</v>
+      </c>
+      <c r="X377">
+        <v>0</v>
+      </c>
+      <c r="Y377">
+        <v>0</v>
+      </c>
+      <c r="Z377">
+        <v>0</v>
+      </c>
+      <c r="AA377">
         <v>0</v>
       </c>
     </row>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -160,10 +160,10 @@
     <t>Al Najma</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
     <t>Al Adalh</t>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC377"/>
+  <dimension ref="A1:AC378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10436,7 +10436,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6125224</v>
+        <v>6125187</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10448,55 +10448,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>1</v>
-      </c>
-      <c r="I112">
-        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>56</v>
       </c>
       <c r="K112">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M112">
+        <v>2.4</v>
+      </c>
+      <c r="N112">
+        <v>2.8</v>
+      </c>
+      <c r="O112">
+        <v>2.8</v>
+      </c>
+      <c r="P112">
+        <v>2.45</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>2.05</v>
+      </c>
+      <c r="S112">
         <v>1.75</v>
       </c>
-      <c r="N112">
-        <v>4.333</v>
-      </c>
-      <c r="O112">
-        <v>3</v>
-      </c>
-      <c r="P112">
-        <v>1.833</v>
-      </c>
-      <c r="Q112">
-        <v>0.5</v>
-      </c>
-      <c r="R112">
-        <v>1.975</v>
-      </c>
-      <c r="S112">
-        <v>1.825</v>
-      </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10505,19 +10505,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,7 +10525,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6125187</v>
+        <v>6125224</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10537,55 +10537,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>56</v>
       </c>
       <c r="K113">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L113">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N113">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O113">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P113">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10594,19 +10594,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10792,7 +10792,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6125325</v>
+        <v>6125190</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10804,76 +10804,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K116">
-        <v>1.1</v>
+        <v>1.444</v>
       </c>
       <c r="L116">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M116">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="N116">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O116">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q116">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X116">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10881,7 +10881,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6125190</v>
+        <v>6125325</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10893,76 +10893,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K117">
-        <v>1.444</v>
+        <v>1.1</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M117">
+        <v>13</v>
+      </c>
+      <c r="N117">
+        <v>1.222</v>
+      </c>
+      <c r="O117">
         <v>5.5</v>
       </c>
-      <c r="N117">
-        <v>1.533</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
+        <v>1.75</v>
+      </c>
+      <c r="V117">
         <v>1.95</v>
       </c>
-      <c r="S117">
-        <v>1.85</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.8</v>
-      </c>
-      <c r="V117">
-        <v>2</v>
-      </c>
       <c r="W117">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>0.925</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
-      <c r="AB117">
-        <v>0.8</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11860,7 +11860,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6125193</v>
+        <v>6125192</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11872,49 +11872,49 @@
         <v>45040.61111111111</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>56</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N128">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="O128">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.925</v>
@@ -11929,13 +11929,13 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB128">
         <v>0.925</v>
@@ -11949,7 +11949,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6125192</v>
+        <v>6125193</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11961,49 +11961,49 @@
         <v>45040.61111111111</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
         <v>56</v>
       </c>
       <c r="K129">
-        <v>6.25</v>
+        <v>4</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N129">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="Q129">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U129">
         <v>1.925</v>
@@ -12018,13 +12018,13 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB129">
         <v>0.925</v>
@@ -12305,7 +12305,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6125194</v>
+        <v>6125227</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12317,76 +12317,76 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K133">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>1.85</v>
+      </c>
+      <c r="N133">
+        <v>4.333</v>
+      </c>
+      <c r="O133">
         <v>3</v>
       </c>
-      <c r="M133">
-        <v>2.55</v>
-      </c>
-      <c r="N133">
-        <v>3.1</v>
-      </c>
-      <c r="O133">
-        <v>2.875</v>
-      </c>
       <c r="P133">
+        <v>1.833</v>
+      </c>
+      <c r="Q133">
+        <v>0.5</v>
+      </c>
+      <c r="R133">
+        <v>1.925</v>
+      </c>
+      <c r="S133">
+        <v>1.875</v>
+      </c>
+      <c r="T133">
         <v>2.25</v>
       </c>
-      <c r="Q133">
-        <v>0.25</v>
-      </c>
-      <c r="R133">
-        <v>1.825</v>
-      </c>
-      <c r="S133">
-        <v>1.975</v>
-      </c>
-      <c r="T133">
-        <v>2</v>
-      </c>
       <c r="U133">
+        <v>2.025</v>
+      </c>
+      <c r="V133">
         <v>1.775</v>
       </c>
-      <c r="V133">
-        <v>2.025</v>
-      </c>
       <c r="W133">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6125227</v>
+        <v>6125194</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12406,76 +12406,76 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K134">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O134">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P134">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U134">
+        <v>1.775</v>
+      </c>
+      <c r="V134">
         <v>2.025</v>
       </c>
-      <c r="V134">
-        <v>1.775</v>
-      </c>
       <c r="W134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>1.025</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -15153,7 +15153,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6125549</v>
+        <v>6125205</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15165,76 +15165,76 @@
         <v>45069.625</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
       <c r="J165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K165">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M165">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N165">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O165">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P165">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T165">
         <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z165">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6125207</v>
+        <v>6125204</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,76 +15254,76 @@
         <v>45069.625</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K166">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L166">
         <v>3</v>
       </c>
       <c r="M166">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N166">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O166">
         <v>2.9</v>
       </c>
       <c r="P166">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
         <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W166">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB166">
         <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6125327</v>
+        <v>6125149</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,76 +15343,76 @@
         <v>45069.625</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L167">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15420,7 +15420,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6125206</v>
+        <v>6125327</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15432,76 +15432,76 @@
         <v>45069.625</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K168">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L168">
         <v>3.1</v>
       </c>
       <c r="M168">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N168">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O168">
         <v>3.3</v>
       </c>
       <c r="P168">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q168">
         <v>0.25</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z168">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15509,7 +15509,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6125205</v>
+        <v>6125206</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15521,76 +15521,76 @@
         <v>45069.625</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K169">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L169">
         <v>3.1</v>
       </c>
       <c r="M169">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N169">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O169">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P169">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S169">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA169">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6125204</v>
+        <v>6125549</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15610,76 +15610,76 @@
         <v>45069.625</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K170">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M170">
+        <v>5.5</v>
+      </c>
+      <c r="N170">
+        <v>1.666</v>
+      </c>
+      <c r="O170">
         <v>3.3</v>
       </c>
-      <c r="N170">
-        <v>2.3</v>
-      </c>
-      <c r="O170">
-        <v>2.9</v>
-      </c>
       <c r="P170">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
         <v>2.25</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V170">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X170">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
+        <v>0.475</v>
+      </c>
+      <c r="AA170">
         <v>-0.5</v>
       </c>
-      <c r="AA170">
-        <v>0.4125</v>
-      </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6125149</v>
+        <v>6125207</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15699,10 +15699,10 @@
         <v>45069.625</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15714,61 +15714,61 @@
         <v>57</v>
       </c>
       <c r="K171">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N171">
+        <v>2.6</v>
+      </c>
+      <c r="O171">
+        <v>2.9</v>
+      </c>
+      <c r="P171">
+        <v>2.6</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
         <v>1.85</v>
       </c>
-      <c r="O171">
-        <v>3.4</v>
-      </c>
-      <c r="P171">
-        <v>3.6</v>
-      </c>
-      <c r="Q171">
+      <c r="S171">
+        <v>1.95</v>
+      </c>
+      <c r="T171">
+        <v>2.25</v>
+      </c>
+      <c r="U171">
+        <v>1.925</v>
+      </c>
+      <c r="V171">
+        <v>1.875</v>
+      </c>
+      <c r="W171">
+        <v>1.6</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
         <v>-0.5</v>
       </c>
-      <c r="R171">
-        <v>1.95</v>
-      </c>
-      <c r="S171">
-        <v>1.85</v>
-      </c>
-      <c r="T171">
-        <v>2.5</v>
-      </c>
-      <c r="U171">
-        <v>1.9</v>
-      </c>
-      <c r="V171">
-        <v>1.9</v>
-      </c>
-      <c r="W171">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>0.95</v>
-      </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6125150</v>
+        <v>6125550</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,13 +15877,13 @@
         <v>45075.625</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -15892,43 +15892,43 @@
         <v>57</v>
       </c>
       <c r="K173">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="N173">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>2.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>1.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15937,13 +15937,13 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6125151</v>
+        <v>6125150</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,40 +15966,40 @@
         <v>45075.625</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H174">
+        <v>4</v>
+      </c>
+      <c r="I174">
         <v>1</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>57</v>
       </c>
       <c r="K174">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
+        <v>2.3</v>
+      </c>
+      <c r="N174">
+        <v>2.4</v>
+      </c>
+      <c r="O174">
         <v>3.6</v>
       </c>
-      <c r="N174">
-        <v>2.05</v>
-      </c>
-      <c r="O174">
-        <v>3.2</v>
-      </c>
       <c r="P174">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R174">
         <v>2.025</v>
@@ -16008,7 +16008,7 @@
         <v>1.775</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
         <v>1.95</v>
@@ -16017,7 +16017,7 @@
         <v>1.85</v>
       </c>
       <c r="W174">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16032,10 +16032,10 @@
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6125550</v>
+        <v>6125329</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,46 +16055,46 @@
         <v>45075.625</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K175">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M175">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N175">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>8.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
         <v>2.25</v>
@@ -16106,25 +16106,25 @@
         <v>1.9</v>
       </c>
       <c r="W175">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC175">
-        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6125551</v>
+        <v>6125464</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,76 +16144,76 @@
         <v>45075.625</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K176">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M176">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N176">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P176">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X176">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16221,7 +16221,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6125464</v>
+        <v>6125151</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16233,13 +16233,13 @@
         <v>45075.625</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16248,34 +16248,34 @@
         <v>57</v>
       </c>
       <c r="K177">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M177">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N177">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O177">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U177">
         <v>1.95</v>
@@ -16284,7 +16284,7 @@
         <v>1.85</v>
       </c>
       <c r="W177">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16293,7 +16293,7 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -16310,7 +16310,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6125329</v>
+        <v>6125328</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16322,76 +16322,76 @@
         <v>45075.625</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K178">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L178">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O178">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X178">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6125328</v>
+        <v>6125551</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,76 +16411,76 @@
         <v>45075.625</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K179">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L179">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N179">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="O179">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.4625</v>
+        <v>0.5125</v>
       </c>
       <c r="AA179">
         <v>-0.5</v>
       </c>
       <c r="AB179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16577,7 +16577,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6991273</v>
+        <v>6990923</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16589,13 +16589,13 @@
         <v>45152.56597222222</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -16604,43 +16604,43 @@
         <v>57</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M181">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N181">
+        <v>2.55</v>
+      </c>
+      <c r="O181">
+        <v>2.7</v>
+      </c>
+      <c r="P181">
+        <v>2.9</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
         <v>1.95</v>
       </c>
-      <c r="O181">
-        <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>3.6</v>
-      </c>
-      <c r="Q181">
-        <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
         <v>1.8</v>
       </c>
-      <c r="T181">
-        <v>2</v>
-      </c>
-      <c r="U181">
-        <v>1.775</v>
-      </c>
-      <c r="V181">
-        <v>2.025</v>
-      </c>
       <c r="W181">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16649,16 +16649,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16666,7 +16666,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6990923</v>
+        <v>6991273</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16678,13 +16678,13 @@
         <v>45152.56597222222</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -16693,43 +16693,43 @@
         <v>57</v>
       </c>
       <c r="K182">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N182">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O182">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P182">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16738,16 +16738,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16755,7 +16755,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6991275</v>
+        <v>6991274</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16767,40 +16767,40 @@
         <v>45153.55208333334</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K183">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N183">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O183">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R183">
         <v>1.95</v>
@@ -16812,31 +16812,31 @@
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X183">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA183">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC183">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16844,7 +16844,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6991274</v>
+        <v>6991275</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16856,40 +16856,40 @@
         <v>45153.55208333334</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G184" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>55</v>
+      </c>
+      <c r="K184">
+        <v>2.375</v>
+      </c>
+      <c r="L184">
         <v>3</v>
       </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184" t="s">
-        <v>57</v>
-      </c>
-      <c r="K184">
-        <v>1.666</v>
-      </c>
-      <c r="L184">
-        <v>3.5</v>
-      </c>
       <c r="M184">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N184">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O184">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P184">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q184">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
         <v>1.95</v>
@@ -16901,31 +16901,31 @@
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W184">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB184">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17111,7 +17111,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17126,10 +17126,10 @@
         <v>48</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17138,43 +17138,43 @@
         <v>57</v>
       </c>
       <c r="K187">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N187">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P187">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
         <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17183,16 +17183,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17200,7 +17200,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17215,10 +17215,10 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17227,61 +17227,61 @@
         <v>57</v>
       </c>
       <c r="K188">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N188">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O188">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W188">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0.8</v>
       </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0.825</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
-      <c r="AB188">
-        <v>-0.5</v>
-      </c>
       <c r="AC188">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17927,7 +17927,7 @@
         <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18016,7 +18016,7 @@
         <v>53</v>
       </c>
       <c r="G197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18179,7 +18179,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6991276</v>
+        <v>6991277</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18191,13 +18191,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G199" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18206,43 +18206,43 @@
         <v>57</v>
       </c>
       <c r="K199">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M199">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N199">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O199">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P199">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q199">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
         <v>1.8</v>
       </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>2</v>
-      </c>
       <c r="V199">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18251,16 +18251,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18268,7 +18268,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6991277</v>
+        <v>6991276</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18280,13 +18280,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F200" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -18295,43 +18295,43 @@
         <v>57</v>
       </c>
       <c r="K200">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L200">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N200">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O200">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P200">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T200">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
+        <v>2</v>
+      </c>
+      <c r="V200">
         <v>1.8</v>
       </c>
-      <c r="V200">
-        <v>2</v>
-      </c>
       <c r="W200">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18340,16 +18340,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA200">
         <v>-1</v>
       </c>
       <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>0.8</v>
-      </c>
-      <c r="AC200">
-        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18550,7 +18550,7 @@
         <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18903,7 +18903,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>
@@ -18980,7 +18980,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6991415</v>
+        <v>6991315</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18992,13 +18992,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F208" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G208" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I208">
         <v>2</v>
@@ -19007,43 +19007,43 @@
         <v>57</v>
       </c>
       <c r="K208">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N208">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O208">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P208">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19052,13 +19052,13 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19069,7 +19069,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6991315</v>
+        <v>6991415</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19081,13 +19081,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I209">
         <v>2</v>
@@ -19096,43 +19096,43 @@
         <v>57</v>
       </c>
       <c r="K209">
+        <v>2.4</v>
+      </c>
+      <c r="L209">
+        <v>3.2</v>
+      </c>
+      <c r="M209">
+        <v>2.6</v>
+      </c>
+      <c r="N209">
+        <v>2.3</v>
+      </c>
+      <c r="O209">
+        <v>3.2</v>
+      </c>
+      <c r="P209">
         <v>2.75</v>
       </c>
-      <c r="L209">
-        <v>3.25</v>
-      </c>
-      <c r="M209">
-        <v>2.25</v>
-      </c>
-      <c r="N209">
-        <v>2.75</v>
-      </c>
-      <c r="O209">
-        <v>3.25</v>
-      </c>
-      <c r="P209">
-        <v>2.25</v>
-      </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
+        <v>2.025</v>
+      </c>
+      <c r="S209">
+        <v>1.775</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
         <v>1.8</v>
       </c>
-      <c r="S209">
-        <v>2</v>
-      </c>
-      <c r="T209">
-        <v>2.25</v>
-      </c>
-      <c r="U209">
-        <v>1.925</v>
-      </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W209">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19141,13 +19141,13 @@
         <v>-1</v>
       </c>
       <c r="Z209">
+        <v>1.025</v>
+      </c>
+      <c r="AA209">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
         <v>0.8</v>
-      </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
-      <c r="AB209">
-        <v>0.925</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19247,7 +19247,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19259,76 +19259,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>55</v>
+      </c>
+      <c r="K211">
+        <v>3.3</v>
+      </c>
+      <c r="L211">
+        <v>3.1</v>
+      </c>
+      <c r="M211">
+        <v>2.05</v>
+      </c>
+      <c r="N211">
+        <v>5.5</v>
+      </c>
+      <c r="O211">
+        <v>3.5</v>
+      </c>
+      <c r="P211">
+        <v>1.571</v>
+      </c>
+      <c r="Q211">
+        <v>0.75</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>1.8</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
+        <v>1.775</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>2.5</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
         <v>1</v>
       </c>
-      <c r="I211">
-        <v>2</v>
-      </c>
-      <c r="J211" t="s">
-        <v>56</v>
-      </c>
-      <c r="K211">
-        <v>2.6</v>
-      </c>
-      <c r="L211">
-        <v>2.875</v>
-      </c>
-      <c r="M211">
-        <v>2.625</v>
-      </c>
-      <c r="N211">
-        <v>2.55</v>
-      </c>
-      <c r="O211">
-        <v>2.875</v>
-      </c>
-      <c r="P211">
-        <v>2.7</v>
-      </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
-        <v>1.85</v>
-      </c>
-      <c r="S211">
-        <v>1.95</v>
-      </c>
-      <c r="T211">
-        <v>2</v>
-      </c>
-      <c r="U211">
-        <v>1.8</v>
-      </c>
-      <c r="V211">
-        <v>2</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
-      <c r="X211">
-        <v>-1</v>
-      </c>
-      <c r="Y211">
-        <v>1.7</v>
-      </c>
-      <c r="Z211">
-        <v>-1</v>
-      </c>
       <c r="AA211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19336,7 +19336,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19348,76 +19348,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K212">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N212">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P212">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q212">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S212">
+        <v>1.95</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
         <v>1.8</v>
       </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>2.025</v>
-      </c>
       <c r="V212">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC212">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19440,7 +19440,7 @@
         <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19704,7 +19704,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19971,7 +19971,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G219" t="s">
         <v>45</v>
@@ -20063,7 +20063,7 @@
         <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20315,7 +20315,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6991418</v>
+        <v>6991322</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20327,76 +20327,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K223">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N223">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P223">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S223">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA223">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20404,7 +20404,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6991322</v>
+        <v>6991418</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20416,76 +20416,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G224" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H224">
         <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K224">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L224">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N224">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O224">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P224">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z224">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC224">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20594,7 +20594,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G226" t="s">
         <v>45</v>
@@ -21220,7 +21220,7 @@
         <v>52</v>
       </c>
       <c r="G233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21383,7 +21383,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6991336</v>
+        <v>6991337</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21395,76 +21395,76 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K235">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M235">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="N235">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O235">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R235">
+        <v>2.05</v>
+      </c>
+      <c r="S235">
+        <v>1.75</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
         <v>1.85</v>
       </c>
-      <c r="S235">
+      <c r="V235">
         <v>1.95</v>
       </c>
-      <c r="T235">
-        <v>2</v>
-      </c>
-      <c r="U235">
-        <v>1.9</v>
-      </c>
-      <c r="V235">
-        <v>1.9</v>
-      </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21472,7 +21472,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6991337</v>
+        <v>6991336</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21484,76 +21484,76 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K236">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L236">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M236">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="N236">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y236">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB236">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21840,7 +21840,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G240" t="s">
         <v>31</v>
@@ -21917,7 +21917,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21929,73 +21929,73 @@
         <v>45203.5</v>
       </c>
       <c r="F241" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241" t="s">
+        <v>56</v>
+      </c>
+      <c r="K241">
+        <v>2.1</v>
+      </c>
+      <c r="L241">
         <v>3</v>
       </c>
-      <c r="I241">
-        <v>2</v>
-      </c>
-      <c r="J241" t="s">
-        <v>57</v>
-      </c>
-      <c r="K241">
-        <v>5.5</v>
-      </c>
-      <c r="L241">
-        <v>3.75</v>
-      </c>
       <c r="M241">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N241">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O241">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P241">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U241">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W241">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB241">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -22006,7 +22006,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22018,73 +22018,73 @@
         <v>45203.5</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G242" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H242">
+        <v>3</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242" t="s">
+        <v>57</v>
+      </c>
+      <c r="K242">
+        <v>5.5</v>
+      </c>
+      <c r="L242">
+        <v>3.75</v>
+      </c>
+      <c r="M242">
+        <v>1.5</v>
+      </c>
+      <c r="N242">
+        <v>4.5</v>
+      </c>
+      <c r="O242">
+        <v>3.5</v>
+      </c>
+      <c r="P242">
+        <v>1.615</v>
+      </c>
+      <c r="Q242">
+        <v>0.75</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>1.8</v>
+      </c>
+      <c r="T242">
+        <v>2.5</v>
+      </c>
+      <c r="U242">
+        <v>1.9</v>
+      </c>
+      <c r="V242">
+        <v>1.9</v>
+      </c>
+      <c r="W242">
+        <v>3.5</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
         <v>1</v>
       </c>
-      <c r="I242">
-        <v>2</v>
-      </c>
-      <c r="J242" t="s">
-        <v>56</v>
-      </c>
-      <c r="K242">
-        <v>2.1</v>
-      </c>
-      <c r="L242">
-        <v>3</v>
-      </c>
-      <c r="M242">
-        <v>3.25</v>
-      </c>
-      <c r="N242">
-        <v>2</v>
-      </c>
-      <c r="O242">
-        <v>3</v>
-      </c>
-      <c r="P242">
-        <v>3.8</v>
-      </c>
-      <c r="Q242">
-        <v>-0.25</v>
-      </c>
-      <c r="R242">
-        <v>1.775</v>
-      </c>
-      <c r="S242">
-        <v>2.025</v>
-      </c>
-      <c r="T242">
-        <v>2</v>
-      </c>
-      <c r="U242">
-        <v>1.725</v>
-      </c>
-      <c r="V242">
-        <v>1.975</v>
-      </c>
-      <c r="W242">
-        <v>-1</v>
-      </c>
-      <c r="X242">
-        <v>-1</v>
-      </c>
-      <c r="Y242">
-        <v>2.8</v>
-      </c>
-      <c r="Z242">
-        <v>-1</v>
-      </c>
       <c r="AA242">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22110,7 +22110,7 @@
         <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22374,7 +22374,7 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G246" t="s">
         <v>31</v>
@@ -22451,7 +22451,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6991422</v>
+        <v>6991347</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22463,76 +22463,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F247" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K247">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L247">
+        <v>4.75</v>
+      </c>
+      <c r="M247">
+        <v>9</v>
+      </c>
+      <c r="N247">
+        <v>1.55</v>
+      </c>
+      <c r="O247">
         <v>3.75</v>
       </c>
-      <c r="M247">
-        <v>4.333</v>
-      </c>
-      <c r="N247">
-        <v>1.75</v>
-      </c>
-      <c r="O247">
-        <v>3.5</v>
-      </c>
       <c r="P247">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R247">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V247">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W247">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z247">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC247">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22540,7 +22540,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6991347</v>
+        <v>6991422</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22552,76 +22552,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G248" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K248">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L248">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M248">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N248">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O248">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P248">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA248">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22997,10 +22997,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F253" t="s">
+        <v>49</v>
+      </c>
+      <c r="G253" t="s">
         <v>48</v>
-      </c>
-      <c r="G253" t="s">
-        <v>49</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23341,7 +23341,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6991356</v>
+        <v>6991425</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23353,76 +23353,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G257" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J257" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K257">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L257">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M257">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N257">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O257">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P257">
+        <v>2.6</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>1.9</v>
+      </c>
+      <c r="S257">
+        <v>1.9</v>
+      </c>
+      <c r="T257">
         <v>2.25</v>
       </c>
-      <c r="Q257">
-        <v>0.25</v>
-      </c>
-      <c r="R257">
-        <v>1.825</v>
-      </c>
-      <c r="S257">
-        <v>1.975</v>
-      </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
       <c r="U257">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W257">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z257">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC257">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23430,7 +23430,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6991425</v>
+        <v>6991356</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23442,76 +23442,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F258" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G258" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K258">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L258">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M258">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N258">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O258">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P258">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q258">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R258">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S258">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T258">
+        <v>2</v>
+      </c>
+      <c r="U258">
+        <v>1.85</v>
+      </c>
+      <c r="V258">
+        <v>1.95</v>
+      </c>
+      <c r="W258">
         <v>2.25</v>
       </c>
-      <c r="U258">
-        <v>2.025</v>
-      </c>
-      <c r="V258">
-        <v>1.775</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23608,7 +23608,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23620,19 +23620,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F260" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G260" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K260">
         <v>2.75</v>
@@ -23644,52 +23644,52 @@
         <v>2.4</v>
       </c>
       <c r="N260">
+        <v>3.2</v>
+      </c>
+      <c r="O260">
+        <v>3.1</v>
+      </c>
+      <c r="P260">
         <v>2.15</v>
       </c>
-      <c r="O260">
-        <v>3.2</v>
-      </c>
-      <c r="P260">
-        <v>3.25</v>
-      </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R260">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T260">
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V260">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W260">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB260">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23697,7 +23697,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23709,19 +23709,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G261" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K261">
         <v>2.75</v>
@@ -23733,52 +23733,52 @@
         <v>2.4</v>
       </c>
       <c r="N261">
+        <v>2.15</v>
+      </c>
+      <c r="O261">
         <v>3.2</v>
       </c>
-      <c r="O261">
-        <v>3.1</v>
-      </c>
       <c r="P261">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q261">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S261">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T261">
         <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V261">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X261">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA261">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC261">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23798,7 +23798,7 @@
         <v>45236.5625</v>
       </c>
       <c r="F262" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G262" t="s">
         <v>47</v>
@@ -24688,7 +24688,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F272" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G272" t="s">
         <v>40</v>
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,76 +25133,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G277" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K277">
         <v>1.727</v>
       </c>
       <c r="L277">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M277">
         <v>4.333</v>
       </c>
       <c r="N277">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O277">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P277">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q277">
         <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V277">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA277">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25222,76 +25222,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F278" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G278" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J278" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K278">
         <v>1.727</v>
       </c>
       <c r="L278">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M278">
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O278">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P278">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q278">
         <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S278">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T278">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U278">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V278">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB278">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC278">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25314,7 +25314,7 @@
         <v>50</v>
       </c>
       <c r="G279" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -25581,7 +25581,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25934,7 +25934,7 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F286" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G286" t="s">
         <v>52</v>
@@ -26293,7 +26293,7 @@
         <v>32</v>
       </c>
       <c r="G290" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26471,7 +26471,7 @@
         <v>47</v>
       </c>
       <c r="G292" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -27002,7 +27002,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F298" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G298" t="s">
         <v>29</v>
@@ -27536,7 +27536,7 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F304" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G304" t="s">
         <v>50</v>
@@ -27803,7 +27803,7 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G307" t="s">
         <v>51</v>
@@ -28429,7 +28429,7 @@
         <v>33</v>
       </c>
       <c r="G314" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -28963,7 +28963,7 @@
         <v>44</v>
       </c>
       <c r="G320" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -29141,7 +29141,7 @@
         <v>51</v>
       </c>
       <c r="G322" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H322">
         <v>2</v>
@@ -29660,7 +29660,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6991407</v>
+        <v>6991443</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29672,76 +29672,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F328" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G328" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I328">
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K328">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L328">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M328">
+        <v>3</v>
+      </c>
+      <c r="N328">
+        <v>2.05</v>
+      </c>
+      <c r="O328">
+        <v>3.1</v>
+      </c>
+      <c r="P328">
+        <v>3.3</v>
+      </c>
+      <c r="Q328">
+        <v>-0.25</v>
+      </c>
+      <c r="R328">
+        <v>1.85</v>
+      </c>
+      <c r="S328">
+        <v>1.95</v>
+      </c>
+      <c r="T328">
         <v>2.5</v>
       </c>
-      <c r="N328">
-        <v>2.5</v>
-      </c>
-      <c r="O328">
-        <v>3.2</v>
-      </c>
-      <c r="P328">
-        <v>2.5</v>
-      </c>
-      <c r="Q328">
-        <v>0</v>
-      </c>
-      <c r="R328">
-        <v>1.9</v>
-      </c>
-      <c r="S328">
-        <v>1.9</v>
-      </c>
-      <c r="T328">
-        <v>2</v>
-      </c>
       <c r="U328">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V328">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W328">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X328">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA328">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB328">
         <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29749,7 +29749,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6991443</v>
+        <v>6991407</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29761,76 +29761,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F329" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G329" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329">
         <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K329">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L329">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M329">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N329">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O329">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P329">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q329">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R329">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S329">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T329">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U329">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V329">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W329">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X329">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB329">
         <v>-1</v>
       </c>
       <c r="AC329">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30028,7 +30028,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G332" t="s">
         <v>44</v>
@@ -30743,7 +30743,7 @@
         <v>35</v>
       </c>
       <c r="G340" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -30832,7 +30832,7 @@
         <v>53</v>
       </c>
       <c r="G341" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31363,7 +31363,7 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F347" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G347" t="s">
         <v>35</v>
@@ -31452,7 +31452,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F348" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G348" t="s">
         <v>53</v>
@@ -31707,7 +31707,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31719,40 +31719,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F351" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G351" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K351">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L351">
+        <v>3.25</v>
+      </c>
+      <c r="M351">
+        <v>4</v>
+      </c>
+      <c r="N351">
+        <v>1.909</v>
+      </c>
+      <c r="O351">
         <v>3.1</v>
       </c>
-      <c r="M351">
-        <v>2.2</v>
-      </c>
-      <c r="N351">
-        <v>2.7</v>
-      </c>
-      <c r="O351">
-        <v>3</v>
-      </c>
       <c r="P351">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q351">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
         <v>1.95</v>
@@ -31761,34 +31761,34 @@
         <v>1.85</v>
       </c>
       <c r="T351">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U351">
+        <v>1.95</v>
+      </c>
+      <c r="V351">
         <v>1.85</v>
       </c>
-      <c r="V351">
-        <v>1.95</v>
-      </c>
       <c r="W351">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA351">
+        <v>-1</v>
+      </c>
+      <c r="AB351">
+        <v>-1</v>
+      </c>
+      <c r="AC351">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB351">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC351">
-        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31796,7 +31796,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31808,40 +31808,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F352" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G352" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J352" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K352">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L352">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M352">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N352">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O352">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P352">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q352">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R352">
         <v>1.95</v>
@@ -31850,34 +31850,34 @@
         <v>1.85</v>
       </c>
       <c r="T352">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U352">
+        <v>1.85</v>
+      </c>
+      <c r="V352">
         <v>1.95</v>
       </c>
-      <c r="V352">
-        <v>1.85</v>
-      </c>
       <c r="W352">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z352">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC352">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32075,7 +32075,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F355" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G355" t="s">
         <v>39</v>
@@ -32256,7 +32256,7 @@
         <v>30</v>
       </c>
       <c r="G357" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -32508,7 +32508,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32520,40 +32520,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F360" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J360" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K360">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L360">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M360">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N360">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O360">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P360">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q360">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R360">
         <v>1.975</v>
@@ -32562,34 +32562,34 @@
         <v>1.825</v>
       </c>
       <c r="T360">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U360">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V360">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W360">
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z360">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC360">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32597,7 +32597,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32609,40 +32609,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F361" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G361" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K361">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L361">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M361">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N361">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O361">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P361">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q361">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R361">
         <v>1.975</v>
@@ -32651,34 +32651,34 @@
         <v>1.825</v>
       </c>
       <c r="T361">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V361">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W361">
         <v>-1</v>
       </c>
       <c r="X361">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y361">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA361">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -33054,7 +33054,7 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F366" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G366" t="s">
         <v>37</v>
@@ -33146,7 +33146,7 @@
         <v>30</v>
       </c>
       <c r="G367" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33932,7 +33932,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7712428</v>
+        <v>7712427</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33941,64 +33941,79 @@
         <v>28</v>
       </c>
       <c r="E376" s="2">
-        <v>45343.42708333334</v>
+        <v>45343.40625</v>
       </c>
       <c r="F376" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G376" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376" t="s">
+        <v>56</v>
       </c>
       <c r="K376">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L376">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M376">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N376">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O376">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P376">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q376">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R376">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S376">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T376">
         <v>2</v>
       </c>
       <c r="U376">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V376">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="Z376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0</v>
+        <v>1.075</v>
+      </c>
+      <c r="AB376">
+        <v>-1</v>
+      </c>
+      <c r="AC376">
+        <v>0.925</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34006,73 +34021,177 @@
         <v>375</v>
       </c>
       <c r="B377">
+        <v>7712428</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45343.42708333334</v>
+      </c>
+      <c r="F377" t="s">
+        <v>45</v>
+      </c>
+      <c r="G377" t="s">
+        <v>48</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377" t="s">
+        <v>56</v>
+      </c>
+      <c r="K377">
+        <v>2.3</v>
+      </c>
+      <c r="L377">
+        <v>2.8</v>
+      </c>
+      <c r="M377">
+        <v>3.1</v>
+      </c>
+      <c r="N377">
+        <v>2</v>
+      </c>
+      <c r="O377">
+        <v>2.9</v>
+      </c>
+      <c r="P377">
+        <v>3.75</v>
+      </c>
+      <c r="Q377">
+        <v>-0.25</v>
+      </c>
+      <c r="R377">
+        <v>1.775</v>
+      </c>
+      <c r="S377">
+        <v>2.025</v>
+      </c>
+      <c r="T377">
+        <v>2</v>
+      </c>
+      <c r="U377">
+        <v>1.95</v>
+      </c>
+      <c r="V377">
+        <v>1.85</v>
+      </c>
+      <c r="W377">
+        <v>-1</v>
+      </c>
+      <c r="X377">
+        <v>-1</v>
+      </c>
+      <c r="Y377">
+        <v>2.75</v>
+      </c>
+      <c r="Z377">
+        <v>-1</v>
+      </c>
+      <c r="AA377">
+        <v>1.025</v>
+      </c>
+      <c r="AB377">
+        <v>-1</v>
+      </c>
+      <c r="AC377">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
         <v>7712429</v>
       </c>
-      <c r="C377" t="s">
-        <v>28</v>
-      </c>
-      <c r="D377" t="s">
-        <v>28</v>
-      </c>
-      <c r="E377" s="2">
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="2">
         <v>45343.51041666666</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F378" t="s">
         <v>52</v>
       </c>
-      <c r="G377" t="s">
+      <c r="G378" t="s">
         <v>39</v>
       </c>
-      <c r="K377">
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>3</v>
+      </c>
+      <c r="J378" t="s">
+        <v>56</v>
+      </c>
+      <c r="K378">
         <v>7.5</v>
       </c>
-      <c r="L377">
+      <c r="L378">
         <v>3.8</v>
       </c>
-      <c r="M377">
+      <c r="M378">
         <v>1.4</v>
       </c>
-      <c r="N377">
-        <v>9</v>
-      </c>
-      <c r="O377">
-        <v>4.5</v>
-      </c>
-      <c r="P377">
+      <c r="N378">
+        <v>8.5</v>
+      </c>
+      <c r="O378">
+        <v>5</v>
+      </c>
+      <c r="P378">
         <v>1.285</v>
       </c>
-      <c r="Q377">
+      <c r="Q378">
         <v>1.5</v>
       </c>
-      <c r="R377">
-        <v>1.925</v>
-      </c>
-      <c r="S377">
-        <v>1.875</v>
-      </c>
-      <c r="T377">
+      <c r="R378">
+        <v>1.85</v>
+      </c>
+      <c r="S378">
+        <v>1.95</v>
+      </c>
+      <c r="T378">
         <v>2.5</v>
       </c>
-      <c r="U377">
-        <v>1.925</v>
-      </c>
-      <c r="V377">
-        <v>1.875</v>
-      </c>
-      <c r="W377">
-        <v>0</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>0</v>
-      </c>
-      <c r="Z377">
-        <v>0</v>
-      </c>
-      <c r="AA377">
-        <v>0</v>
+      <c r="U378">
+        <v>1.825</v>
+      </c>
+      <c r="V378">
+        <v>1.975</v>
+      </c>
+      <c r="W378">
+        <v>-1</v>
+      </c>
+      <c r="X378">
+        <v>-1</v>
+      </c>
+      <c r="Y378">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z378">
+        <v>-1</v>
+      </c>
+      <c r="AA378">
+        <v>0.95</v>
+      </c>
+      <c r="AB378">
+        <v>0.825</v>
+      </c>
+      <c r="AC378">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -160,10 +160,10 @@
     <t>Al Najma</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
     <t>Al Adalh</t>
@@ -3850,7 +3850,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6095143</v>
+        <v>6095144</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3862,76 +3862,76 @@
         <v>44954.41319444445</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X38">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
         <v>-0.5</v>
       </c>
-      <c r="AA38">
-        <v>0.45</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3939,7 +3939,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6095144</v>
+        <v>6095143</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3951,76 +3951,76 @@
         <v>44954.41319444445</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -5363,7 +5363,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6095161</v>
+        <v>6095160</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5375,16 +5375,16 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
@@ -5393,37 +5393,37 @@
         <v>2.5</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O55">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
         <v>1.8</v>
       </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
       <c r="T55">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5432,19 +5432,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5452,7 +5452,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6095160</v>
+        <v>6095161</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5464,16 +5464,16 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>1</v>
-      </c>
-      <c r="I56">
-        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>56</v>
@@ -5482,37 +5482,37 @@
         <v>2.5</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N56">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5521,19 +5521,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -10436,7 +10436,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6125187</v>
+        <v>6125224</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10448,55 +10448,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>56</v>
       </c>
       <c r="K112">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L112">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N112">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O112">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10505,19 +10505,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,7 +10525,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6125224</v>
+        <v>6125187</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10537,55 +10537,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <v>1</v>
-      </c>
-      <c r="I113">
-        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>56</v>
       </c>
       <c r="K113">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M113">
+        <v>2.4</v>
+      </c>
+      <c r="N113">
+        <v>2.8</v>
+      </c>
+      <c r="O113">
+        <v>2.8</v>
+      </c>
+      <c r="P113">
+        <v>2.45</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>2.05</v>
+      </c>
+      <c r="S113">
         <v>1.75</v>
       </c>
-      <c r="N113">
-        <v>4.333</v>
-      </c>
-      <c r="O113">
-        <v>3</v>
-      </c>
-      <c r="P113">
-        <v>1.833</v>
-      </c>
-      <c r="Q113">
-        <v>0.5</v>
-      </c>
-      <c r="R113">
-        <v>1.975</v>
-      </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10594,19 +10594,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10792,7 +10792,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6125190</v>
+        <v>6125325</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10804,76 +10804,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>1.1</v>
       </c>
       <c r="L116">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M116">
+        <v>13</v>
+      </c>
+      <c r="N116">
+        <v>1.222</v>
+      </c>
+      <c r="O116">
         <v>5.5</v>
       </c>
-      <c r="N116">
-        <v>1.533</v>
-      </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.925</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>1.75</v>
+      </c>
+      <c r="V116">
         <v>1.95</v>
       </c>
-      <c r="S116">
-        <v>1.85</v>
-      </c>
-      <c r="T116">
-        <v>2.25</v>
-      </c>
-      <c r="U116">
-        <v>1.8</v>
-      </c>
-      <c r="V116">
-        <v>2</v>
-      </c>
       <c r="W116">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
+        <v>0.925</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>0.95</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
-      <c r="AB116">
-        <v>0.8</v>
-      </c>
-      <c r="AC116">
-        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10881,7 +10881,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6125325</v>
+        <v>6125190</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10893,76 +10893,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K117">
-        <v>1.1</v>
+        <v>1.444</v>
       </c>
       <c r="L117">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="N117">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O117">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X117">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6125543</v>
+        <v>6125139</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11071,76 +11071,76 @@
         <v>45026.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>55</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O119">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11148,7 +11148,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6125139</v>
+        <v>6125543</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11160,76 +11160,76 @@
         <v>45026.64583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>55</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11860,7 +11860,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6125192</v>
+        <v>6125193</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11872,49 +11872,49 @@
         <v>45040.61111111111</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J128" t="s">
         <v>56</v>
       </c>
       <c r="K128">
-        <v>6.25</v>
+        <v>4</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N128">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U128">
         <v>1.925</v>
@@ -11929,13 +11929,13 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB128">
         <v>0.925</v>
@@ -11949,7 +11949,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6125193</v>
+        <v>6125192</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11961,49 +11961,49 @@
         <v>45040.61111111111</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>56</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
         <v>1.925</v>
@@ -12018,13 +12018,13 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB129">
         <v>0.925</v>
@@ -15153,7 +15153,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6125205</v>
+        <v>6125549</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15165,76 +15165,76 @@
         <v>45069.625</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K165">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N165">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA165">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6125204</v>
+        <v>6125205</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,37 +15254,37 @@
         <v>45069.625</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K166">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L166">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M166">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N166">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O166">
+        <v>3.2</v>
+      </c>
+      <c r="P166">
         <v>2.9</v>
-      </c>
-      <c r="P166">
-        <v>3.1</v>
       </c>
       <c r="Q166">
         <v>-0.25</v>
@@ -15293,37 +15293,37 @@
         <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T166">
         <v>2.25</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
         <v>1.9</v>
       </c>
-      <c r="Y166">
-        <v>-1</v>
-      </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.4125</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6125149</v>
+        <v>6125327</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,76 +15343,76 @@
         <v>45069.625</v>
       </c>
       <c r="F167" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K167">
+        <v>3.5</v>
+      </c>
+      <c r="L167">
+        <v>3.1</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>3.1</v>
+      </c>
+      <c r="O167">
+        <v>3.3</v>
+      </c>
+      <c r="P167">
+        <v>2.05</v>
+      </c>
+      <c r="Q167">
+        <v>0.25</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
         <v>1.8</v>
       </c>
-      <c r="L167">
-        <v>3.2</v>
-      </c>
-      <c r="M167">
-        <v>4</v>
-      </c>
-      <c r="N167">
-        <v>1.85</v>
-      </c>
-      <c r="O167">
-        <v>3.4</v>
-      </c>
-      <c r="P167">
-        <v>3.6</v>
-      </c>
-      <c r="Q167">
-        <v>-0.5</v>
-      </c>
-      <c r="R167">
-        <v>1.95</v>
-      </c>
-      <c r="S167">
-        <v>1.85</v>
-      </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15420,7 +15420,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6125327</v>
+        <v>6125207</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15432,49 +15432,49 @@
         <v>45069.625</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K168">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="L168">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M168">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N168">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P168">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
         <v>1.925</v>
@@ -15483,25 +15483,25 @@
         <v>1.875</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC168">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6125549</v>
+        <v>6125204</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15610,76 +15610,76 @@
         <v>45069.625</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K170">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N170">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O170">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
         <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W170">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
+        <v>0.4125</v>
+      </c>
+      <c r="AB170">
         <v>-0.5</v>
       </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6125207</v>
+        <v>6125149</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15699,10 +15699,10 @@
         <v>45069.625</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15714,43 +15714,43 @@
         <v>57</v>
       </c>
       <c r="K171">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M171">
+        <v>4</v>
+      </c>
+      <c r="N171">
+        <v>1.85</v>
+      </c>
+      <c r="O171">
+        <v>3.4</v>
+      </c>
+      <c r="P171">
+        <v>3.6</v>
+      </c>
+      <c r="Q171">
+        <v>-0.5</v>
+      </c>
+      <c r="R171">
+        <v>1.95</v>
+      </c>
+      <c r="S171">
+        <v>1.85</v>
+      </c>
+      <c r="T171">
         <v>2.5</v>
       </c>
-      <c r="N171">
-        <v>2.6</v>
-      </c>
-      <c r="O171">
-        <v>2.9</v>
-      </c>
-      <c r="P171">
-        <v>2.6</v>
-      </c>
-      <c r="Q171">
-        <v>0</v>
-      </c>
-      <c r="R171">
-        <v>1.85</v>
-      </c>
-      <c r="S171">
-        <v>1.95</v>
-      </c>
-      <c r="T171">
-        <v>2.25</v>
-      </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
-        <v>1.6</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15759,16 +15759,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6125150</v>
+        <v>6125329</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,34 +15966,34 @@
         <v>45075.625</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K174">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M174">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N174">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O174">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P174">
         <v>2.45</v>
@@ -16008,34 +16008,34 @@
         <v>1.775</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6125329</v>
+        <v>6125328</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,76 +16055,76 @@
         <v>45075.625</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K175">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L175">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N175">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O175">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X175">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA175">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC175">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6125464</v>
+        <v>6125150</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,46 +16144,46 @@
         <v>45075.625</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
         <v>57</v>
       </c>
       <c r="K176">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N176">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
         <v>2.5</v>
@@ -16195,7 +16195,7 @@
         <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0.363</v>
+        <v>1.4</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16204,16 +16204,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16310,7 +16310,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6125328</v>
+        <v>6125551</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16322,76 +16322,76 @@
         <v>45075.625</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K178">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N178">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="O178">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W178">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.4625</v>
+        <v>0.5125</v>
       </c>
       <c r="AA178">
         <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6125551</v>
+        <v>6125464</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,76 +16411,76 @@
         <v>45075.625</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K179">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N179">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P179">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X179">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16755,7 +16755,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6991274</v>
+        <v>6991275</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16767,40 +16767,40 @@
         <v>45153.55208333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G183" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>55</v>
+      </c>
+      <c r="K183">
+        <v>2.375</v>
+      </c>
+      <c r="L183">
         <v>3</v>
       </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183" t="s">
-        <v>57</v>
-      </c>
-      <c r="K183">
-        <v>1.666</v>
-      </c>
-      <c r="L183">
-        <v>3.5</v>
-      </c>
       <c r="M183">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P183">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
         <v>1.95</v>
@@ -16812,31 +16812,31 @@
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V183">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W183">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB183">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16844,7 +16844,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6991275</v>
+        <v>6991274</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16856,40 +16856,40 @@
         <v>45153.55208333334</v>
       </c>
       <c r="F184" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K184">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L184">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M184">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N184">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O184">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R184">
         <v>1.95</v>
@@ -16901,31 +16901,31 @@
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X184">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA184">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC184">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17111,7 +17111,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17126,10 +17126,10 @@
         <v>48</v>
       </c>
       <c r="G187" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17138,61 +17138,61 @@
         <v>57</v>
       </c>
       <c r="K187">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N187">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O187">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2.25</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W187">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA187">
+        <v>-1</v>
+      </c>
+      <c r="AB187">
         <v>0.8</v>
       </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>0.825</v>
-      </c>
-      <c r="AA187">
-        <v>-1</v>
-      </c>
-      <c r="AB187">
-        <v>-0.5</v>
-      </c>
       <c r="AC187">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17200,7 +17200,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17215,10 +17215,10 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17227,43 +17227,43 @@
         <v>57</v>
       </c>
       <c r="K188">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N188">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W188">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17272,16 +17272,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17927,7 +17927,7 @@
         <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18016,7 +18016,7 @@
         <v>53</v>
       </c>
       <c r="G197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18446,7 +18446,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6991279</v>
+        <v>6991313</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18458,58 +18458,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H202">
         <v>2</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
         <v>57</v>
       </c>
       <c r="K202">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L202">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M202">
         <v>2.875</v>
       </c>
       <c r="N202">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O202">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P202">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q202">
         <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S202">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W202">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18518,16 +18518,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC202">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18535,7 +18535,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6991313</v>
+        <v>6991279</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18547,58 +18547,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>57</v>
       </c>
       <c r="K203">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
         <v>2.875</v>
       </c>
       <c r="N203">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O203">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q203">
         <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S203">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18607,16 +18607,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18713,7 +18713,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6991281</v>
+        <v>6991314</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18725,73 +18725,73 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H205">
+        <v>4</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>57</v>
+      </c>
+      <c r="K205">
+        <v>2.15</v>
+      </c>
+      <c r="L205">
         <v>3</v>
       </c>
-      <c r="I205">
+      <c r="M205">
+        <v>3.2</v>
+      </c>
+      <c r="N205">
+        <v>2.15</v>
+      </c>
+      <c r="O205">
         <v>3</v>
       </c>
-      <c r="J205" t="s">
-        <v>55</v>
-      </c>
-      <c r="K205">
-        <v>2.8</v>
-      </c>
-      <c r="L205">
-        <v>2.9</v>
-      </c>
-      <c r="M205">
-        <v>2.4</v>
-      </c>
-      <c r="N205">
-        <v>3.6</v>
-      </c>
-      <c r="O205">
+      <c r="P205">
         <v>3.2</v>
       </c>
-      <c r="P205">
-        <v>1.909</v>
-      </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X205">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18802,7 +18802,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6991314</v>
+        <v>6991281</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18814,73 +18814,73 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K206">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L206">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M206">
+        <v>2.4</v>
+      </c>
+      <c r="N206">
+        <v>3.6</v>
+      </c>
+      <c r="O206">
         <v>3.2</v>
       </c>
-      <c r="N206">
-        <v>2.15</v>
-      </c>
-      <c r="O206">
-        <v>3</v>
-      </c>
       <c r="P206">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18903,7 +18903,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>
@@ -19247,7 +19247,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19259,76 +19259,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K211">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L211">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M211">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N211">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P211">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q211">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S211">
+        <v>1.95</v>
+      </c>
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
         <v>1.8</v>
       </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>2.025</v>
-      </c>
       <c r="V211">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC211">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19336,7 +19336,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19348,76 +19348,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>55</v>
+      </c>
+      <c r="K212">
+        <v>3.3</v>
+      </c>
+      <c r="L212">
+        <v>3.1</v>
+      </c>
+      <c r="M212">
+        <v>2.05</v>
+      </c>
+      <c r="N212">
+        <v>5.5</v>
+      </c>
+      <c r="O212">
+        <v>3.5</v>
+      </c>
+      <c r="P212">
+        <v>1.571</v>
+      </c>
+      <c r="Q212">
+        <v>0.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>2.025</v>
+      </c>
+      <c r="V212">
+        <v>1.775</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>2.5</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
         <v>1</v>
       </c>
-      <c r="I212">
-        <v>2</v>
-      </c>
-      <c r="J212" t="s">
-        <v>56</v>
-      </c>
-      <c r="K212">
-        <v>2.6</v>
-      </c>
-      <c r="L212">
-        <v>2.875</v>
-      </c>
-      <c r="M212">
-        <v>2.625</v>
-      </c>
-      <c r="N212">
-        <v>2.55</v>
-      </c>
-      <c r="O212">
-        <v>2.875</v>
-      </c>
-      <c r="P212">
-        <v>2.7</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.85</v>
-      </c>
-      <c r="S212">
-        <v>1.95</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.8</v>
-      </c>
-      <c r="V212">
-        <v>2</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>-1</v>
-      </c>
-      <c r="Y212">
-        <v>1.7</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
       <c r="AA212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19440,7 +19440,7 @@
         <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19704,7 +19704,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19781,7 +19781,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6991325</v>
+        <v>6991324</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19793,76 +19793,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G217" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L217">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M217">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="N217">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P217">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19870,7 +19870,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6991324</v>
+        <v>6991325</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19882,76 +19882,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F218" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>55</v>
+      </c>
+      <c r="K218">
+        <v>2.1</v>
+      </c>
+      <c r="L218">
+        <v>3.3</v>
+      </c>
+      <c r="M218">
         <v>3</v>
       </c>
-      <c r="J218" t="s">
-        <v>56</v>
-      </c>
-      <c r="K218">
-        <v>9</v>
-      </c>
-      <c r="L218">
-        <v>5</v>
-      </c>
-      <c r="M218">
-        <v>1.25</v>
-      </c>
       <c r="N218">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O218">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q218">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S218">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y218">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19971,7 +19971,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G219" t="s">
         <v>45</v>
@@ -20063,7 +20063,7 @@
         <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G226" t="s">
         <v>45</v>
@@ -20760,7 +20760,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20772,55 +20772,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
         <v>1</v>
-      </c>
-      <c r="I228">
-        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>56</v>
       </c>
       <c r="K228">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M228">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N228">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O228">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P228">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20829,19 +20829,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20849,7 +20849,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20861,55 +20861,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
         <v>56</v>
       </c>
       <c r="K229">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L229">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O229">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S229">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20918,19 +20918,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21220,7 +21220,7 @@
         <v>52</v>
       </c>
       <c r="G233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21383,7 +21383,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6991337</v>
+        <v>6991336</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21395,76 +21395,76 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K235">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L235">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="N235">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P235">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U235">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y235">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21472,7 +21472,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6991336</v>
+        <v>6991337</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21484,76 +21484,76 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F236" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K236">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L236">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M236">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="N236">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O236">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P236">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R236">
+        <v>2.05</v>
+      </c>
+      <c r="S236">
+        <v>1.75</v>
+      </c>
+      <c r="T236">
+        <v>2.25</v>
+      </c>
+      <c r="U236">
         <v>1.85</v>
       </c>
-      <c r="S236">
+      <c r="V236">
         <v>1.95</v>
       </c>
-      <c r="T236">
-        <v>2</v>
-      </c>
-      <c r="U236">
-        <v>1.9</v>
-      </c>
-      <c r="V236">
-        <v>1.9</v>
-      </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21650,7 +21650,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6991339</v>
+        <v>7291339</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21662,76 +21662,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K238">
-        <v>1.952</v>
+        <v>1.65</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
+        <v>4.75</v>
+      </c>
+      <c r="N238">
+        <v>1.6</v>
+      </c>
+      <c r="O238">
         <v>3.4</v>
       </c>
-      <c r="N238">
-        <v>2</v>
-      </c>
-      <c r="O238">
-        <v>3.2</v>
-      </c>
       <c r="P238">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X238">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21739,7 +21739,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7291339</v>
+        <v>6991339</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21751,76 +21751,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F239" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K239">
-        <v>1.65</v>
+        <v>1.952</v>
       </c>
       <c r="L239">
+        <v>3.2</v>
+      </c>
+      <c r="M239">
+        <v>3.4</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239">
+        <v>3.2</v>
+      </c>
+      <c r="P239">
         <v>3.3</v>
       </c>
-      <c r="M239">
-        <v>4.75</v>
-      </c>
-      <c r="N239">
-        <v>1.6</v>
-      </c>
-      <c r="O239">
-        <v>3.4</v>
-      </c>
-      <c r="P239">
-        <v>5</v>
-      </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>2</v>
+      </c>
+      <c r="U239">
+        <v>1.725</v>
+      </c>
+      <c r="V239">
         <v>1.975</v>
       </c>
-      <c r="T239">
-        <v>2.25</v>
-      </c>
-      <c r="U239">
-        <v>1.975</v>
-      </c>
-      <c r="V239">
-        <v>1.825</v>
-      </c>
       <c r="W239">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC239">
-        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21840,7 +21840,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G240" t="s">
         <v>31</v>
@@ -22110,7 +22110,7 @@
         <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22184,7 +22184,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6991344</v>
+        <v>6991345</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22196,40 +22196,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F244" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K244">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L244">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="N244">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O244">
         <v>3.4</v>
       </c>
       <c r="P244">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q244">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
         <v>1.75</v>
@@ -22241,31 +22241,31 @@
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V244">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA244">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC244">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22273,7 +22273,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6991345</v>
+        <v>6991344</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22285,40 +22285,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F245" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K245">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L245">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M245">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="N245">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O245">
         <v>3.4</v>
       </c>
       <c r="P245">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R245">
         <v>1.75</v>
@@ -22330,31 +22330,31 @@
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z245">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB245">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22374,7 +22374,7 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G246" t="s">
         <v>31</v>
@@ -22451,7 +22451,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6991347</v>
+        <v>6991422</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22463,76 +22463,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G247" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K247">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L247">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M247">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N247">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O247">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P247">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S247">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U247">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V247">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA247">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22540,7 +22540,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6991422</v>
+        <v>6991347</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22552,76 +22552,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F248" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K248">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L248">
+        <v>4.75</v>
+      </c>
+      <c r="M248">
+        <v>9</v>
+      </c>
+      <c r="N248">
+        <v>1.55</v>
+      </c>
+      <c r="O248">
         <v>3.75</v>
       </c>
-      <c r="M248">
-        <v>4.333</v>
-      </c>
-      <c r="N248">
-        <v>1.75</v>
-      </c>
-      <c r="O248">
-        <v>3.5</v>
-      </c>
       <c r="P248">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R248">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T248">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V248">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W248">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z248">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC248">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22997,10 +22997,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F253" t="s">
+        <v>48</v>
+      </c>
+      <c r="G253" t="s">
         <v>49</v>
-      </c>
-      <c r="G253" t="s">
-        <v>48</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23608,7 +23608,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23620,19 +23620,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G260" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K260">
         <v>2.75</v>
@@ -23644,52 +23644,52 @@
         <v>2.4</v>
       </c>
       <c r="N260">
+        <v>2.15</v>
+      </c>
+      <c r="O260">
         <v>3.2</v>
       </c>
-      <c r="O260">
-        <v>3.1</v>
-      </c>
       <c r="P260">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q260">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S260">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T260">
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V260">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X260">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC260">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23697,7 +23697,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23709,19 +23709,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H261">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K261">
         <v>2.75</v>
@@ -23733,52 +23733,52 @@
         <v>2.4</v>
       </c>
       <c r="N261">
+        <v>3.2</v>
+      </c>
+      <c r="O261">
+        <v>3.1</v>
+      </c>
+      <c r="P261">
         <v>2.15</v>
       </c>
-      <c r="O261">
-        <v>3.2</v>
-      </c>
-      <c r="P261">
-        <v>3.25</v>
-      </c>
       <c r="Q261">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R261">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S261">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T261">
         <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V261">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W261">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB261">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23798,7 +23798,7 @@
         <v>45236.5625</v>
       </c>
       <c r="F262" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G262" t="s">
         <v>47</v>
@@ -24688,7 +24688,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F272" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G272" t="s">
         <v>40</v>
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,76 +25133,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F277" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J277" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K277">
         <v>1.727</v>
       </c>
       <c r="L277">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M277">
         <v>4.333</v>
       </c>
       <c r="N277">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O277">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P277">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q277">
         <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V277">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W277">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z277">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB277">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC277">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25222,76 +25222,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F278" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G278" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K278">
         <v>1.727</v>
       </c>
       <c r="L278">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M278">
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O278">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P278">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q278">
         <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S278">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA278">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25314,7 +25314,7 @@
         <v>50</v>
       </c>
       <c r="G279" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -25581,7 +25581,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25922,7 +25922,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6991374</v>
+        <v>6991373</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25934,58 +25934,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F286" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G286" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H286">
+        <v>3</v>
+      </c>
+      <c r="I286">
         <v>1</v>
-      </c>
-      <c r="I286">
-        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>57</v>
       </c>
       <c r="K286">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L286">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M286">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N286">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O286">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P286">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q286">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R286">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S286">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T286">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U286">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V286">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W286">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25994,16 +25994,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC286">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26011,7 +26011,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6991373</v>
+        <v>6991374</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26023,58 +26023,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F287" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G287" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
         <v>57</v>
       </c>
       <c r="K287">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L287">
+        <v>3</v>
+      </c>
+      <c r="M287">
         <v>3.2</v>
       </c>
-      <c r="M287">
-        <v>2.625</v>
-      </c>
       <c r="N287">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O287">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P287">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q287">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S287">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T287">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V287">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W287">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26083,16 +26083,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA287">
         <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26293,7 +26293,7 @@
         <v>32</v>
       </c>
       <c r="G290" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26471,7 +26471,7 @@
         <v>47</v>
       </c>
       <c r="G292" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -27002,7 +27002,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F298" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G298" t="s">
         <v>29</v>
@@ -27524,7 +27524,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6991389</v>
+        <v>6991390</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27536,73 +27536,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F304" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G304" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K304">
+        <v>2.25</v>
+      </c>
+      <c r="L304">
+        <v>3.5</v>
+      </c>
+      <c r="M304">
         <v>2.6</v>
       </c>
-      <c r="L304">
-        <v>3.2</v>
-      </c>
-      <c r="M304">
-        <v>2.4</v>
-      </c>
       <c r="N304">
+        <v>2.2</v>
+      </c>
+      <c r="O304">
+        <v>3.6</v>
+      </c>
+      <c r="P304">
         <v>2.7</v>
       </c>
-      <c r="O304">
-        <v>3.2</v>
-      </c>
-      <c r="P304">
-        <v>2.3</v>
-      </c>
       <c r="Q304">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R304">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S304">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X304">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA304">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27613,7 +27613,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6991390</v>
+        <v>6991389</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27625,73 +27625,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F305" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G305" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305">
+        <v>2</v>
+      </c>
+      <c r="J305" t="s">
+        <v>55</v>
+      </c>
+      <c r="K305">
+        <v>2.6</v>
+      </c>
+      <c r="L305">
+        <v>3.2</v>
+      </c>
+      <c r="M305">
+        <v>2.4</v>
+      </c>
+      <c r="N305">
+        <v>2.7</v>
+      </c>
+      <c r="O305">
+        <v>3.2</v>
+      </c>
+      <c r="P305">
+        <v>2.3</v>
+      </c>
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <v>2.05</v>
+      </c>
+      <c r="S305">
+        <v>1.75</v>
+      </c>
+      <c r="T305">
+        <v>2.25</v>
+      </c>
+      <c r="U305">
+        <v>2</v>
+      </c>
+      <c r="V305">
+        <v>1.8</v>
+      </c>
+      <c r="W305">
+        <v>-1</v>
+      </c>
+      <c r="X305">
+        <v>2.2</v>
+      </c>
+      <c r="Y305">
+        <v>-1</v>
+      </c>
+      <c r="Z305">
+        <v>0</v>
+      </c>
+      <c r="AA305">
+        <v>-0</v>
+      </c>
+      <c r="AB305">
         <v>1</v>
-      </c>
-      <c r="J305" t="s">
-        <v>57</v>
-      </c>
-      <c r="K305">
-        <v>2.25</v>
-      </c>
-      <c r="L305">
-        <v>3.5</v>
-      </c>
-      <c r="M305">
-        <v>2.6</v>
-      </c>
-      <c r="N305">
-        <v>2.2</v>
-      </c>
-      <c r="O305">
-        <v>3.6</v>
-      </c>
-      <c r="P305">
-        <v>2.7</v>
-      </c>
-      <c r="Q305">
-        <v>-0.25</v>
-      </c>
-      <c r="R305">
-        <v>1.975</v>
-      </c>
-      <c r="S305">
-        <v>1.825</v>
-      </c>
-      <c r="T305">
-        <v>2.5</v>
-      </c>
-      <c r="U305">
-        <v>1.95</v>
-      </c>
-      <c r="V305">
-        <v>1.85</v>
-      </c>
-      <c r="W305">
-        <v>1.2</v>
-      </c>
-      <c r="X305">
-        <v>-1</v>
-      </c>
-      <c r="Y305">
-        <v>-1</v>
-      </c>
-      <c r="Z305">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA305">
-        <v>-1</v>
-      </c>
-      <c r="AB305">
-        <v>0.95</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -27803,7 +27803,7 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F307" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G307" t="s">
         <v>51</v>
@@ -28429,7 +28429,7 @@
         <v>33</v>
       </c>
       <c r="G314" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -28963,7 +28963,7 @@
         <v>44</v>
       </c>
       <c r="G320" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -29141,7 +29141,7 @@
         <v>51</v>
       </c>
       <c r="G322" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H322">
         <v>2</v>
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,76 +29405,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F325" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G325" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325">
         <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K325">
         <v>2.4</v>
       </c>
       <c r="L325">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M325">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N325">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O325">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P325">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q325">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R325">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T325">
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V325">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z325">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB325">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29482,7 +29482,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29494,76 +29494,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F326" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G326" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326">
         <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K326">
         <v>2.4</v>
       </c>
       <c r="L326">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M326">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N326">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O326">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P326">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q326">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R326">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V326">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y326">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA326">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC326">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29660,7 +29660,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6991443</v>
+        <v>6991407</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29672,76 +29672,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F328" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G328" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328">
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K328">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L328">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M328">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N328">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P328">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q328">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R328">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S328">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T328">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U328">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V328">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W328">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA328">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB328">
         <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29749,7 +29749,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6991407</v>
+        <v>6991443</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29761,76 +29761,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F329" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G329" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329">
         <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K329">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L329">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M329">
+        <v>3</v>
+      </c>
+      <c r="N329">
+        <v>2.05</v>
+      </c>
+      <c r="O329">
+        <v>3.1</v>
+      </c>
+      <c r="P329">
+        <v>3.3</v>
+      </c>
+      <c r="Q329">
+        <v>-0.25</v>
+      </c>
+      <c r="R329">
+        <v>1.85</v>
+      </c>
+      <c r="S329">
+        <v>1.95</v>
+      </c>
+      <c r="T329">
         <v>2.5</v>
       </c>
-      <c r="N329">
-        <v>2.5</v>
-      </c>
-      <c r="O329">
-        <v>3.2</v>
-      </c>
-      <c r="P329">
-        <v>2.5</v>
-      </c>
-      <c r="Q329">
-        <v>0</v>
-      </c>
-      <c r="R329">
-        <v>1.9</v>
-      </c>
-      <c r="S329">
-        <v>1.9</v>
-      </c>
-      <c r="T329">
-        <v>2</v>
-      </c>
       <c r="U329">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V329">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X329">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA329">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
         <v>-1</v>
       </c>
       <c r="AC329">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30028,7 +30028,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G332" t="s">
         <v>44</v>
@@ -30743,7 +30743,7 @@
         <v>35</v>
       </c>
       <c r="G340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -30832,7 +30832,7 @@
         <v>53</v>
       </c>
       <c r="G341" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31363,7 +31363,7 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F347" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G347" t="s">
         <v>35</v>
@@ -31452,7 +31452,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F348" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G348" t="s">
         <v>53</v>
@@ -32075,7 +32075,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F355" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G355" t="s">
         <v>39</v>
@@ -32256,7 +32256,7 @@
         <v>30</v>
       </c>
       <c r="G357" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -33042,7 +33042,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7712418</v>
+        <v>7712419</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33054,76 +33054,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F366" t="s">
+        <v>30</v>
+      </c>
+      <c r="G366" t="s">
         <v>48</v>
       </c>
-      <c r="G366" t="s">
-        <v>37</v>
-      </c>
       <c r="H366">
+        <v>1</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366" t="s">
+        <v>55</v>
+      </c>
+      <c r="K366">
+        <v>2.1</v>
+      </c>
+      <c r="L366">
         <v>3</v>
       </c>
-      <c r="I366">
-        <v>2</v>
-      </c>
-      <c r="J366" t="s">
-        <v>57</v>
-      </c>
-      <c r="K366">
-        <v>2.25</v>
-      </c>
-      <c r="L366">
-        <v>2.9</v>
-      </c>
       <c r="M366">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N366">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O366">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P366">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q366">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R366">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S366">
+        <v>1.825</v>
+      </c>
+      <c r="T366">
+        <v>2</v>
+      </c>
+      <c r="U366">
+        <v>1.825</v>
+      </c>
+      <c r="V366">
         <v>1.975</v>
       </c>
-      <c r="T366">
-        <v>2</v>
-      </c>
-      <c r="U366">
-        <v>1.975</v>
-      </c>
-      <c r="V366">
-        <v>1.825</v>
-      </c>
       <c r="W366">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X366">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB366">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC366">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33131,7 +33131,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7712419</v>
+        <v>7712418</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33143,76 +33143,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F367" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G367" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H367">
+        <v>3</v>
+      </c>
+      <c r="I367">
+        <v>2</v>
+      </c>
+      <c r="J367" t="s">
+        <v>57</v>
+      </c>
+      <c r="K367">
+        <v>2.25</v>
+      </c>
+      <c r="L367">
+        <v>2.9</v>
+      </c>
+      <c r="M367">
+        <v>3.1</v>
+      </c>
+      <c r="N367">
+        <v>2</v>
+      </c>
+      <c r="O367">
+        <v>3</v>
+      </c>
+      <c r="P367">
+        <v>3.75</v>
+      </c>
+      <c r="Q367">
+        <v>-0.25</v>
+      </c>
+      <c r="R367">
+        <v>1.725</v>
+      </c>
+      <c r="S367">
+        <v>1.975</v>
+      </c>
+      <c r="T367">
+        <v>2</v>
+      </c>
+      <c r="U367">
+        <v>1.975</v>
+      </c>
+      <c r="V367">
+        <v>1.825</v>
+      </c>
+      <c r="W367">
         <v>1</v>
       </c>
-      <c r="I367">
-        <v>1</v>
-      </c>
-      <c r="J367" t="s">
-        <v>55</v>
-      </c>
-      <c r="K367">
-        <v>2.1</v>
-      </c>
-      <c r="L367">
-        <v>3</v>
-      </c>
-      <c r="M367">
-        <v>3.25</v>
-      </c>
-      <c r="N367">
-        <v>1.727</v>
-      </c>
-      <c r="O367">
-        <v>3.2</v>
-      </c>
-      <c r="P367">
-        <v>4.5</v>
-      </c>
-      <c r="Q367">
-        <v>-0.75</v>
-      </c>
-      <c r="R367">
-        <v>1.975</v>
-      </c>
-      <c r="S367">
-        <v>1.825</v>
-      </c>
-      <c r="T367">
-        <v>2</v>
-      </c>
-      <c r="U367">
-        <v>1.825</v>
-      </c>
-      <c r="V367">
-        <v>1.975</v>
-      </c>
-      <c r="W367">
-        <v>-1</v>
-      </c>
       <c r="X367">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA367">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC367">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33398,7 +33398,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7712422</v>
+        <v>7712421</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33410,76 +33410,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F370" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G370" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J370" t="s">
         <v>55</v>
       </c>
       <c r="K370">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L370">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M370">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N370">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O370">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P370">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q370">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R370">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S370">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T370">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U370">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V370">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W370">
         <v>-1</v>
       </c>
       <c r="X370">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y370">
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA370">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB370">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC370">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33487,7 +33487,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7712421</v>
+        <v>7712422</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33499,76 +33499,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F371" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G371" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J371" t="s">
         <v>55</v>
       </c>
       <c r="K371">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L371">
+        <v>3.2</v>
+      </c>
+      <c r="M371">
+        <v>3.6</v>
+      </c>
+      <c r="N371">
+        <v>2.05</v>
+      </c>
+      <c r="O371">
+        <v>3.25</v>
+      </c>
+      <c r="P371">
         <v>3.1</v>
       </c>
-      <c r="M371">
-        <v>3.4</v>
-      </c>
-      <c r="N371">
-        <v>2.8</v>
-      </c>
-      <c r="O371">
-        <v>2.875</v>
-      </c>
-      <c r="P371">
-        <v>2.55</v>
-      </c>
       <c r="Q371">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R371">
+        <v>1.8</v>
+      </c>
+      <c r="S371">
+        <v>2</v>
+      </c>
+      <c r="T371">
+        <v>2.25</v>
+      </c>
+      <c r="U371">
         <v>2.025</v>
       </c>
-      <c r="S371">
+      <c r="V371">
         <v>1.775</v>
       </c>
-      <c r="T371">
-        <v>2</v>
-      </c>
-      <c r="U371">
-        <v>1.975</v>
-      </c>
-      <c r="V371">
-        <v>1.825</v>
-      </c>
       <c r="W371">
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA371">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB371">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC371">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33944,7 +33944,7 @@
         <v>45343.40625</v>
       </c>
       <c r="F376" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G376" t="s">
         <v>33</v>
@@ -34036,7 +34036,7 @@
         <v>45</v>
       </c>
       <c r="G377" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H377">
         <v>0</v>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -112,10 +112,10 @@
     <t>Al Faisaly Harmah</t>
   </si>
   <si>
-    <t>Al Jabalain</t>
+    <t>Al Orubah</t>
   </si>
   <si>
-    <t>Al Orubah</t>
+    <t>Al Jabalain</t>
   </si>
   <si>
     <t>Al Sahel</t>
@@ -160,10 +160,10 @@
     <t>Al Najma</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
     <t>Al Adalh</t>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5418508</v>
+        <v>5418509</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,73 +928,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5418509</v>
+        <v>5418508</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1017,73 +1017,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1370,7 +1370,7 @@
         <v>44935.40277777778</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1462,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2263,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>44942.40277777778</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -3153,7 +3153,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3687,7 +3687,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>44954.41319444445</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>38</v>
@@ -4399,7 +4399,7 @@
         <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4663,7 +4663,7 @@
         <v>44959.41319444445</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -5464,7 +5464,7 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5556,7 +5556,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5642,7 +5642,7 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5823,7 +5823,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>44977.42361111111</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
@@ -6980,7 +6980,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>44984.42013888889</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7692,7 +7692,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8490,10 +8490,10 @@
         <v>44993.42708333334</v>
       </c>
       <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
         <v>33</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8846,7 +8846,7 @@
         <v>44998.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>39</v>
@@ -8938,7 +8938,7 @@
         <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9650,7 +9650,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>45004.46875</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -10184,7 +10184,7 @@
         <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6125224</v>
+        <v>6125187</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10448,55 +10448,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>1</v>
-      </c>
-      <c r="I112">
-        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>56</v>
       </c>
       <c r="K112">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M112">
+        <v>2.4</v>
+      </c>
+      <c r="N112">
+        <v>2.8</v>
+      </c>
+      <c r="O112">
+        <v>2.8</v>
+      </c>
+      <c r="P112">
+        <v>2.45</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>2.05</v>
+      </c>
+      <c r="S112">
         <v>1.75</v>
       </c>
-      <c r="N112">
-        <v>4.333</v>
-      </c>
-      <c r="O112">
-        <v>3</v>
-      </c>
-      <c r="P112">
-        <v>1.833</v>
-      </c>
-      <c r="Q112">
-        <v>0.5</v>
-      </c>
-      <c r="R112">
-        <v>1.975</v>
-      </c>
-      <c r="S112">
-        <v>1.825</v>
-      </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10505,19 +10505,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,7 +10525,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6125187</v>
+        <v>6125224</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10537,55 +10537,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>56</v>
       </c>
       <c r="K113">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L113">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N113">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O113">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P113">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10594,19 +10594,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10792,7 +10792,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6125325</v>
+        <v>6125190</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10804,76 +10804,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K116">
-        <v>1.1</v>
+        <v>1.444</v>
       </c>
       <c r="L116">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M116">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="N116">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O116">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q116">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X116">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10881,7 +10881,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6125190</v>
+        <v>6125325</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10893,76 +10893,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K117">
-        <v>1.444</v>
+        <v>1.1</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M117">
+        <v>13</v>
+      </c>
+      <c r="N117">
+        <v>1.222</v>
+      </c>
+      <c r="O117">
         <v>5.5</v>
       </c>
-      <c r="N117">
-        <v>1.533</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
+        <v>1.75</v>
+      </c>
+      <c r="V117">
         <v>1.95</v>
       </c>
-      <c r="S117">
-        <v>1.85</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.8</v>
-      </c>
-      <c r="V117">
-        <v>2</v>
-      </c>
       <c r="W117">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>0.925</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
-      <c r="AB117">
-        <v>0.8</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6125139</v>
+        <v>6125543</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11071,76 +11071,76 @@
         <v>45026.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>55</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N119">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11148,7 +11148,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6125543</v>
+        <v>6125139</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11160,76 +11160,76 @@
         <v>45026.64583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>55</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -12139,7 +12139,7 @@
         <v>45041.5625</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12305,7 +12305,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6125227</v>
+        <v>6125194</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12317,76 +12317,76 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K133">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P133">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
+        <v>1.775</v>
+      </c>
+      <c r="V133">
         <v>2.025</v>
       </c>
-      <c r="V133">
-        <v>1.775</v>
-      </c>
       <c r="W133">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>1.025</v>
-      </c>
-      <c r="AC133">
-        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6125194</v>
+        <v>6125227</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12406,76 +12406,76 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K134">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
+        <v>1.85</v>
+      </c>
+      <c r="N134">
+        <v>4.333</v>
+      </c>
+      <c r="O134">
         <v>3</v>
       </c>
-      <c r="M134">
-        <v>2.55</v>
-      </c>
-      <c r="N134">
-        <v>3.1</v>
-      </c>
-      <c r="O134">
-        <v>2.875</v>
-      </c>
       <c r="P134">
+        <v>1.833</v>
+      </c>
+      <c r="Q134">
+        <v>0.5</v>
+      </c>
+      <c r="R134">
+        <v>1.925</v>
+      </c>
+      <c r="S134">
+        <v>1.875</v>
+      </c>
+      <c r="T134">
         <v>2.25</v>
       </c>
-      <c r="Q134">
-        <v>0.25</v>
-      </c>
-      <c r="R134">
-        <v>1.825</v>
-      </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
-        <v>2</v>
-      </c>
       <c r="U134">
+        <v>2.025</v>
+      </c>
+      <c r="V134">
         <v>1.775</v>
       </c>
-      <c r="V134">
-        <v>2.025</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12854,7 +12854,7 @@
         <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13210,7 +13210,7 @@
         <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>45054.5625</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
@@ -13741,7 +13741,7 @@
         <v>45054.56944444445</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
@@ -14545,7 +14545,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14886,7 +14886,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6125231</v>
+        <v>6125203</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14898,58 +14898,58 @@
         <v>45063.55902777778</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>57</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L162">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M162">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N162">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14958,13 +14958,13 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB162">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14975,7 +14975,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6125203</v>
+        <v>6125231</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14987,58 +14987,58 @@
         <v>45063.55902777778</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>3</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>57</v>
       </c>
       <c r="K163">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M163">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N163">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P163">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>2.25</v>
+      </c>
+      <c r="U163">
+        <v>1.975</v>
+      </c>
+      <c r="V163">
         <v>1.825</v>
       </c>
-      <c r="S163">
-        <v>1.975</v>
-      </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>1.95</v>
-      </c>
-      <c r="V163">
-        <v>1.85</v>
-      </c>
       <c r="W163">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15047,13 +15047,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15153,7 +15153,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6125549</v>
+        <v>6125327</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15165,76 +15165,76 @@
         <v>45069.625</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
       <c r="J165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K165">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M165">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N165">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O165">
         <v>3.3</v>
       </c>
       <c r="P165">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
+        <v>1.925</v>
+      </c>
+      <c r="V165">
         <v>1.875</v>
       </c>
-      <c r="V165">
-        <v>1.925</v>
-      </c>
       <c r="W165">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z165">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6125205</v>
+        <v>6125206</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,76 +15254,76 @@
         <v>45069.625</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K166">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L166">
         <v>3.1</v>
       </c>
       <c r="M166">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N166">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6125327</v>
+        <v>6125205</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,10 +15343,10 @@
         <v>45069.625</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15358,40 +15358,40 @@
         <v>56</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L167">
         <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N167">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P167">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15400,19 +15400,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15435,7 +15435,7 @@
         <v>45</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15509,7 +15509,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6125206</v>
+        <v>6125149</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15521,58 +15521,58 @@
         <v>45069.625</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
         <v>57</v>
       </c>
       <c r="K169">
+        <v>1.8</v>
+      </c>
+      <c r="L169">
         <v>3.2</v>
       </c>
-      <c r="L169">
-        <v>3.1</v>
-      </c>
       <c r="M169">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O169">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15581,16 +15581,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6125204</v>
+        <v>6125549</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15610,76 +15610,76 @@
         <v>45069.625</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K170">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M170">
+        <v>5.5</v>
+      </c>
+      <c r="N170">
+        <v>1.666</v>
+      </c>
+      <c r="O170">
         <v>3.3</v>
       </c>
-      <c r="N170">
-        <v>2.3</v>
-      </c>
-      <c r="O170">
-        <v>2.9</v>
-      </c>
       <c r="P170">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
         <v>2.25</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V170">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X170">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
+        <v>0.475</v>
+      </c>
+      <c r="AA170">
         <v>-0.5</v>
       </c>
-      <c r="AA170">
-        <v>0.4125</v>
-      </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6125149</v>
+        <v>6125204</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15699,76 +15699,76 @@
         <v>45069.625</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K171">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N171">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O171">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P171">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q171">
+        <v>-0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
+        <v>1.825</v>
+      </c>
+      <c r="T171">
+        <v>2.25</v>
+      </c>
+      <c r="U171">
+        <v>2.025</v>
+      </c>
+      <c r="V171">
+        <v>1.775</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>1.9</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
         <v>-0.5</v>
       </c>
-      <c r="R171">
-        <v>1.95</v>
-      </c>
-      <c r="S171">
-        <v>1.85</v>
-      </c>
-      <c r="T171">
-        <v>2.5</v>
-      </c>
-      <c r="U171">
-        <v>1.9</v>
-      </c>
-      <c r="V171">
-        <v>1.9</v>
-      </c>
-      <c r="W171">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>0.95</v>
-      </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6125550</v>
+        <v>6125150</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,13 +15877,13 @@
         <v>45075.625</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -15892,44 +15892,44 @@
         <v>57</v>
       </c>
       <c r="K173">
+        <v>2.6</v>
+      </c>
+      <c r="L173">
+        <v>3.5</v>
+      </c>
+      <c r="M173">
+        <v>2.3</v>
+      </c>
+      <c r="N173">
+        <v>2.4</v>
+      </c>
+      <c r="O173">
+        <v>3.6</v>
+      </c>
+      <c r="P173">
+        <v>2.45</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>2.025</v>
+      </c>
+      <c r="S173">
+        <v>1.775</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
         <v>1.95</v>
       </c>
-      <c r="L173">
-        <v>3.1</v>
-      </c>
-      <c r="M173">
-        <v>3.8</v>
-      </c>
-      <c r="N173">
+      <c r="V173">
+        <v>1.85</v>
+      </c>
+      <c r="W173">
         <v>1.4</v>
       </c>
-      <c r="O173">
-        <v>4</v>
-      </c>
-      <c r="P173">
-        <v>8.5</v>
-      </c>
-      <c r="Q173">
-        <v>-0.5</v>
-      </c>
-      <c r="R173">
-        <v>1.85</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
-      <c r="V173">
-        <v>1.9</v>
-      </c>
-      <c r="W173">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="X173">
         <v>-1</v>
       </c>
@@ -15937,13 +15937,13 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6125329</v>
+        <v>6125151</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,40 +15966,40 @@
         <v>45075.625</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K174">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N174">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O174">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
         <v>2.025</v>
@@ -16011,31 +16011,31 @@
         <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X174">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA174">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6125328</v>
+        <v>6125551</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,76 +16055,76 @@
         <v>45075.625</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K175">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N175">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W175">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4625</v>
+        <v>0.5125</v>
       </c>
       <c r="AA175">
         <v>-0.5</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6125150</v>
+        <v>6125328</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,58 +16144,58 @@
         <v>45075.625</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
         <v>57</v>
       </c>
       <c r="K176">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N176">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>1.4</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16204,13 +16204,13 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16221,7 +16221,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6125151</v>
+        <v>6125329</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16233,40 +16233,40 @@
         <v>45075.625</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K177">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L177">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M177">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N177">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O177">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P177">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R177">
         <v>2.025</v>
@@ -16278,31 +16278,31 @@
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16310,7 +16310,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6125551</v>
+        <v>6125464</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16322,76 +16322,76 @@
         <v>45075.625</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K178">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N178">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P178">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
         <v>2.5</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X178">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6125464</v>
+        <v>6125550</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16411,58 +16411,58 @@
         <v>45075.625</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>57</v>
       </c>
       <c r="K179">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L179">
+        <v>3.1</v>
+      </c>
+      <c r="M179">
+        <v>3.8</v>
+      </c>
+      <c r="N179">
+        <v>1.4</v>
+      </c>
+      <c r="O179">
         <v>4</v>
       </c>
-      <c r="M179">
-        <v>5.5</v>
-      </c>
-      <c r="N179">
-        <v>1.363</v>
-      </c>
-      <c r="O179">
-        <v>4.5</v>
-      </c>
       <c r="P179">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16471,16 +16471,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16503,7 +16503,7 @@
         <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6990923</v>
+        <v>6991273</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16592,10 +16592,10 @@
         <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -16604,43 +16604,43 @@
         <v>57</v>
       </c>
       <c r="K181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N181">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O181">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P181">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T181">
         <v>2</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16649,16 +16649,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16666,7 +16666,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6991273</v>
+        <v>6990923</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16681,10 +16681,10 @@
         <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -16693,43 +16693,43 @@
         <v>57</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L182">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M182">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N182">
+        <v>2.55</v>
+      </c>
+      <c r="O182">
+        <v>2.7</v>
+      </c>
+      <c r="P182">
+        <v>2.9</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
         <v>1.95</v>
       </c>
-      <c r="O182">
-        <v>3.2</v>
-      </c>
-      <c r="P182">
-        <v>3.6</v>
-      </c>
-      <c r="Q182">
-        <v>-0.5</v>
-      </c>
-      <c r="R182">
-        <v>2</v>
-      </c>
-      <c r="S182">
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
+      <c r="V182">
         <v>1.8</v>
       </c>
-      <c r="T182">
-        <v>2</v>
-      </c>
-      <c r="U182">
-        <v>1.775</v>
-      </c>
-      <c r="V182">
-        <v>2.025</v>
-      </c>
       <c r="W182">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16738,16 +16738,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17111,7 +17111,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17126,10 +17126,10 @@
         <v>48</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17138,43 +17138,43 @@
         <v>57</v>
       </c>
       <c r="K187">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N187">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P187">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
         <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17183,16 +17183,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17200,7 +17200,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17215,10 +17215,10 @@
         <v>49</v>
       </c>
       <c r="G188" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17227,61 +17227,61 @@
         <v>57</v>
       </c>
       <c r="K188">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N188">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O188">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W188">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0.8</v>
       </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0.825</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
-      <c r="AB188">
-        <v>-0.5</v>
-      </c>
       <c r="AC188">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17393,7 +17393,7 @@
         <v>50</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17927,7 +17927,7 @@
         <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18016,7 +18016,7 @@
         <v>53</v>
       </c>
       <c r="G197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18105,7 +18105,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18461,7 +18461,7 @@
         <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -18725,7 +18725,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
         <v>35</v>
@@ -18814,7 +18814,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
         <v>44</v>
@@ -18903,7 +18903,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>
@@ -19247,7 +19247,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19259,76 +19259,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>55</v>
+      </c>
+      <c r="K211">
+        <v>3.3</v>
+      </c>
+      <c r="L211">
+        <v>3.1</v>
+      </c>
+      <c r="M211">
+        <v>2.05</v>
+      </c>
+      <c r="N211">
+        <v>5.5</v>
+      </c>
+      <c r="O211">
+        <v>3.5</v>
+      </c>
+      <c r="P211">
+        <v>1.571</v>
+      </c>
+      <c r="Q211">
+        <v>0.75</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>1.8</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
+        <v>1.775</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>2.5</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
         <v>1</v>
       </c>
-      <c r="I211">
-        <v>2</v>
-      </c>
-      <c r="J211" t="s">
-        <v>56</v>
-      </c>
-      <c r="K211">
-        <v>2.6</v>
-      </c>
-      <c r="L211">
-        <v>2.875</v>
-      </c>
-      <c r="M211">
-        <v>2.625</v>
-      </c>
-      <c r="N211">
-        <v>2.55</v>
-      </c>
-      <c r="O211">
-        <v>2.875</v>
-      </c>
-      <c r="P211">
-        <v>2.7</v>
-      </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
-        <v>1.85</v>
-      </c>
-      <c r="S211">
-        <v>1.95</v>
-      </c>
-      <c r="T211">
-        <v>2</v>
-      </c>
-      <c r="U211">
-        <v>1.8</v>
-      </c>
-      <c r="V211">
-        <v>2</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
-      <c r="X211">
-        <v>-1</v>
-      </c>
-      <c r="Y211">
-        <v>1.7</v>
-      </c>
-      <c r="Z211">
-        <v>-1</v>
-      </c>
       <c r="AA211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19336,7 +19336,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19348,76 +19348,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K212">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N212">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P212">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q212">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S212">
+        <v>1.95</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
         <v>1.8</v>
       </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>2.025</v>
-      </c>
       <c r="V212">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC212">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19440,7 +19440,7 @@
         <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19615,7 +19615,7 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
         <v>40</v>
@@ -19704,7 +19704,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19781,7 +19781,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6991324</v>
+        <v>6991325</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19793,76 +19793,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F217" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G217" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217" t="s">
+        <v>55</v>
+      </c>
+      <c r="K217">
+        <v>2.1</v>
+      </c>
+      <c r="L217">
+        <v>3.3</v>
+      </c>
+      <c r="M217">
         <v>3</v>
       </c>
-      <c r="J217" t="s">
-        <v>56</v>
-      </c>
-      <c r="K217">
-        <v>9</v>
-      </c>
-      <c r="L217">
-        <v>5</v>
-      </c>
-      <c r="M217">
-        <v>1.25</v>
-      </c>
       <c r="N217">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O217">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q217">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V217">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y217">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB217">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19870,7 +19870,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6991325</v>
+        <v>6991324</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19882,76 +19882,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K218">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L218">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M218">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="N218">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O218">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P218">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R218">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T218">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19971,7 +19971,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G219" t="s">
         <v>45</v>
@@ -20060,10 +20060,10 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20152,7 +20152,7 @@
         <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20594,7 +20594,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G226" t="s">
         <v>45</v>
@@ -20683,7 +20683,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
         <v>37</v>
@@ -20760,7 +20760,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20772,55 +20772,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>56</v>
       </c>
       <c r="K228">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L228">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M228">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N228">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O228">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P228">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20829,19 +20829,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20849,7 +20849,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20861,55 +20861,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
         <v>1</v>
-      </c>
-      <c r="I229">
-        <v>2</v>
       </c>
       <c r="J229" t="s">
         <v>56</v>
       </c>
       <c r="K229">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M229">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N229">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P229">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20918,19 +20918,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21220,7 +21220,7 @@
         <v>52</v>
       </c>
       <c r="G233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21306,7 +21306,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G234" t="s">
         <v>40</v>
@@ -21383,7 +21383,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6991336</v>
+        <v>6991337</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21395,7 +21395,7 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
         <v>32</v>
@@ -21404,67 +21404,67 @@
         <v>1</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K235">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M235">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="N235">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O235">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R235">
+        <v>2.05</v>
+      </c>
+      <c r="S235">
+        <v>1.75</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
         <v>1.85</v>
       </c>
-      <c r="S235">
+      <c r="V235">
         <v>1.95</v>
       </c>
-      <c r="T235">
-        <v>2</v>
-      </c>
-      <c r="U235">
-        <v>1.9</v>
-      </c>
-      <c r="V235">
-        <v>1.9</v>
-      </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21472,7 +21472,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6991337</v>
+        <v>6991336</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21484,7 +21484,7 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G236" t="s">
         <v>33</v>
@@ -21493,67 +21493,67 @@
         <v>1</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K236">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L236">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M236">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="N236">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y236">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB236">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21840,7 +21840,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G240" t="s">
         <v>31</v>
@@ -21917,7 +21917,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21929,73 +21929,73 @@
         <v>45203.5</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G241" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H241">
+        <v>3</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241" t="s">
+        <v>57</v>
+      </c>
+      <c r="K241">
+        <v>5.5</v>
+      </c>
+      <c r="L241">
+        <v>3.75</v>
+      </c>
+      <c r="M241">
+        <v>1.5</v>
+      </c>
+      <c r="N241">
+        <v>4.5</v>
+      </c>
+      <c r="O241">
+        <v>3.5</v>
+      </c>
+      <c r="P241">
+        <v>1.615</v>
+      </c>
+      <c r="Q241">
+        <v>0.75</v>
+      </c>
+      <c r="R241">
+        <v>2</v>
+      </c>
+      <c r="S241">
+        <v>1.8</v>
+      </c>
+      <c r="T241">
+        <v>2.5</v>
+      </c>
+      <c r="U241">
+        <v>1.9</v>
+      </c>
+      <c r="V241">
+        <v>1.9</v>
+      </c>
+      <c r="W241">
+        <v>3.5</v>
+      </c>
+      <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
         <v>1</v>
       </c>
-      <c r="I241">
-        <v>2</v>
-      </c>
-      <c r="J241" t="s">
-        <v>56</v>
-      </c>
-      <c r="K241">
-        <v>2.1</v>
-      </c>
-      <c r="L241">
-        <v>3</v>
-      </c>
-      <c r="M241">
-        <v>3.25</v>
-      </c>
-      <c r="N241">
-        <v>2</v>
-      </c>
-      <c r="O241">
-        <v>3</v>
-      </c>
-      <c r="P241">
-        <v>3.8</v>
-      </c>
-      <c r="Q241">
-        <v>-0.25</v>
-      </c>
-      <c r="R241">
-        <v>1.775</v>
-      </c>
-      <c r="S241">
-        <v>2.025</v>
-      </c>
-      <c r="T241">
-        <v>2</v>
-      </c>
-      <c r="U241">
-        <v>1.725</v>
-      </c>
-      <c r="V241">
-        <v>1.975</v>
-      </c>
-      <c r="W241">
-        <v>-1</v>
-      </c>
-      <c r="X241">
-        <v>-1</v>
-      </c>
-      <c r="Y241">
-        <v>2.8</v>
-      </c>
-      <c r="Z241">
-        <v>-1</v>
-      </c>
       <c r="AA241">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -22006,7 +22006,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22018,73 +22018,73 @@
         <v>45203.5</v>
       </c>
       <c r="F242" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G242" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242" t="s">
+        <v>56</v>
+      </c>
+      <c r="K242">
+        <v>2.1</v>
+      </c>
+      <c r="L242">
         <v>3</v>
       </c>
-      <c r="I242">
-        <v>2</v>
-      </c>
-      <c r="J242" t="s">
-        <v>57</v>
-      </c>
-      <c r="K242">
-        <v>5.5</v>
-      </c>
-      <c r="L242">
-        <v>3.75</v>
-      </c>
       <c r="M242">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N242">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O242">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P242">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q242">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U242">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W242">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z242">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB242">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22110,7 +22110,7 @@
         <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22184,7 +22184,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6991345</v>
+        <v>6991344</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22196,40 +22196,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G244" t="s">
         <v>32</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K244">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M244">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="N244">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O244">
         <v>3.4</v>
       </c>
       <c r="P244">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R244">
         <v>1.75</v>
@@ -22241,31 +22241,31 @@
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V244">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W244">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z244">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB244">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22273,7 +22273,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6991344</v>
+        <v>6991345</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22285,40 +22285,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F245" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G245" t="s">
         <v>33</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K245">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L245">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M245">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="N245">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O245">
         <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q245">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
         <v>1.75</v>
@@ -22330,31 +22330,31 @@
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA245">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC245">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22374,7 +22374,7 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G246" t="s">
         <v>31</v>
@@ -22463,7 +22463,7 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G247" t="s">
         <v>29</v>
@@ -22718,7 +22718,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6991423</v>
+        <v>6991424</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22730,73 +22730,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F250" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G250" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K250">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L250">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M250">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N250">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O250">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P250">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T250">
         <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V250">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W250">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA250">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC250">
         <v>-1</v>
@@ -22807,7 +22807,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6991424</v>
+        <v>6991423</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22819,73 +22819,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F251" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J251" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K251">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L251">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M251">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N251">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O251">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P251">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S251">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T251">
         <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V251">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W251">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z251">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB251">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC251">
         <v>-1</v>
@@ -22997,10 +22997,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F253" t="s">
+        <v>49</v>
+      </c>
+      <c r="G253" t="s">
         <v>48</v>
-      </c>
-      <c r="G253" t="s">
-        <v>49</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -23442,7 +23442,7 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G258" t="s">
         <v>39</v>
@@ -23531,7 +23531,7 @@
         <v>45231.5</v>
       </c>
       <c r="F259" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G259" t="s">
         <v>52</v>
@@ -23608,7 +23608,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23620,19 +23620,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F260" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G260" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K260">
         <v>2.75</v>
@@ -23644,52 +23644,52 @@
         <v>2.4</v>
       </c>
       <c r="N260">
+        <v>3.2</v>
+      </c>
+      <c r="O260">
+        <v>3.1</v>
+      </c>
+      <c r="P260">
         <v>2.15</v>
       </c>
-      <c r="O260">
-        <v>3.2</v>
-      </c>
-      <c r="P260">
-        <v>3.25</v>
-      </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R260">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T260">
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V260">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W260">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB260">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23697,7 +23697,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23709,19 +23709,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G261" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K261">
         <v>2.75</v>
@@ -23733,52 +23733,52 @@
         <v>2.4</v>
       </c>
       <c r="N261">
+        <v>2.15</v>
+      </c>
+      <c r="O261">
         <v>3.2</v>
       </c>
-      <c r="O261">
-        <v>3.1</v>
-      </c>
       <c r="P261">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q261">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S261">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T261">
         <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V261">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X261">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA261">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC261">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23798,7 +23798,7 @@
         <v>45236.5625</v>
       </c>
       <c r="F262" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G262" t="s">
         <v>47</v>
@@ -24068,7 +24068,7 @@
         <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>37</v>
       </c>
       <c r="G268" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F272" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G272" t="s">
         <v>40</v>
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25136,73 +25136,73 @@
         <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K277">
         <v>1.727</v>
       </c>
       <c r="L277">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M277">
         <v>4.333</v>
       </c>
       <c r="N277">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O277">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P277">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q277">
         <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V277">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA277">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25225,73 +25225,73 @@
         <v>32</v>
       </c>
       <c r="G278" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J278" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K278">
         <v>1.727</v>
       </c>
       <c r="L278">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M278">
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O278">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P278">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q278">
         <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S278">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T278">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U278">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V278">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB278">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC278">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25314,7 +25314,7 @@
         <v>50</v>
       </c>
       <c r="G279" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -25581,7 +25581,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25655,7 +25655,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6991372</v>
+        <v>6991433</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25667,76 +25667,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F283" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G283" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K283">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="L283">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M283">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="N283">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O283">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P283">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="Q283">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R283">
+        <v>2.05</v>
+      </c>
+      <c r="S283">
+        <v>1.75</v>
+      </c>
+      <c r="T283">
+        <v>2.25</v>
+      </c>
+      <c r="U283">
         <v>1.95</v>
       </c>
-      <c r="S283">
+      <c r="V283">
         <v>1.85</v>
       </c>
-      <c r="T283">
-        <v>2.5</v>
-      </c>
-      <c r="U283">
-        <v>1.925</v>
-      </c>
-      <c r="V283">
+      <c r="W283">
         <v>1.875</v>
       </c>
-      <c r="W283">
-        <v>-1</v>
-      </c>
       <c r="X283">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
+        <v>1.05</v>
+      </c>
+      <c r="AA283">
+        <v>-1</v>
+      </c>
+      <c r="AB283">
         <v>0.95</v>
       </c>
-      <c r="AA283">
-        <v>-1</v>
-      </c>
-      <c r="AB283">
-        <v>-1</v>
-      </c>
       <c r="AC283">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25744,7 +25744,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6991433</v>
+        <v>6991372</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25756,76 +25756,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F284" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G284" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H284">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K284">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="L284">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M284">
+        <v>1.363</v>
+      </c>
+      <c r="N284">
+        <v>4.333</v>
+      </c>
+      <c r="O284">
+        <v>3.8</v>
+      </c>
+      <c r="P284">
+        <v>1.65</v>
+      </c>
+      <c r="Q284">
+        <v>0.75</v>
+      </c>
+      <c r="R284">
+        <v>1.95</v>
+      </c>
+      <c r="S284">
+        <v>1.85</v>
+      </c>
+      <c r="T284">
         <v>2.5</v>
       </c>
-      <c r="N284">
-        <v>2.875</v>
-      </c>
-      <c r="O284">
-        <v>3.1</v>
-      </c>
-      <c r="P284">
-        <v>2.4</v>
-      </c>
-      <c r="Q284">
-        <v>0</v>
-      </c>
-      <c r="R284">
-        <v>2.05</v>
-      </c>
-      <c r="S284">
-        <v>1.75</v>
-      </c>
-      <c r="T284">
-        <v>2.25</v>
-      </c>
       <c r="U284">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V284">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W284">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA284">
         <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25937,7 +25937,7 @@
         <v>30</v>
       </c>
       <c r="G286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H286">
         <v>3</v>
@@ -26023,7 +26023,7 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G287" t="s">
         <v>52</v>
@@ -26290,10 +26290,10 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F290" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G290" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26471,7 +26471,7 @@
         <v>47</v>
       </c>
       <c r="G292" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -26646,7 +26646,7 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G294" t="s">
         <v>51</v>
@@ -27002,7 +27002,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F298" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G298" t="s">
         <v>29</v>
@@ -27272,7 +27272,7 @@
         <v>35</v>
       </c>
       <c r="G301" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27539,7 +27539,7 @@
         <v>44</v>
       </c>
       <c r="G304" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H304">
         <v>3</v>
@@ -27625,7 +27625,7 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F305" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G305" t="s">
         <v>50</v>
@@ -27803,7 +27803,7 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G307" t="s">
         <v>51</v>
@@ -28248,7 +28248,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G312" t="s">
         <v>53</v>
@@ -28426,10 +28426,10 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F314" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G314" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -28963,7 +28963,7 @@
         <v>44</v>
       </c>
       <c r="G320" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -29141,7 +29141,7 @@
         <v>51</v>
       </c>
       <c r="G322" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H322">
         <v>2</v>
@@ -29227,10 +29227,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F323" t="s">
+        <v>33</v>
+      </c>
+      <c r="G323" t="s">
         <v>32</v>
-      </c>
-      <c r="G323" t="s">
-        <v>33</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,76 +29405,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F325" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G325" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325">
         <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K325">
         <v>2.4</v>
       </c>
       <c r="L325">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M325">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N325">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O325">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P325">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S325">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T325">
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V325">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y325">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA325">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC325">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29482,7 +29482,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29494,76 +29494,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F326" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G326" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326">
         <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K326">
         <v>2.4</v>
       </c>
       <c r="L326">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M326">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N326">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O326">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P326">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q326">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R326">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V326">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z326">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB326">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29660,7 +29660,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6991407</v>
+        <v>6991443</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29672,76 +29672,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F328" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G328" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I328">
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K328">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L328">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M328">
+        <v>3</v>
+      </c>
+      <c r="N328">
+        <v>2.05</v>
+      </c>
+      <c r="O328">
+        <v>3.1</v>
+      </c>
+      <c r="P328">
+        <v>3.3</v>
+      </c>
+      <c r="Q328">
+        <v>-0.25</v>
+      </c>
+      <c r="R328">
+        <v>1.85</v>
+      </c>
+      <c r="S328">
+        <v>1.95</v>
+      </c>
+      <c r="T328">
         <v>2.5</v>
       </c>
-      <c r="N328">
-        <v>2.5</v>
-      </c>
-      <c r="O328">
-        <v>3.2</v>
-      </c>
-      <c r="P328">
-        <v>2.5</v>
-      </c>
-      <c r="Q328">
-        <v>0</v>
-      </c>
-      <c r="R328">
-        <v>1.9</v>
-      </c>
-      <c r="S328">
-        <v>1.9</v>
-      </c>
-      <c r="T328">
-        <v>2</v>
-      </c>
       <c r="U328">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V328">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W328">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X328">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA328">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB328">
         <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29749,7 +29749,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6991443</v>
+        <v>6991407</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29761,76 +29761,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F329" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G329" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329">
         <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K329">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L329">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M329">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N329">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O329">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P329">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q329">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R329">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S329">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T329">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U329">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V329">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W329">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X329">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB329">
         <v>-1</v>
       </c>
       <c r="AC329">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30028,7 +30028,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G332" t="s">
         <v>44</v>
@@ -30117,7 +30117,7 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F333" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G333" t="s">
         <v>31</v>
@@ -30387,7 +30387,7 @@
         <v>52</v>
       </c>
       <c r="G336" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H336">
         <v>2</v>
@@ -30654,7 +30654,7 @@
         <v>30</v>
       </c>
       <c r="G339" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -30743,7 +30743,7 @@
         <v>35</v>
       </c>
       <c r="G340" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -30832,7 +30832,7 @@
         <v>53</v>
       </c>
       <c r="G341" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31007,7 +31007,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G343" t="s">
         <v>50</v>
@@ -31262,7 +31262,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31274,61 +31274,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F346" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G346" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K346">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L346">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M346">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N346">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O346">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P346">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q346">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
+        <v>1.725</v>
+      </c>
+      <c r="S346">
         <v>1.975</v>
       </c>
-      <c r="S346">
+      <c r="T346">
+        <v>2</v>
+      </c>
+      <c r="U346">
         <v>1.825</v>
       </c>
-      <c r="T346">
-        <v>2.75</v>
-      </c>
-      <c r="U346">
-        <v>1.95</v>
-      </c>
       <c r="V346">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W346">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y346">
         <v>-1</v>
@@ -31337,13 +31337,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB346">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31351,7 +31351,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31363,61 +31363,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F347" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G347" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K347">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L347">
+        <v>4.2</v>
+      </c>
+      <c r="M347">
+        <v>5</v>
+      </c>
+      <c r="N347">
+        <v>1.45</v>
+      </c>
+      <c r="O347">
+        <v>4.2</v>
+      </c>
+      <c r="P347">
+        <v>5.25</v>
+      </c>
+      <c r="Q347">
+        <v>-1.25</v>
+      </c>
+      <c r="R347">
+        <v>1.975</v>
+      </c>
+      <c r="S347">
+        <v>1.825</v>
+      </c>
+      <c r="T347">
         <v>2.75</v>
       </c>
-      <c r="M347">
-        <v>3.1</v>
-      </c>
-      <c r="N347">
-        <v>2</v>
-      </c>
-      <c r="O347">
-        <v>2.875</v>
-      </c>
-      <c r="P347">
-        <v>3.75</v>
-      </c>
-      <c r="Q347">
-        <v>-0.25</v>
-      </c>
-      <c r="R347">
-        <v>1.725</v>
-      </c>
-      <c r="S347">
-        <v>1.975</v>
-      </c>
-      <c r="T347">
-        <v>2</v>
-      </c>
       <c r="U347">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X347">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
@@ -31426,13 +31426,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC347">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31452,7 +31452,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F348" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G348" t="s">
         <v>53</v>
@@ -31707,7 +31707,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31719,40 +31719,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F351" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G351" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J351" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K351">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L351">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M351">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N351">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O351">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P351">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q351">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R351">
         <v>1.95</v>
@@ -31761,34 +31761,34 @@
         <v>1.85</v>
       </c>
       <c r="T351">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U351">
+        <v>1.85</v>
+      </c>
+      <c r="V351">
         <v>1.95</v>
       </c>
-      <c r="V351">
-        <v>1.85</v>
-      </c>
       <c r="W351">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z351">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC351">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31796,7 +31796,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31808,40 +31808,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F352" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G352" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K352">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L352">
+        <v>3.25</v>
+      </c>
+      <c r="M352">
+        <v>4</v>
+      </c>
+      <c r="N352">
+        <v>1.909</v>
+      </c>
+      <c r="O352">
         <v>3.1</v>
       </c>
-      <c r="M352">
-        <v>2.2</v>
-      </c>
-      <c r="N352">
-        <v>2.7</v>
-      </c>
-      <c r="O352">
-        <v>3</v>
-      </c>
       <c r="P352">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q352">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R352">
         <v>1.95</v>
@@ -31850,34 +31850,34 @@
         <v>1.85</v>
       </c>
       <c r="T352">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
+        <v>1.95</v>
+      </c>
+      <c r="V352">
         <v>1.85</v>
       </c>
-      <c r="V352">
-        <v>1.95</v>
-      </c>
       <c r="W352">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA352">
+        <v>-1</v>
+      </c>
+      <c r="AB352">
+        <v>-1</v>
+      </c>
+      <c r="AC352">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB352">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC352">
-        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32075,7 +32075,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F355" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G355" t="s">
         <v>39</v>
@@ -32167,7 +32167,7 @@
         <v>44</v>
       </c>
       <c r="G356" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -32256,7 +32256,7 @@
         <v>30</v>
       </c>
       <c r="G357" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -32523,7 +32523,7 @@
         <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H360">
         <v>0</v>
@@ -32787,7 +32787,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F363" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G363" t="s">
         <v>45</v>
@@ -33057,7 +33057,7 @@
         <v>30</v>
       </c>
       <c r="G366" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H366">
         <v>1</v>
@@ -33143,7 +33143,7 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F367" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G367" t="s">
         <v>37</v>
@@ -33398,7 +33398,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7712421</v>
+        <v>7712422</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33410,76 +33410,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F370" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G370" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J370" t="s">
         <v>55</v>
       </c>
       <c r="K370">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L370">
+        <v>3.2</v>
+      </c>
+      <c r="M370">
+        <v>3.6</v>
+      </c>
+      <c r="N370">
+        <v>2.05</v>
+      </c>
+      <c r="O370">
+        <v>3.25</v>
+      </c>
+      <c r="P370">
         <v>3.1</v>
       </c>
-      <c r="M370">
-        <v>3.4</v>
-      </c>
-      <c r="N370">
-        <v>2.8</v>
-      </c>
-      <c r="O370">
-        <v>2.875</v>
-      </c>
-      <c r="P370">
-        <v>2.55</v>
-      </c>
       <c r="Q370">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R370">
+        <v>1.8</v>
+      </c>
+      <c r="S370">
+        <v>2</v>
+      </c>
+      <c r="T370">
+        <v>2.25</v>
+      </c>
+      <c r="U370">
         <v>2.025</v>
       </c>
-      <c r="S370">
+      <c r="V370">
         <v>1.775</v>
       </c>
-      <c r="T370">
-        <v>2</v>
-      </c>
-      <c r="U370">
-        <v>1.975</v>
-      </c>
-      <c r="V370">
-        <v>1.825</v>
-      </c>
       <c r="W370">
         <v>-1</v>
       </c>
       <c r="X370">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y370">
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA370">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB370">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC370">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33487,7 +33487,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7712422</v>
+        <v>7712421</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33499,76 +33499,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F371" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G371" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J371" t="s">
         <v>55</v>
       </c>
       <c r="K371">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L371">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M371">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N371">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O371">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P371">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q371">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R371">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S371">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T371">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U371">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V371">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W371">
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA371">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB371">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC371">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33944,10 +33944,10 @@
         <v>45343.40625</v>
       </c>
       <c r="F376" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G376" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H376">
         <v>0</v>
@@ -34036,7 +34036,7 @@
         <v>45</v>
       </c>
       <c r="G377" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H377">
         <v>0</v>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -112,10 +112,10 @@
     <t>Al Faisaly Harmah</t>
   </si>
   <si>
-    <t>Al Orubah</t>
+    <t>Al Jabalain</t>
   </si>
   <si>
-    <t>Al Jabalain</t>
+    <t>Al Orubah</t>
   </si>
   <si>
     <t>Al Sahel</t>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5418509</v>
+        <v>5418508</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,73 +928,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O5">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5418508</v>
+        <v>5418509</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1017,73 +1017,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1370,7 +1370,7 @@
         <v>44935.40277777778</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1462,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2263,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>44942.40277777778</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -3153,7 +3153,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3687,7 +3687,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6095144</v>
+        <v>6095143</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3862,76 +3862,76 @@
         <v>44954.41319444445</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3939,7 +3939,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6095143</v>
+        <v>6095144</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3951,76 +3951,76 @@
         <v>44954.41319444445</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X39">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>-0.5</v>
       </c>
-      <c r="AA39">
-        <v>0.45</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4399,7 +4399,7 @@
         <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4663,7 +4663,7 @@
         <v>44959.41319444445</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -5363,7 +5363,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6095160</v>
+        <v>6095161</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5375,16 +5375,16 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>1</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
@@ -5393,37 +5393,37 @@
         <v>2.5</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N55">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5432,19 +5432,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5452,7 +5452,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6095161</v>
+        <v>6095160</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5464,16 +5464,16 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>56</v>
@@ -5482,37 +5482,37 @@
         <v>2.5</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N56">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O56">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
         <v>1.8</v>
       </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
       <c r="T56">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5521,19 +5521,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5556,7 +5556,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5642,7 +5642,7 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5823,7 +5823,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>44977.42361111111</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
@@ -6980,7 +6980,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>44984.42013888889</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7692,7 +7692,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8490,10 +8490,10 @@
         <v>44993.42708333334</v>
       </c>
       <c r="F90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s">
         <v>32</v>
-      </c>
-      <c r="G90" t="s">
-        <v>33</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8846,7 +8846,7 @@
         <v>44998.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>39</v>
@@ -8938,7 +8938,7 @@
         <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9650,7 +9650,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>45004.46875</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -10184,7 +10184,7 @@
         <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10537,7 +10537,7 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
         <v>36</v>
@@ -10807,7 +10807,7 @@
         <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>4</v>
@@ -11074,7 +11074,7 @@
         <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>45041.5625</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12406,7 +12406,7 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
@@ -12854,7 +12854,7 @@
         <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13210,7 +13210,7 @@
         <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>45054.5625</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
@@ -13741,7 +13741,7 @@
         <v>45054.56944444445</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
@@ -14545,7 +14545,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15242,7 +15242,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6125206</v>
+        <v>6125207</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15254,58 +15254,58 @@
         <v>45069.625</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>57</v>
       </c>
       <c r="K166">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="L166">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M166">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N166">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P166">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
+        <v>1.85</v>
+      </c>
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
         <v>1.925</v>
       </c>
-      <c r="S166">
+      <c r="V166">
         <v>1.875</v>
       </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>1.95</v>
-      </c>
-      <c r="V166">
-        <v>1.85</v>
-      </c>
       <c r="W166">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15314,16 +15314,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6125205</v>
+        <v>6125206</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,76 +15343,76 @@
         <v>45069.625</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K167">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L167">
         <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N167">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O167">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15420,7 +15420,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6125207</v>
+        <v>6125205</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15432,76 +15432,76 @@
         <v>45069.625</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K168">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M168">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N168">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O168">
+        <v>3.2</v>
+      </c>
+      <c r="P168">
         <v>2.9</v>
       </c>
-      <c r="P168">
-        <v>2.6</v>
-      </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z168">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15509,7 +15509,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6125149</v>
+        <v>6125204</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15521,76 +15521,76 @@
         <v>45069.625</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K169">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L169">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N169">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P169">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q169">
+        <v>-0.25</v>
+      </c>
+      <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>1.825</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>2.025</v>
+      </c>
+      <c r="V169">
+        <v>1.775</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>1.9</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
         <v>-0.5</v>
       </c>
-      <c r="R169">
-        <v>1.95</v>
-      </c>
-      <c r="S169">
-        <v>1.85</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>1.9</v>
-      </c>
-      <c r="V169">
-        <v>1.9</v>
-      </c>
-      <c r="W169">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>0.95</v>
-      </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6125204</v>
+        <v>6125149</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15699,76 +15699,76 @@
         <v>45069.625</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K171">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M171">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N171">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O171">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X171">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16411,7 +16411,7 @@
         <v>45075.625</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>30</v>
@@ -16503,7 +16503,7 @@
         <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6991273</v>
+        <v>6990923</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16592,10 +16592,10 @@
         <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -16604,43 +16604,43 @@
         <v>57</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M181">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N181">
+        <v>2.55</v>
+      </c>
+      <c r="O181">
+        <v>2.7</v>
+      </c>
+      <c r="P181">
+        <v>2.9</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
         <v>1.95</v>
       </c>
-      <c r="O181">
-        <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>3.6</v>
-      </c>
-      <c r="Q181">
-        <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
         <v>1.8</v>
       </c>
-      <c r="T181">
-        <v>2</v>
-      </c>
-      <c r="U181">
-        <v>1.775</v>
-      </c>
-      <c r="V181">
-        <v>2.025</v>
-      </c>
       <c r="W181">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16649,16 +16649,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16666,7 +16666,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6990923</v>
+        <v>6991273</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16681,10 +16681,10 @@
         <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -16693,43 +16693,43 @@
         <v>57</v>
       </c>
       <c r="K182">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N182">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O182">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P182">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16738,16 +16738,16 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17393,7 +17393,7 @@
         <v>50</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -18105,7 +18105,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18179,7 +18179,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6991277</v>
+        <v>6991276</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18191,13 +18191,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F199" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18206,43 +18206,43 @@
         <v>57</v>
       </c>
       <c r="K199">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L199">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N199">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O199">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P199">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
         <v>1.8</v>
       </c>
-      <c r="V199">
-        <v>2</v>
-      </c>
       <c r="W199">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18251,16 +18251,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
         <v>0.8</v>
-      </c>
-      <c r="AC199">
-        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18268,7 +18268,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6991276</v>
+        <v>6991277</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18280,13 +18280,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G200" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -18295,43 +18295,43 @@
         <v>57</v>
       </c>
       <c r="K200">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M200">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N200">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O200">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P200">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q200">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
         <v>1.8</v>
       </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
-      <c r="U200">
-        <v>2</v>
-      </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W200">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18340,16 +18340,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA200">
         <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18725,7 +18725,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
         <v>35</v>
@@ -18814,7 +18814,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
         <v>44</v>
@@ -19351,7 +19351,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19615,7 +19615,7 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>40</v>
@@ -20060,7 +20060,7 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
         <v>49</v>
@@ -20152,7 +20152,7 @@
         <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20683,7 +20683,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
         <v>37</v>
@@ -21306,7 +21306,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G234" t="s">
         <v>40</v>
@@ -21398,7 +21398,7 @@
         <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21487,7 +21487,7 @@
         <v>39</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21917,7 +21917,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21929,73 +21929,73 @@
         <v>45203.5</v>
       </c>
       <c r="F241" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241" t="s">
+        <v>56</v>
+      </c>
+      <c r="K241">
+        <v>2.1</v>
+      </c>
+      <c r="L241">
         <v>3</v>
       </c>
-      <c r="I241">
-        <v>2</v>
-      </c>
-      <c r="J241" t="s">
-        <v>57</v>
-      </c>
-      <c r="K241">
-        <v>5.5</v>
-      </c>
-      <c r="L241">
-        <v>3.75</v>
-      </c>
       <c r="M241">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N241">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O241">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P241">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U241">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W241">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z241">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB241">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -22006,7 +22006,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22018,73 +22018,73 @@
         <v>45203.5</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G242" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H242">
+        <v>3</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242" t="s">
+        <v>57</v>
+      </c>
+      <c r="K242">
+        <v>5.5</v>
+      </c>
+      <c r="L242">
+        <v>3.75</v>
+      </c>
+      <c r="M242">
+        <v>1.5</v>
+      </c>
+      <c r="N242">
+        <v>4.5</v>
+      </c>
+      <c r="O242">
+        <v>3.5</v>
+      </c>
+      <c r="P242">
+        <v>1.615</v>
+      </c>
+      <c r="Q242">
+        <v>0.75</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>1.8</v>
+      </c>
+      <c r="T242">
+        <v>2.5</v>
+      </c>
+      <c r="U242">
+        <v>1.9</v>
+      </c>
+      <c r="V242">
+        <v>1.9</v>
+      </c>
+      <c r="W242">
+        <v>3.5</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
         <v>1</v>
       </c>
-      <c r="I242">
-        <v>2</v>
-      </c>
-      <c r="J242" t="s">
-        <v>56</v>
-      </c>
-      <c r="K242">
-        <v>2.1</v>
-      </c>
-      <c r="L242">
-        <v>3</v>
-      </c>
-      <c r="M242">
-        <v>3.25</v>
-      </c>
-      <c r="N242">
-        <v>2</v>
-      </c>
-      <c r="O242">
-        <v>3</v>
-      </c>
-      <c r="P242">
-        <v>3.8</v>
-      </c>
-      <c r="Q242">
-        <v>-0.25</v>
-      </c>
-      <c r="R242">
-        <v>1.775</v>
-      </c>
-      <c r="S242">
-        <v>2.025</v>
-      </c>
-      <c r="T242">
-        <v>2</v>
-      </c>
-      <c r="U242">
-        <v>1.725</v>
-      </c>
-      <c r="V242">
-        <v>1.975</v>
-      </c>
-      <c r="W242">
-        <v>-1</v>
-      </c>
-      <c r="X242">
-        <v>-1</v>
-      </c>
-      <c r="Y242">
-        <v>2.8</v>
-      </c>
-      <c r="Z242">
-        <v>-1</v>
-      </c>
       <c r="AA242">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22184,7 +22184,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6991344</v>
+        <v>6991345</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22196,40 +22196,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F244" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G244" t="s">
         <v>32</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K244">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L244">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="N244">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O244">
         <v>3.4</v>
       </c>
       <c r="P244">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q244">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
         <v>1.75</v>
@@ -22241,31 +22241,31 @@
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V244">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA244">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC244">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22273,7 +22273,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6991345</v>
+        <v>6991344</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22285,40 +22285,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F245" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G245" t="s">
         <v>33</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K245">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L245">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M245">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="N245">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O245">
         <v>3.4</v>
       </c>
       <c r="P245">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R245">
         <v>1.75</v>
@@ -22330,31 +22330,31 @@
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z245">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB245">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -23442,7 +23442,7 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G258" t="s">
         <v>39</v>
@@ -23531,7 +23531,7 @@
         <v>45231.5</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
         <v>52</v>
@@ -24068,7 +24068,7 @@
         <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>37</v>
       </c>
       <c r="G268" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25136,73 +25136,73 @@
         <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J277" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K277">
         <v>1.727</v>
       </c>
       <c r="L277">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M277">
         <v>4.333</v>
       </c>
       <c r="N277">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O277">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P277">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q277">
         <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V277">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W277">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z277">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB277">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC277">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25225,73 +25225,73 @@
         <v>32</v>
       </c>
       <c r="G278" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K278">
         <v>1.727</v>
       </c>
       <c r="L278">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M278">
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O278">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P278">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q278">
         <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S278">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA278">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25670,7 +25670,7 @@
         <v>47</v>
       </c>
       <c r="G283" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H283">
         <v>3</v>
@@ -25922,7 +25922,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6991373</v>
+        <v>6991374</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25934,58 +25934,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F286" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>57</v>
       </c>
       <c r="K286">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L286">
+        <v>3</v>
+      </c>
+      <c r="M286">
         <v>3.2</v>
       </c>
-      <c r="M286">
-        <v>2.625</v>
-      </c>
       <c r="N286">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O286">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P286">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R286">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S286">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T286">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U286">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V286">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W286">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25994,16 +25994,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26011,7 +26011,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6991374</v>
+        <v>6991373</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26023,58 +26023,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F287" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G287" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H287">
+        <v>3</v>
+      </c>
+      <c r="I287">
         <v>1</v>
-      </c>
-      <c r="I287">
-        <v>0</v>
       </c>
       <c r="J287" t="s">
         <v>57</v>
       </c>
       <c r="K287">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L287">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M287">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N287">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O287">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P287">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q287">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R287">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S287">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T287">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U287">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V287">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W287">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26083,16 +26083,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA287">
         <v>-1</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC287">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26290,7 +26290,7 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G290" t="s">
         <v>48</v>
@@ -26646,7 +26646,7 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F294" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G294" t="s">
         <v>51</v>
@@ -27272,7 +27272,7 @@
         <v>35</v>
       </c>
       <c r="G301" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27524,7 +27524,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6991390</v>
+        <v>6991389</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27536,73 +27536,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F304" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G304" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304">
+        <v>2</v>
+      </c>
+      <c r="J304" t="s">
+        <v>55</v>
+      </c>
+      <c r="K304">
+        <v>2.6</v>
+      </c>
+      <c r="L304">
+        <v>3.2</v>
+      </c>
+      <c r="M304">
+        <v>2.4</v>
+      </c>
+      <c r="N304">
+        <v>2.7</v>
+      </c>
+      <c r="O304">
+        <v>3.2</v>
+      </c>
+      <c r="P304">
+        <v>2.3</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>2.05</v>
+      </c>
+      <c r="S304">
+        <v>1.75</v>
+      </c>
+      <c r="T304">
+        <v>2.25</v>
+      </c>
+      <c r="U304">
+        <v>2</v>
+      </c>
+      <c r="V304">
+        <v>1.8</v>
+      </c>
+      <c r="W304">
+        <v>-1</v>
+      </c>
+      <c r="X304">
+        <v>2.2</v>
+      </c>
+      <c r="Y304">
+        <v>-1</v>
+      </c>
+      <c r="Z304">
+        <v>0</v>
+      </c>
+      <c r="AA304">
+        <v>-0</v>
+      </c>
+      <c r="AB304">
         <v>1</v>
-      </c>
-      <c r="J304" t="s">
-        <v>57</v>
-      </c>
-      <c r="K304">
-        <v>2.25</v>
-      </c>
-      <c r="L304">
-        <v>3.5</v>
-      </c>
-      <c r="M304">
-        <v>2.6</v>
-      </c>
-      <c r="N304">
-        <v>2.2</v>
-      </c>
-      <c r="O304">
-        <v>3.6</v>
-      </c>
-      <c r="P304">
-        <v>2.7</v>
-      </c>
-      <c r="Q304">
-        <v>-0.25</v>
-      </c>
-      <c r="R304">
-        <v>1.975</v>
-      </c>
-      <c r="S304">
-        <v>1.825</v>
-      </c>
-      <c r="T304">
-        <v>2.5</v>
-      </c>
-      <c r="U304">
-        <v>1.95</v>
-      </c>
-      <c r="V304">
-        <v>1.85</v>
-      </c>
-      <c r="W304">
-        <v>1.2</v>
-      </c>
-      <c r="X304">
-        <v>-1</v>
-      </c>
-      <c r="Y304">
-        <v>-1</v>
-      </c>
-      <c r="Z304">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA304">
-        <v>-1</v>
-      </c>
-      <c r="AB304">
-        <v>0.95</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27613,7 +27613,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6991389</v>
+        <v>6991390</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27625,73 +27625,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F305" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K305">
+        <v>2.25</v>
+      </c>
+      <c r="L305">
+        <v>3.5</v>
+      </c>
+      <c r="M305">
         <v>2.6</v>
       </c>
-      <c r="L305">
-        <v>3.2</v>
-      </c>
-      <c r="M305">
-        <v>2.4</v>
-      </c>
       <c r="N305">
+        <v>2.2</v>
+      </c>
+      <c r="O305">
+        <v>3.6</v>
+      </c>
+      <c r="P305">
         <v>2.7</v>
       </c>
-      <c r="O305">
-        <v>3.2</v>
-      </c>
-      <c r="P305">
-        <v>2.3</v>
-      </c>
       <c r="Q305">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R305">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V305">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X305">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA305">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -28248,7 +28248,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F312" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G312" t="s">
         <v>53</v>
@@ -28426,7 +28426,7 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G314" t="s">
         <v>48</v>
@@ -29227,10 +29227,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F323" t="s">
+        <v>32</v>
+      </c>
+      <c r="G323" t="s">
         <v>33</v>
-      </c>
-      <c r="G323" t="s">
-        <v>32</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29764,7 +29764,7 @@
         <v>49</v>
       </c>
       <c r="G329" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -30117,7 +30117,7 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F333" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G333" t="s">
         <v>31</v>
@@ -30387,7 +30387,7 @@
         <v>52</v>
       </c>
       <c r="G336" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H336">
         <v>2</v>
@@ -30654,7 +30654,7 @@
         <v>30</v>
       </c>
       <c r="G339" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -31007,7 +31007,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F343" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G343" t="s">
         <v>50</v>
@@ -31262,7 +31262,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31274,61 +31274,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F346" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G346" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K346">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L346">
+        <v>4.2</v>
+      </c>
+      <c r="M346">
+        <v>5</v>
+      </c>
+      <c r="N346">
+        <v>1.45</v>
+      </c>
+      <c r="O346">
+        <v>4.2</v>
+      </c>
+      <c r="P346">
+        <v>5.25</v>
+      </c>
+      <c r="Q346">
+        <v>-1.25</v>
+      </c>
+      <c r="R346">
+        <v>1.975</v>
+      </c>
+      <c r="S346">
+        <v>1.825</v>
+      </c>
+      <c r="T346">
         <v>2.75</v>
       </c>
-      <c r="M346">
-        <v>3.1</v>
-      </c>
-      <c r="N346">
-        <v>2</v>
-      </c>
-      <c r="O346">
-        <v>2.875</v>
-      </c>
-      <c r="P346">
-        <v>3.75</v>
-      </c>
-      <c r="Q346">
-        <v>-0.25</v>
-      </c>
-      <c r="R346">
-        <v>1.725</v>
-      </c>
-      <c r="S346">
-        <v>1.975</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
-      </c>
       <c r="U346">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V346">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X346">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
         <v>-1</v>
@@ -31337,13 +31337,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC346">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31351,7 +31351,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31363,61 +31363,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F347" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G347" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K347">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L347">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M347">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N347">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O347">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P347">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q347">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
+        <v>1.725</v>
+      </c>
+      <c r="S347">
         <v>1.975</v>
       </c>
-      <c r="S347">
+      <c r="T347">
+        <v>2</v>
+      </c>
+      <c r="U347">
         <v>1.825</v>
       </c>
-      <c r="T347">
-        <v>2.75</v>
-      </c>
-      <c r="U347">
-        <v>1.95</v>
-      </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W347">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y347">
         <v>-1</v>
@@ -31426,13 +31426,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB347">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31722,7 +31722,7 @@
         <v>35</v>
       </c>
       <c r="G351" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H351">
         <v>0</v>
@@ -32167,7 +32167,7 @@
         <v>44</v>
       </c>
       <c r="G356" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -32523,7 +32523,7 @@
         <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H360">
         <v>0</v>
@@ -32787,7 +32787,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F363" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G363" t="s">
         <v>45</v>
@@ -33499,7 +33499,7 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G371" t="s">
         <v>31</v>
@@ -33947,7 +33947,7 @@
         <v>49</v>
       </c>
       <c r="G376" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H376">
         <v>0</v>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -112,10 +112,10 @@
     <t>Al Faisaly Harmah</t>
   </si>
   <si>
-    <t>Al Jabalain</t>
+    <t>Al Orubah</t>
   </si>
   <si>
-    <t>Al Orubah</t>
+    <t>Al Jabalain</t>
   </si>
   <si>
     <t>Al Sahel</t>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5418508</v>
+        <v>5418509</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -928,73 +928,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5418509</v>
+        <v>5418508</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1017,73 +1017,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1370,7 +1370,7 @@
         <v>44935.40277777778</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1462,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2263,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>44942.40277777778</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -3153,7 +3153,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3687,7 +3687,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>44954.41319444445</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4399,7 +4399,7 @@
         <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4663,7 +4663,7 @@
         <v>44959.41319444445</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -5375,7 +5375,7 @@
         <v>44965.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>39</v>
@@ -5556,7 +5556,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5642,7 +5642,7 @@
         <v>44970.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5823,7 +5823,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>44977.42361111111</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
@@ -6980,7 +6980,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>44984.42013888889</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7692,7 +7692,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8490,10 +8490,10 @@
         <v>44993.42708333334</v>
       </c>
       <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
         <v>33</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8846,7 +8846,7 @@
         <v>44998.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>39</v>
@@ -8938,7 +8938,7 @@
         <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9650,7 +9650,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>45004.46875</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -10184,7 +10184,7 @@
         <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6125187</v>
+        <v>6125224</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10448,55 +10448,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>56</v>
       </c>
       <c r="K112">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L112">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N112">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O112">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10505,19 +10505,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,7 +10525,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6125224</v>
+        <v>6125187</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10537,55 +10537,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <v>1</v>
-      </c>
-      <c r="I113">
-        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>56</v>
       </c>
       <c r="K113">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M113">
+        <v>2.4</v>
+      </c>
+      <c r="N113">
+        <v>2.8</v>
+      </c>
+      <c r="O113">
+        <v>2.8</v>
+      </c>
+      <c r="P113">
+        <v>2.45</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>2.05</v>
+      </c>
+      <c r="S113">
         <v>1.75</v>
       </c>
-      <c r="N113">
-        <v>4.333</v>
-      </c>
-      <c r="O113">
-        <v>3</v>
-      </c>
-      <c r="P113">
-        <v>1.833</v>
-      </c>
-      <c r="Q113">
-        <v>0.5</v>
-      </c>
-      <c r="R113">
-        <v>1.975</v>
-      </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10594,19 +10594,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10792,7 +10792,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6125190</v>
+        <v>6125325</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10804,76 +10804,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>1.1</v>
       </c>
       <c r="L116">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M116">
+        <v>13</v>
+      </c>
+      <c r="N116">
+        <v>1.222</v>
+      </c>
+      <c r="O116">
         <v>5.5</v>
       </c>
-      <c r="N116">
-        <v>1.533</v>
-      </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.925</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>1.75</v>
+      </c>
+      <c r="V116">
         <v>1.95</v>
       </c>
-      <c r="S116">
-        <v>1.85</v>
-      </c>
-      <c r="T116">
-        <v>2.25</v>
-      </c>
-      <c r="U116">
-        <v>1.8</v>
-      </c>
-      <c r="V116">
-        <v>2</v>
-      </c>
       <c r="W116">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
+        <v>0.925</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>0.95</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
-      <c r="AB116">
-        <v>0.8</v>
-      </c>
-      <c r="AC116">
-        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10881,7 +10881,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6125325</v>
+        <v>6125190</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10893,76 +10893,76 @@
         <v>45025.65972222222</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K117">
-        <v>1.1</v>
+        <v>1.444</v>
       </c>
       <c r="L117">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="N117">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O117">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X117">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11059,7 +11059,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6125543</v>
+        <v>6125139</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11071,76 +11071,76 @@
         <v>45026.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>55</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O119">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11148,7 +11148,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6125139</v>
+        <v>6125543</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11160,76 +11160,76 @@
         <v>45026.64583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>55</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -12139,7 +12139,7 @@
         <v>45041.5625</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
         <v>46</v>
@@ -12305,7 +12305,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6125194</v>
+        <v>6125227</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12317,76 +12317,76 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K133">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>1.85</v>
+      </c>
+      <c r="N133">
+        <v>4.333</v>
+      </c>
+      <c r="O133">
         <v>3</v>
       </c>
-      <c r="M133">
-        <v>2.55</v>
-      </c>
-      <c r="N133">
-        <v>3.1</v>
-      </c>
-      <c r="O133">
-        <v>2.875</v>
-      </c>
       <c r="P133">
+        <v>1.833</v>
+      </c>
+      <c r="Q133">
+        <v>0.5</v>
+      </c>
+      <c r="R133">
+        <v>1.925</v>
+      </c>
+      <c r="S133">
+        <v>1.875</v>
+      </c>
+      <c r="T133">
         <v>2.25</v>
       </c>
-      <c r="Q133">
-        <v>0.25</v>
-      </c>
-      <c r="R133">
-        <v>1.825</v>
-      </c>
-      <c r="S133">
-        <v>1.975</v>
-      </c>
-      <c r="T133">
-        <v>2</v>
-      </c>
       <c r="U133">
+        <v>2.025</v>
+      </c>
+      <c r="V133">
         <v>1.775</v>
       </c>
-      <c r="V133">
-        <v>2.025</v>
-      </c>
       <c r="W133">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6125227</v>
+        <v>6125194</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12406,76 +12406,76 @@
         <v>45042.53819444445</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K134">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O134">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P134">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U134">
+        <v>1.775</v>
+      </c>
+      <c r="V134">
         <v>2.025</v>
       </c>
-      <c r="V134">
-        <v>1.775</v>
-      </c>
       <c r="W134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>1.025</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12854,7 +12854,7 @@
         <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13210,7 +13210,7 @@
         <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>45054.5625</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
@@ -13741,7 +13741,7 @@
         <v>45054.56944444445</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
@@ -14545,7 +14545,7 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14886,7 +14886,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6125203</v>
+        <v>6125231</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14898,58 +14898,58 @@
         <v>45063.55902777778</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>57</v>
       </c>
       <c r="K162">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M162">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N162">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P162">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q162">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>2.025</v>
+      </c>
+      <c r="S162">
+        <v>1.775</v>
+      </c>
+      <c r="T162">
+        <v>2.25</v>
+      </c>
+      <c r="U162">
+        <v>1.975</v>
+      </c>
+      <c r="V162">
         <v>1.825</v>
       </c>
-      <c r="S162">
-        <v>1.975</v>
-      </c>
-      <c r="T162">
-        <v>2.75</v>
-      </c>
-      <c r="U162">
-        <v>1.95</v>
-      </c>
-      <c r="V162">
-        <v>1.85</v>
-      </c>
       <c r="W162">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14958,13 +14958,13 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA162">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14975,7 +14975,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6125231</v>
+        <v>6125203</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14987,58 +14987,58 @@
         <v>45063.55902777778</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>3</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
         <v>57</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M163">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N163">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W163">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15047,13 +15047,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15153,7 +15153,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6125327</v>
+        <v>6125549</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15165,76 +15165,76 @@
         <v>45069.625</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K165">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N165">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O165">
         <v>3.3</v>
       </c>
       <c r="P165">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
+        <v>1.875</v>
+      </c>
+      <c r="V165">
         <v>1.925</v>
       </c>
-      <c r="V165">
-        <v>1.875</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA165">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15257,7 +15257,7 @@
         <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15331,7 +15331,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6125206</v>
+        <v>6125149</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15343,58 +15343,58 @@
         <v>45069.625</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>57</v>
       </c>
       <c r="K167">
+        <v>1.8</v>
+      </c>
+      <c r="L167">
         <v>3.2</v>
       </c>
-      <c r="L167">
-        <v>3.1</v>
-      </c>
       <c r="M167">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15403,16 +15403,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15420,7 +15420,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6125205</v>
+        <v>6125204</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15432,37 +15432,37 @@
         <v>45069.625</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K168">
+        <v>2.15</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>3.3</v>
+      </c>
+      <c r="N168">
         <v>2.3</v>
       </c>
-      <c r="L168">
+      <c r="O168">
+        <v>2.9</v>
+      </c>
+      <c r="P168">
         <v>3.1</v>
-      </c>
-      <c r="M168">
-        <v>2.9</v>
-      </c>
-      <c r="N168">
-        <v>2.25</v>
-      </c>
-      <c r="O168">
-        <v>3.2</v>
-      </c>
-      <c r="P168">
-        <v>2.9</v>
       </c>
       <c r="Q168">
         <v>-0.25</v>
@@ -15471,37 +15471,37 @@
         <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
+        <v>2.025</v>
+      </c>
+      <c r="V168">
+        <v>1.775</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
         <v>1.9</v>
       </c>
-      <c r="V168">
-        <v>1.9</v>
-      </c>
-      <c r="W168">
-        <v>-1</v>
-      </c>
-      <c r="X168">
-        <v>-1</v>
-      </c>
       <c r="Y168">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.7250000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC168">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15509,7 +15509,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6125204</v>
+        <v>6125206</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15521,76 +15521,76 @@
         <v>45069.625</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K169">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L169">
+        <v>3.1</v>
+      </c>
+      <c r="M169">
+        <v>2.1</v>
+      </c>
+      <c r="N169">
         <v>3</v>
       </c>
-      <c r="M169">
+      <c r="O169">
         <v>3.3</v>
       </c>
-      <c r="N169">
-        <v>2.3</v>
-      </c>
-      <c r="O169">
-        <v>2.9</v>
-      </c>
       <c r="P169">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X169">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA169">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6125549</v>
+        <v>6125205</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15610,76 +15610,76 @@
         <v>45069.625</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
         <v>1</v>
       </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
       <c r="J170" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K170">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M170">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N170">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O170">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T170">
         <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z170">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15687,7 +15687,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6125149</v>
+        <v>6125327</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15699,76 +15699,76 @@
         <v>45069.625</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K171">
+        <v>3.5</v>
+      </c>
+      <c r="L171">
+        <v>3.1</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>3.1</v>
+      </c>
+      <c r="O171">
+        <v>3.3</v>
+      </c>
+      <c r="P171">
+        <v>2.05</v>
+      </c>
+      <c r="Q171">
+        <v>0.25</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
         <v>1.8</v>
       </c>
-      <c r="L171">
-        <v>3.2</v>
-      </c>
-      <c r="M171">
-        <v>4</v>
-      </c>
-      <c r="N171">
-        <v>1.85</v>
-      </c>
-      <c r="O171">
-        <v>3.4</v>
-      </c>
-      <c r="P171">
-        <v>3.6</v>
-      </c>
-      <c r="Q171">
-        <v>-0.5</v>
-      </c>
-      <c r="R171">
-        <v>1.95</v>
-      </c>
-      <c r="S171">
-        <v>1.85</v>
-      </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6125150</v>
+        <v>6125151</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15877,40 +15877,40 @@
         <v>45075.625</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>57</v>
       </c>
       <c r="K173">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N173">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
         <v>2.025</v>
@@ -15919,7 +15919,7 @@
         <v>1.775</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
         <v>1.95</v>
@@ -15928,7 +15928,7 @@
         <v>1.85</v>
       </c>
       <c r="W173">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15943,10 +15943,10 @@
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15954,7 +15954,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6125151</v>
+        <v>6125150</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15966,40 +15966,40 @@
         <v>45075.625</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H174">
+        <v>4</v>
+      </c>
+      <c r="I174">
         <v>1</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>57</v>
       </c>
       <c r="K174">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
+        <v>2.3</v>
+      </c>
+      <c r="N174">
+        <v>2.4</v>
+      </c>
+      <c r="O174">
         <v>3.6</v>
       </c>
-      <c r="N174">
-        <v>2.05</v>
-      </c>
-      <c r="O174">
-        <v>3.2</v>
-      </c>
       <c r="P174">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R174">
         <v>2.025</v>
@@ -16008,7 +16008,7 @@
         <v>1.775</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
         <v>1.95</v>
@@ -16017,7 +16017,7 @@
         <v>1.85</v>
       </c>
       <c r="W174">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16032,10 +16032,10 @@
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6125551</v>
+        <v>6125329</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16055,40 +16055,40 @@
         <v>45075.625</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>55</v>
       </c>
       <c r="K175">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M175">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N175">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O175">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q175">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R175">
         <v>2.025</v>
@@ -16097,34 +16097,34 @@
         <v>1.775</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16132,7 +16132,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6125328</v>
+        <v>6125464</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16144,58 +16144,58 @@
         <v>45075.625</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>57</v>
       </c>
       <c r="K176">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M176">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N176">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P176">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0.6659999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16204,16 +16204,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16221,7 +16221,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6125329</v>
+        <v>6125551</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16233,40 +16233,40 @@
         <v>45075.625</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>55</v>
       </c>
       <c r="K177">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L177">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N177">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
         <v>2.025</v>
@@ -16275,34 +16275,34 @@
         <v>1.775</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16310,7 +16310,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6125464</v>
+        <v>6125328</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16322,58 +16322,58 @@
         <v>45075.625</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>57</v>
       </c>
       <c r="K178">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O178">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P178">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
-        <v>0.363</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16382,16 +16382,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16411,7 +16411,7 @@
         <v>45075.625</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
         <v>30</v>
@@ -16503,7 +16503,7 @@
         <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16589,7 +16589,7 @@
         <v>45152.56597222222</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>30</v>
@@ -16678,7 +16678,7 @@
         <v>45152.56597222222</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
         <v>52</v>
@@ -17393,7 +17393,7 @@
         <v>50</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -18105,7 +18105,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18179,7 +18179,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6991276</v>
+        <v>6991277</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18191,13 +18191,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G199" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18206,43 +18206,43 @@
         <v>57</v>
       </c>
       <c r="K199">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M199">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N199">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O199">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P199">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q199">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
         <v>1.8</v>
       </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>2</v>
-      </c>
       <c r="V199">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18251,16 +18251,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18268,7 +18268,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6991277</v>
+        <v>6991276</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18280,13 +18280,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F200" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -18295,43 +18295,43 @@
         <v>57</v>
       </c>
       <c r="K200">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L200">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N200">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O200">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P200">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T200">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
+        <v>2</v>
+      </c>
+      <c r="V200">
         <v>1.8</v>
       </c>
-      <c r="V200">
-        <v>2</v>
-      </c>
       <c r="W200">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18340,16 +18340,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA200">
         <v>-1</v>
       </c>
       <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>0.8</v>
-      </c>
-      <c r="AC200">
-        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18725,7 +18725,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
         <v>35</v>
@@ -18814,7 +18814,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
         <v>44</v>
@@ -19351,7 +19351,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19514,7 +19514,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6991320</v>
+        <v>6991416</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19526,58 +19526,58 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>57</v>
       </c>
       <c r="K214">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M214">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N214">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W214">
-        <v>0.5329999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19586,13 +19586,13 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19603,7 +19603,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6991416</v>
+        <v>6991320</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19615,58 +19615,58 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>57</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L215">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
+        <v>5</v>
+      </c>
+      <c r="N215">
+        <v>1.533</v>
+      </c>
+      <c r="O215">
         <v>3.6</v>
       </c>
-      <c r="N215">
-        <v>1.95</v>
-      </c>
-      <c r="O215">
-        <v>3</v>
-      </c>
       <c r="P215">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
         <v>1.8</v>
       </c>
-      <c r="V215">
-        <v>2</v>
-      </c>
       <c r="W215">
-        <v>0.95</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19675,13 +19675,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19781,7 +19781,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6991325</v>
+        <v>6991324</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19793,76 +19793,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G217" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L217">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M217">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="N217">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P217">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19870,7 +19870,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6991324</v>
+        <v>6991325</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19882,76 +19882,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F218" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>55</v>
+      </c>
+      <c r="K218">
+        <v>2.1</v>
+      </c>
+      <c r="L218">
+        <v>3.3</v>
+      </c>
+      <c r="M218">
         <v>3</v>
       </c>
-      <c r="J218" t="s">
-        <v>56</v>
-      </c>
-      <c r="K218">
-        <v>9</v>
-      </c>
-      <c r="L218">
-        <v>5</v>
-      </c>
-      <c r="M218">
-        <v>1.25</v>
-      </c>
       <c r="N218">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O218">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q218">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S218">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y218">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20060,7 +20060,7 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
         <v>49</v>
@@ -20152,7 +20152,7 @@
         <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20315,7 +20315,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6991322</v>
+        <v>6991418</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20327,76 +20327,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K223">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N223">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P223">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z223">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC223">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20404,7 +20404,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6991418</v>
+        <v>6991322</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20416,76 +20416,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H224">
         <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K224">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L224">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M224">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N224">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O224">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P224">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S224">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA224">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20683,7 +20683,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
         <v>37</v>
@@ -21306,7 +21306,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G234" t="s">
         <v>40</v>
@@ -21398,7 +21398,7 @@
         <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21487,7 +21487,7 @@
         <v>39</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -22199,7 +22199,7 @@
         <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22288,7 +22288,7 @@
         <v>53</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -22451,7 +22451,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6991422</v>
+        <v>6991347</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22463,76 +22463,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F247" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K247">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L247">
+        <v>4.75</v>
+      </c>
+      <c r="M247">
+        <v>9</v>
+      </c>
+      <c r="N247">
+        <v>1.55</v>
+      </c>
+      <c r="O247">
         <v>3.75</v>
       </c>
-      <c r="M247">
-        <v>4.333</v>
-      </c>
-      <c r="N247">
-        <v>1.75</v>
-      </c>
-      <c r="O247">
-        <v>3.5</v>
-      </c>
       <c r="P247">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R247">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V247">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W247">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z247">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC247">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22540,7 +22540,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6991347</v>
+        <v>6991422</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22552,76 +22552,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G248" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K248">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L248">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M248">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N248">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O248">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P248">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA248">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22718,7 +22718,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6991424</v>
+        <v>6991423</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22730,73 +22730,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F250" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G250" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J250" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K250">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L250">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M250">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N250">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O250">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P250">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R250">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S250">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T250">
         <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z250">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB250">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC250">
         <v>-1</v>
@@ -22807,7 +22807,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6991423</v>
+        <v>6991424</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22819,73 +22819,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F251" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G251" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K251">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L251">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M251">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N251">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O251">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P251">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T251">
         <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
         <v>-1</v>
@@ -23341,7 +23341,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6991425</v>
+        <v>6991356</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23353,76 +23353,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K257">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L257">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M257">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N257">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O257">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P257">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q257">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R257">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S257">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T257">
+        <v>2</v>
+      </c>
+      <c r="U257">
+        <v>1.85</v>
+      </c>
+      <c r="V257">
+        <v>1.95</v>
+      </c>
+      <c r="W257">
         <v>2.25</v>
       </c>
-      <c r="U257">
-        <v>2.025</v>
-      </c>
-      <c r="V257">
-        <v>1.775</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23430,7 +23430,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6991356</v>
+        <v>6991425</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23442,76 +23442,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G258" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J258" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K258">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L258">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M258">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N258">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O258">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P258">
+        <v>2.6</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>1.9</v>
+      </c>
+      <c r="S258">
+        <v>1.9</v>
+      </c>
+      <c r="T258">
         <v>2.25</v>
       </c>
-      <c r="Q258">
-        <v>0.25</v>
-      </c>
-      <c r="R258">
-        <v>1.825</v>
-      </c>
-      <c r="S258">
-        <v>1.975</v>
-      </c>
-      <c r="T258">
-        <v>2</v>
-      </c>
       <c r="U258">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V258">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W258">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z258">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC258">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23531,7 +23531,7 @@
         <v>45231.5</v>
       </c>
       <c r="F259" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G259" t="s">
         <v>52</v>
@@ -24068,7 +24068,7 @@
         <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>37</v>
       </c>
       <c r="G268" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25136,73 +25136,73 @@
         <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K277">
         <v>1.727</v>
       </c>
       <c r="L277">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M277">
         <v>4.333</v>
       </c>
       <c r="N277">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O277">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P277">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q277">
         <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V277">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA277">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25225,73 +25225,73 @@
         <v>32</v>
       </c>
       <c r="G278" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J278" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K278">
         <v>1.727</v>
       </c>
       <c r="L278">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M278">
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O278">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P278">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q278">
         <v>-0.75</v>
       </c>
       <c r="R278">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S278">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T278">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U278">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V278">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB278">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC278">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25670,7 +25670,7 @@
         <v>47</v>
       </c>
       <c r="G283" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H283">
         <v>3</v>
@@ -26026,7 +26026,7 @@
         <v>30</v>
       </c>
       <c r="G287" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H287">
         <v>3</v>
@@ -26290,7 +26290,7 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F290" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G290" t="s">
         <v>48</v>
@@ -26634,7 +26634,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6991382</v>
+        <v>6991381</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26646,56 +26646,56 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F294" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G294" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J294" t="s">
         <v>56</v>
       </c>
       <c r="K294">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L294">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M294">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N294">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O294">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P294">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q294">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R294">
+        <v>1.825</v>
+      </c>
+      <c r="S294">
+        <v>1.975</v>
+      </c>
+      <c r="T294">
+        <v>2</v>
+      </c>
+      <c r="U294">
+        <v>2</v>
+      </c>
+      <c r="V294">
         <v>1.8</v>
       </c>
-      <c r="S294">
-        <v>2</v>
-      </c>
-      <c r="T294">
-        <v>2.5</v>
-      </c>
-      <c r="U294">
-        <v>1.925</v>
-      </c>
-      <c r="V294">
-        <v>1.875</v>
-      </c>
       <c r="W294">
         <v>-1</v>
       </c>
@@ -26703,19 +26703,19 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>3</v>
+        <v>0.909</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB294">
         <v>1</v>
       </c>
-      <c r="AB294">
-        <v>-1</v>
-      </c>
       <c r="AC294">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26723,7 +26723,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6991381</v>
+        <v>6991382</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26735,55 +26735,55 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G295" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
         <v>56</v>
       </c>
       <c r="K295">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L295">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N295">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="O295">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P295">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q295">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R295">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S295">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26792,19 +26792,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>0.909</v>
+        <v>3</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB295">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27272,7 +27272,7 @@
         <v>35</v>
       </c>
       <c r="G301" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27628,7 +27628,7 @@
         <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H305">
         <v>3</v>
@@ -28248,7 +28248,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G312" t="s">
         <v>53</v>
@@ -28426,7 +28426,7 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F314" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G314" t="s">
         <v>48</v>
@@ -29227,10 +29227,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F323" t="s">
+        <v>33</v>
+      </c>
+      <c r="G323" t="s">
         <v>32</v>
-      </c>
-      <c r="G323" t="s">
-        <v>33</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,76 +29405,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F325" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G325" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325">
         <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K325">
         <v>2.4</v>
       </c>
       <c r="L325">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M325">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N325">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O325">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P325">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q325">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R325">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T325">
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V325">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z325">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB325">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29482,7 +29482,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29494,76 +29494,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F326" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G326" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326">
         <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K326">
         <v>2.4</v>
       </c>
       <c r="L326">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M326">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N326">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O326">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P326">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q326">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R326">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V326">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y326">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA326">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC326">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29660,7 +29660,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6991443</v>
+        <v>6991407</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29672,76 +29672,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F328" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G328" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328">
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K328">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L328">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M328">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N328">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P328">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q328">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R328">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S328">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T328">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U328">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V328">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W328">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA328">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB328">
         <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29749,7 +29749,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6991407</v>
+        <v>6991443</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29761,76 +29761,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F329" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G329" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329">
         <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K329">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L329">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M329">
+        <v>3</v>
+      </c>
+      <c r="N329">
+        <v>2.05</v>
+      </c>
+      <c r="O329">
+        <v>3.1</v>
+      </c>
+      <c r="P329">
+        <v>3.3</v>
+      </c>
+      <c r="Q329">
+        <v>-0.25</v>
+      </c>
+      <c r="R329">
+        <v>1.85</v>
+      </c>
+      <c r="S329">
+        <v>1.95</v>
+      </c>
+      <c r="T329">
         <v>2.5</v>
       </c>
-      <c r="N329">
-        <v>2.5</v>
-      </c>
-      <c r="O329">
-        <v>3.2</v>
-      </c>
-      <c r="P329">
-        <v>2.5</v>
-      </c>
-      <c r="Q329">
-        <v>0</v>
-      </c>
-      <c r="R329">
-        <v>1.9</v>
-      </c>
-      <c r="S329">
-        <v>1.9</v>
-      </c>
-      <c r="T329">
-        <v>2</v>
-      </c>
       <c r="U329">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V329">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X329">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA329">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
         <v>-1</v>
       </c>
       <c r="AC329">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30117,7 +30117,7 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F333" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G333" t="s">
         <v>31</v>
@@ -30387,7 +30387,7 @@
         <v>52</v>
       </c>
       <c r="G336" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H336">
         <v>2</v>
@@ -30654,7 +30654,7 @@
         <v>30</v>
       </c>
       <c r="G339" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -31007,7 +31007,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G343" t="s">
         <v>50</v>
@@ -31262,7 +31262,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31274,61 +31274,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F346" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G346" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K346">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L346">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M346">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N346">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O346">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P346">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q346">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
+        <v>1.725</v>
+      </c>
+      <c r="S346">
         <v>1.975</v>
       </c>
-      <c r="S346">
+      <c r="T346">
+        <v>2</v>
+      </c>
+      <c r="U346">
         <v>1.825</v>
       </c>
-      <c r="T346">
-        <v>2.75</v>
-      </c>
-      <c r="U346">
-        <v>1.95</v>
-      </c>
       <c r="V346">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W346">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y346">
         <v>-1</v>
@@ -31337,13 +31337,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB346">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31351,7 +31351,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31363,61 +31363,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F347" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G347" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K347">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L347">
+        <v>4.2</v>
+      </c>
+      <c r="M347">
+        <v>5</v>
+      </c>
+      <c r="N347">
+        <v>1.45</v>
+      </c>
+      <c r="O347">
+        <v>4.2</v>
+      </c>
+      <c r="P347">
+        <v>5.25</v>
+      </c>
+      <c r="Q347">
+        <v>-1.25</v>
+      </c>
+      <c r="R347">
+        <v>1.975</v>
+      </c>
+      <c r="S347">
+        <v>1.825</v>
+      </c>
+      <c r="T347">
         <v>2.75</v>
       </c>
-      <c r="M347">
-        <v>3.1</v>
-      </c>
-      <c r="N347">
-        <v>2</v>
-      </c>
-      <c r="O347">
-        <v>2.875</v>
-      </c>
-      <c r="P347">
-        <v>3.75</v>
-      </c>
-      <c r="Q347">
-        <v>-0.25</v>
-      </c>
-      <c r="R347">
-        <v>1.725</v>
-      </c>
-      <c r="S347">
-        <v>1.975</v>
-      </c>
-      <c r="T347">
-        <v>2</v>
-      </c>
       <c r="U347">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X347">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
@@ -31426,13 +31426,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC347">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31722,7 +31722,7 @@
         <v>35</v>
       </c>
       <c r="G351" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H351">
         <v>0</v>
@@ -32167,7 +32167,7 @@
         <v>44</v>
       </c>
       <c r="G356" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -32523,7 +32523,7 @@
         <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H360">
         <v>0</v>
@@ -32787,7 +32787,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F363" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G363" t="s">
         <v>45</v>
@@ -33499,7 +33499,7 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F371" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G371" t="s">
         <v>31</v>
@@ -33947,7 +33947,7 @@
         <v>49</v>
       </c>
       <c r="G376" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H376">
         <v>0</v>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -25922,7 +25922,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6991374</v>
+        <v>6991373</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25934,58 +25934,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F286" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G286" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H286">
+        <v>3</v>
+      </c>
+      <c r="I286">
         <v>1</v>
-      </c>
-      <c r="I286">
-        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>57</v>
       </c>
       <c r="K286">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L286">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M286">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N286">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O286">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P286">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q286">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R286">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S286">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T286">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U286">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V286">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W286">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25994,16 +25994,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC286">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26011,7 +26011,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6991373</v>
+        <v>6991374</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26023,58 +26023,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F287" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G287" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
         <v>57</v>
       </c>
       <c r="K287">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L287">
+        <v>3</v>
+      </c>
+      <c r="M287">
         <v>3.2</v>
       </c>
-      <c r="M287">
-        <v>2.625</v>
-      </c>
       <c r="N287">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O287">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P287">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q287">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S287">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T287">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V287">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W287">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26083,16 +26083,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA287">
         <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -31707,7 +31707,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31719,40 +31719,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F351" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G351" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K351">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L351">
+        <v>3.25</v>
+      </c>
+      <c r="M351">
+        <v>4</v>
+      </c>
+      <c r="N351">
+        <v>1.909</v>
+      </c>
+      <c r="O351">
         <v>3.1</v>
       </c>
-      <c r="M351">
-        <v>2.2</v>
-      </c>
-      <c r="N351">
-        <v>2.7</v>
-      </c>
-      <c r="O351">
-        <v>3</v>
-      </c>
       <c r="P351">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q351">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
         <v>1.95</v>
@@ -31761,34 +31761,34 @@
         <v>1.85</v>
       </c>
       <c r="T351">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U351">
+        <v>1.95</v>
+      </c>
+      <c r="V351">
         <v>1.85</v>
       </c>
-      <c r="V351">
-        <v>1.95</v>
-      </c>
       <c r="W351">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA351">
+        <v>-1</v>
+      </c>
+      <c r="AB351">
+        <v>-1</v>
+      </c>
+      <c r="AC351">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB351">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC351">
-        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31796,7 +31796,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31808,40 +31808,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F352" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G352" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J352" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K352">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L352">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M352">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N352">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O352">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P352">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q352">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R352">
         <v>1.95</v>
@@ -31850,34 +31850,34 @@
         <v>1.85</v>
       </c>
       <c r="T352">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U352">
+        <v>1.85</v>
+      </c>
+      <c r="V352">
         <v>1.95</v>
       </c>
-      <c r="V352">
-        <v>1.85</v>
-      </c>
       <c r="W352">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X352">
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z352">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC352">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Hajer</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
     <t>AlArabi AlSaudi</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1186,61 +1186,61 @@
         <v>48</v>
       </c>
       <c r="K8">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W8">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8</v>
       </c>
-      <c r="X8">
-        <v>-1</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
-        <v>0.825</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>-0.5</v>
-      </c>
       <c r="AC8">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,10 +1263,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>48</v>
       </c>
       <c r="K9">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1320,16 +1320,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6991277</v>
+        <v>6991276</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,13 +2239,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2254,43 +2254,43 @@
         <v>48</v>
       </c>
       <c r="K20">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
         <v>1.8</v>
       </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
       <c r="W20">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2299,16 +2299,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6991276</v>
+        <v>6991277</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,13 +2328,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2343,43 +2343,43 @@
         <v>48</v>
       </c>
       <c r="K21">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <v>1.8</v>
       </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2388,16 +2388,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6991279</v>
+        <v>6991313</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,58 +2506,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
         <v>2.875</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6991313</v>
+        <v>6991279</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,58 +2595,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
         <v>2.875</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2655,16 +2655,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6991281</v>
+        <v>6991314</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,73 +2773,73 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <v>2.15</v>
+      </c>
+      <c r="L26">
         <v>3</v>
       </c>
-      <c r="I26">
+      <c r="M26">
+        <v>3.2</v>
+      </c>
+      <c r="N26">
+        <v>2.15</v>
+      </c>
+      <c r="O26">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>2.8</v>
-      </c>
-      <c r="L26">
-        <v>2.9</v>
-      </c>
-      <c r="M26">
-        <v>2.4</v>
-      </c>
-      <c r="N26">
-        <v>3.6</v>
-      </c>
-      <c r="O26">
+      <c r="P26">
         <v>3.2</v>
       </c>
-      <c r="P26">
-        <v>1.909</v>
-      </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X26">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2850,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6991314</v>
+        <v>6991281</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,73 +2862,73 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M27">
+        <v>2.4</v>
+      </c>
+      <c r="N27">
+        <v>3.6</v>
+      </c>
+      <c r="O27">
         <v>3.2</v>
       </c>
-      <c r="N27">
-        <v>2.15</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2951,7 +2951,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -3028,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6991415</v>
+        <v>6991315</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3040,13 +3040,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -3055,43 +3055,43 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3100,13 +3100,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6991315</v>
+        <v>6991415</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,13 +3129,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -3144,43 +3144,43 @@
         <v>48</v>
       </c>
       <c r="K30">
+        <v>2.4</v>
+      </c>
+      <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>2.6</v>
+      </c>
+      <c r="N30">
+        <v>2.3</v>
+      </c>
+      <c r="O30">
+        <v>3.2</v>
+      </c>
+      <c r="P30">
         <v>2.75</v>
       </c>
-      <c r="L30">
-        <v>3.25</v>
-      </c>
-      <c r="M30">
-        <v>2.25</v>
-      </c>
-      <c r="N30">
-        <v>2.75</v>
-      </c>
-      <c r="O30">
-        <v>3.25</v>
-      </c>
-      <c r="P30">
-        <v>2.25</v>
-      </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
+        <v>1.775</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
         <v>1.8</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3189,13 +3189,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>1.025</v>
+      </c>
+      <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.8</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>3.3</v>
+      </c>
+      <c r="L32">
+        <v>3.1</v>
+      </c>
+      <c r="M32">
+        <v>2.05</v>
+      </c>
+      <c r="N32">
+        <v>5.5</v>
+      </c>
+      <c r="O32">
+        <v>3.5</v>
+      </c>
+      <c r="P32">
+        <v>1.571</v>
+      </c>
+      <c r="Q32">
+        <v>0.75</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1.8</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>2.025</v>
+      </c>
+      <c r="V32">
+        <v>1.775</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>2.5</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32">
-        <v>2.6</v>
-      </c>
-      <c r="L32">
-        <v>2.875</v>
-      </c>
-      <c r="M32">
-        <v>2.625</v>
-      </c>
-      <c r="N32">
-        <v>2.55</v>
-      </c>
-      <c r="O32">
-        <v>2.875</v>
-      </c>
-      <c r="P32">
-        <v>2.7</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.8</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>1.7</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
       <c r="AA32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L33">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M33">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N33">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P33">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
         <v>1.8</v>
       </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
-      <c r="U33">
-        <v>2.025</v>
-      </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3488,7 +3488,7 @@
         <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3752,7 +3752,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6991324</v>
+        <v>6991325</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>2.1</v>
+      </c>
+      <c r="L38">
+        <v>3.3</v>
+      </c>
+      <c r="M38">
         <v>3</v>
       </c>
-      <c r="J38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38">
-        <v>9</v>
-      </c>
-      <c r="L38">
-        <v>5</v>
-      </c>
-      <c r="M38">
-        <v>1.25</v>
-      </c>
       <c r="N38">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q38">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y38">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6991325</v>
+        <v>6991324</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,76 +3930,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4111,7 +4111,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>42</v>
@@ -5268,7 +5268,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6991337</v>
+        <v>6991336</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,76 +5443,76 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="N56">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y56">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6991336</v>
+        <v>6991337</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,76 +5532,76 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="N57">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>1.75</v>
+      </c>
+      <c r="T57">
+        <v>2.25</v>
+      </c>
+      <c r="U57">
         <v>1.85</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.95</v>
       </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
-      <c r="V57">
-        <v>1.9</v>
-      </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5698,7 +5698,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6991339</v>
+        <v>7291339</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5710,76 +5710,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>1.952</v>
+        <v>1.65</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M59">
+        <v>4.75</v>
+      </c>
+      <c r="N59">
+        <v>1.6</v>
+      </c>
+      <c r="O59">
         <v>3.4</v>
       </c>
-      <c r="N59">
-        <v>2</v>
-      </c>
-      <c r="O59">
-        <v>3.2</v>
-      </c>
       <c r="P59">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7291339</v>
+        <v>6991339</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5799,76 +5799,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>1.65</v>
+        <v>1.952</v>
       </c>
       <c r="L60">
+        <v>3.2</v>
+      </c>
+      <c r="M60">
+        <v>3.4</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>3.2</v>
+      </c>
+      <c r="P60">
         <v>3.3</v>
       </c>
-      <c r="M60">
-        <v>4.75</v>
-      </c>
-      <c r="N60">
-        <v>1.6</v>
-      </c>
-      <c r="O60">
-        <v>3.4</v>
-      </c>
-      <c r="P60">
-        <v>5</v>
-      </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>1.725</v>
+      </c>
+      <c r="V60">
         <v>1.975</v>
       </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
-      <c r="U60">
-        <v>1.975</v>
-      </c>
-      <c r="V60">
-        <v>1.825</v>
-      </c>
       <c r="W60">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>45203.5</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62">
-        <v>5.5</v>
-      </c>
-      <c r="L62">
-        <v>3.75</v>
-      </c>
       <c r="M62">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N62">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q62">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>45203.5</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63">
+        <v>5.5</v>
+      </c>
+      <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>1.5</v>
+      </c>
+      <c r="N63">
+        <v>4.5</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>1.615</v>
+      </c>
+      <c r="Q63">
+        <v>0.75</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.9</v>
+      </c>
+      <c r="V63">
+        <v>1.9</v>
+      </c>
+      <c r="W63">
+        <v>3.5</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63">
-        <v>2.1</v>
-      </c>
-      <c r="L63">
-        <v>3</v>
-      </c>
-      <c r="M63">
-        <v>3.25</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>3</v>
-      </c>
-      <c r="P63">
-        <v>3.8</v>
-      </c>
-      <c r="Q63">
-        <v>-0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.775</v>
-      </c>
-      <c r="S63">
-        <v>2.025</v>
-      </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.725</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>2.8</v>
-      </c>
-      <c r="Z63">
-        <v>-1</v>
-      </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6158,7 +6158,7 @@
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6422,7 +6422,7 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -6511,7 +6511,7 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>45</v>
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6991423</v>
+        <v>6991424</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,73 +6778,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N71">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6855,7 +6855,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6991424</v>
+        <v>6991423</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6867,73 +6867,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K72">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N72">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S72">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7045,10 +7045,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
         <v>36</v>
-      </c>
-      <c r="G74" t="s">
-        <v>35</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,19 +7668,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2.75</v>
@@ -7692,52 +7692,52 @@
         <v>2.4</v>
       </c>
       <c r="N81">
+        <v>3.2</v>
+      </c>
+      <c r="O81">
+        <v>3.1</v>
+      </c>
+      <c r="P81">
         <v>2.15</v>
       </c>
-      <c r="O81">
-        <v>3.2</v>
-      </c>
-      <c r="P81">
-        <v>3.25</v>
-      </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7757,19 +7757,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.75</v>
@@ -7781,52 +7781,52 @@
         <v>2.4</v>
       </c>
       <c r="N82">
+        <v>2.15</v>
+      </c>
+      <c r="O82">
         <v>3.2</v>
       </c>
-      <c r="O82">
-        <v>3.1</v>
-      </c>
       <c r="P82">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X82">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>45236.5625</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8736,7 +8736,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -9362,7 +9362,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9982,7 +9982,7 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>41</v>
@@ -10341,7 +10341,7 @@
         <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10519,7 +10519,7 @@
         <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11584,7 +11584,7 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>38</v>
@@ -11940,7 +11940,7 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
         <v>39</v>
@@ -12477,7 +12477,7 @@
         <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13189,7 +13189,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K146">
         <v>2.4</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P146">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z146">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y147">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6991443</v>
+        <v>6991407</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,76 +13720,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L149">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N149">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O149">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P149">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6991407</v>
+        <v>6991443</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,76 +13809,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M150">
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>2.05</v>
+      </c>
+      <c r="O150">
+        <v>3.1</v>
+      </c>
+      <c r="P150">
+        <v>3.3</v>
+      </c>
+      <c r="Q150">
+        <v>-0.25</v>
+      </c>
+      <c r="R150">
+        <v>1.85</v>
+      </c>
+      <c r="S150">
+        <v>1.95</v>
+      </c>
+      <c r="T150">
         <v>2.5</v>
       </c>
-      <c r="N150">
-        <v>2.5</v>
-      </c>
-      <c r="O150">
-        <v>3.2</v>
-      </c>
-      <c r="P150">
-        <v>2.5</v>
-      </c>
-      <c r="Q150">
-        <v>0</v>
-      </c>
-      <c r="R150">
-        <v>1.9</v>
-      </c>
-      <c r="S150">
-        <v>1.9</v>
-      </c>
-      <c r="T150">
-        <v>2</v>
-      </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X150">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>37</v>
@@ -14791,7 +14791,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14880,7 +14880,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,61 +15322,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L167">
+        <v>4.2</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+      <c r="N167">
+        <v>1.45</v>
+      </c>
+      <c r="O167">
+        <v>4.2</v>
+      </c>
+      <c r="P167">
+        <v>5.25</v>
+      </c>
+      <c r="Q167">
+        <v>-1.25</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
         <v>2.75</v>
       </c>
-      <c r="M167">
-        <v>3.1</v>
-      </c>
-      <c r="N167">
-        <v>2</v>
-      </c>
-      <c r="O167">
-        <v>2.875</v>
-      </c>
-      <c r="P167">
-        <v>3.75</v>
-      </c>
-      <c r="Q167">
-        <v>-0.25</v>
-      </c>
-      <c r="R167">
-        <v>1.725</v>
-      </c>
-      <c r="S167">
-        <v>1.975</v>
-      </c>
-      <c r="T167">
-        <v>2</v>
-      </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X167">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15385,13 +15385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,61 +15411,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L168">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M168">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N168">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P168">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
+        <v>1.725</v>
+      </c>
+      <c r="S168">
         <v>1.975</v>
       </c>
-      <c r="S168">
+      <c r="T168">
+        <v>2</v>
+      </c>
+      <c r="U168">
         <v>1.825</v>
       </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
-      <c r="U168">
-        <v>1.95</v>
-      </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -15474,13 +15474,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB168">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,40 +15767,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L172">
+        <v>3.25</v>
+      </c>
+      <c r="M172">
+        <v>4</v>
+      </c>
+      <c r="N172">
+        <v>1.909</v>
+      </c>
+      <c r="O172">
         <v>3.1</v>
       </c>
-      <c r="M172">
-        <v>2.2</v>
-      </c>
-      <c r="N172">
-        <v>2.7</v>
-      </c>
-      <c r="O172">
-        <v>3</v>
-      </c>
       <c r="P172">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
         <v>1.95</v>
@@ -15809,34 +15809,34 @@
         <v>1.85</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
         <v>1.85</v>
       </c>
-      <c r="V172">
-        <v>1.95</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB172">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,40 +15856,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K173">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R173">
         <v>1.95</v>
@@ -15898,34 +15898,34 @@
         <v>1.85</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
         <v>1.95</v>
       </c>
-      <c r="V173">
-        <v>1.85</v>
-      </c>
       <c r="W173">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>33</v>
@@ -16304,7 +16304,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16556,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16568,40 +16568,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L181">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N181">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O181">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P181">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q181">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R181">
         <v>1.975</v>
@@ -16610,34 +16610,34 @@
         <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,40 +16657,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M182">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N182">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P182">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q182">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R182">
         <v>1.975</v>
@@ -16699,34 +16699,34 @@
         <v>1.825</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7712419</v>
+        <v>7712418</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17102,76 +17102,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H187">
+        <v>3</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187" t="s">
+        <v>48</v>
+      </c>
+      <c r="K187">
+        <v>2.25</v>
+      </c>
+      <c r="L187">
+        <v>2.9</v>
+      </c>
+      <c r="M187">
+        <v>3.1</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187">
+        <v>3</v>
+      </c>
+      <c r="P187">
+        <v>3.75</v>
+      </c>
+      <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.725</v>
+      </c>
+      <c r="S187">
+        <v>1.975</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>1.975</v>
+      </c>
+      <c r="V187">
+        <v>1.825</v>
+      </c>
+      <c r="W187">
         <v>1</v>
       </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-      <c r="J187" t="s">
-        <v>49</v>
-      </c>
-      <c r="K187">
-        <v>2.1</v>
-      </c>
-      <c r="L187">
-        <v>3</v>
-      </c>
-      <c r="M187">
-        <v>3.25</v>
-      </c>
-      <c r="N187">
-        <v>1.727</v>
-      </c>
-      <c r="O187">
-        <v>3.2</v>
-      </c>
-      <c r="P187">
-        <v>4.5</v>
-      </c>
-      <c r="Q187">
-        <v>-0.75</v>
-      </c>
-      <c r="R187">
-        <v>1.975</v>
-      </c>
-      <c r="S187">
-        <v>1.825</v>
-      </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.825</v>
-      </c>
-      <c r="V187">
-        <v>1.975</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
       <c r="X187">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7712418</v>
+        <v>7712419</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,76 +17191,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F188" t="s">
+        <v>40</v>
+      </c>
+      <c r="G188" t="s">
         <v>35</v>
       </c>
-      <c r="G188" t="s">
-        <v>46</v>
-      </c>
       <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>49</v>
+      </c>
+      <c r="K188">
+        <v>2.1</v>
+      </c>
+      <c r="L188">
         <v>3</v>
       </c>
-      <c r="I188">
-        <v>2</v>
-      </c>
-      <c r="J188" t="s">
-        <v>48</v>
-      </c>
-      <c r="K188">
-        <v>2.25</v>
-      </c>
-      <c r="L188">
-        <v>2.9</v>
-      </c>
       <c r="M188">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S188">
+        <v>1.825</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
         <v>1.975</v>
       </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.975</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
       <c r="W188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB188">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>45343.40625</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
         <v>29</v>
@@ -18084,7 +18084,7 @@
         <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18264,6 +18264,15 @@
       <c r="G200" t="s">
         <v>37</v>
       </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>50</v>
+      </c>
       <c r="K200">
         <v>1.95</v>
       </c>
@@ -18274,46 +18283,52 @@
         <v>3.5</v>
       </c>
       <c r="N200">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O200">
         <v>3.1</v>
       </c>
       <c r="P200">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q200">
         <v>0</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S200">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T200">
         <v>2</v>
       </c>
       <c r="U200">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>0.825</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18338,6 +18353,15 @@
       <c r="G201" t="s">
         <v>43</v>
       </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201" t="s">
+        <v>49</v>
+      </c>
       <c r="K201">
         <v>2.1</v>
       </c>
@@ -18348,46 +18372,52 @@
         <v>3.1</v>
       </c>
       <c r="N201">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O201">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P201">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S201">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>0.3625</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
+        <v>1.025</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18412,6 +18442,15 @@
       <c r="G202" t="s">
         <v>30</v>
       </c>
+      <c r="H202">
+        <v>3</v>
+      </c>
+      <c r="I202">
+        <v>3</v>
+      </c>
+      <c r="J202" t="s">
+        <v>49</v>
+      </c>
       <c r="K202">
         <v>3.4</v>
       </c>
@@ -18422,45 +18461,273 @@
         <v>1.95</v>
       </c>
       <c r="N202">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O202">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P202">
+        <v>2.2</v>
+      </c>
+      <c r="Q202">
+        <v>0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.875</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
+        <v>1.95</v>
+      </c>
+      <c r="V202">
+        <v>1.85</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>2.1</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>0.4375</v>
+      </c>
+      <c r="AA202">
+        <v>-0.5</v>
+      </c>
+      <c r="AB202">
+        <v>0.95</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7761256</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45349.41319444445</v>
+      </c>
+      <c r="F203" t="s">
+        <v>45</v>
+      </c>
+      <c r="G203" t="s">
+        <v>38</v>
+      </c>
+      <c r="K203">
+        <v>4.333</v>
+      </c>
+      <c r="L203">
+        <v>3.8</v>
+      </c>
+      <c r="M203">
+        <v>1.666</v>
+      </c>
+      <c r="N203">
+        <v>4.333</v>
+      </c>
+      <c r="O203">
+        <v>3.8</v>
+      </c>
+      <c r="P203">
+        <v>1.666</v>
+      </c>
+      <c r="Q203">
+        <v>0.75</v>
+      </c>
+      <c r="R203">
+        <v>1.95</v>
+      </c>
+      <c r="S203">
+        <v>1.85</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.8</v>
+      </c>
+      <c r="V203">
+        <v>2</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7761255</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45349.41319444445</v>
+      </c>
+      <c r="F204" t="s">
+        <v>36</v>
+      </c>
+      <c r="G204" t="s">
+        <v>41</v>
+      </c>
+      <c r="K204">
+        <v>1.85</v>
+      </c>
+      <c r="L204">
+        <v>3.2</v>
+      </c>
+      <c r="M204">
+        <v>4.2</v>
+      </c>
+      <c r="N204">
         <v>1.909</v>
       </c>
-      <c r="Q202">
-        <v>0.5</v>
-      </c>
-      <c r="R202">
-        <v>1.85</v>
-      </c>
-      <c r="S202">
-        <v>1.95</v>
-      </c>
-      <c r="T202">
-        <v>2</v>
-      </c>
-      <c r="U202">
+      <c r="O204">
+        <v>3.1</v>
+      </c>
+      <c r="P204">
+        <v>4</v>
+      </c>
+      <c r="Q204">
+        <v>-0.5</v>
+      </c>
+      <c r="R204">
+        <v>1.9</v>
+      </c>
+      <c r="S204">
+        <v>1.9</v>
+      </c>
+      <c r="T204">
+        <v>2</v>
+      </c>
+      <c r="U204">
+        <v>1.775</v>
+      </c>
+      <c r="V204">
+        <v>2.025</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7761257</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45349.51041666666</v>
+      </c>
+      <c r="F205" t="s">
+        <v>33</v>
+      </c>
+      <c r="G205" t="s">
+        <v>31</v>
+      </c>
+      <c r="K205">
+        <v>1.8</v>
+      </c>
+      <c r="L205">
+        <v>3.25</v>
+      </c>
+      <c r="M205">
+        <v>4.333</v>
+      </c>
+      <c r="N205">
+        <v>1.727</v>
+      </c>
+      <c r="O205">
+        <v>3.2</v>
+      </c>
+      <c r="P205">
+        <v>5</v>
+      </c>
+      <c r="Q205">
+        <v>-0.75</v>
+      </c>
+      <c r="R205">
+        <v>1.975</v>
+      </c>
+      <c r="S205">
         <v>1.825</v>
       </c>
-      <c r="V202">
-        <v>1.975</v>
-      </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-      <c r="X202">
-        <v>0</v>
-      </c>
-      <c r="Y202">
-        <v>0</v>
-      </c>
-      <c r="Z202">
-        <v>0</v>
-      </c>
-      <c r="AA202">
+      <c r="T205">
+        <v>2</v>
+      </c>
+      <c r="U205">
+        <v>1.775</v>
+      </c>
+      <c r="V205">
+        <v>2.025</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
         <v>0</v>
       </c>
     </row>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Jabalain</t>
   </si>
   <si>
-    <t>Al Faisaly Harmah</t>
+    <t>Al Najma</t>
   </si>
   <si>
-    <t>Al Najma</t>
+    <t>Al Faisaly Harmah</t>
   </si>
   <si>
     <t>Al Qadisiya Al Khubar</t>
@@ -121,10 +121,10 @@
     <t>Hajer</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
     <t>AlArabi AlSaudi</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC205"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6991274</v>
+        <v>6991275</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,37 +818,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -860,31 +860,31 @@
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6991275</v>
+        <v>6991274</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,37 +907,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -949,31 +949,31 @@
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1186,43 +1186,43 @@
         <v>48</v>
       </c>
       <c r="K8">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N8">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W8">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1231,16 +1231,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,10 +1263,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1275,61 +1275,61 @@
         <v>48</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W9">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
         <v>0.8</v>
       </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>0.825</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-0.5</v>
-      </c>
       <c r="AC9">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2328,7 +2328,7 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -2509,7 +2509,7 @@
         <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2951,7 +2951,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -3028,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6991315</v>
+        <v>6991415</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3040,13 +3040,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -3055,43 +3055,43 @@
         <v>48</v>
       </c>
       <c r="K29">
+        <v>2.4</v>
+      </c>
+      <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>2.6</v>
+      </c>
+      <c r="N29">
+        <v>2.3</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
         <v>2.75</v>
       </c>
-      <c r="L29">
-        <v>3.25</v>
-      </c>
-      <c r="M29">
-        <v>2.25</v>
-      </c>
-      <c r="N29">
-        <v>2.75</v>
-      </c>
-      <c r="O29">
-        <v>3.25</v>
-      </c>
-      <c r="P29">
-        <v>2.25</v>
-      </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
+        <v>2.025</v>
+      </c>
+      <c r="S29">
+        <v>1.775</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>1.8</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>2.25</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3100,13 +3100,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
+        <v>1.025</v>
+      </c>
+      <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
         <v>0.8</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6991415</v>
+        <v>6991315</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,13 +3129,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -3144,43 +3144,43 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N30">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3189,13 +3189,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3488,7 +3488,7 @@
         <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3752,7 +3752,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6991325</v>
+        <v>6991324</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L38">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P38">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6991324</v>
+        <v>6991325</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,76 +3930,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39">
+        <v>2.1</v>
+      </c>
+      <c r="L39">
+        <v>3.3</v>
+      </c>
+      <c r="M39">
         <v>3</v>
       </c>
-      <c r="J39" t="s">
-        <v>50</v>
-      </c>
-      <c r="K39">
-        <v>9</v>
-      </c>
-      <c r="L39">
-        <v>5</v>
-      </c>
-      <c r="M39">
-        <v>1.25</v>
-      </c>
       <c r="N39">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q39">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y39">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4111,7 +4111,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4197,7 +4197,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>30</v>
@@ -4286,7 +4286,7 @@
         <v>45184.51736111111</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4642,7 +4642,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>42</v>
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,55 +4820,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>50</v>
       </c>
       <c r="K49">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M49">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N49">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P49">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4877,19 +4877,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,55 +4909,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>50</v>
       </c>
       <c r="K50">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L50">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O50">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4966,19 +4966,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5268,7 +5268,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5888,10 +5888,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>45203.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62">
+        <v>5.5</v>
+      </c>
+      <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>1.5</v>
+      </c>
+      <c r="N62">
+        <v>4.5</v>
+      </c>
+      <c r="O62">
+        <v>3.5</v>
+      </c>
+      <c r="P62">
+        <v>1.615</v>
+      </c>
+      <c r="Q62">
+        <v>0.75</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>1.8</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>1.9</v>
+      </c>
+      <c r="V62">
+        <v>1.9</v>
+      </c>
+      <c r="W62">
+        <v>3.5</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>-1</v>
+      </c>
+      <c r="Z62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>50</v>
-      </c>
-      <c r="K62">
-        <v>2.1</v>
-      </c>
-      <c r="L62">
-        <v>3</v>
-      </c>
-      <c r="M62">
-        <v>3.25</v>
-      </c>
-      <c r="N62">
-        <v>2</v>
-      </c>
-      <c r="O62">
-        <v>3</v>
-      </c>
-      <c r="P62">
-        <v>3.8</v>
-      </c>
-      <c r="Q62">
-        <v>-0.25</v>
-      </c>
-      <c r="R62">
-        <v>1.775</v>
-      </c>
-      <c r="S62">
-        <v>2.025</v>
-      </c>
-      <c r="T62">
-        <v>2</v>
-      </c>
-      <c r="U62">
-        <v>1.725</v>
-      </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>2.8</v>
-      </c>
-      <c r="Z62">
-        <v>-1</v>
-      </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>45203.5</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63">
+        <v>2.1</v>
+      </c>
+      <c r="L63">
         <v>3</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>48</v>
-      </c>
-      <c r="K63">
-        <v>5.5</v>
-      </c>
-      <c r="L63">
-        <v>3.75</v>
-      </c>
       <c r="M63">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N63">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6158,7 +6158,7 @@
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6422,10 +6422,10 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6991422</v>
+        <v>6991347</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,76 +6511,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L68">
+        <v>4.75</v>
+      </c>
+      <c r="M68">
+        <v>9</v>
+      </c>
+      <c r="N68">
+        <v>1.55</v>
+      </c>
+      <c r="O68">
         <v>3.75</v>
       </c>
-      <c r="M68">
-        <v>4.333</v>
-      </c>
-      <c r="N68">
-        <v>1.75</v>
-      </c>
-      <c r="O68">
-        <v>3.5</v>
-      </c>
       <c r="P68">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6991347</v>
+        <v>6991422</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,76 +6600,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L69">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N69">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6870,7 +6870,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7045,10 +7045,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
         <v>35</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,19 +7668,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>2.75</v>
@@ -7692,52 +7692,52 @@
         <v>2.4</v>
       </c>
       <c r="N81">
+        <v>2.15</v>
+      </c>
+      <c r="O81">
         <v>3.2</v>
       </c>
-      <c r="O81">
-        <v>3.1</v>
-      </c>
       <c r="P81">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X81">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7757,19 +7757,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>2.75</v>
@@ -7781,52 +7781,52 @@
         <v>2.4</v>
       </c>
       <c r="N82">
+        <v>3.2</v>
+      </c>
+      <c r="O82">
+        <v>3.1</v>
+      </c>
+      <c r="P82">
         <v>2.15</v>
       </c>
-      <c r="O82">
-        <v>3.2</v>
-      </c>
-      <c r="P82">
-        <v>3.25</v>
-      </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7846,10 +7846,10 @@
         <v>45236.5625</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         <v>45242.38888888889</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
@@ -8558,7 +8558,7 @@
         <v>45242.49305555555</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>44</v>
@@ -8736,7 +8736,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -8914,7 +8914,7 @@
         <v>45258.38194444445</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>45</v>
@@ -9184,7 +9184,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9362,7 +9362,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9715,7 +9715,7 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
         <v>30</v>
@@ -9982,7 +9982,7 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>41</v>
@@ -10163,7 +10163,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10341,7 +10341,7 @@
         <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10516,10 +10516,10 @@
         <v>45272.38888888889</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -11050,7 +11050,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>45279.49305555555</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
         <v>46</v>
@@ -11584,7 +11584,7 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>38</v>
@@ -11765,7 +11765,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11851,7 +11851,7 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>33</v>
@@ -11940,7 +11940,7 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
         <v>39</v>
@@ -12032,7 +12032,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12477,7 +12477,7 @@
         <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12830,10 +12830,10 @@
         <v>45292.49652777778</v>
       </c>
       <c r="F139" t="s">
+        <v>32</v>
+      </c>
+      <c r="G139" t="s">
         <v>31</v>
-      </c>
-      <c r="G139" t="s">
-        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13189,7 +13189,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>2.4</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N146">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N147">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z147">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>45299.39583333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>43</v>
@@ -13720,7 +13720,7 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -14076,7 +14076,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>37</v>
@@ -14168,7 +14168,7 @@
         <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14257,7 +14257,7 @@
         <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14524,7 +14524,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14791,7 +14791,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14880,7 +14880,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14966,7 +14966,7 @@
         <v>45320.40277777778</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>42</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,61 +15322,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L167">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M167">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N167">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P167">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q167">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
+        <v>1.725</v>
+      </c>
+      <c r="S167">
         <v>1.975</v>
       </c>
-      <c r="S167">
+      <c r="T167">
+        <v>2</v>
+      </c>
+      <c r="U167">
         <v>1.825</v>
       </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.95</v>
-      </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15385,13 +15385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB167">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,61 +15411,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L168">
+        <v>4.2</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168">
+        <v>1.45</v>
+      </c>
+      <c r="O168">
+        <v>4.2</v>
+      </c>
+      <c r="P168">
+        <v>5.25</v>
+      </c>
+      <c r="Q168">
+        <v>-1.25</v>
+      </c>
+      <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
         <v>2.75</v>
       </c>
-      <c r="M168">
-        <v>3.1</v>
-      </c>
-      <c r="N168">
-        <v>2</v>
-      </c>
-      <c r="O168">
-        <v>2.875</v>
-      </c>
-      <c r="P168">
-        <v>3.75</v>
-      </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>1.725</v>
-      </c>
-      <c r="S168">
-        <v>1.975</v>
-      </c>
-      <c r="T168">
-        <v>2</v>
-      </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X168">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -15474,13 +15474,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15589,7 +15589,7 @@
         <v>45322.40625</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
         <v>40</v>
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,40 +15767,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
+        <v>3</v>
+      </c>
+      <c r="J172" t="s">
+        <v>50</v>
+      </c>
+      <c r="K172">
+        <v>3</v>
+      </c>
+      <c r="L172">
+        <v>3.1</v>
+      </c>
+      <c r="M172">
+        <v>2.2</v>
+      </c>
+      <c r="N172">
+        <v>2.7</v>
+      </c>
+      <c r="O172">
+        <v>3</v>
+      </c>
+      <c r="P172">
+        <v>2.5</v>
+      </c>
+      <c r="Q172">
         <v>0</v>
-      </c>
-      <c r="J172" t="s">
-        <v>48</v>
-      </c>
-      <c r="K172">
-        <v>1.8</v>
-      </c>
-      <c r="L172">
-        <v>3.25</v>
-      </c>
-      <c r="M172">
-        <v>4</v>
-      </c>
-      <c r="N172">
-        <v>1.909</v>
-      </c>
-      <c r="O172">
-        <v>3.1</v>
-      </c>
-      <c r="P172">
-        <v>3.8</v>
-      </c>
-      <c r="Q172">
-        <v>-0.5</v>
       </c>
       <c r="R172">
         <v>1.95</v>
@@ -15809,34 +15809,34 @@
         <v>1.85</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U172">
+        <v>1.85</v>
+      </c>
+      <c r="V172">
         <v>1.95</v>
       </c>
-      <c r="V172">
-        <v>1.85</v>
-      </c>
       <c r="W172">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,40 +15856,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
         <v>0</v>
       </c>
-      <c r="I173">
-        <v>3</v>
-      </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L173">
+        <v>3.25</v>
+      </c>
+      <c r="M173">
+        <v>4</v>
+      </c>
+      <c r="N173">
+        <v>1.909</v>
+      </c>
+      <c r="O173">
         <v>3.1</v>
       </c>
-      <c r="M173">
-        <v>2.2</v>
-      </c>
-      <c r="N173">
-        <v>2.7</v>
-      </c>
-      <c r="O173">
-        <v>3</v>
-      </c>
       <c r="P173">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
         <v>1.95</v>
@@ -15898,34 +15898,34 @@
         <v>1.85</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
+        <v>1.95</v>
+      </c>
+      <c r="V173">
         <v>1.85</v>
       </c>
-      <c r="V173">
-        <v>1.95</v>
-      </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB173">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
         <v>33</v>
@@ -16304,7 +16304,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16393,7 +16393,7 @@
         <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16482,7 +16482,7 @@
         <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16924,7 +16924,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>41</v>
@@ -17013,7 +17013,7 @@
         <v>45335.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17102,7 +17102,7 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>46</v>
@@ -17194,7 +17194,7 @@
         <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17461,7 +17461,7 @@
         <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17639,7 +17639,7 @@
         <v>38</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17992,7 +17992,7 @@
         <v>45343.40625</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
         <v>29</v>
@@ -18084,7 +18084,7 @@
         <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7761256</v>
+        <v>7761255</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,61 +18526,76 @@
         <v>45349.41319444445</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>48</v>
       </c>
       <c r="K203">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="L203">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N203">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="O203">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="Q203">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
+        <v>1.85</v>
+      </c>
+      <c r="S203">
         <v>1.95</v>
       </c>
-      <c r="S203">
-        <v>1.85</v>
-      </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
         <v>1.8</v>
       </c>
-      <c r="V203">
-        <v>2</v>
-      </c>
       <c r="W203">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>1</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18588,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7761255</v>
+        <v>7761256</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18600,61 +18615,76 @@
         <v>45349.41319444445</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
       </c>
       <c r="K204">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M204">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N204">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O204">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA204">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>0.8</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18677,7 +18707,16 @@
         <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>48</v>
       </c>
       <c r="K205">
         <v>1.8</v>
@@ -18689,10 +18728,10 @@
         <v>4.333</v>
       </c>
       <c r="N205">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O205">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P205">
         <v>5</v>
@@ -18701,34 +18740,307 @@
         <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
+        <v>2.025</v>
+      </c>
+      <c r="V205">
         <v>1.775</v>
       </c>
-      <c r="V205">
+      <c r="W205">
+        <v>0.7</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.475</v>
+      </c>
+      <c r="AA205">
+        <v>-0.5</v>
+      </c>
+      <c r="AB205">
+        <v>1.025</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7761258</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45350.41666666666</v>
+      </c>
+      <c r="F206" t="s">
+        <v>31</v>
+      </c>
+      <c r="G206" t="s">
+        <v>47</v>
+      </c>
+      <c r="H206">
+        <v>3</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>48</v>
+      </c>
+      <c r="K206">
+        <v>2.1</v>
+      </c>
+      <c r="L206">
+        <v>3.1</v>
+      </c>
+      <c r="M206">
+        <v>3.2</v>
+      </c>
+      <c r="N206">
+        <v>2.05</v>
+      </c>
+      <c r="O206">
+        <v>3.1</v>
+      </c>
+      <c r="P206">
+        <v>3.25</v>
+      </c>
+      <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
+        <v>1.8</v>
+      </c>
+      <c r="S206">
+        <v>2</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>1.8</v>
+      </c>
+      <c r="V206">
+        <v>2</v>
+      </c>
+      <c r="W206">
+        <v>1.05</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>0.8</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>0.8</v>
+      </c>
+      <c r="AC206">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7761259</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45350.42708333334</v>
+      </c>
+      <c r="F207" t="s">
+        <v>42</v>
+      </c>
+      <c r="G207" t="s">
+        <v>36</v>
+      </c>
+      <c r="H207">
+        <v>3</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>48</v>
+      </c>
+      <c r="K207">
+        <v>2.3</v>
+      </c>
+      <c r="L207">
+        <v>2.9</v>
+      </c>
+      <c r="M207">
+        <v>3</v>
+      </c>
+      <c r="N207">
+        <v>1.85</v>
+      </c>
+      <c r="O207">
+        <v>3</v>
+      </c>
+      <c r="P207">
+        <v>4</v>
+      </c>
+      <c r="Q207">
+        <v>-0.5</v>
+      </c>
+      <c r="R207">
+        <v>1.9</v>
+      </c>
+      <c r="S207">
+        <v>1.9</v>
+      </c>
+      <c r="T207">
+        <v>2</v>
+      </c>
+      <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
+        <v>1.95</v>
+      </c>
+      <c r="W207">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7761260</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45350.51388888889</v>
+      </c>
+      <c r="F208" t="s">
+        <v>34</v>
+      </c>
+      <c r="G208" t="s">
+        <v>29</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>4</v>
+      </c>
+      <c r="J208" t="s">
+        <v>50</v>
+      </c>
+      <c r="K208">
+        <v>4</v>
+      </c>
+      <c r="L208">
+        <v>3.25</v>
+      </c>
+      <c r="M208">
+        <v>1.8</v>
+      </c>
+      <c r="N208">
+        <v>3.3</v>
+      </c>
+      <c r="O208">
+        <v>3</v>
+      </c>
+      <c r="P208">
+        <v>2.1</v>
+      </c>
+      <c r="Q208">
+        <v>0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.95</v>
+      </c>
+      <c r="S208">
+        <v>1.85</v>
+      </c>
+      <c r="T208">
+        <v>2</v>
+      </c>
+      <c r="U208">
+        <v>1.775</v>
+      </c>
+      <c r="V208">
         <v>2.025</v>
       </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <v>0</v>
-      </c>
-      <c r="Y205">
-        <v>0</v>
-      </c>
-      <c r="Z205">
-        <v>0</v>
-      </c>
-      <c r="AA205">
-        <v>0</v>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>1.1</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB208">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC208">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Saudi Arabia Division 1</t>
   </si>
   <si>
-    <t>Al Orubah</t>
+    <t>Al Jabalain</t>
   </si>
   <si>
-    <t>Al Jabalain</t>
+    <t>Al Orubah</t>
   </si>
   <si>
     <t>Al Najma</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6991273</v>
+        <v>6990923</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -640,10 +640,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -652,43 +652,43 @@
         <v>48</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N2">
+        <v>2.55</v>
+      </c>
+      <c r="O2">
+        <v>2.7</v>
+      </c>
+      <c r="P2">
+        <v>2.9</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.85</v>
+      </c>
+      <c r="S2">
         <v>1.95</v>
       </c>
-      <c r="O2">
-        <v>3.2</v>
-      </c>
-      <c r="P2">
-        <v>3.6</v>
-      </c>
-      <c r="Q2">
-        <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1.8</v>
       </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>1.775</v>
-      </c>
-      <c r="V2">
-        <v>2.025</v>
-      </c>
       <c r="W2">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -697,16 +697,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6990923</v>
+        <v>6991273</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -729,10 +729,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -741,43 +741,43 @@
         <v>48</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O3">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
         <v>2</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -786,16 +786,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1441,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2153,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6991276</v>
+        <v>6991277</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,13 +2239,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2254,43 +2254,43 @@
         <v>48</v>
       </c>
       <c r="K20">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
         <v>1.8</v>
       </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2299,16 +2299,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6991277</v>
+        <v>6991276</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,13 +2328,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2343,43 +2343,43 @@
         <v>48</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N21">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.8</v>
       </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
       <c r="W21">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2388,16 +2388,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.8</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2773,7 +2773,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -2862,7 +2862,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L32">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M32">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N32">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P32">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.8</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>2.025</v>
-      </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC32">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33">
+        <v>3.3</v>
+      </c>
+      <c r="L33">
+        <v>3.1</v>
+      </c>
+      <c r="M33">
+        <v>2.05</v>
+      </c>
+      <c r="N33">
+        <v>5.5</v>
+      </c>
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
+        <v>1.571</v>
+      </c>
+      <c r="Q33">
+        <v>0.75</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>2.025</v>
+      </c>
+      <c r="V33">
+        <v>1.775</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>2.5</v>
+      </c>
+      <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33">
-        <v>2.6</v>
-      </c>
-      <c r="L33">
-        <v>2.875</v>
-      </c>
-      <c r="M33">
-        <v>2.625</v>
-      </c>
-      <c r="N33">
-        <v>2.55</v>
-      </c>
-      <c r="O33">
-        <v>2.875</v>
-      </c>
-      <c r="P33">
-        <v>2.7</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.85</v>
-      </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.8</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>1.7</v>
-      </c>
-      <c r="Z33">
-        <v>-1</v>
-      </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3574,7 +3574,7 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -4108,7 +4108,7 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -4200,7 +4200,7 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4731,7 +4731,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5354,7 +5354,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5446,7 +5446,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>45203.5</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62">
-        <v>5.5</v>
-      </c>
-      <c r="L62">
-        <v>3.75</v>
-      </c>
       <c r="M62">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N62">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q62">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>45203.5</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63">
+        <v>5.5</v>
+      </c>
+      <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>1.5</v>
+      </c>
+      <c r="N63">
+        <v>4.5</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>1.615</v>
+      </c>
+      <c r="Q63">
+        <v>0.75</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.9</v>
+      </c>
+      <c r="V63">
+        <v>1.9</v>
+      </c>
+      <c r="W63">
+        <v>3.5</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63">
-        <v>2.1</v>
-      </c>
-      <c r="L63">
-        <v>3</v>
-      </c>
-      <c r="M63">
-        <v>3.25</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>3</v>
-      </c>
-      <c r="P63">
-        <v>3.8</v>
-      </c>
-      <c r="Q63">
-        <v>-0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.775</v>
-      </c>
-      <c r="S63">
-        <v>2.025</v>
-      </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.725</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>2.8</v>
-      </c>
-      <c r="Z63">
-        <v>-1</v>
-      </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6247,7 +6247,7 @@
         <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6991347</v>
+        <v>6991422</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,76 +6511,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L68">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6991422</v>
+        <v>6991347</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,76 +6600,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K69">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L69">
+        <v>4.75</v>
+      </c>
+      <c r="M69">
+        <v>9</v>
+      </c>
+      <c r="N69">
+        <v>1.55</v>
+      </c>
+      <c r="O69">
         <v>3.75</v>
       </c>
-      <c r="M69">
-        <v>4.333</v>
-      </c>
-      <c r="N69">
-        <v>1.75</v>
-      </c>
-      <c r="O69">
-        <v>3.5</v>
-      </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6991424</v>
+        <v>6991423</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,73 +6778,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6855,7 +6855,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6991423</v>
+        <v>6991424</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6867,73 +6867,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M72">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N72">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7401,7 +7401,7 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7579,7 +7579,7 @@
         <v>45231.5</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
         <v>41</v>
@@ -8116,7 +8116,7 @@
         <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>31</v>
@@ -9270,7 +9270,7 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9718,7 +9718,7 @@
         <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -10074,7 +10074,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10338,7 +10338,7 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6991381</v>
+        <v>6991382</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,55 +10694,55 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>50</v>
       </c>
       <c r="K115">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N115">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P115">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10751,19 +10751,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.909</v>
+        <v>3</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6991382</v>
+        <v>6991381</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,56 +10783,56 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J116" t="s">
         <v>50</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L116">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
+        <v>1.825</v>
+      </c>
+      <c r="S116">
+        <v>1.975</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
         <v>1.8</v>
       </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
-      <c r="T116">
-        <v>2.5</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
@@ -10840,19 +10840,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>3</v>
+        <v>0.909</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB116">
         <v>1</v>
       </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
       <c r="AC116">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11320,7 +11320,7 @@
         <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11676,7 +11676,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -12296,7 +12296,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>44</v>
@@ -12474,7 +12474,7 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
         <v>35</v>
@@ -13275,10 +13275,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F144" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s">
         <v>30</v>
-      </c>
-      <c r="G144" t="s">
-        <v>29</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13723,7 +13723,7 @@
         <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -14165,7 +14165,7 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14435,7 +14435,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14702,7 +14702,7 @@
         <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -15055,7 +15055,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15411,7 +15411,7 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
         <v>45</v>
@@ -15770,7 +15770,7 @@
         <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -16215,7 +16215,7 @@
         <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16556,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16568,40 +16568,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M181">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N181">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O181">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P181">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q181">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R181">
         <v>1.975</v>
@@ -16610,34 +16610,34 @@
         <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z181">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,40 +16657,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K182">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L182">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N182">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O182">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q182">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R182">
         <v>1.975</v>
@@ -16699,34 +16699,34 @@
         <v>1.825</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16835,7 +16835,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
         <v>42</v>
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7712418</v>
+        <v>7712419</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17102,76 +17102,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>49</v>
+      </c>
+      <c r="K187">
+        <v>2.1</v>
+      </c>
+      <c r="L187">
         <v>3</v>
       </c>
-      <c r="I187">
-        <v>2</v>
-      </c>
-      <c r="J187" t="s">
-        <v>48</v>
-      </c>
-      <c r="K187">
-        <v>2.25</v>
-      </c>
-      <c r="L187">
-        <v>2.9</v>
-      </c>
       <c r="M187">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O187">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P187">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
+        <v>1.825</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>1.825</v>
+      </c>
+      <c r="V187">
         <v>1.975</v>
       </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.975</v>
-      </c>
-      <c r="V187">
-        <v>1.825</v>
-      </c>
       <c r="W187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7712419</v>
+        <v>7712418</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,76 +17191,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H188">
+        <v>3</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>48</v>
+      </c>
+      <c r="K188">
+        <v>2.25</v>
+      </c>
+      <c r="L188">
+        <v>2.9</v>
+      </c>
+      <c r="M188">
+        <v>3.1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188">
+        <v>3</v>
+      </c>
+      <c r="P188">
+        <v>3.75</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.725</v>
+      </c>
+      <c r="S188">
+        <v>1.975</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>1.975</v>
+      </c>
+      <c r="V188">
+        <v>1.825</v>
+      </c>
+      <c r="W188">
         <v>1</v>
       </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="J188" t="s">
-        <v>49</v>
-      </c>
-      <c r="K188">
-        <v>2.1</v>
-      </c>
-      <c r="L188">
-        <v>3</v>
-      </c>
-      <c r="M188">
-        <v>3.25</v>
-      </c>
-      <c r="N188">
-        <v>1.727</v>
-      </c>
-      <c r="O188">
-        <v>3.2</v>
-      </c>
-      <c r="P188">
-        <v>4.5</v>
-      </c>
-      <c r="Q188">
-        <v>-0.75</v>
-      </c>
-      <c r="R188">
-        <v>1.975</v>
-      </c>
-      <c r="S188">
-        <v>1.825</v>
-      </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
       <c r="X188">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17458,7 +17458,7 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G191" t="s">
         <v>32</v>
@@ -17995,7 +17995,7 @@
         <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18440,7 +18440,7 @@
         <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18974,7 +18974,7 @@
         <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19041,6 +19041,228 @@
       </c>
       <c r="AC208">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>7783762</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F209" t="s">
+        <v>32</v>
+      </c>
+      <c r="G209" t="s">
+        <v>35</v>
+      </c>
+      <c r="K209">
+        <v>1.8</v>
+      </c>
+      <c r="L209">
+        <v>3.2</v>
+      </c>
+      <c r="M209">
+        <v>4</v>
+      </c>
+      <c r="N209">
+        <v>1.8</v>
+      </c>
+      <c r="O209">
+        <v>3.2</v>
+      </c>
+      <c r="P209">
+        <v>4</v>
+      </c>
+      <c r="Q209">
+        <v>-0.5</v>
+      </c>
+      <c r="R209">
+        <v>1.85</v>
+      </c>
+      <c r="S209">
+        <v>1.95</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
+        <v>1.75</v>
+      </c>
+      <c r="V209">
+        <v>2.05</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>7784086</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F210" t="s">
+        <v>29</v>
+      </c>
+      <c r="G210" t="s">
+        <v>33</v>
+      </c>
+      <c r="K210">
+        <v>3.6</v>
+      </c>
+      <c r="L210">
+        <v>3.1</v>
+      </c>
+      <c r="M210">
+        <v>1.95</v>
+      </c>
+      <c r="N210">
+        <v>4.5</v>
+      </c>
+      <c r="O210">
+        <v>3.3</v>
+      </c>
+      <c r="P210">
+        <v>1.7</v>
+      </c>
+      <c r="Q210">
+        <v>0.5</v>
+      </c>
+      <c r="R210">
+        <v>2.025</v>
+      </c>
+      <c r="S210">
+        <v>1.775</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>2.025</v>
+      </c>
+      <c r="V210">
+        <v>1.775</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7784087</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45354.51388888889</v>
+      </c>
+      <c r="F211" t="s">
+        <v>38</v>
+      </c>
+      <c r="G211" t="s">
+        <v>44</v>
+      </c>
+      <c r="K211">
+        <v>1.615</v>
+      </c>
+      <c r="L211">
+        <v>3.5</v>
+      </c>
+      <c r="M211">
+        <v>4.75</v>
+      </c>
+      <c r="N211">
+        <v>1.615</v>
+      </c>
+      <c r="O211">
+        <v>3.5</v>
+      </c>
+      <c r="P211">
+        <v>4.75</v>
+      </c>
+      <c r="Q211">
+        <v>-0.75</v>
+      </c>
+      <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+      <c r="V211">
+        <v>1.8</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -103,16 +103,16 @@
     <t>Saudi Arabia Division 1</t>
   </si>
   <si>
+    <t>Al Orubah</t>
+  </si>
+  <si>
     <t>Al Jabalain</t>
   </si>
   <si>
-    <t>Al Orubah</t>
+    <t>Al Faisaly Harmah</t>
   </si>
   <si>
     <t>Al Najma</t>
-  </si>
-  <si>
-    <t>Al Faisaly Harmah</t>
   </si>
   <si>
     <t>Al Qadisiya Al Khubar</t>
@@ -121,10 +121,10 @@
     <t>Hajer</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
     <t>AlArabi AlSaudi</t>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6990923</v>
+        <v>6991273</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -640,10 +640,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -652,43 +652,43 @@
         <v>48</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N2">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O2">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
         <v>2</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W2">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -697,16 +697,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6991273</v>
+        <v>6990923</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -729,10 +729,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -741,43 +741,43 @@
         <v>48</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
+        <v>2.55</v>
+      </c>
+      <c r="O3">
+        <v>2.7</v>
+      </c>
+      <c r="P3">
+        <v>2.9</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.85</v>
+      </c>
+      <c r="S3">
         <v>1.95</v>
       </c>
-      <c r="O3">
-        <v>3.2</v>
-      </c>
-      <c r="P3">
-        <v>3.6</v>
-      </c>
-      <c r="Q3">
-        <v>-0.5</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
         <v>1.8</v>
       </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1.775</v>
-      </c>
-      <c r="V3">
-        <v>2.025</v>
-      </c>
       <c r="W3">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -786,16 +786,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6991275</v>
+        <v>6991274</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,37 +818,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -860,31 +860,31 @@
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6991274</v>
+        <v>6991275</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,37 +907,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>2.375</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5">
-        <v>1.666</v>
-      </c>
-      <c r="L5">
-        <v>3.5</v>
-      </c>
       <c r="M5">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -949,31 +949,31 @@
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1186,61 +1186,61 @@
         <v>48</v>
       </c>
       <c r="K8">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W8">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8</v>
       </c>
-      <c r="X8">
-        <v>-1</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
-        <v>0.825</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>-0.5</v>
-      </c>
       <c r="AC8">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,10 +1263,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>48</v>
       </c>
       <c r="K9">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1320,16 +1320,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1441,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6991277</v>
+        <v>6991276</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,10 +2242,10 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2254,43 +2254,43 @@
         <v>48</v>
       </c>
       <c r="K20">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
         <v>1.8</v>
       </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
       <c r="W20">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2299,16 +2299,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6991276</v>
+        <v>6991277</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,10 +2331,10 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2343,43 +2343,43 @@
         <v>48</v>
       </c>
       <c r="K21">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <v>1.8</v>
       </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2388,16 +2388,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6991313</v>
+        <v>6991279</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,58 +2506,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
         <v>2.875</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>2.25</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6991279</v>
+        <v>6991313</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,58 +2595,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
         <v>2.875</v>
       </c>
       <c r="N24">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2655,16 +2655,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2773,7 +2773,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -2862,7 +2862,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2951,7 +2951,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -3028,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6991415</v>
+        <v>6991315</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3040,13 +3040,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -3055,43 +3055,43 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3100,13 +3100,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6991315</v>
+        <v>6991415</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,13 +3129,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -3144,43 +3144,43 @@
         <v>48</v>
       </c>
       <c r="K30">
+        <v>2.4</v>
+      </c>
+      <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>2.6</v>
+      </c>
+      <c r="N30">
+        <v>2.3</v>
+      </c>
+      <c r="O30">
+        <v>3.2</v>
+      </c>
+      <c r="P30">
         <v>2.75</v>
       </c>
-      <c r="L30">
-        <v>3.25</v>
-      </c>
-      <c r="M30">
-        <v>2.25</v>
-      </c>
-      <c r="N30">
-        <v>2.75</v>
-      </c>
-      <c r="O30">
-        <v>3.25</v>
-      </c>
-      <c r="P30">
-        <v>2.25</v>
-      </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
+        <v>1.775</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
         <v>1.8</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3189,13 +3189,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>1.025</v>
+      </c>
+      <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.8</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3310,7 +3310,7 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3488,7 +3488,7 @@
         <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3574,7 +3574,7 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3752,7 +3752,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6991324</v>
+        <v>6991325</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>2.1</v>
+      </c>
+      <c r="L38">
+        <v>3.3</v>
+      </c>
+      <c r="M38">
         <v>3</v>
       </c>
-      <c r="J38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38">
-        <v>9</v>
-      </c>
-      <c r="L38">
-        <v>5</v>
-      </c>
-      <c r="M38">
-        <v>1.25</v>
-      </c>
       <c r="N38">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q38">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y38">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6991325</v>
+        <v>6991324</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,76 +3930,76 @@
         <v>45183.51388888889</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4108,10 +4108,10 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4197,10 +4197,10 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4286,7 +4286,7 @@
         <v>45184.51736111111</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6991322</v>
+        <v>6991418</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O44">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
         <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6991418</v>
+        <v>6991322</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,76 +4464,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>42</v>
@@ -4731,7 +4731,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4820,7 +4820,7 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
@@ -5179,7 +5179,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5268,7 +5268,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6991336</v>
+        <v>6991337</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,7 +5443,7 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
         <v>29</v>
@@ -5452,67 +5452,67 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M56">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="N56">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>1.75</v>
+      </c>
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.9</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6991337</v>
+        <v>6991336</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,7 +5532,7 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5541,67 +5541,67 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L57">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="N57">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y57">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5888,10 +5888,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>45203.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62">
+        <v>5.5</v>
+      </c>
+      <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>1.5</v>
+      </c>
+      <c r="N62">
+        <v>4.5</v>
+      </c>
+      <c r="O62">
+        <v>3.5</v>
+      </c>
+      <c r="P62">
+        <v>1.615</v>
+      </c>
+      <c r="Q62">
+        <v>0.75</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>1.8</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>1.9</v>
+      </c>
+      <c r="V62">
+        <v>1.9</v>
+      </c>
+      <c r="W62">
+        <v>3.5</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>-1</v>
+      </c>
+      <c r="Z62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>50</v>
-      </c>
-      <c r="K62">
-        <v>2.1</v>
-      </c>
-      <c r="L62">
-        <v>3</v>
-      </c>
-      <c r="M62">
-        <v>3.25</v>
-      </c>
-      <c r="N62">
-        <v>2</v>
-      </c>
-      <c r="O62">
-        <v>3</v>
-      </c>
-      <c r="P62">
-        <v>3.8</v>
-      </c>
-      <c r="Q62">
-        <v>-0.25</v>
-      </c>
-      <c r="R62">
-        <v>1.775</v>
-      </c>
-      <c r="S62">
-        <v>2.025</v>
-      </c>
-      <c r="T62">
-        <v>2</v>
-      </c>
-      <c r="U62">
-        <v>1.725</v>
-      </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>2.8</v>
-      </c>
-      <c r="Z62">
-        <v>-1</v>
-      </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>45203.5</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63">
+        <v>2.1</v>
+      </c>
+      <c r="L63">
         <v>3</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>48</v>
-      </c>
-      <c r="K63">
-        <v>5.5</v>
-      </c>
-      <c r="L63">
-        <v>3.75</v>
-      </c>
       <c r="M63">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N63">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6158,7 +6158,7 @@
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6991344</v>
+        <v>6991345</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,40 +6244,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K65">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="N65">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O65">
         <v>3.4</v>
       </c>
       <c r="P65">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
         <v>1.75</v>
@@ -6289,31 +6289,31 @@
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA65">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6991345</v>
+        <v>6991344</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,40 +6333,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K66">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="N66">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O66">
         <v>3.4</v>
       </c>
       <c r="P66">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
         <v>1.75</v>
@@ -6378,31 +6378,31 @@
         <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z66">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,10 +6422,10 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6511,7 +6511,7 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>45</v>
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6991423</v>
+        <v>6991424</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,73 +6778,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N71">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6855,7 +6855,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6991424</v>
+        <v>6991423</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6867,73 +6867,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K72">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N72">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S72">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7045,10 +7045,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
         <v>36</v>
-      </c>
-      <c r="G74" t="s">
-        <v>35</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6991356</v>
+        <v>6991425</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7401,76 +7401,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K78">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N78">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O78">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
+        <v>2.6</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>1.9</v>
+      </c>
+      <c r="S78">
+        <v>1.9</v>
+      </c>
+      <c r="T78">
         <v>2.25</v>
       </c>
-      <c r="Q78">
-        <v>0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.825</v>
-      </c>
-      <c r="S78">
-        <v>1.975</v>
-      </c>
-      <c r="T78">
-        <v>2</v>
-      </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W78">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6991425</v>
+        <v>6991356</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,76 +7490,76 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L79">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P79">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
+        <v>2</v>
+      </c>
+      <c r="U79">
+        <v>1.85</v>
+      </c>
+      <c r="V79">
+        <v>1.95</v>
+      </c>
+      <c r="W79">
         <v>2.25</v>
       </c>
-      <c r="U79">
-        <v>2.025</v>
-      </c>
-      <c r="V79">
-        <v>1.775</v>
-      </c>
-      <c r="W79">
-        <v>-1</v>
-      </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7579,7 +7579,7 @@
         <v>45231.5</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>41</v>
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,19 +7668,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2.75</v>
@@ -7692,52 +7692,52 @@
         <v>2.4</v>
       </c>
       <c r="N81">
+        <v>3.2</v>
+      </c>
+      <c r="O81">
+        <v>3.1</v>
+      </c>
+      <c r="P81">
         <v>2.15</v>
       </c>
-      <c r="O81">
-        <v>3.2</v>
-      </c>
-      <c r="P81">
-        <v>3.25</v>
-      </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7757,19 +7757,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.75</v>
@@ -7781,52 +7781,52 @@
         <v>2.4</v>
       </c>
       <c r="N82">
+        <v>2.15</v>
+      </c>
+      <c r="O82">
         <v>3.2</v>
       </c>
-      <c r="O82">
-        <v>3.1</v>
-      </c>
       <c r="P82">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X82">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7846,10 +7846,10 @@
         <v>45236.5625</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8116,7 +8116,7 @@
         <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8383,7 +8383,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8469,7 +8469,7 @@
         <v>45242.38888888889</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
@@ -8558,7 +8558,7 @@
         <v>45242.49305555555</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>44</v>
@@ -8736,7 +8736,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -8914,7 +8914,7 @@
         <v>45258.38194444445</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>45</v>
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,73 +9184,73 @@
         <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>1.727</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
         <v>4.333</v>
       </c>
       <c r="N98">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,73 +9273,73 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K99">
         <v>1.727</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
         <v>4.333</v>
       </c>
       <c r="N99">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O99">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q99">
         <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6991433</v>
+        <v>6991372</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
+        <v>1.363</v>
+      </c>
+      <c r="N104">
+        <v>4.333</v>
+      </c>
+      <c r="O104">
+        <v>3.8</v>
+      </c>
+      <c r="P104">
+        <v>1.65</v>
+      </c>
+      <c r="Q104">
+        <v>0.75</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
         <v>2.5</v>
       </c>
-      <c r="N104">
-        <v>2.875</v>
-      </c>
-      <c r="O104">
-        <v>3.1</v>
-      </c>
-      <c r="P104">
-        <v>2.4</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>2.05</v>
-      </c>
-      <c r="S104">
-        <v>1.75</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6991372</v>
+        <v>6991433</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,76 +9804,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="Q105">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>1.75</v>
+      </c>
+      <c r="T105">
+        <v>2.25</v>
+      </c>
+      <c r="U105">
         <v>1.95</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.925</v>
-      </c>
-      <c r="V105">
+      <c r="W105">
         <v>1.875</v>
       </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
       <c r="X105">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>1.05</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.95</v>
       </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6991374</v>
+        <v>6991373</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,58 +9982,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
         <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>48</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P107">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10042,16 +10042,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6991373</v>
+        <v>6991374</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,58 +10071,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>48</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
         <v>3.2</v>
       </c>
-      <c r="M108">
-        <v>2.625</v>
-      </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10131,16 +10131,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10338,10 +10338,10 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10516,10 +10516,10 @@
         <v>45272.38888888889</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10786,7 +10786,7 @@
         <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11050,7 +11050,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11320,7 +11320,7 @@
         <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11495,7 +11495,7 @@
         <v>45279.49305555555</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
         <v>46</v>
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6991389</v>
+        <v>6991390</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,73 +11584,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
+        <v>2.25</v>
+      </c>
+      <c r="L125">
+        <v>3.5</v>
+      </c>
+      <c r="M125">
         <v>2.6</v>
       </c>
-      <c r="L125">
-        <v>3.2</v>
-      </c>
-      <c r="M125">
-        <v>2.4</v>
-      </c>
       <c r="N125">
+        <v>2.2</v>
+      </c>
+      <c r="O125">
+        <v>3.6</v>
+      </c>
+      <c r="P125">
         <v>2.7</v>
       </c>
-      <c r="O125">
-        <v>3.2</v>
-      </c>
-      <c r="P125">
-        <v>2.3</v>
-      </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X125">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6991390</v>
+        <v>6991389</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,73 +11673,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>49</v>
+      </c>
+      <c r="K126">
+        <v>2.6</v>
+      </c>
+      <c r="L126">
+        <v>3.2</v>
+      </c>
+      <c r="M126">
+        <v>2.4</v>
+      </c>
+      <c r="N126">
+        <v>2.7</v>
+      </c>
+      <c r="O126">
+        <v>3.2</v>
+      </c>
+      <c r="P126">
+        <v>2.3</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>1.75</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
+        <v>1.8</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>2.2</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>-0</v>
+      </c>
+      <c r="AB126">
         <v>1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>48</v>
-      </c>
-      <c r="K126">
-        <v>2.25</v>
-      </c>
-      <c r="L126">
-        <v>3.5</v>
-      </c>
-      <c r="M126">
-        <v>2.6</v>
-      </c>
-      <c r="N126">
-        <v>2.2</v>
-      </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
-      <c r="P126">
-        <v>2.7</v>
-      </c>
-      <c r="Q126">
-        <v>-0.25</v>
-      </c>
-      <c r="R126">
-        <v>1.975</v>
-      </c>
-      <c r="S126">
-        <v>1.825</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
-      <c r="W126">
-        <v>1.2</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>0.95</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11765,7 +11765,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11839,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6991392</v>
+        <v>6991391</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,46 +11851,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N128">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
         <v>2.25</v>
@@ -11902,19 +11902,19 @@
         <v>1.775</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
         <v>1.025</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6991391</v>
+        <v>6991392</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,46 +11940,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>2.9</v>
+      </c>
+      <c r="O129">
         <v>3.1</v>
       </c>
-      <c r="N129">
-        <v>1.75</v>
-      </c>
-      <c r="O129">
-        <v>3.2</v>
-      </c>
       <c r="P129">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.25</v>
@@ -11991,19 +11991,19 @@
         <v>1.775</v>
       </c>
       <c r="W129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
         <v>1.025</v>
@@ -12032,7 +12032,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12296,7 +12296,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>44</v>
@@ -12474,10 +12474,10 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12830,10 +12830,10 @@
         <v>45292.49652777778</v>
       </c>
       <c r="F139" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" t="s">
         <v>32</v>
-      </c>
-      <c r="G139" t="s">
-        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13189,7 +13189,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13275,10 +13275,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F144" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" t="s">
         <v>29</v>
-      </c>
-      <c r="G144" t="s">
-        <v>30</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K146">
         <v>2.4</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P146">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z146">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y147">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>45299.39583333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>43</v>
@@ -13720,10 +13720,10 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -14076,7 +14076,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>37</v>
@@ -14165,10 +14165,10 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14257,7 +14257,7 @@
         <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14435,7 +14435,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14524,7 +14524,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14702,7 +14702,7 @@
         <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14791,7 +14791,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14880,7 +14880,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14966,7 +14966,7 @@
         <v>45320.40277777778</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>42</v>
@@ -15055,7 +15055,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15322,7 +15322,7 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
         <v>43</v>
@@ -15411,7 +15411,7 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>45</v>
@@ -15500,7 +15500,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15589,7 +15589,7 @@
         <v>45322.40625</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>40</v>
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,40 +15767,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L172">
+        <v>3.25</v>
+      </c>
+      <c r="M172">
+        <v>4</v>
+      </c>
+      <c r="N172">
+        <v>1.909</v>
+      </c>
+      <c r="O172">
         <v>3.1</v>
       </c>
-      <c r="M172">
-        <v>2.2</v>
-      </c>
-      <c r="N172">
-        <v>2.7</v>
-      </c>
-      <c r="O172">
-        <v>3</v>
-      </c>
       <c r="P172">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
         <v>1.95</v>
@@ -15809,34 +15809,34 @@
         <v>1.85</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
         <v>1.85</v>
       </c>
-      <c r="V172">
-        <v>1.95</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB172">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,40 +15856,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K173">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R173">
         <v>1.95</v>
@@ -15898,34 +15898,34 @@
         <v>1.85</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
         <v>1.95</v>
       </c>
-      <c r="V173">
-        <v>1.85</v>
-      </c>
       <c r="W173">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>33</v>
@@ -16215,7 +16215,7 @@
         <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16304,7 +16304,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16393,7 +16393,7 @@
         <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16482,7 +16482,7 @@
         <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16556,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16568,40 +16568,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L181">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N181">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O181">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P181">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q181">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R181">
         <v>1.975</v>
@@ -16610,34 +16610,34 @@
         <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,40 +16657,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M182">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N182">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P182">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q182">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R182">
         <v>1.975</v>
@@ -16699,34 +16699,34 @@
         <v>1.825</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16835,7 +16835,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
         <v>42</v>
@@ -16924,7 +16924,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>41</v>
@@ -17013,7 +17013,7 @@
         <v>45335.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7712419</v>
+        <v>7712418</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17102,76 +17102,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H187">
+        <v>3</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187" t="s">
+        <v>48</v>
+      </c>
+      <c r="K187">
+        <v>2.25</v>
+      </c>
+      <c r="L187">
+        <v>2.9</v>
+      </c>
+      <c r="M187">
+        <v>3.1</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187">
+        <v>3</v>
+      </c>
+      <c r="P187">
+        <v>3.75</v>
+      </c>
+      <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.725</v>
+      </c>
+      <c r="S187">
+        <v>1.975</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>1.975</v>
+      </c>
+      <c r="V187">
+        <v>1.825</v>
+      </c>
+      <c r="W187">
         <v>1</v>
       </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-      <c r="J187" t="s">
-        <v>49</v>
-      </c>
-      <c r="K187">
-        <v>2.1</v>
-      </c>
-      <c r="L187">
-        <v>3</v>
-      </c>
-      <c r="M187">
-        <v>3.25</v>
-      </c>
-      <c r="N187">
-        <v>1.727</v>
-      </c>
-      <c r="O187">
-        <v>3.2</v>
-      </c>
-      <c r="P187">
-        <v>4.5</v>
-      </c>
-      <c r="Q187">
-        <v>-0.75</v>
-      </c>
-      <c r="R187">
-        <v>1.975</v>
-      </c>
-      <c r="S187">
-        <v>1.825</v>
-      </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.825</v>
-      </c>
-      <c r="V187">
-        <v>1.975</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
       <c r="X187">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7712418</v>
+        <v>7712419</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,76 +17191,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F188" t="s">
+        <v>40</v>
+      </c>
+      <c r="G188" t="s">
         <v>35</v>
       </c>
-      <c r="G188" t="s">
-        <v>46</v>
-      </c>
       <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>49</v>
+      </c>
+      <c r="K188">
+        <v>2.1</v>
+      </c>
+      <c r="L188">
         <v>3</v>
       </c>
-      <c r="I188">
-        <v>2</v>
-      </c>
-      <c r="J188" t="s">
-        <v>48</v>
-      </c>
-      <c r="K188">
-        <v>2.25</v>
-      </c>
-      <c r="L188">
-        <v>2.9</v>
-      </c>
       <c r="M188">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S188">
+        <v>1.825</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
         <v>1.975</v>
       </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.975</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
       <c r="W188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB188">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17458,10 +17458,10 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17639,7 +17639,7 @@
         <v>38</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17992,10 +17992,10 @@
         <v>45343.40625</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18084,7 +18084,7 @@
         <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18440,7 +18440,7 @@
         <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18526,7 +18526,7 @@
         <v>45349.41319444445</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18707,7 +18707,7 @@
         <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18793,7 +18793,7 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
         <v>47</v>
@@ -18885,7 +18885,7 @@
         <v>42</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -18974,7 +18974,7 @@
         <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19060,10 +19060,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K209">
         <v>1.8</v>
@@ -19134,7 +19134,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
         <v>33</v>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Jabalain</t>
   </si>
   <si>
-    <t>Al Faisaly Harmah</t>
+    <t>Al Najma</t>
   </si>
   <si>
-    <t>Al Najma</t>
+    <t>Al Faisaly Harmah</t>
   </si>
   <si>
     <t>Al Qadisiya Al Khubar</t>
@@ -121,10 +121,10 @@
     <t>Hajer</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
     <t>AlArabi AlSaudi</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6991274</v>
+        <v>6991275</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,37 +818,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -860,31 +860,31 @@
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6991275</v>
+        <v>6991274</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,37 +907,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -949,31 +949,31 @@
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1186,43 +1186,43 @@
         <v>48</v>
       </c>
       <c r="K8">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N8">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W8">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1231,16 +1231,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,10 +1263,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1275,61 +1275,61 @@
         <v>48</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W9">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
         <v>0.8</v>
       </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>0.825</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-0.5</v>
-      </c>
       <c r="AC9">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6991276</v>
+        <v>6991277</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,10 +2242,10 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2254,43 +2254,43 @@
         <v>48</v>
       </c>
       <c r="K20">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
         <v>1.8</v>
       </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2299,16 +2299,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6991277</v>
+        <v>6991276</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,10 +2331,10 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2343,43 +2343,43 @@
         <v>48</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N21">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.8</v>
       </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
       <c r="W21">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2388,16 +2388,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.8</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2598,7 +2598,7 @@
         <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2951,7 +2951,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -3043,7 +3043,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3132,7 +3132,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>3.3</v>
+      </c>
+      <c r="L32">
+        <v>3.1</v>
+      </c>
+      <c r="M32">
+        <v>2.05</v>
+      </c>
+      <c r="N32">
+        <v>5.5</v>
+      </c>
+      <c r="O32">
+        <v>3.5</v>
+      </c>
+      <c r="P32">
+        <v>1.571</v>
+      </c>
+      <c r="Q32">
+        <v>0.75</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1.8</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>2.025</v>
+      </c>
+      <c r="V32">
+        <v>1.775</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>2.5</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32">
-        <v>2.6</v>
-      </c>
-      <c r="L32">
-        <v>2.875</v>
-      </c>
-      <c r="M32">
-        <v>2.625</v>
-      </c>
-      <c r="N32">
-        <v>2.55</v>
-      </c>
-      <c r="O32">
-        <v>2.875</v>
-      </c>
-      <c r="P32">
-        <v>2.7</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.8</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>1.7</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
       <c r="AA32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>2.6</v>
+      </c>
+      <c r="L33">
+        <v>2.875</v>
+      </c>
+      <c r="M33">
+        <v>2.625</v>
+      </c>
+      <c r="N33">
+        <v>2.55</v>
+      </c>
+      <c r="O33">
+        <v>2.875</v>
+      </c>
+      <c r="P33">
+        <v>2.7</v>
+      </c>
+      <c r="Q33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33">
-        <v>3.3</v>
-      </c>
-      <c r="L33">
-        <v>3.1</v>
-      </c>
-      <c r="M33">
-        <v>2.05</v>
-      </c>
-      <c r="N33">
-        <v>5.5</v>
-      </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
-      <c r="P33">
-        <v>1.571</v>
-      </c>
-      <c r="Q33">
-        <v>0.75</v>
-      </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
         <v>1.8</v>
       </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
-      <c r="U33">
-        <v>2.025</v>
-      </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3488,7 +3488,7 @@
         <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3752,7 +3752,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -4019,7 +4019,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4111,7 +4111,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4197,7 +4197,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>30</v>
@@ -4286,7 +4286,7 @@
         <v>45184.51736111111</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4642,7 +4642,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>42</v>
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,55 +4820,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>50</v>
       </c>
       <c r="K49">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L49">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N49">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O49">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4877,19 +4877,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,55 +4909,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>50</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N50">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P50">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4966,19 +4966,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5268,7 +5268,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5698,7 +5698,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7291339</v>
+        <v>6991339</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5710,76 +5710,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>1.65</v>
+        <v>1.952</v>
       </c>
       <c r="L59">
+        <v>3.2</v>
+      </c>
+      <c r="M59">
+        <v>3.4</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>3.2</v>
+      </c>
+      <c r="P59">
         <v>3.3</v>
       </c>
-      <c r="M59">
-        <v>4.75</v>
-      </c>
-      <c r="N59">
-        <v>1.6</v>
-      </c>
-      <c r="O59">
-        <v>3.4</v>
-      </c>
-      <c r="P59">
-        <v>5</v>
-      </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1.725</v>
+      </c>
+      <c r="V59">
         <v>1.975</v>
       </c>
-      <c r="T59">
-        <v>2.25</v>
-      </c>
-      <c r="U59">
-        <v>1.975</v>
-      </c>
-      <c r="V59">
-        <v>1.825</v>
-      </c>
       <c r="W59">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6991339</v>
+        <v>7291339</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5799,76 +5799,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60">
-        <v>1.952</v>
+        <v>1.65</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
+        <v>4.75</v>
+      </c>
+      <c r="N60">
+        <v>1.6</v>
+      </c>
+      <c r="O60">
         <v>3.4</v>
       </c>
-      <c r="N60">
-        <v>2</v>
-      </c>
-      <c r="O60">
-        <v>3.2</v>
-      </c>
       <c r="P60">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X60">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA60">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,10 +5888,10 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6422,10 +6422,10 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6991422</v>
+        <v>6991347</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,76 +6511,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L68">
+        <v>4.75</v>
+      </c>
+      <c r="M68">
+        <v>9</v>
+      </c>
+      <c r="N68">
+        <v>1.55</v>
+      </c>
+      <c r="O68">
         <v>3.75</v>
       </c>
-      <c r="M68">
-        <v>4.333</v>
-      </c>
-      <c r="N68">
-        <v>1.75</v>
-      </c>
-      <c r="O68">
-        <v>3.5</v>
-      </c>
       <c r="P68">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6991347</v>
+        <v>6991422</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,76 +6600,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L69">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N69">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6991424</v>
+        <v>6991423</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,73 +6778,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6855,7 +6855,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6991423</v>
+        <v>6991424</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6867,73 +6867,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M72">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N72">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7045,10 +7045,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
         <v>35</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,19 +7668,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>2.75</v>
@@ -7692,52 +7692,52 @@
         <v>2.4</v>
       </c>
       <c r="N81">
+        <v>2.15</v>
+      </c>
+      <c r="O81">
         <v>3.2</v>
       </c>
-      <c r="O81">
-        <v>3.1</v>
-      </c>
       <c r="P81">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X81">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7757,19 +7757,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>2.75</v>
@@ -7781,52 +7781,52 @@
         <v>2.4</v>
       </c>
       <c r="N82">
+        <v>3.2</v>
+      </c>
+      <c r="O82">
+        <v>3.1</v>
+      </c>
+      <c r="P82">
         <v>2.15</v>
       </c>
-      <c r="O82">
-        <v>3.2</v>
-      </c>
-      <c r="P82">
-        <v>3.25</v>
-      </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7846,10 +7846,10 @@
         <v>45236.5625</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         <v>45242.38888888889</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
@@ -8558,7 +8558,7 @@
         <v>45242.49305555555</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>44</v>
@@ -8736,7 +8736,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -8914,7 +8914,7 @@
         <v>45258.38194444445</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>45</v>
@@ -9273,7 +9273,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9362,7 +9362,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6991372</v>
+        <v>6991433</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P104">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
+        <v>1.75</v>
+      </c>
+      <c r="T104">
+        <v>2.25</v>
+      </c>
+      <c r="U104">
         <v>1.95</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.925</v>
-      </c>
-      <c r="V104">
+      <c r="W104">
         <v>1.875</v>
       </c>
-      <c r="W104">
-        <v>-1</v>
-      </c>
       <c r="X104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>1.05</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
         <v>0.95</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6991433</v>
+        <v>6991372</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,76 +9804,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
+        <v>1.363</v>
+      </c>
+      <c r="N105">
+        <v>4.333</v>
+      </c>
+      <c r="O105">
+        <v>3.8</v>
+      </c>
+      <c r="P105">
+        <v>1.65</v>
+      </c>
+      <c r="Q105">
+        <v>0.75</v>
+      </c>
+      <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
+        <v>1.85</v>
+      </c>
+      <c r="T105">
         <v>2.5</v>
       </c>
-      <c r="N105">
-        <v>2.875</v>
-      </c>
-      <c r="O105">
-        <v>3.1</v>
-      </c>
-      <c r="P105">
-        <v>2.4</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>2.05</v>
-      </c>
-      <c r="S105">
-        <v>1.75</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6991373</v>
+        <v>6991374</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,58 +9982,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>48</v>
       </c>
       <c r="K107">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
         <v>3.2</v>
       </c>
-      <c r="M107">
-        <v>2.625</v>
-      </c>
       <c r="N107">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10042,16 +10042,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6991374</v>
+        <v>6991373</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,58 +10071,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108">
         <v>1</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>48</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P108">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10131,16 +10131,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10341,7 +10341,7 @@
         <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10516,10 +10516,10 @@
         <v>45272.38888888889</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10786,7 +10786,7 @@
         <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11050,7 +11050,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>45279.49305555555</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
         <v>46</v>
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6991390</v>
+        <v>6991389</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,73 +11584,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125" t="s">
+        <v>49</v>
+      </c>
+      <c r="K125">
+        <v>2.6</v>
+      </c>
+      <c r="L125">
+        <v>3.2</v>
+      </c>
+      <c r="M125">
+        <v>2.4</v>
+      </c>
+      <c r="N125">
+        <v>2.7</v>
+      </c>
+      <c r="O125">
+        <v>3.2</v>
+      </c>
+      <c r="P125">
+        <v>2.3</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
+        <v>1.75</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>1.8</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>2.2</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>-0</v>
+      </c>
+      <c r="AB125">
         <v>1</v>
-      </c>
-      <c r="J125" t="s">
-        <v>48</v>
-      </c>
-      <c r="K125">
-        <v>2.25</v>
-      </c>
-      <c r="L125">
-        <v>3.5</v>
-      </c>
-      <c r="M125">
-        <v>2.6</v>
-      </c>
-      <c r="N125">
-        <v>2.2</v>
-      </c>
-      <c r="O125">
-        <v>3.6</v>
-      </c>
-      <c r="P125">
-        <v>2.7</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.975</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
-      <c r="U125">
-        <v>1.95</v>
-      </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
-      <c r="W125">
-        <v>1.2</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.95</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6991389</v>
+        <v>6991390</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,73 +11673,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K126">
+        <v>2.25</v>
+      </c>
+      <c r="L126">
+        <v>3.5</v>
+      </c>
+      <c r="M126">
         <v>2.6</v>
       </c>
-      <c r="L126">
-        <v>3.2</v>
-      </c>
-      <c r="M126">
-        <v>2.4</v>
-      </c>
       <c r="N126">
+        <v>2.2</v>
+      </c>
+      <c r="O126">
+        <v>3.6</v>
+      </c>
+      <c r="P126">
         <v>2.7</v>
       </c>
-      <c r="O126">
-        <v>3.2</v>
-      </c>
-      <c r="P126">
-        <v>2.3</v>
-      </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X126">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11765,7 +11765,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11839,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6991391</v>
+        <v>6991392</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,46 +11851,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>2.9</v>
+      </c>
+      <c r="O128">
         <v>3.1</v>
       </c>
-      <c r="N128">
-        <v>1.75</v>
-      </c>
-      <c r="O128">
-        <v>3.2</v>
-      </c>
       <c r="P128">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T128">
         <v>2.25</v>
@@ -11902,19 +11902,19 @@
         <v>1.775</v>
       </c>
       <c r="W128">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z128">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB128">
         <v>1.025</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6991392</v>
+        <v>6991391</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,46 +11940,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K129">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N129">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
         <v>2.25</v>
@@ -11991,19 +11991,19 @@
         <v>1.775</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
         <v>1.025</v>
@@ -12032,7 +12032,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12477,7 +12477,7 @@
         <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12830,10 +12830,10 @@
         <v>45292.49652777778</v>
       </c>
       <c r="F139" t="s">
+        <v>32</v>
+      </c>
+      <c r="G139" t="s">
         <v>31</v>
-      </c>
-      <c r="G139" t="s">
-        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13189,7 +13189,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>2.4</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N146">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N147">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z147">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>45299.39583333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>43</v>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6991407</v>
+        <v>6991443</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,76 +13720,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>2.05</v>
+      </c>
+      <c r="O149">
+        <v>3.1</v>
+      </c>
+      <c r="P149">
+        <v>3.3</v>
+      </c>
+      <c r="Q149">
+        <v>-0.25</v>
+      </c>
+      <c r="R149">
+        <v>1.85</v>
+      </c>
+      <c r="S149">
+        <v>1.95</v>
+      </c>
+      <c r="T149">
         <v>2.5</v>
       </c>
-      <c r="N149">
-        <v>2.5</v>
-      </c>
-      <c r="O149">
-        <v>3.2</v>
-      </c>
-      <c r="P149">
-        <v>2.5</v>
-      </c>
-      <c r="Q149">
-        <v>0</v>
-      </c>
-      <c r="R149">
-        <v>1.9</v>
-      </c>
-      <c r="S149">
-        <v>1.9</v>
-      </c>
-      <c r="T149">
-        <v>2</v>
-      </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X149">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6991443</v>
+        <v>6991407</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,76 +13809,76 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N150">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O150">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P150">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>37</v>
@@ -14168,7 +14168,7 @@
         <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14257,7 +14257,7 @@
         <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14524,7 +14524,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14791,7 +14791,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14880,7 +14880,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14966,7 +14966,7 @@
         <v>45320.40277777778</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>42</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,61 +15322,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L167">
+        <v>4.2</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+      <c r="N167">
+        <v>1.45</v>
+      </c>
+      <c r="O167">
+        <v>4.2</v>
+      </c>
+      <c r="P167">
+        <v>5.25</v>
+      </c>
+      <c r="Q167">
+        <v>-1.25</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
         <v>2.75</v>
       </c>
-      <c r="M167">
-        <v>3.1</v>
-      </c>
-      <c r="N167">
-        <v>2</v>
-      </c>
-      <c r="O167">
-        <v>2.875</v>
-      </c>
-      <c r="P167">
-        <v>3.75</v>
-      </c>
-      <c r="Q167">
-        <v>-0.25</v>
-      </c>
-      <c r="R167">
-        <v>1.725</v>
-      </c>
-      <c r="S167">
-        <v>1.975</v>
-      </c>
-      <c r="T167">
-        <v>2</v>
-      </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X167">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15385,13 +15385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,61 +15411,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L168">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M168">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N168">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P168">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
+        <v>1.725</v>
+      </c>
+      <c r="S168">
         <v>1.975</v>
       </c>
-      <c r="S168">
+      <c r="T168">
+        <v>2</v>
+      </c>
+      <c r="U168">
         <v>1.825</v>
       </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
-      <c r="U168">
-        <v>1.95</v>
-      </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -15474,13 +15474,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB168">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15589,7 +15589,7 @@
         <v>45322.40625</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
         <v>40</v>
@@ -16123,7 +16123,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
         <v>33</v>
@@ -16304,7 +16304,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16393,7 +16393,7 @@
         <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16482,7 +16482,7 @@
         <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16924,7 +16924,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>41</v>
@@ -17013,7 +17013,7 @@
         <v>45335.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7712418</v>
+        <v>7712419</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17102,76 +17102,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F187" t="s">
+        <v>40</v>
+      </c>
+      <c r="G187" t="s">
         <v>36</v>
       </c>
-      <c r="G187" t="s">
-        <v>46</v>
-      </c>
       <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>49</v>
+      </c>
+      <c r="K187">
+        <v>2.1</v>
+      </c>
+      <c r="L187">
         <v>3</v>
       </c>
-      <c r="I187">
-        <v>2</v>
-      </c>
-      <c r="J187" t="s">
-        <v>48</v>
-      </c>
-      <c r="K187">
-        <v>2.25</v>
-      </c>
-      <c r="L187">
-        <v>2.9</v>
-      </c>
       <c r="M187">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O187">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P187">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
+        <v>1.825</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>1.825</v>
+      </c>
+      <c r="V187">
         <v>1.975</v>
       </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.975</v>
-      </c>
-      <c r="V187">
-        <v>1.825</v>
-      </c>
       <c r="W187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7712419</v>
+        <v>7712418</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,76 +17191,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H188">
+        <v>3</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>48</v>
+      </c>
+      <c r="K188">
+        <v>2.25</v>
+      </c>
+      <c r="L188">
+        <v>2.9</v>
+      </c>
+      <c r="M188">
+        <v>3.1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188">
+        <v>3</v>
+      </c>
+      <c r="P188">
+        <v>3.75</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.725</v>
+      </c>
+      <c r="S188">
+        <v>1.975</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>1.975</v>
+      </c>
+      <c r="V188">
+        <v>1.825</v>
+      </c>
+      <c r="W188">
         <v>1</v>
       </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="J188" t="s">
-        <v>49</v>
-      </c>
-      <c r="K188">
-        <v>2.1</v>
-      </c>
-      <c r="L188">
-        <v>3</v>
-      </c>
-      <c r="M188">
-        <v>3.25</v>
-      </c>
-      <c r="N188">
-        <v>1.727</v>
-      </c>
-      <c r="O188">
-        <v>3.2</v>
-      </c>
-      <c r="P188">
-        <v>4.5</v>
-      </c>
-      <c r="Q188">
-        <v>-0.75</v>
-      </c>
-      <c r="R188">
-        <v>1.975</v>
-      </c>
-      <c r="S188">
-        <v>1.825</v>
-      </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
       <c r="X188">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7712421</v>
+        <v>7712422</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,76 +17458,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L191">
+        <v>3.2</v>
+      </c>
+      <c r="M191">
+        <v>3.6</v>
+      </c>
+      <c r="N191">
+        <v>2.05</v>
+      </c>
+      <c r="O191">
+        <v>3.25</v>
+      </c>
+      <c r="P191">
         <v>3.1</v>
       </c>
-      <c r="M191">
-        <v>3.4</v>
-      </c>
-      <c r="N191">
-        <v>2.8</v>
-      </c>
-      <c r="O191">
-        <v>2.875</v>
-      </c>
-      <c r="P191">
-        <v>2.55</v>
-      </c>
       <c r="Q191">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
+        <v>1.8</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>2.25</v>
+      </c>
+      <c r="U191">
         <v>2.025</v>
       </c>
-      <c r="S191">
+      <c r="V191">
         <v>1.775</v>
       </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.975</v>
-      </c>
-      <c r="V191">
-        <v>1.825</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA191">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17535,7 +17535,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7712422</v>
+        <v>7712421</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17547,76 +17547,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>49</v>
       </c>
       <c r="K192">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L192">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M192">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N192">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O192">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P192">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA192">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB192">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17639,7 +17639,7 @@
         <v>38</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17992,7 +17992,7 @@
         <v>45343.40625</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
         <v>29</v>
@@ -18084,7 +18084,7 @@
         <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7761255</v>
+        <v>7761256</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,13 +18526,13 @@
         <v>45349.41319444445</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -18541,58 +18541,58 @@
         <v>48</v>
       </c>
       <c r="K203">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M203">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N203">
+        <v>4.5</v>
+      </c>
+      <c r="O203">
+        <v>3.8</v>
+      </c>
+      <c r="P203">
+        <v>1.65</v>
+      </c>
+      <c r="Q203">
+        <v>0.75</v>
+      </c>
+      <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
+        <v>1.825</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
         <v>1.8</v>
       </c>
-      <c r="O203">
-        <v>3.2</v>
-      </c>
-      <c r="P203">
-        <v>4.5</v>
-      </c>
-      <c r="Q203">
-        <v>-0.5</v>
-      </c>
-      <c r="R203">
-        <v>1.85</v>
-      </c>
-      <c r="S203">
-        <v>1.95</v>
-      </c>
-      <c r="T203">
-        <v>2.25</v>
-      </c>
-      <c r="U203">
-        <v>2</v>
-      </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W203">
+        <v>3.5</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
         <v>0.8</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
-      <c r="AB203">
-        <v>1</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7761256</v>
+        <v>7761255</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,13 +18615,13 @@
         <v>45349.41319444445</v>
       </c>
       <c r="F204" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -18630,43 +18630,43 @@
         <v>48</v>
       </c>
       <c r="K204">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="L204">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N204">
+        <v>1.8</v>
+      </c>
+      <c r="O204">
+        <v>3.2</v>
+      </c>
+      <c r="P204">
         <v>4.5</v>
       </c>
-      <c r="O204">
-        <v>3.8</v>
-      </c>
-      <c r="P204">
-        <v>1.65</v>
-      </c>
       <c r="Q204">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S204">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
         <v>1.8</v>
       </c>
-      <c r="V204">
-        <v>2</v>
-      </c>
       <c r="W204">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,13 +18675,13 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18707,7 +18707,7 @@
         <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18793,7 +18793,7 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>47</v>
@@ -18885,7 +18885,7 @@
         <v>42</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19043,7 +19043,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -19060,10 +19060,19 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H209">
+        <v>5</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>48</v>
       </c>
       <c r="K209">
         <v>1.8</v>
@@ -19096,28 +19105,34 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="V209">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -19139,6 +19154,15 @@
       <c r="G210" t="s">
         <v>33</v>
       </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+      <c r="J210" t="s">
+        <v>50</v>
+      </c>
       <c r="K210">
         <v>3.6</v>
       </c>
@@ -19176,22 +19200,28 @@
         <v>1.775</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB210">
+        <v>1.025</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -19213,6 +19243,15 @@
       <c r="G211" t="s">
         <v>44</v>
       </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>49</v>
+      </c>
       <c r="K211">
         <v>1.615</v>
       </c>
@@ -19223,46 +19262,586 @@
         <v>4.75</v>
       </c>
       <c r="N211">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P211">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q211">
         <v>-0.75</v>
       </c>
       <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>1.95</v>
+      </c>
+      <c r="V211">
+        <v>1.85</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>2.25</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>-1</v>
+      </c>
+      <c r="AA211">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB211">
+        <v>-0.5</v>
+      </c>
+      <c r="AC211">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7784088</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45355.42361111111</v>
+      </c>
+      <c r="F212" t="s">
+        <v>43</v>
+      </c>
+      <c r="G212" t="s">
+        <v>40</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>48</v>
+      </c>
+      <c r="K212">
+        <v>3.4</v>
+      </c>
+      <c r="L212">
+        <v>3.1</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212">
+        <v>3.1</v>
+      </c>
+      <c r="O212">
+        <v>3</v>
+      </c>
+      <c r="P212">
+        <v>2.2</v>
+      </c>
+      <c r="Q212">
+        <v>0.25</v>
+      </c>
+      <c r="R212">
         <v>1.825</v>
       </c>
-      <c r="S211">
+      <c r="S212">
         <v>1.975</v>
       </c>
-      <c r="T211">
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
+        <v>1.85</v>
+      </c>
+      <c r="W212">
+        <v>2.1</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.825</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
+        <v>0.95</v>
+      </c>
+      <c r="AC212">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7784089</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45355.42361111111</v>
+      </c>
+      <c r="F213" t="s">
+        <v>29</v>
+      </c>
+      <c r="G213" t="s">
+        <v>45</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213" t="s">
+        <v>48</v>
+      </c>
+      <c r="K213">
+        <v>1.533</v>
+      </c>
+      <c r="L213">
+        <v>3.75</v>
+      </c>
+      <c r="M213">
+        <v>5</v>
+      </c>
+      <c r="N213">
+        <v>1.6</v>
+      </c>
+      <c r="O213">
+        <v>3.6</v>
+      </c>
+      <c r="P213">
+        <v>4.5</v>
+      </c>
+      <c r="Q213">
+        <v>-1</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>1.8</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
+        <v>1.85</v>
+      </c>
+      <c r="W213">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>-0</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7784090</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45355.51388888889</v>
+      </c>
+      <c r="F214" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" t="s">
+        <v>34</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214" t="s">
+        <v>49</v>
+      </c>
+      <c r="K214">
         <v>2.5</v>
       </c>
-      <c r="U211">
-        <v>2</v>
-      </c>
-      <c r="V211">
-        <v>1.8</v>
-      </c>
-      <c r="W211">
+      <c r="L214">
+        <v>3</v>
+      </c>
+      <c r="M214">
+        <v>2.625</v>
+      </c>
+      <c r="N214">
+        <v>2.8</v>
+      </c>
+      <c r="O214">
+        <v>3.1</v>
+      </c>
+      <c r="P214">
+        <v>2.3</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.75</v>
+      </c>
+      <c r="S214">
+        <v>2.05</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
+        <v>2.025</v>
+      </c>
+      <c r="V214">
+        <v>1.775</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>2.1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.375</v>
+      </c>
+      <c r="AA214">
+        <v>-0.5</v>
+      </c>
+      <c r="AB214">
+        <v>1.025</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7915015</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45356.375</v>
+      </c>
+      <c r="F215" t="s">
+        <v>47</v>
+      </c>
+      <c r="G215" t="s">
+        <v>42</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>49</v>
+      </c>
+      <c r="K215">
+        <v>2.55</v>
+      </c>
+      <c r="L215">
+        <v>3.1</v>
+      </c>
+      <c r="M215">
+        <v>2.5</v>
+      </c>
+      <c r="N215">
+        <v>2.8</v>
+      </c>
+      <c r="O215">
+        <v>3</v>
+      </c>
+      <c r="P215">
+        <v>2.375</v>
+      </c>
+      <c r="Q215">
         <v>0</v>
       </c>
-      <c r="X211">
+      <c r="R215">
+        <v>2.025</v>
+      </c>
+      <c r="S215">
+        <v>1.775</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
+        <v>1.975</v>
+      </c>
+      <c r="V215">
+        <v>1.825</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>2</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
         <v>0</v>
       </c>
-      <c r="Y211">
+      <c r="AA215">
+        <v>-0</v>
+      </c>
+      <c r="AB215">
         <v>0</v>
       </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
-        <v>0</v>
+      <c r="AC215">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7784091</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45356.40972222222</v>
+      </c>
+      <c r="F216" t="s">
+        <v>36</v>
+      </c>
+      <c r="G216" t="s">
+        <v>46</v>
+      </c>
+      <c r="H216">
+        <v>3</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>48</v>
+      </c>
+      <c r="K216">
+        <v>2.05</v>
+      </c>
+      <c r="L216">
+        <v>3.25</v>
+      </c>
+      <c r="M216">
+        <v>3.1</v>
+      </c>
+      <c r="N216">
+        <v>2.1</v>
+      </c>
+      <c r="O216">
+        <v>3.3</v>
+      </c>
+      <c r="P216">
+        <v>3</v>
+      </c>
+      <c r="Q216">
+        <v>-0.25</v>
+      </c>
+      <c r="R216">
+        <v>1.9</v>
+      </c>
+      <c r="S216">
+        <v>1.9</v>
+      </c>
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
+        <v>1.975</v>
+      </c>
+      <c r="V216">
+        <v>1.825</v>
+      </c>
+      <c r="W216">
+        <v>1.1</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA216">
+        <v>-1</v>
+      </c>
+      <c r="AB216">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC216">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>7783777</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45356.53125</v>
+      </c>
+      <c r="F217" t="s">
+        <v>37</v>
+      </c>
+      <c r="G217" t="s">
+        <v>31</v>
+      </c>
+      <c r="H217">
+        <v>5</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217" t="s">
+        <v>48</v>
+      </c>
+      <c r="K217">
+        <v>1.615</v>
+      </c>
+      <c r="L217">
+        <v>3.75</v>
+      </c>
+      <c r="M217">
+        <v>4.333</v>
+      </c>
+      <c r="N217">
+        <v>1.615</v>
+      </c>
+      <c r="O217">
+        <v>3.75</v>
+      </c>
+      <c r="P217">
+        <v>4.2</v>
+      </c>
+      <c r="Q217">
+        <v>-0.75</v>
+      </c>
+      <c r="R217">
+        <v>1.825</v>
+      </c>
+      <c r="S217">
+        <v>1.975</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
+        <v>1.75</v>
+      </c>
+      <c r="V217">
+        <v>1.95</v>
+      </c>
+      <c r="W217">
+        <v>0.615</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>-1</v>
+      </c>
+      <c r="Z217">
+        <v>0.825</v>
+      </c>
+      <c r="AA217">
+        <v>-1</v>
+      </c>
+      <c r="AB217">
+        <v>0.75</v>
+      </c>
+      <c r="AC217">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Hajer</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
     <t>AlArabi AlSaudi</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC217"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1186,61 +1186,61 @@
         <v>48</v>
       </c>
       <c r="K8">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W8">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8</v>
       </c>
-      <c r="X8">
-        <v>-1</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
-        <v>0.825</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>-0.5</v>
-      </c>
       <c r="AC8">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,10 +1263,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>48</v>
       </c>
       <c r="K9">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1320,16 +1320,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6991279</v>
+        <v>6991313</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,58 +2506,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
         <v>2.875</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6991313</v>
+        <v>6991279</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,58 +2595,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
         <v>2.875</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2655,16 +2655,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2951,7 +2951,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L32">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M32">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N32">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P32">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.8</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>2.025</v>
-      </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC32">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33">
+        <v>3.3</v>
+      </c>
+      <c r="L33">
+        <v>3.1</v>
+      </c>
+      <c r="M33">
+        <v>2.05</v>
+      </c>
+      <c r="N33">
+        <v>5.5</v>
+      </c>
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
+        <v>1.571</v>
+      </c>
+      <c r="Q33">
+        <v>0.75</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>2.025</v>
+      </c>
+      <c r="V33">
+        <v>1.775</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>2.5</v>
+      </c>
+      <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33">
-        <v>2.6</v>
-      </c>
-      <c r="L33">
-        <v>2.875</v>
-      </c>
-      <c r="M33">
-        <v>2.625</v>
-      </c>
-      <c r="N33">
-        <v>2.55</v>
-      </c>
-      <c r="O33">
-        <v>2.875</v>
-      </c>
-      <c r="P33">
-        <v>2.7</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.85</v>
-      </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.8</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>1.7</v>
-      </c>
-      <c r="Z33">
-        <v>-1</v>
-      </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3488,7 +3488,7 @@
         <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3752,7 +3752,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -4019,7 +4019,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4111,7 +4111,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>42</v>
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,55 +4820,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>50</v>
       </c>
       <c r="K49">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M49">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N49">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P49">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4877,19 +4877,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,55 +4909,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>50</v>
       </c>
       <c r="K50">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L50">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O50">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4966,19 +4966,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6991337</v>
+        <v>6991336</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,76 +5443,76 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="N56">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y56">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6991336</v>
+        <v>6991337</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,76 +5532,76 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="N57">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>1.75</v>
+      </c>
+      <c r="T57">
+        <v>2.25</v>
+      </c>
+      <c r="U57">
         <v>1.85</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.95</v>
       </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
-      <c r="V57">
-        <v>1.9</v>
-      </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5698,7 +5698,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6991339</v>
+        <v>7291339</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5710,76 +5710,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>1.952</v>
+        <v>1.65</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M59">
+        <v>4.75</v>
+      </c>
+      <c r="N59">
+        <v>1.6</v>
+      </c>
+      <c r="O59">
         <v>3.4</v>
       </c>
-      <c r="N59">
-        <v>2</v>
-      </c>
-      <c r="O59">
-        <v>3.2</v>
-      </c>
       <c r="P59">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7291339</v>
+        <v>6991339</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5799,76 +5799,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>1.65</v>
+        <v>1.952</v>
       </c>
       <c r="L60">
+        <v>3.2</v>
+      </c>
+      <c r="M60">
+        <v>3.4</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>3.2</v>
+      </c>
+      <c r="P60">
         <v>3.3</v>
       </c>
-      <c r="M60">
-        <v>4.75</v>
-      </c>
-      <c r="N60">
-        <v>1.6</v>
-      </c>
-      <c r="O60">
-        <v>3.4</v>
-      </c>
-      <c r="P60">
-        <v>5</v>
-      </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>1.725</v>
+      </c>
+      <c r="V60">
         <v>1.975</v>
       </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
-      <c r="U60">
-        <v>1.975</v>
-      </c>
-      <c r="V60">
-        <v>1.825</v>
-      </c>
       <c r="W60">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -6158,7 +6158,7 @@
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6991345</v>
+        <v>6991344</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,40 +6244,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K65">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="N65">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O65">
         <v>3.4</v>
       </c>
       <c r="P65">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
         <v>1.75</v>
@@ -6289,31 +6289,31 @@
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6991344</v>
+        <v>6991345</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,40 +6333,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="N66">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O66">
         <v>3.4</v>
       </c>
       <c r="P66">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
         <v>1.75</v>
@@ -6378,31 +6378,31 @@
         <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA66">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6991347</v>
+        <v>6991422</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,76 +6511,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L68">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6991422</v>
+        <v>6991347</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,76 +6600,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K69">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L69">
+        <v>4.75</v>
+      </c>
+      <c r="M69">
+        <v>9</v>
+      </c>
+      <c r="N69">
+        <v>1.55</v>
+      </c>
+      <c r="O69">
         <v>3.75</v>
       </c>
-      <c r="M69">
-        <v>4.333</v>
-      </c>
-      <c r="N69">
-        <v>1.75</v>
-      </c>
-      <c r="O69">
-        <v>3.5</v>
-      </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7045,10 +7045,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
         <v>36</v>
-      </c>
-      <c r="G74" t="s">
-        <v>35</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,19 +7668,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2.75</v>
@@ -7692,52 +7692,52 @@
         <v>2.4</v>
       </c>
       <c r="N81">
+        <v>3.2</v>
+      </c>
+      <c r="O81">
+        <v>3.1</v>
+      </c>
+      <c r="P81">
         <v>2.15</v>
       </c>
-      <c r="O81">
-        <v>3.2</v>
-      </c>
-      <c r="P81">
-        <v>3.25</v>
-      </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7757,19 +7757,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.75</v>
@@ -7781,52 +7781,52 @@
         <v>2.4</v>
       </c>
       <c r="N82">
+        <v>2.15</v>
+      </c>
+      <c r="O82">
         <v>3.2</v>
       </c>
-      <c r="O82">
-        <v>3.1</v>
-      </c>
       <c r="P82">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X82">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>45236.5625</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -8736,7 +8736,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,76 +9181,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>1.727</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
         <v>4.333</v>
       </c>
       <c r="N98">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,76 +9270,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>1.727</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
         <v>4.333</v>
       </c>
       <c r="N99">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
         <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6991433</v>
+        <v>6991372</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
+        <v>1.363</v>
+      </c>
+      <c r="N104">
+        <v>4.333</v>
+      </c>
+      <c r="O104">
+        <v>3.8</v>
+      </c>
+      <c r="P104">
+        <v>1.65</v>
+      </c>
+      <c r="Q104">
+        <v>0.75</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
         <v>2.5</v>
       </c>
-      <c r="N104">
-        <v>2.875</v>
-      </c>
-      <c r="O104">
-        <v>3.1</v>
-      </c>
-      <c r="P104">
-        <v>2.4</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>2.05</v>
-      </c>
-      <c r="S104">
-        <v>1.75</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6991372</v>
+        <v>6991433</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,76 +9804,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="Q105">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>1.75</v>
+      </c>
+      <c r="T105">
+        <v>2.25</v>
+      </c>
+      <c r="U105">
         <v>1.95</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.925</v>
-      </c>
-      <c r="V105">
+      <c r="W105">
         <v>1.875</v>
       </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
       <c r="X105">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>1.05</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.95</v>
       </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6991374</v>
+        <v>6991373</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,58 +9982,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
         <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>48</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P107">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10042,16 +10042,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6991373</v>
+        <v>6991374</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,58 +10071,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>48</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
         <v>3.2</v>
       </c>
-      <c r="M108">
-        <v>2.625</v>
-      </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10131,16 +10131,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10341,7 +10341,7 @@
         <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10519,7 +10519,7 @@
         <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6991382</v>
+        <v>6991381</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,56 +10694,56 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J115" t="s">
         <v>50</v>
       </c>
       <c r="K115">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L115">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
+        <v>1.825</v>
+      </c>
+      <c r="S115">
+        <v>1.975</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
         <v>1.8</v>
       </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.925</v>
-      </c>
-      <c r="V115">
-        <v>1.875</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
@@ -10751,19 +10751,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>3</v>
+        <v>0.909</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB115">
         <v>1</v>
       </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6991381</v>
+        <v>6991382</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,55 +10783,55 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>50</v>
       </c>
       <c r="K116">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10840,19 +10840,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.909</v>
+        <v>3</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6991389</v>
+        <v>6991390</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,73 +11584,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
+        <v>2.25</v>
+      </c>
+      <c r="L125">
+        <v>3.5</v>
+      </c>
+      <c r="M125">
         <v>2.6</v>
       </c>
-      <c r="L125">
-        <v>3.2</v>
-      </c>
-      <c r="M125">
-        <v>2.4</v>
-      </c>
       <c r="N125">
+        <v>2.2</v>
+      </c>
+      <c r="O125">
+        <v>3.6</v>
+      </c>
+      <c r="P125">
         <v>2.7</v>
       </c>
-      <c r="O125">
-        <v>3.2</v>
-      </c>
-      <c r="P125">
-        <v>2.3</v>
-      </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X125">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6991390</v>
+        <v>6991389</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,73 +11673,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>49</v>
+      </c>
+      <c r="K126">
+        <v>2.6</v>
+      </c>
+      <c r="L126">
+        <v>3.2</v>
+      </c>
+      <c r="M126">
+        <v>2.4</v>
+      </c>
+      <c r="N126">
+        <v>2.7</v>
+      </c>
+      <c r="O126">
+        <v>3.2</v>
+      </c>
+      <c r="P126">
+        <v>2.3</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>1.75</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
+        <v>1.8</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>2.2</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>-0</v>
+      </c>
+      <c r="AB126">
         <v>1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>48</v>
-      </c>
-      <c r="K126">
-        <v>2.25</v>
-      </c>
-      <c r="L126">
-        <v>3.5</v>
-      </c>
-      <c r="M126">
-        <v>2.6</v>
-      </c>
-      <c r="N126">
-        <v>2.2</v>
-      </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
-      <c r="P126">
-        <v>2.7</v>
-      </c>
-      <c r="Q126">
-        <v>-0.25</v>
-      </c>
-      <c r="R126">
-        <v>1.975</v>
-      </c>
-      <c r="S126">
-        <v>1.825</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
-      <c r="W126">
-        <v>1.2</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>0.95</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11839,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6991392</v>
+        <v>6991391</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,46 +11851,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N128">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
         <v>2.25</v>
@@ -11902,19 +11902,19 @@
         <v>1.775</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
         <v>1.025</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6991391</v>
+        <v>6991392</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,46 +11940,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>2.9</v>
+      </c>
+      <c r="O129">
         <v>3.1</v>
       </c>
-      <c r="N129">
-        <v>1.75</v>
-      </c>
-      <c r="O129">
-        <v>3.2</v>
-      </c>
       <c r="P129">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.25</v>
@@ -11991,19 +11991,19 @@
         <v>1.775</v>
       </c>
       <c r="W129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
         <v>1.025</v>
@@ -12477,7 +12477,7 @@
         <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13189,7 +13189,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13809,7 +13809,7 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>30</v>
@@ -14076,7 +14076,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>37</v>
@@ -14791,7 +14791,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14880,7 +14880,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15411,7 +15411,7 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>43</v>
@@ -15500,7 +15500,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,40 +15767,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L172">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M172">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O172">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P172">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
         <v>1.95</v>
@@ -15809,34 +15809,34 @@
         <v>1.85</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U172">
+        <v>1.85</v>
+      </c>
+      <c r="V172">
         <v>1.95</v>
       </c>
-      <c r="V172">
-        <v>1.85</v>
-      </c>
       <c r="W172">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,40 +15856,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L173">
+        <v>3.25</v>
+      </c>
+      <c r="M173">
+        <v>4</v>
+      </c>
+      <c r="N173">
+        <v>1.909</v>
+      </c>
+      <c r="O173">
         <v>3.1</v>
       </c>
-      <c r="M173">
-        <v>2.2</v>
-      </c>
-      <c r="N173">
-        <v>2.7</v>
-      </c>
-      <c r="O173">
-        <v>3</v>
-      </c>
       <c r="P173">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
         <v>1.95</v>
@@ -15898,34 +15898,34 @@
         <v>1.85</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
+        <v>1.95</v>
+      </c>
+      <c r="V173">
         <v>1.85</v>
       </c>
-      <c r="V173">
-        <v>1.95</v>
-      </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB173">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>33</v>
@@ -16304,7 +16304,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16556,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16568,40 +16568,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M181">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N181">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O181">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P181">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q181">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R181">
         <v>1.975</v>
@@ -16610,34 +16610,34 @@
         <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z181">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,40 +16657,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K182">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L182">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N182">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O182">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q182">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R182">
         <v>1.975</v>
@@ -16699,34 +16699,34 @@
         <v>1.825</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7712419</v>
+        <v>7712418</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17102,76 +17102,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H187">
+        <v>3</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187" t="s">
+        <v>48</v>
+      </c>
+      <c r="K187">
+        <v>2.25</v>
+      </c>
+      <c r="L187">
+        <v>2.9</v>
+      </c>
+      <c r="M187">
+        <v>3.1</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187">
+        <v>3</v>
+      </c>
+      <c r="P187">
+        <v>3.75</v>
+      </c>
+      <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.725</v>
+      </c>
+      <c r="S187">
+        <v>1.975</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>1.975</v>
+      </c>
+      <c r="V187">
+        <v>1.825</v>
+      </c>
+      <c r="W187">
         <v>1</v>
       </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-      <c r="J187" t="s">
-        <v>49</v>
-      </c>
-      <c r="K187">
-        <v>2.1</v>
-      </c>
-      <c r="L187">
-        <v>3</v>
-      </c>
-      <c r="M187">
-        <v>3.25</v>
-      </c>
-      <c r="N187">
-        <v>1.727</v>
-      </c>
-      <c r="O187">
-        <v>3.2</v>
-      </c>
-      <c r="P187">
-        <v>4.5</v>
-      </c>
-      <c r="Q187">
-        <v>-0.75</v>
-      </c>
-      <c r="R187">
-        <v>1.975</v>
-      </c>
-      <c r="S187">
-        <v>1.825</v>
-      </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.825</v>
-      </c>
-      <c r="V187">
-        <v>1.975</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
       <c r="X187">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7712418</v>
+        <v>7712419</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,76 +17191,76 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F188" t="s">
+        <v>40</v>
+      </c>
+      <c r="G188" t="s">
         <v>35</v>
       </c>
-      <c r="G188" t="s">
-        <v>46</v>
-      </c>
       <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>49</v>
+      </c>
+      <c r="K188">
+        <v>2.1</v>
+      </c>
+      <c r="L188">
         <v>3</v>
       </c>
-      <c r="I188">
-        <v>2</v>
-      </c>
-      <c r="J188" t="s">
-        <v>48</v>
-      </c>
-      <c r="K188">
-        <v>2.25</v>
-      </c>
-      <c r="L188">
-        <v>2.9</v>
-      </c>
       <c r="M188">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S188">
+        <v>1.825</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
         <v>1.975</v>
       </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.975</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
       <c r="W188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB188">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>45343.40625</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
         <v>29</v>
@@ -18084,7 +18084,7 @@
         <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7761256</v>
+        <v>7761255</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,13 +18526,13 @@
         <v>45349.41319444445</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -18541,43 +18541,43 @@
         <v>48</v>
       </c>
       <c r="K203">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="L203">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N203">
+        <v>1.8</v>
+      </c>
+      <c r="O203">
+        <v>3.2</v>
+      </c>
+      <c r="P203">
         <v>4.5</v>
       </c>
-      <c r="O203">
-        <v>3.8</v>
-      </c>
-      <c r="P203">
-        <v>1.65</v>
-      </c>
       <c r="Q203">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
         <v>1.8</v>
       </c>
-      <c r="V203">
-        <v>2</v>
-      </c>
       <c r="W203">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,13 +18586,13 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7761255</v>
+        <v>7761256</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,13 +18615,13 @@
         <v>45349.41319444445</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -18630,58 +18630,58 @@
         <v>48</v>
       </c>
       <c r="K204">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M204">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N204">
+        <v>4.5</v>
+      </c>
+      <c r="O204">
+        <v>3.8</v>
+      </c>
+      <c r="P204">
+        <v>1.65</v>
+      </c>
+      <c r="Q204">
+        <v>0.75</v>
+      </c>
+      <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
+        <v>1.825</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
         <v>1.8</v>
       </c>
-      <c r="O204">
-        <v>3.2</v>
-      </c>
-      <c r="P204">
-        <v>4.5</v>
-      </c>
-      <c r="Q204">
-        <v>-0.5</v>
-      </c>
-      <c r="R204">
-        <v>1.85</v>
-      </c>
-      <c r="S204">
-        <v>1.95</v>
-      </c>
-      <c r="T204">
-        <v>2.25</v>
-      </c>
-      <c r="U204">
-        <v>2</v>
-      </c>
       <c r="V204">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W204">
+        <v>3.5</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
         <v>0.8</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>-1</v>
-      </c>
-      <c r="Z204">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>1</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18885,7 +18885,7 @@
         <v>42</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19063,7 +19063,7 @@
         <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H209">
         <v>5</v>
@@ -19683,7 +19683,7 @@
         <v>45356.40972222222</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
         <v>46</v>
@@ -19842,6 +19842,302 @@
       </c>
       <c r="AC217">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>7784094</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45360.51736111111</v>
+      </c>
+      <c r="F218" t="s">
+        <v>33</v>
+      </c>
+      <c r="G218" t="s">
+        <v>40</v>
+      </c>
+      <c r="K218">
+        <v>1.666</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>5.5</v>
+      </c>
+      <c r="N218">
+        <v>1.615</v>
+      </c>
+      <c r="O218">
+        <v>3.25</v>
+      </c>
+      <c r="P218">
+        <v>5.25</v>
+      </c>
+      <c r="Q218">
+        <v>-0.75</v>
+      </c>
+      <c r="R218">
+        <v>1.8</v>
+      </c>
+      <c r="S218">
+        <v>2</v>
+      </c>
+      <c r="T218">
+        <v>2.25</v>
+      </c>
+      <c r="U218">
+        <v>1.95</v>
+      </c>
+      <c r="V218">
+        <v>1.85</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>7784095</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F219" t="s">
+        <v>32</v>
+      </c>
+      <c r="G219" t="s">
+        <v>35</v>
+      </c>
+      <c r="K219">
+        <v>1.615</v>
+      </c>
+      <c r="L219">
+        <v>3.8</v>
+      </c>
+      <c r="M219">
+        <v>4.333</v>
+      </c>
+      <c r="N219">
+        <v>1.666</v>
+      </c>
+      <c r="O219">
+        <v>3.75</v>
+      </c>
+      <c r="P219">
+        <v>4</v>
+      </c>
+      <c r="Q219">
+        <v>-0.75</v>
+      </c>
+      <c r="R219">
+        <v>1.925</v>
+      </c>
+      <c r="S219">
+        <v>1.875</v>
+      </c>
+      <c r="T219">
+        <v>2.25</v>
+      </c>
+      <c r="U219">
+        <v>1.9</v>
+      </c>
+      <c r="V219">
+        <v>1.9</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7783763</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F220" t="s">
+        <v>45</v>
+      </c>
+      <c r="G220" t="s">
+        <v>36</v>
+      </c>
+      <c r="K220">
+        <v>2.6</v>
+      </c>
+      <c r="L220">
+        <v>3.2</v>
+      </c>
+      <c r="M220">
+        <v>2.4</v>
+      </c>
+      <c r="N220">
+        <v>2.875</v>
+      </c>
+      <c r="O220">
+        <v>3.2</v>
+      </c>
+      <c r="P220">
+        <v>2.2</v>
+      </c>
+      <c r="Q220">
+        <v>0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.825</v>
+      </c>
+      <c r="S220">
+        <v>1.975</v>
+      </c>
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>2.025</v>
+      </c>
+      <c r="V220">
+        <v>1.775</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7784096</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45361.42708333334</v>
+      </c>
+      <c r="F221" t="s">
+        <v>29</v>
+      </c>
+      <c r="G221" t="s">
+        <v>44</v>
+      </c>
+      <c r="K221">
+        <v>1.533</v>
+      </c>
+      <c r="L221">
+        <v>3.6</v>
+      </c>
+      <c r="M221">
+        <v>5.5</v>
+      </c>
+      <c r="N221">
+        <v>1.666</v>
+      </c>
+      <c r="O221">
+        <v>3.4</v>
+      </c>
+      <c r="P221">
+        <v>4.5</v>
+      </c>
+      <c r="Q221">
+        <v>-0.75</v>
+      </c>
+      <c r="R221">
+        <v>1.9</v>
+      </c>
+      <c r="S221">
+        <v>1.9</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
+        <v>1.85</v>
+      </c>
+      <c r="V221">
+        <v>1.95</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Saudi Arabia Division 1</t>
   </si>
   <si>
+    <t>Al Jabalain</t>
+  </si>
+  <si>
     <t>Al Orubah</t>
   </si>
   <si>
-    <t>Al Jabalain</t>
+    <t>Al Faisaly Harmah</t>
   </si>
   <si>
     <t>Al Najma</t>
-  </si>
-  <si>
-    <t>Al Faisaly Harmah</t>
   </si>
   <si>
     <t>Al Qadisiya Al Khubar</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6991273</v>
+        <v>6990923</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -640,10 +640,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -652,43 +652,43 @@
         <v>48</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N2">
+        <v>2.55</v>
+      </c>
+      <c r="O2">
+        <v>2.7</v>
+      </c>
+      <c r="P2">
+        <v>2.9</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.85</v>
+      </c>
+      <c r="S2">
         <v>1.95</v>
       </c>
-      <c r="O2">
-        <v>3.2</v>
-      </c>
-      <c r="P2">
-        <v>3.6</v>
-      </c>
-      <c r="Q2">
-        <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1.8</v>
       </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>1.775</v>
-      </c>
-      <c r="V2">
-        <v>2.025</v>
-      </c>
       <c r="W2">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -697,16 +697,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6990923</v>
+        <v>6991273</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -729,10 +729,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -741,43 +741,43 @@
         <v>48</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O3">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
         <v>2</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -786,16 +786,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6991275</v>
+        <v>6991274</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,37 +818,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -860,31 +860,31 @@
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6991274</v>
+        <v>6991275</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,37 +907,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -949,31 +949,31 @@
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1441,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2239,7 +2239,7 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -2328,7 +2328,7 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2773,7 +2773,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -2862,7 +2862,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -3028,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6991315</v>
+        <v>6991415</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3040,13 +3040,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -3055,43 +3055,43 @@
         <v>48</v>
       </c>
       <c r="K29">
+        <v>2.4</v>
+      </c>
+      <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>2.6</v>
+      </c>
+      <c r="N29">
+        <v>2.3</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
         <v>2.75</v>
       </c>
-      <c r="L29">
-        <v>3.25</v>
-      </c>
-      <c r="M29">
-        <v>2.25</v>
-      </c>
-      <c r="N29">
-        <v>2.75</v>
-      </c>
-      <c r="O29">
-        <v>3.25</v>
-      </c>
-      <c r="P29">
-        <v>2.25</v>
-      </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
+        <v>2.025</v>
+      </c>
+      <c r="S29">
+        <v>1.775</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>1.8</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>2.25</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3100,13 +3100,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
+        <v>1.025</v>
+      </c>
+      <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
         <v>0.8</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6991415</v>
+        <v>6991315</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,13 +3129,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -3144,43 +3144,43 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N30">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3189,13 +3189,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>3.3</v>
+      </c>
+      <c r="L32">
+        <v>3.1</v>
+      </c>
+      <c r="M32">
+        <v>2.05</v>
+      </c>
+      <c r="N32">
+        <v>5.5</v>
+      </c>
+      <c r="O32">
+        <v>3.5</v>
+      </c>
+      <c r="P32">
+        <v>1.571</v>
+      </c>
+      <c r="Q32">
+        <v>0.75</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1.8</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>2.025</v>
+      </c>
+      <c r="V32">
+        <v>1.775</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>2.5</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32">
-        <v>2.6</v>
-      </c>
-      <c r="L32">
-        <v>2.875</v>
-      </c>
-      <c r="M32">
-        <v>2.625</v>
-      </c>
-      <c r="N32">
-        <v>2.55</v>
-      </c>
-      <c r="O32">
-        <v>2.875</v>
-      </c>
-      <c r="P32">
-        <v>2.7</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.8</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>1.7</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
       <c r="AA32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>2.6</v>
+      </c>
+      <c r="L33">
+        <v>2.875</v>
+      </c>
+      <c r="M33">
+        <v>2.625</v>
+      </c>
+      <c r="N33">
+        <v>2.55</v>
+      </c>
+      <c r="O33">
+        <v>2.875</v>
+      </c>
+      <c r="P33">
+        <v>2.7</v>
+      </c>
+      <c r="Q33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33">
-        <v>3.3</v>
-      </c>
-      <c r="L33">
-        <v>3.1</v>
-      </c>
-      <c r="M33">
-        <v>2.05</v>
-      </c>
-      <c r="N33">
-        <v>5.5</v>
-      </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
-      <c r="P33">
-        <v>1.571</v>
-      </c>
-      <c r="Q33">
-        <v>0.75</v>
-      </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
         <v>1.8</v>
       </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
-      <c r="U33">
-        <v>2.025</v>
-      </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6991416</v>
+        <v>6991320</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,58 +3574,58 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>1.533</v>
+      </c>
+      <c r="O35">
         <v>3.6</v>
       </c>
-      <c r="N35">
-        <v>1.95</v>
-      </c>
-      <c r="O35">
-        <v>3</v>
-      </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
         <v>1.8</v>
       </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
       <c r="W35">
-        <v>0.95</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3634,13 +3634,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6991320</v>
+        <v>6991416</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,58 +3663,58 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
       <c r="K36">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>0.5329999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3723,13 +3723,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -4108,7 +4108,7 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
@@ -4197,10 +4197,10 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4286,7 +4286,7 @@
         <v>45184.51736111111</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6991418</v>
+        <v>6991322</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O44">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6991322</v>
+        <v>6991418</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,76 +4464,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
         <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4820,7 +4820,7 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
@@ -5179,7 +5179,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5354,7 +5354,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6991336</v>
+        <v>6991337</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,7 +5443,7 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5452,67 +5452,67 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M56">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="N56">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>1.75</v>
+      </c>
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.9</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6991337</v>
+        <v>6991336</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,7 +5532,7 @@
         <v>45201.50694444445</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5541,67 +5541,67 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L57">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="N57">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q57">
+        <v>-0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
+        <v>1.95</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
+        <v>1.9</v>
+      </c>
+      <c r="V57">
+        <v>1.9</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>2.3</v>
+      </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
+        <v>0.95</v>
+      </c>
+      <c r="AB57">
         <v>0</v>
       </c>
-      <c r="R57">
-        <v>2.05</v>
-      </c>
-      <c r="S57">
-        <v>1.75</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>1.375</v>
-      </c>
-      <c r="Z57">
-        <v>-1</v>
-      </c>
-      <c r="AA57">
-        <v>0.75</v>
-      </c>
-      <c r="AB57">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5891,7 +5891,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6425,7 +6425,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6991422</v>
+        <v>6991347</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,76 +6511,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L68">
+        <v>4.75</v>
+      </c>
+      <c r="M68">
+        <v>9</v>
+      </c>
+      <c r="N68">
+        <v>1.55</v>
+      </c>
+      <c r="O68">
         <v>3.75</v>
       </c>
-      <c r="M68">
-        <v>4.333</v>
-      </c>
-      <c r="N68">
-        <v>1.75</v>
-      </c>
-      <c r="O68">
-        <v>3.5</v>
-      </c>
       <c r="P68">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6991347</v>
+        <v>6991422</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,76 +6600,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L69">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N69">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6781,7 +6781,7 @@
         <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -7579,7 +7579,7 @@
         <v>45231.5</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
         <v>41</v>
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,19 +7668,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>2.75</v>
@@ -7692,52 +7692,52 @@
         <v>2.4</v>
       </c>
       <c r="N81">
+        <v>2.15</v>
+      </c>
+      <c r="O81">
         <v>3.2</v>
       </c>
-      <c r="O81">
-        <v>3.1</v>
-      </c>
       <c r="P81">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X81">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7757,19 +7757,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>2.75</v>
@@ -7781,52 +7781,52 @@
         <v>2.4</v>
       </c>
       <c r="N82">
+        <v>3.2</v>
+      </c>
+      <c r="O82">
+        <v>3.1</v>
+      </c>
+      <c r="P82">
         <v>2.15</v>
       </c>
-      <c r="O82">
-        <v>3.2</v>
-      </c>
-      <c r="P82">
-        <v>3.25</v>
-      </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7849,7 +7849,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8116,7 +8116,7 @@
         <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8383,7 +8383,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8469,7 +8469,7 @@
         <v>45242.38888888889</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
@@ -8558,7 +8558,7 @@
         <v>45242.49305555555</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>44</v>
@@ -8914,7 +8914,7 @@
         <v>45258.38194444445</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>45</v>
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,73 +9184,73 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>1.727</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
         <v>4.333</v>
       </c>
       <c r="N98">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,73 +9273,73 @@
         <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K99">
         <v>1.727</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
         <v>4.333</v>
       </c>
       <c r="N99">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O99">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q99">
         <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9804,10 +9804,10 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6991373</v>
+        <v>6991374</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,58 +9982,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>48</v>
       </c>
       <c r="K107">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
         <v>3.2</v>
       </c>
-      <c r="M107">
-        <v>2.625</v>
-      </c>
       <c r="N107">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10042,16 +10042,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6991374</v>
+        <v>6991373</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,58 +10071,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108">
         <v>1</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>48</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P108">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10131,16 +10131,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10338,7 +10338,7 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>36</v>
@@ -10516,7 +10516,7 @@
         <v>45272.38888888889</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
         <v>35</v>
@@ -10697,7 +10697,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10783,7 +10783,7 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11320,7 +11320,7 @@
         <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11495,7 +11495,7 @@
         <v>45279.49305555555</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
         <v>46</v>
@@ -11587,7 +11587,7 @@
         <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -11765,7 +11765,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11839,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6991391</v>
+        <v>6991392</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,46 +11851,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>2.9</v>
+      </c>
+      <c r="O128">
         <v>3.1</v>
       </c>
-      <c r="N128">
-        <v>1.75</v>
-      </c>
-      <c r="O128">
-        <v>3.2</v>
-      </c>
       <c r="P128">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T128">
         <v>2.25</v>
@@ -11902,19 +11902,19 @@
         <v>1.775</v>
       </c>
       <c r="W128">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z128">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB128">
         <v>1.025</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6991392</v>
+        <v>6991391</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,46 +11940,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K129">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N129">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
         <v>2.25</v>
@@ -11991,19 +11991,19 @@
         <v>1.775</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
         <v>1.025</v>
@@ -12032,7 +12032,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12296,7 +12296,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>44</v>
@@ -12474,7 +12474,7 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
         <v>36</v>
@@ -12830,10 +12830,10 @@
         <v>45292.49652777778</v>
       </c>
       <c r="F139" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" t="s">
         <v>32</v>
-      </c>
-      <c r="G139" t="s">
-        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13275,10 +13275,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F144" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s">
         <v>30</v>
-      </c>
-      <c r="G144" t="s">
-        <v>29</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K146">
         <v>2.4</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P146">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z146">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y147">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>45299.39583333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>43</v>
@@ -13812,7 +13812,7 @@
         <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -14165,10 +14165,10 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14257,7 +14257,7 @@
         <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14435,7 +14435,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14524,7 +14524,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14702,7 +14702,7 @@
         <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14966,7 +14966,7 @@
         <v>45320.40277777778</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>42</v>
@@ -15055,7 +15055,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,61 +15322,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L167">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M167">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N167">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P167">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q167">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
+        <v>1.725</v>
+      </c>
+      <c r="S167">
         <v>1.975</v>
       </c>
-      <c r="S167">
+      <c r="T167">
+        <v>2</v>
+      </c>
+      <c r="U167">
         <v>1.825</v>
       </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.95</v>
-      </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15385,13 +15385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB167">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,61 +15411,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L168">
+        <v>4.2</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168">
+        <v>1.45</v>
+      </c>
+      <c r="O168">
+        <v>4.2</v>
+      </c>
+      <c r="P168">
+        <v>5.25</v>
+      </c>
+      <c r="Q168">
+        <v>-1.25</v>
+      </c>
+      <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
         <v>2.75</v>
       </c>
-      <c r="M168">
-        <v>3.1</v>
-      </c>
-      <c r="N168">
-        <v>2</v>
-      </c>
-      <c r="O168">
-        <v>2.875</v>
-      </c>
-      <c r="P168">
-        <v>3.75</v>
-      </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>1.725</v>
-      </c>
-      <c r="S168">
-        <v>1.975</v>
-      </c>
-      <c r="T168">
-        <v>2</v>
-      </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X168">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -15474,13 +15474,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>45322.40625</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>40</v>
@@ -15770,7 +15770,7 @@
         <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -16215,7 +16215,7 @@
         <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16393,7 +16393,7 @@
         <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16482,7 +16482,7 @@
         <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16571,7 +16571,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
         <v>42</v>
@@ -16924,7 +16924,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>41</v>
@@ -17013,7 +17013,7 @@
         <v>45335.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7712422</v>
+        <v>7712421</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,76 +17458,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G191" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L191">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N191">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O191">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P191">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA191">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB191">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17535,7 +17535,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7712421</v>
+        <v>7712422</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17547,76 +17547,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
         <v>49</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L192">
+        <v>3.2</v>
+      </c>
+      <c r="M192">
+        <v>3.6</v>
+      </c>
+      <c r="N192">
+        <v>2.05</v>
+      </c>
+      <c r="O192">
+        <v>3.25</v>
+      </c>
+      <c r="P192">
         <v>3.1</v>
       </c>
-      <c r="M192">
-        <v>3.4</v>
-      </c>
-      <c r="N192">
-        <v>2.8</v>
-      </c>
-      <c r="O192">
-        <v>2.875</v>
-      </c>
-      <c r="P192">
-        <v>2.55</v>
-      </c>
       <c r="Q192">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
+        <v>1.8</v>
+      </c>
+      <c r="S192">
+        <v>2</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
         <v>2.025</v>
       </c>
-      <c r="S192">
+      <c r="V192">
         <v>1.775</v>
       </c>
-      <c r="T192">
-        <v>2</v>
-      </c>
-      <c r="U192">
-        <v>1.975</v>
-      </c>
-      <c r="V192">
-        <v>1.825</v>
-      </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA192">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB192">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC192">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17639,7 +17639,7 @@
         <v>38</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17995,7 +17995,7 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18440,7 +18440,7 @@
         <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18707,7 +18707,7 @@
         <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18793,7 +18793,7 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
         <v>47</v>
@@ -18974,7 +18974,7 @@
         <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19048,7 +19048,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7783762</v>
+        <v>7784086</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19060,73 +19060,73 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H209">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K209">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N209">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W209">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB209">
-        <v>0.7250000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19137,7 +19137,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7784086</v>
+        <v>7783762</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19149,73 +19149,73 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K210">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L210">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M210">
+        <v>4</v>
+      </c>
+      <c r="N210">
+        <v>1.8</v>
+      </c>
+      <c r="O210">
+        <v>3.2</v>
+      </c>
+      <c r="P210">
+        <v>4</v>
+      </c>
+      <c r="Q210">
+        <v>-0.5</v>
+      </c>
+      <c r="R210">
+        <v>1.85</v>
+      </c>
+      <c r="S210">
         <v>1.95</v>
       </c>
-      <c r="N210">
-        <v>4.5</v>
-      </c>
-      <c r="O210">
-        <v>3.3</v>
-      </c>
-      <c r="P210">
-        <v>1.7</v>
-      </c>
-      <c r="Q210">
-        <v>0.5</v>
-      </c>
-      <c r="R210">
-        <v>2.025</v>
-      </c>
-      <c r="S210">
-        <v>1.775</v>
-      </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="V210">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>1.025</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19416,7 +19416,7 @@
         <v>45355.42361111111</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
         <v>45</v>
@@ -19775,7 +19775,7 @@
         <v>37</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H217">
         <v>5</v>
@@ -19849,7 +19849,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7784094</v>
+        <v>7784092</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,64 +19858,79 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45360.51736111111</v>
+        <v>45360.42361111111</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218" t="s">
+        <v>50</v>
       </c>
       <c r="K218">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L218">
         <v>3</v>
       </c>
       <c r="M218">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N218">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O218">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
+        <v>2.025</v>
+      </c>
+      <c r="S218">
+        <v>1.775</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>2</v>
+      </c>
+      <c r="V218">
         <v>1.8</v>
       </c>
-      <c r="S218">
-        <v>2</v>
-      </c>
-      <c r="T218">
-        <v>2.25</v>
-      </c>
-      <c r="U218">
-        <v>1.95</v>
-      </c>
-      <c r="V218">
-        <v>1.85</v>
-      </c>
       <c r="W218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB218">
+        <v>1</v>
+      </c>
+      <c r="AC218">
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19923,7 +19938,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7784095</v>
+        <v>7784093</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19932,64 +19947,79 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45361.41666666666</v>
+        <v>45360.42361111111</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>48</v>
       </c>
       <c r="K219">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L219">
+        <v>3.25</v>
+      </c>
+      <c r="M219">
+        <v>3.25</v>
+      </c>
+      <c r="N219">
+        <v>1.533</v>
+      </c>
+      <c r="O219">
         <v>3.8</v>
       </c>
-      <c r="M219">
-        <v>4.333</v>
-      </c>
-      <c r="N219">
-        <v>1.666</v>
-      </c>
-      <c r="O219">
-        <v>3.75</v>
-      </c>
       <c r="P219">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
         <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
         <v>0</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -19997,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7783763</v>
+        <v>7784094</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20006,64 +20036,79 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45361.41666666666</v>
+        <v>45360.51736111111</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>48</v>
       </c>
       <c r="K220">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M220">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N220">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P220">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>-0.5</v>
+      </c>
+      <c r="AC220">
+        <v>0.425</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20071,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7784096</v>
+        <v>7784095</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20080,28 +20125,37 @@
         <v>28</v>
       </c>
       <c r="E221" s="2">
-        <v>45361.42708333334</v>
+        <v>45361.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>3</v>
+      </c>
+      <c r="J221" t="s">
+        <v>50</v>
       </c>
       <c r="K221">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M221">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N221">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="O221">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P221">
         <v>4.5</v>
@@ -20110,34 +20164,485 @@
         <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
+        <v>2</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>3.5</v>
+      </c>
+      <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB221">
+        <v>0.8</v>
+      </c>
+      <c r="AC221">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>7783763</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F222" t="s">
+        <v>45</v>
+      </c>
+      <c r="G222" t="s">
+        <v>36</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>48</v>
+      </c>
+      <c r="K222">
+        <v>2.6</v>
+      </c>
+      <c r="L222">
+        <v>3.2</v>
+      </c>
+      <c r="M222">
+        <v>2.4</v>
+      </c>
+      <c r="N222">
+        <v>2.55</v>
+      </c>
+      <c r="O222">
+        <v>3.4</v>
+      </c>
+      <c r="P222">
+        <v>2.375</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>1.975</v>
+      </c>
+      <c r="S222">
+        <v>1.825</v>
+      </c>
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
+        <v>1.8</v>
+      </c>
+      <c r="V222">
+        <v>2</v>
+      </c>
+      <c r="W222">
+        <v>1.55</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>-1</v>
+      </c>
+      <c r="Z222">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA222">
+        <v>-1</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>7784096</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45361.42708333334</v>
+      </c>
+      <c r="F223" t="s">
+        <v>30</v>
+      </c>
+      <c r="G223" t="s">
+        <v>44</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>50</v>
+      </c>
+      <c r="K223">
+        <v>1.533</v>
+      </c>
+      <c r="L223">
+        <v>3.6</v>
+      </c>
+      <c r="M223">
+        <v>5.5</v>
+      </c>
+      <c r="N223">
+        <v>1.6</v>
+      </c>
+      <c r="O223">
+        <v>3.5</v>
+      </c>
+      <c r="P223">
+        <v>4.75</v>
+      </c>
+      <c r="Q223">
+        <v>-0.75</v>
+      </c>
+      <c r="R223">
+        <v>1.8</v>
+      </c>
+      <c r="S223">
+        <v>2</v>
+      </c>
+      <c r="T223">
+        <v>2.5</v>
+      </c>
+      <c r="U223">
         <v>1.95</v>
       </c>
-      <c r="W221">
+      <c r="V223">
+        <v>1.75</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
+        <v>3.75</v>
+      </c>
+      <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>-1</v>
+      </c>
+      <c r="AC223">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>7783778</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45362.65625</v>
+      </c>
+      <c r="F224" t="s">
+        <v>32</v>
+      </c>
+      <c r="G224" t="s">
+        <v>34</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224" t="s">
+        <v>49</v>
+      </c>
+      <c r="K224">
+        <v>2.05</v>
+      </c>
+      <c r="L224">
+        <v>3.2</v>
+      </c>
+      <c r="M224">
+        <v>3.4</v>
+      </c>
+      <c r="N224">
+        <v>2.05</v>
+      </c>
+      <c r="O224">
+        <v>3.25</v>
+      </c>
+      <c r="P224">
+        <v>3.4</v>
+      </c>
+      <c r="Q224">
+        <v>-0.25</v>
+      </c>
+      <c r="R224">
+        <v>1.825</v>
+      </c>
+      <c r="S224">
+        <v>1.975</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>1.9</v>
+      </c>
+      <c r="V224">
+        <v>1.9</v>
+      </c>
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
+        <v>2.25</v>
+      </c>
+      <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>-0.5</v>
+      </c>
+      <c r="AA224">
+        <v>0.4875</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7784097</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45362.66666666666</v>
+      </c>
+      <c r="F225" t="s">
+        <v>47</v>
+      </c>
+      <c r="G225" t="s">
+        <v>37</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>3</v>
+      </c>
+      <c r="J225" t="s">
+        <v>50</v>
+      </c>
+      <c r="K225">
+        <v>4</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>1.95</v>
+      </c>
+      <c r="N225">
+        <v>4.333</v>
+      </c>
+      <c r="O225">
+        <v>3.2</v>
+      </c>
+      <c r="P225">
+        <v>1.8</v>
+      </c>
+      <c r="Q225">
+        <v>0.5</v>
+      </c>
+      <c r="R225">
+        <v>1.975</v>
+      </c>
+      <c r="S225">
+        <v>1.825</v>
+      </c>
+      <c r="T225">
+        <v>2.25</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
+        <v>1.8</v>
+      </c>
+      <c r="W225">
+        <v>-1</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
+        <v>0.8</v>
+      </c>
+      <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
+        <v>0.825</v>
+      </c>
+      <c r="AB225">
+        <v>1</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>7783779</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45362.66666666666</v>
+      </c>
+      <c r="F226" t="s">
+        <v>46</v>
+      </c>
+      <c r="G226" t="s">
+        <v>42</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>49</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>2.35</v>
+      </c>
+      <c r="N226">
+        <v>3</v>
+      </c>
+      <c r="O226">
+        <v>3.1</v>
+      </c>
+      <c r="P226">
+        <v>2.3</v>
+      </c>
+      <c r="Q226">
+        <v>0.25</v>
+      </c>
+      <c r="R226">
+        <v>1.75</v>
+      </c>
+      <c r="S226">
+        <v>2.05</v>
+      </c>
+      <c r="T226">
+        <v>2</v>
+      </c>
+      <c r="U226">
+        <v>1.8</v>
+      </c>
+      <c r="V226">
+        <v>2</v>
+      </c>
+      <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
+        <v>2.1</v>
+      </c>
+      <c r="Y226">
+        <v>-1</v>
+      </c>
+      <c r="Z226">
+        <v>0.375</v>
+      </c>
+      <c r="AA226">
+        <v>-0.5</v>
+      </c>
+      <c r="AB226">
         <v>0</v>
       </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-      <c r="AA221">
-        <v>0</v>
+      <c r="AC226">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Al Orubah</t>
   </si>
   <si>
-    <t>Al Faisaly Harmah</t>
+    <t>Al Najma</t>
   </si>
   <si>
-    <t>Al Najma</t>
+    <t>Al Faisaly Harmah</t>
   </si>
   <si>
     <t>Al Qadisiya Al Khubar</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC226"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6991274</v>
+        <v>6991275</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,37 +818,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4">
+        <v>2.375</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4">
-        <v>1.666</v>
-      </c>
-      <c r="L4">
-        <v>3.5</v>
-      </c>
       <c r="M4">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -860,31 +860,31 @@
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6991275</v>
+        <v>6991274</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,37 +907,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -949,31 +949,31 @@
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -2328,7 +2328,7 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6991313</v>
+        <v>6991279</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,58 +2506,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
         <v>2.875</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>2.25</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6991279</v>
+        <v>6991313</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,58 +2595,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
         <v>2.875</v>
       </c>
       <c r="N24">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2655,16 +2655,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3043,7 +3043,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3132,7 +3132,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L32">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M32">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N32">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P32">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.8</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>2.025</v>
-      </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC32">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33">
+        <v>3.3</v>
+      </c>
+      <c r="L33">
+        <v>3.1</v>
+      </c>
+      <c r="M33">
+        <v>2.05</v>
+      </c>
+      <c r="N33">
+        <v>5.5</v>
+      </c>
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
+        <v>1.571</v>
+      </c>
+      <c r="Q33">
+        <v>0.75</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>2.025</v>
+      </c>
+      <c r="V33">
+        <v>1.775</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>2.5</v>
+      </c>
+      <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33">
-        <v>2.6</v>
-      </c>
-      <c r="L33">
-        <v>2.875</v>
-      </c>
-      <c r="M33">
-        <v>2.625</v>
-      </c>
-      <c r="N33">
-        <v>2.55</v>
-      </c>
-      <c r="O33">
-        <v>2.875</v>
-      </c>
-      <c r="P33">
-        <v>2.7</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.85</v>
-      </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.8</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>1.7</v>
-      </c>
-      <c r="Z33">
-        <v>-1</v>
-      </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6991320</v>
+        <v>6991416</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,58 +3574,58 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
       <c r="K35">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.5329999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3634,13 +3634,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6991416</v>
+        <v>6991320</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,58 +3663,58 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>1.533</v>
+      </c>
+      <c r="O36">
         <v>3.6</v>
       </c>
-      <c r="N36">
-        <v>1.95</v>
-      </c>
-      <c r="O36">
-        <v>3</v>
-      </c>
       <c r="P36">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.8</v>
       </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
       <c r="W36">
-        <v>0.95</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3723,13 +3723,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -4197,7 +4197,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4286,7 +4286,7 @@
         <v>45184.51736111111</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,55 +4820,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>50</v>
       </c>
       <c r="K49">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L49">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N49">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O49">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4877,19 +4877,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,55 +4909,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>50</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N50">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P50">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4966,19 +4966,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5621,7 +5621,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5891,7 +5891,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>45203.5</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62">
-        <v>5.5</v>
-      </c>
-      <c r="L62">
-        <v>3.75</v>
-      </c>
       <c r="M62">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N62">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q62">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>45203.5</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63">
+        <v>5.5</v>
+      </c>
+      <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>1.5</v>
+      </c>
+      <c r="N63">
+        <v>4.5</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>1.615</v>
+      </c>
+      <c r="Q63">
+        <v>0.75</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.9</v>
+      </c>
+      <c r="V63">
+        <v>1.9</v>
+      </c>
+      <c r="W63">
+        <v>3.5</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63">
-        <v>2.1</v>
-      </c>
-      <c r="L63">
-        <v>3</v>
-      </c>
-      <c r="M63">
-        <v>3.25</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>3</v>
-      </c>
-      <c r="P63">
-        <v>3.8</v>
-      </c>
-      <c r="Q63">
-        <v>-0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.775</v>
-      </c>
-      <c r="S63">
-        <v>2.025</v>
-      </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.725</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>2.8</v>
-      </c>
-      <c r="Z63">
-        <v>-1</v>
-      </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6425,7 +6425,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6991347</v>
+        <v>6991422</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,76 +6511,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L68">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6991422</v>
+        <v>6991347</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,76 +6600,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K69">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L69">
+        <v>4.75</v>
+      </c>
+      <c r="M69">
+        <v>9</v>
+      </c>
+      <c r="N69">
+        <v>1.55</v>
+      </c>
+      <c r="O69">
         <v>3.75</v>
       </c>
-      <c r="M69">
-        <v>4.333</v>
-      </c>
-      <c r="N69">
-        <v>1.75</v>
-      </c>
-      <c r="O69">
-        <v>3.5</v>
-      </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6991423</v>
+        <v>6991424</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,73 +6778,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N71">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6855,7 +6855,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6991424</v>
+        <v>6991423</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6867,73 +6867,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K72">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N72">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S72">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7849,7 +7849,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         <v>45242.38888888889</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
@@ -8558,7 +8558,7 @@
         <v>45242.49305555555</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>44</v>
@@ -8914,7 +8914,7 @@
         <v>45258.38194444445</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>45</v>
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6991367</v>
+        <v>6991368</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,76 +9181,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>1.727</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
         <v>4.333</v>
       </c>
       <c r="N98">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6991368</v>
+        <v>6991367</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,76 +9270,76 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>1.727</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
         <v>4.333</v>
       </c>
       <c r="N99">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
         <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6991372</v>
+        <v>6991433</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P104">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
+        <v>1.75</v>
+      </c>
+      <c r="T104">
+        <v>2.25</v>
+      </c>
+      <c r="U104">
         <v>1.95</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.925</v>
-      </c>
-      <c r="V104">
+      <c r="W104">
         <v>1.875</v>
       </c>
-      <c r="W104">
-        <v>-1</v>
-      </c>
       <c r="X104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>1.05</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
         <v>0.95</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6991433</v>
+        <v>6991372</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,76 +9804,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
+        <v>1.363</v>
+      </c>
+      <c r="N105">
+        <v>4.333</v>
+      </c>
+      <c r="O105">
+        <v>3.8</v>
+      </c>
+      <c r="P105">
+        <v>1.65</v>
+      </c>
+      <c r="Q105">
+        <v>0.75</v>
+      </c>
+      <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
+        <v>1.85</v>
+      </c>
+      <c r="T105">
         <v>2.5</v>
       </c>
-      <c r="N105">
-        <v>2.875</v>
-      </c>
-      <c r="O105">
-        <v>3.1</v>
-      </c>
-      <c r="P105">
-        <v>2.4</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>2.05</v>
-      </c>
-      <c r="S105">
-        <v>1.75</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6991374</v>
+        <v>6991373</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,58 +9982,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
         <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>48</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P107">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10042,16 +10042,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6991373</v>
+        <v>6991374</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,58 +10071,58 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>48</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
         <v>3.2</v>
       </c>
-      <c r="M108">
-        <v>2.625</v>
-      </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10131,16 +10131,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10516,7 +10516,7 @@
         <v>45272.38888888889</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
         <v>35</v>
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6991381</v>
+        <v>6991382</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,55 +10694,55 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>50</v>
       </c>
       <c r="K115">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N115">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P115">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10751,19 +10751,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.909</v>
+        <v>3</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6991382</v>
+        <v>6991381</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,56 +10783,56 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J116" t="s">
         <v>50</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L116">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
+        <v>1.825</v>
+      </c>
+      <c r="S116">
+        <v>1.975</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
         <v>1.8</v>
       </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
-      <c r="T116">
-        <v>2.5</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
@@ -10840,19 +10840,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>3</v>
+        <v>0.909</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB116">
         <v>1</v>
       </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
       <c r="AC116">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>45279.49305555555</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
         <v>46</v>
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6991390</v>
+        <v>6991389</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,73 +11584,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125" t="s">
+        <v>49</v>
+      </c>
+      <c r="K125">
+        <v>2.6</v>
+      </c>
+      <c r="L125">
+        <v>3.2</v>
+      </c>
+      <c r="M125">
+        <v>2.4</v>
+      </c>
+      <c r="N125">
+        <v>2.7</v>
+      </c>
+      <c r="O125">
+        <v>3.2</v>
+      </c>
+      <c r="P125">
+        <v>2.3</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
+        <v>1.75</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>1.8</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>2.2</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>-0</v>
+      </c>
+      <c r="AB125">
         <v>1</v>
-      </c>
-      <c r="J125" t="s">
-        <v>48</v>
-      </c>
-      <c r="K125">
-        <v>2.25</v>
-      </c>
-      <c r="L125">
-        <v>3.5</v>
-      </c>
-      <c r="M125">
-        <v>2.6</v>
-      </c>
-      <c r="N125">
-        <v>2.2</v>
-      </c>
-      <c r="O125">
-        <v>3.6</v>
-      </c>
-      <c r="P125">
-        <v>2.7</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.975</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
-      <c r="U125">
-        <v>1.95</v>
-      </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
-      <c r="W125">
-        <v>1.2</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.95</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6991389</v>
+        <v>6991390</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,73 +11673,73 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K126">
+        <v>2.25</v>
+      </c>
+      <c r="L126">
+        <v>3.5</v>
+      </c>
+      <c r="M126">
         <v>2.6</v>
       </c>
-      <c r="L126">
-        <v>3.2</v>
-      </c>
-      <c r="M126">
-        <v>2.4</v>
-      </c>
       <c r="N126">
+        <v>2.2</v>
+      </c>
+      <c r="O126">
+        <v>3.6</v>
+      </c>
+      <c r="P126">
         <v>2.7</v>
       </c>
-      <c r="O126">
-        <v>3.2</v>
-      </c>
-      <c r="P126">
-        <v>2.3</v>
-      </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X126">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11765,7 +11765,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11839,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6991392</v>
+        <v>6991391</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,46 +11851,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N128">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
         <v>2.25</v>
@@ -11902,19 +11902,19 @@
         <v>1.775</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
         <v>1.025</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6991391</v>
+        <v>6991392</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,46 +11940,46 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>2.9</v>
+      </c>
+      <c r="O129">
         <v>3.1</v>
       </c>
-      <c r="N129">
-        <v>1.75</v>
-      </c>
-      <c r="O129">
-        <v>3.2</v>
-      </c>
       <c r="P129">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.25</v>
@@ -11991,19 +11991,19 @@
         <v>1.775</v>
       </c>
       <c r="W129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
         <v>1.025</v>
@@ -12032,7 +12032,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12830,10 +12830,10 @@
         <v>45292.49652777778</v>
       </c>
       <c r="F139" t="s">
+        <v>32</v>
+      </c>
+      <c r="G139" t="s">
         <v>31</v>
-      </c>
-      <c r="G139" t="s">
-        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>2.4</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N146">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N147">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z147">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>45299.39583333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>43</v>
@@ -14168,7 +14168,7 @@
         <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14257,7 +14257,7 @@
         <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14524,7 +14524,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>45320.40277777778</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>42</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,61 +15322,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L167">
+        <v>4.2</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+      <c r="N167">
+        <v>1.45</v>
+      </c>
+      <c r="O167">
+        <v>4.2</v>
+      </c>
+      <c r="P167">
+        <v>5.25</v>
+      </c>
+      <c r="Q167">
+        <v>-1.25</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
         <v>2.75</v>
       </c>
-      <c r="M167">
-        <v>3.1</v>
-      </c>
-      <c r="N167">
-        <v>2</v>
-      </c>
-      <c r="O167">
-        <v>2.875</v>
-      </c>
-      <c r="P167">
-        <v>3.75</v>
-      </c>
-      <c r="Q167">
-        <v>-0.25</v>
-      </c>
-      <c r="R167">
-        <v>1.725</v>
-      </c>
-      <c r="S167">
-        <v>1.975</v>
-      </c>
-      <c r="T167">
-        <v>2</v>
-      </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X167">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15385,13 +15385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,61 +15411,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L168">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M168">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N168">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P168">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
+        <v>1.725</v>
+      </c>
+      <c r="S168">
         <v>1.975</v>
       </c>
-      <c r="S168">
+      <c r="T168">
+        <v>2</v>
+      </c>
+      <c r="U168">
         <v>1.825</v>
       </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
-      <c r="U168">
-        <v>1.95</v>
-      </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -15474,13 +15474,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB168">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>45322.40625</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
         <v>40</v>
@@ -16393,7 +16393,7 @@
         <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16482,7 +16482,7 @@
         <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16556,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16568,40 +16568,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L181">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N181">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O181">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P181">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q181">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R181">
         <v>1.975</v>
@@ -16610,34 +16610,34 @@
         <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,40 +16657,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M182">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N182">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P182">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q182">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R182">
         <v>1.975</v>
@@ -16699,34 +16699,34 @@
         <v>1.825</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16924,7 +16924,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>41</v>
@@ -17013,7 +17013,7 @@
         <v>45335.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17461,7 +17461,7 @@
         <v>29</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17639,7 +17639,7 @@
         <v>38</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -18707,7 +18707,7 @@
         <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18793,7 +18793,7 @@
         <v>45350.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>47</v>
@@ -19048,7 +19048,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7784086</v>
+        <v>7783762</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19060,73 +19060,73 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K209">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
+        <v>4</v>
+      </c>
+      <c r="N209">
+        <v>1.8</v>
+      </c>
+      <c r="O209">
+        <v>3.2</v>
+      </c>
+      <c r="P209">
+        <v>4</v>
+      </c>
+      <c r="Q209">
+        <v>-0.5</v>
+      </c>
+      <c r="R209">
+        <v>1.85</v>
+      </c>
+      <c r="S209">
         <v>1.95</v>
       </c>
-      <c r="N209">
-        <v>4.5</v>
-      </c>
-      <c r="O209">
-        <v>3.3</v>
-      </c>
-      <c r="P209">
-        <v>1.7</v>
-      </c>
-      <c r="Q209">
-        <v>0.5</v>
-      </c>
-      <c r="R209">
-        <v>2.025</v>
-      </c>
-      <c r="S209">
-        <v>1.775</v>
-      </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="V209">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>1.025</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19137,7 +19137,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7783762</v>
+        <v>7784086</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19149,73 +19149,73 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H210">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K210">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N210">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P210">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB210">
-        <v>0.7250000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19315,7 +19315,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7784088</v>
+        <v>7784089</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19327,49 +19327,49 @@
         <v>45355.42361111111</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>48</v>
       </c>
       <c r="K212">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M212">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O212">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P212">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T212">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
         <v>1.95</v>
@@ -19378,7 +19378,7 @@
         <v>1.85</v>
       </c>
       <c r="W212">
-        <v>2.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19387,16 +19387,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19404,7 +19404,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7784089</v>
+        <v>7784088</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19416,49 +19416,49 @@
         <v>45355.42361111111</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G213" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H213">
+        <v>2</v>
+      </c>
+      <c r="I213">
         <v>1</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>48</v>
       </c>
       <c r="K213">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="L213">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M213">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N213">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P213">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q213">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U213">
         <v>1.95</v>
@@ -19467,7 +19467,7 @@
         <v>1.85</v>
       </c>
       <c r="W213">
-        <v>0.6000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19476,16 +19476,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA213">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>37</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H217">
         <v>5</v>
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7784095</v>
+        <v>7783763</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,46 +20128,46 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L221">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M221">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N221">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P221">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
         <v>2.25</v>
@@ -20179,25 +20179,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA221">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20205,7 +20205,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7783763</v>
+        <v>7784095</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20217,46 +20217,46 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K222">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M222">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N222">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="O222">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
+        <v>1.725</v>
+      </c>
+      <c r="S222">
         <v>1.975</v>
-      </c>
-      <c r="S222">
-        <v>1.825</v>
       </c>
       <c r="T222">
         <v>2.25</v>
@@ -20268,25 +20268,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA222">
-        <v>-1</v>
-      </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC222">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>45362.65625</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
         <v>34</v>
@@ -20472,7 +20472,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7784097</v>
+        <v>7783779</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20484,76 +20484,76 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H225">
         <v>1</v>
       </c>
       <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>49</v>
+      </c>
+      <c r="K225">
         <v>3</v>
-      </c>
-      <c r="J225" t="s">
-        <v>50</v>
-      </c>
-      <c r="K225">
-        <v>4</v>
       </c>
       <c r="L225">
         <v>3</v>
       </c>
       <c r="M225">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="N225">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O225">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P225">
+        <v>2.3</v>
+      </c>
+      <c r="Q225">
+        <v>0.25</v>
+      </c>
+      <c r="R225">
+        <v>1.75</v>
+      </c>
+      <c r="S225">
+        <v>2.05</v>
+      </c>
+      <c r="T225">
+        <v>2</v>
+      </c>
+      <c r="U225">
         <v>1.8</v>
       </c>
-      <c r="Q225">
-        <v>0.5</v>
-      </c>
-      <c r="R225">
-        <v>1.975</v>
-      </c>
-      <c r="S225">
-        <v>1.825</v>
-      </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>2</v>
-      </c>
       <c r="V225">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y225">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA225">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20561,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7783779</v>
+        <v>7784097</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20573,76 +20573,832 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H226">
         <v>1</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L226">
         <v>3</v>
       </c>
       <c r="M226">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="N226">
+        <v>4.333</v>
+      </c>
+      <c r="O226">
+        <v>3.2</v>
+      </c>
+      <c r="P226">
+        <v>1.8</v>
+      </c>
+      <c r="Q226">
+        <v>0.5</v>
+      </c>
+      <c r="R226">
+        <v>1.975</v>
+      </c>
+      <c r="S226">
+        <v>1.825</v>
+      </c>
+      <c r="T226">
+        <v>2.25</v>
+      </c>
+      <c r="U226">
+        <v>2</v>
+      </c>
+      <c r="V226">
+        <v>1.8</v>
+      </c>
+      <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
+        <v>0.8</v>
+      </c>
+      <c r="Z226">
+        <v>-1</v>
+      </c>
+      <c r="AA226">
+        <v>0.825</v>
+      </c>
+      <c r="AB226">
+        <v>1</v>
+      </c>
+      <c r="AC226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>7784098</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45366.64583333334</v>
+      </c>
+      <c r="F227" t="s">
+        <v>33</v>
+      </c>
+      <c r="G227" t="s">
+        <v>30</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
         <v>3</v>
       </c>
-      <c r="O226">
+      <c r="J227" t="s">
+        <v>50</v>
+      </c>
+      <c r="K227">
+        <v>1.615</v>
+      </c>
+      <c r="L227">
+        <v>3.2</v>
+      </c>
+      <c r="M227">
+        <v>5.5</v>
+      </c>
+      <c r="N227">
+        <v>1.615</v>
+      </c>
+      <c r="O227">
+        <v>3.2</v>
+      </c>
+      <c r="P227">
+        <v>5.5</v>
+      </c>
+      <c r="Q227">
+        <v>-0.75</v>
+      </c>
+      <c r="R227">
+        <v>1.825</v>
+      </c>
+      <c r="S227">
+        <v>1.975</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
+        <v>1.9</v>
+      </c>
+      <c r="V227">
+        <v>1.9</v>
+      </c>
+      <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>4.5</v>
+      </c>
+      <c r="Z227">
+        <v>-1</v>
+      </c>
+      <c r="AA227">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB227">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC227">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>7783764</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45366.65625</v>
+      </c>
+      <c r="F228" t="s">
+        <v>36</v>
+      </c>
+      <c r="G228" t="s">
+        <v>35</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>50</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>3.25</v>
+      </c>
+      <c r="M228">
+        <v>3.3</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228">
+        <v>3.25</v>
+      </c>
+      <c r="P228">
+        <v>3.25</v>
+      </c>
+      <c r="Q228">
+        <v>-0.25</v>
+      </c>
+      <c r="R228">
+        <v>1.8</v>
+      </c>
+      <c r="S228">
+        <v>2</v>
+      </c>
+      <c r="T228">
+        <v>2.25</v>
+      </c>
+      <c r="U228">
+        <v>1.95</v>
+      </c>
+      <c r="V228">
+        <v>1.85</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>2.25</v>
+      </c>
+      <c r="Z228">
+        <v>-1</v>
+      </c>
+      <c r="AA228">
+        <v>1</v>
+      </c>
+      <c r="AB228">
+        <v>0.95</v>
+      </c>
+      <c r="AC228">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>7784100</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45366.65625</v>
+      </c>
+      <c r="F229" t="s">
+        <v>40</v>
+      </c>
+      <c r="G229" t="s">
+        <v>45</v>
+      </c>
+      <c r="H229">
+        <v>3</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>48</v>
+      </c>
+      <c r="K229">
+        <v>1.4</v>
+      </c>
+      <c r="L229">
+        <v>4.333</v>
+      </c>
+      <c r="M229">
+        <v>6</v>
+      </c>
+      <c r="N229">
+        <v>1.5</v>
+      </c>
+      <c r="O229">
+        <v>4</v>
+      </c>
+      <c r="P229">
+        <v>5.25</v>
+      </c>
+      <c r="Q229">
+        <v>-1</v>
+      </c>
+      <c r="R229">
+        <v>1.825</v>
+      </c>
+      <c r="S229">
+        <v>1.975</v>
+      </c>
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>1.9</v>
+      </c>
+      <c r="V229">
+        <v>1.9</v>
+      </c>
+      <c r="W229">
+        <v>0.5</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>0.825</v>
+      </c>
+      <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>7784103</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45367.64583333334</v>
+      </c>
+      <c r="F230" t="s">
+        <v>34</v>
+      </c>
+      <c r="G230" t="s">
+        <v>47</v>
+      </c>
+      <c r="H230">
+        <v>3</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>48</v>
+      </c>
+      <c r="K230">
+        <v>2.75</v>
+      </c>
+      <c r="L230">
+        <v>3.2</v>
+      </c>
+      <c r="M230">
+        <v>2.3</v>
+      </c>
+      <c r="N230">
+        <v>2.05</v>
+      </c>
+      <c r="O230">
+        <v>3.4</v>
+      </c>
+      <c r="P230">
+        <v>3</v>
+      </c>
+      <c r="Q230">
+        <v>-0.25</v>
+      </c>
+      <c r="R230">
+        <v>1.825</v>
+      </c>
+      <c r="S230">
+        <v>1.975</v>
+      </c>
+      <c r="T230">
+        <v>2.25</v>
+      </c>
+      <c r="U230">
+        <v>1.9</v>
+      </c>
+      <c r="V230">
+        <v>1.9</v>
+      </c>
+      <c r="W230">
+        <v>1.05</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>-1</v>
+      </c>
+      <c r="Z230">
+        <v>0.825</v>
+      </c>
+      <c r="AA230">
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC230">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>7784102</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45367.64583333334</v>
+      </c>
+      <c r="F231" t="s">
+        <v>44</v>
+      </c>
+      <c r="G231" t="s">
+        <v>32</v>
+      </c>
+      <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>48</v>
+      </c>
+      <c r="K231">
+        <v>2.4</v>
+      </c>
+      <c r="L231">
+        <v>3.2</v>
+      </c>
+      <c r="M231">
+        <v>2.625</v>
+      </c>
+      <c r="N231">
+        <v>3.5</v>
+      </c>
+      <c r="O231">
+        <v>3.3</v>
+      </c>
+      <c r="P231">
+        <v>1.909</v>
+      </c>
+      <c r="Q231">
+        <v>0.5</v>
+      </c>
+      <c r="R231">
+        <v>1.85</v>
+      </c>
+      <c r="S231">
+        <v>1.95</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
+        <v>1.975</v>
+      </c>
+      <c r="V231">
+        <v>1.825</v>
+      </c>
+      <c r="W231">
+        <v>2.5</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA231">
+        <v>-1</v>
+      </c>
+      <c r="AB231">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC231">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>7783780</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45367.66666666666</v>
+      </c>
+      <c r="F232" t="s">
+        <v>42</v>
+      </c>
+      <c r="G232" t="s">
+        <v>43</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232" t="s">
+        <v>49</v>
+      </c>
+      <c r="K232">
+        <v>2.1</v>
+      </c>
+      <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
         <v>3.1</v>
       </c>
-      <c r="P226">
+      <c r="N232">
+        <v>1.8</v>
+      </c>
+      <c r="O232">
+        <v>3.5</v>
+      </c>
+      <c r="P232">
+        <v>3.8</v>
+      </c>
+      <c r="Q232">
+        <v>-0.5</v>
+      </c>
+      <c r="R232">
+        <v>1.825</v>
+      </c>
+      <c r="S232">
+        <v>1.975</v>
+      </c>
+      <c r="T232">
+        <v>2</v>
+      </c>
+      <c r="U232">
+        <v>1.9</v>
+      </c>
+      <c r="V232">
+        <v>1.9</v>
+      </c>
+      <c r="W232">
+        <v>-1</v>
+      </c>
+      <c r="X232">
+        <v>2.5</v>
+      </c>
+      <c r="Y232">
+        <v>-1</v>
+      </c>
+      <c r="Z232">
+        <v>-1</v>
+      </c>
+      <c r="AA232">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>7784105</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45368.64583333334</v>
+      </c>
+      <c r="F233" t="s">
+        <v>38</v>
+      </c>
+      <c r="G233" t="s">
+        <v>37</v>
+      </c>
+      <c r="K233">
+        <v>2.75</v>
+      </c>
+      <c r="L233">
+        <v>3.2</v>
+      </c>
+      <c r="M233">
         <v>2.3</v>
       </c>
-      <c r="Q226">
-        <v>0.25</v>
-      </c>
-      <c r="R226">
-        <v>1.75</v>
-      </c>
-      <c r="S226">
-        <v>2.05</v>
-      </c>
-      <c r="T226">
-        <v>2</v>
-      </c>
-      <c r="U226">
-        <v>1.8</v>
-      </c>
-      <c r="V226">
-        <v>2</v>
-      </c>
-      <c r="W226">
-        <v>-1</v>
-      </c>
-      <c r="X226">
-        <v>2.1</v>
-      </c>
-      <c r="Y226">
-        <v>-1</v>
-      </c>
-      <c r="Z226">
-        <v>0.375</v>
-      </c>
-      <c r="AA226">
-        <v>-0.5</v>
-      </c>
-      <c r="AB226">
-        <v>0</v>
-      </c>
-      <c r="AC226">
-        <v>-0</v>
+      <c r="N233">
+        <v>2.7</v>
+      </c>
+      <c r="O233">
+        <v>3.2</v>
+      </c>
+      <c r="P233">
+        <v>2.375</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>2.025</v>
+      </c>
+      <c r="S233">
+        <v>1.775</v>
+      </c>
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>1.975</v>
+      </c>
+      <c r="V233">
+        <v>1.825</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>7784104</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45368.64583333334</v>
+      </c>
+      <c r="F234" t="s">
+        <v>41</v>
+      </c>
+      <c r="G234" t="s">
+        <v>29</v>
+      </c>
+      <c r="K234">
+        <v>4.5</v>
+      </c>
+      <c r="L234">
+        <v>3.75</v>
+      </c>
+      <c r="M234">
+        <v>1.6</v>
+      </c>
+      <c r="N234">
+        <v>4.5</v>
+      </c>
+      <c r="O234">
+        <v>3.8</v>
+      </c>
+      <c r="P234">
+        <v>1.571</v>
+      </c>
+      <c r="Q234">
+        <v>1</v>
+      </c>
+      <c r="R234">
+        <v>1.775</v>
+      </c>
+      <c r="S234">
+        <v>2.025</v>
+      </c>
+      <c r="T234">
+        <v>2.5</v>
+      </c>
+      <c r="U234">
+        <v>1.95</v>
+      </c>
+      <c r="V234">
+        <v>1.85</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>7783781</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45368.6875</v>
+      </c>
+      <c r="F235" t="s">
+        <v>46</v>
+      </c>
+      <c r="G235" t="s">
+        <v>31</v>
+      </c>
+      <c r="K235">
+        <v>2.7</v>
+      </c>
+      <c r="L235">
+        <v>3.25</v>
+      </c>
+      <c r="M235">
+        <v>2.3</v>
+      </c>
+      <c r="N235">
+        <v>2.5</v>
+      </c>
+      <c r="O235">
+        <v>3.3</v>
+      </c>
+      <c r="P235">
+        <v>2.4</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>1.95</v>
+      </c>
+      <c r="S235">
+        <v>1.85</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>1.85</v>
+      </c>
+      <c r="V235">
+        <v>1.95</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Saudi Arabia Division 1</t>
   </si>
   <si>
-    <t>Al Jabalain</t>
+    <t>Al Orubah</t>
   </si>
   <si>
-    <t>Al Orubah</t>
+    <t>Al Jabalain</t>
   </si>
   <si>
     <t>Al Najma</t>
@@ -121,10 +121,10 @@
     <t>Hajer</t>
   </si>
   <si>
-    <t>Al Batin</t>
+    <t>AlBukayriyah FC</t>
   </si>
   <si>
-    <t>AlBukayriyah FC</t>
+    <t>Al Batin</t>
   </si>
   <si>
     <t>AlArabi AlSaudi</t>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6990923</v>
+        <v>6991273</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -640,10 +640,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -652,43 +652,43 @@
         <v>48</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N2">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O2">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
         <v>2</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W2">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -697,16 +697,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6991273</v>
+        <v>6990923</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -729,10 +729,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -741,43 +741,43 @@
         <v>48</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
+        <v>2.55</v>
+      </c>
+      <c r="O3">
+        <v>2.7</v>
+      </c>
+      <c r="P3">
+        <v>2.9</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.85</v>
+      </c>
+      <c r="S3">
         <v>1.95</v>
       </c>
-      <c r="O3">
-        <v>3.2</v>
-      </c>
-      <c r="P3">
-        <v>3.6</v>
-      </c>
-      <c r="Q3">
-        <v>-0.5</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
         <v>1.8</v>
       </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1.775</v>
-      </c>
-      <c r="V3">
-        <v>2.025</v>
-      </c>
       <c r="W3">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -786,16 +786,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6991309</v>
+        <v>7072440</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1186,43 +1186,43 @@
         <v>48</v>
       </c>
       <c r="K8">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N8">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W8">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1231,16 +1231,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7072440</v>
+        <v>6991309</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,10 +1263,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1275,61 +1275,61 @@
         <v>48</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W9">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
         <v>0.8</v>
       </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>0.825</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-0.5</v>
-      </c>
       <c r="AC9">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1441,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6991277</v>
+        <v>6991276</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,13 +2239,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2254,43 +2254,43 @@
         <v>48</v>
       </c>
       <c r="K20">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
         <v>1.8</v>
       </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
       <c r="W20">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2299,16 +2299,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6991276</v>
+        <v>6991277</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,13 +2328,13 @@
         <v>45164.54513888889</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2343,43 +2343,43 @@
         <v>48</v>
       </c>
       <c r="K21">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <v>1.8</v>
       </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2388,16 +2388,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6991279</v>
+        <v>6991313</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,58 +2506,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
         <v>2.875</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6991313</v>
+        <v>6991279</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,58 +2595,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
         <v>2.875</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2655,16 +2655,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2773,7 +2773,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -2862,7 +2862,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2951,7 +2951,7 @@
         <v>45166.61111111111</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -3028,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6991415</v>
+        <v>6991315</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3040,13 +3040,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -3055,43 +3055,43 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3100,13 +3100,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6991315</v>
+        <v>6991415</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,13 +3129,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -3144,43 +3144,43 @@
         <v>48</v>
       </c>
       <c r="K30">
+        <v>2.4</v>
+      </c>
+      <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>2.6</v>
+      </c>
+      <c r="N30">
+        <v>2.3</v>
+      </c>
+      <c r="O30">
+        <v>3.2</v>
+      </c>
+      <c r="P30">
         <v>2.75</v>
       </c>
-      <c r="L30">
-        <v>3.25</v>
-      </c>
-      <c r="M30">
-        <v>2.25</v>
-      </c>
-      <c r="N30">
-        <v>2.75</v>
-      </c>
-      <c r="O30">
-        <v>3.25</v>
-      </c>
-      <c r="P30">
-        <v>2.25</v>
-      </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
+        <v>1.775</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
         <v>1.8</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3189,13 +3189,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>1.025</v>
+      </c>
+      <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.8</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>3.3</v>
+      </c>
+      <c r="L32">
+        <v>3.1</v>
+      </c>
+      <c r="M32">
+        <v>2.05</v>
+      </c>
+      <c r="N32">
+        <v>5.5</v>
+      </c>
+      <c r="O32">
+        <v>3.5</v>
+      </c>
+      <c r="P32">
+        <v>1.571</v>
+      </c>
+      <c r="Q32">
+        <v>0.75</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1.8</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>2.025</v>
+      </c>
+      <c r="V32">
+        <v>1.775</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>2.5</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32">
-        <v>2.6</v>
-      </c>
-      <c r="L32">
-        <v>2.875</v>
-      </c>
-      <c r="M32">
-        <v>2.625</v>
-      </c>
-      <c r="N32">
-        <v>2.55</v>
-      </c>
-      <c r="O32">
-        <v>2.875</v>
-      </c>
-      <c r="P32">
-        <v>2.7</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.8</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>1.7</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
       <c r="AA32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>2.6</v>
+      </c>
+      <c r="L33">
+        <v>2.875</v>
+      </c>
+      <c r="M33">
+        <v>2.625</v>
+      </c>
+      <c r="N33">
+        <v>2.55</v>
+      </c>
+      <c r="O33">
+        <v>2.875</v>
+      </c>
+      <c r="P33">
+        <v>2.7</v>
+      </c>
+      <c r="Q33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33">
-        <v>3.3</v>
-      </c>
-      <c r="L33">
-        <v>3.1</v>
-      </c>
-      <c r="M33">
-        <v>2.05</v>
-      </c>
-      <c r="N33">
-        <v>5.5</v>
-      </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
-      <c r="P33">
-        <v>1.571</v>
-      </c>
-      <c r="Q33">
-        <v>0.75</v>
-      </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
         <v>1.8</v>
       </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
-      <c r="U33">
-        <v>2.025</v>
-      </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3488,7 +3488,7 @@
         <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6991416</v>
+        <v>6991320</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,58 +3574,58 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>1.533</v>
+      </c>
+      <c r="O35">
         <v>3.6</v>
       </c>
-      <c r="N35">
-        <v>1.95</v>
-      </c>
-      <c r="O35">
-        <v>3</v>
-      </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
         <v>1.8</v>
       </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
       <c r="W35">
-        <v>0.95</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3634,13 +3634,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6991320</v>
+        <v>6991416</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,58 +3663,58 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
       <c r="K36">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>0.5329999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3723,13 +3723,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3752,7 +3752,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -4019,7 +4019,7 @@
         <v>45183.53125</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4108,10 +4108,10 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6991322</v>
+        <v>6991418</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O44">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
         <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6991418</v>
+        <v>6991322</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,76 +4464,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45188.52430555555</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>42</v>
@@ -4731,7 +4731,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,55 +4820,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>50</v>
       </c>
       <c r="K49">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M49">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N49">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P49">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4877,19 +4877,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,55 +4909,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>50</v>
       </c>
       <c r="K50">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L50">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O50">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4966,19 +4966,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5446,7 +5446,7 @@
         <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5888,7 +5888,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>45203.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62">
+        <v>5.5</v>
+      </c>
+      <c r="L62">
+        <v>3.75</v>
+      </c>
+      <c r="M62">
+        <v>1.5</v>
+      </c>
+      <c r="N62">
+        <v>4.5</v>
+      </c>
+      <c r="O62">
+        <v>3.5</v>
+      </c>
+      <c r="P62">
+        <v>1.615</v>
+      </c>
+      <c r="Q62">
+        <v>0.75</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>1.8</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>1.9</v>
+      </c>
+      <c r="V62">
+        <v>1.9</v>
+      </c>
+      <c r="W62">
+        <v>3.5</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>-1</v>
+      </c>
+      <c r="Z62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>50</v>
-      </c>
-      <c r="K62">
-        <v>2.1</v>
-      </c>
-      <c r="L62">
-        <v>3</v>
-      </c>
-      <c r="M62">
-        <v>3.25</v>
-      </c>
-      <c r="N62">
-        <v>2</v>
-      </c>
-      <c r="O62">
-        <v>3</v>
-      </c>
-      <c r="P62">
-        <v>3.8</v>
-      </c>
-      <c r="Q62">
-        <v>-0.25</v>
-      </c>
-      <c r="R62">
-        <v>1.775</v>
-      </c>
-      <c r="S62">
-        <v>2.025</v>
-      </c>
-      <c r="T62">
-        <v>2</v>
-      </c>
-      <c r="U62">
-        <v>1.725</v>
-      </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>2.8</v>
-      </c>
-      <c r="Z62">
-        <v>-1</v>
-      </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>45203.5</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63">
+        <v>2.1</v>
+      </c>
+      <c r="L63">
         <v>3</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>48</v>
-      </c>
-      <c r="K63">
-        <v>5.5</v>
-      </c>
-      <c r="L63">
-        <v>3.75</v>
-      </c>
       <c r="M63">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N63">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6158,7 +6158,7 @@
         <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6991344</v>
+        <v>6991345</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,40 +6244,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K65">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="N65">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O65">
         <v>3.4</v>
       </c>
       <c r="P65">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
         <v>1.75</v>
@@ -6289,31 +6289,31 @@
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA65">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6991345</v>
+        <v>6991344</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,40 +6333,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K66">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="N66">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O66">
         <v>3.4</v>
       </c>
       <c r="P66">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
         <v>1.75</v>
@@ -6378,31 +6378,31 @@
         <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z66">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>45222.57638888889</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6991422</v>
+        <v>6991347</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,76 +6511,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L68">
+        <v>4.75</v>
+      </c>
+      <c r="M68">
+        <v>9</v>
+      </c>
+      <c r="N68">
+        <v>1.55</v>
+      </c>
+      <c r="O68">
         <v>3.75</v>
       </c>
-      <c r="M68">
-        <v>4.333</v>
-      </c>
-      <c r="N68">
-        <v>1.75</v>
-      </c>
-      <c r="O68">
-        <v>3.5</v>
-      </c>
       <c r="P68">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6991347</v>
+        <v>6991422</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,76 +6600,76 @@
         <v>45223.50347222222</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L69">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N69">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6991424</v>
+        <v>6991423</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,73 +6778,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6855,7 +6855,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6991423</v>
+        <v>6991424</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6867,73 +6867,73 @@
         <v>45224.48611111111</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M72">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N72">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7045,10 +7045,10 @@
         <v>45229.38194444445</v>
       </c>
       <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
         <v>35</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -7579,7 +7579,7 @@
         <v>45231.5</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>41</v>
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6991427</v>
+        <v>6991357</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,19 +7668,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2.75</v>
@@ -7692,52 +7692,52 @@
         <v>2.4</v>
       </c>
       <c r="N81">
+        <v>3.2</v>
+      </c>
+      <c r="O81">
+        <v>3.1</v>
+      </c>
+      <c r="P81">
         <v>2.15</v>
       </c>
-      <c r="O81">
-        <v>3.2</v>
-      </c>
-      <c r="P81">
-        <v>3.25</v>
-      </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6991357</v>
+        <v>6991427</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7757,19 +7757,19 @@
         <v>45236.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.75</v>
@@ -7781,52 +7781,52 @@
         <v>2.4</v>
       </c>
       <c r="N82">
+        <v>2.15</v>
+      </c>
+      <c r="O82">
         <v>3.2</v>
       </c>
-      <c r="O82">
-        <v>3.1</v>
-      </c>
       <c r="P82">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X82">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>45236.5625</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -8116,7 +8116,7 @@
         <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>45257.38541666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -9181,7 +9181,7 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
         <v>31</v>
@@ -9270,7 +9270,7 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9362,7 +9362,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9718,7 +9718,7 @@
         <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9985,7 +9985,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10071,7 +10071,7 @@
         <v>45266.38194444445</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>41</v>
@@ -10338,10 +10338,10 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10519,7 +10519,7 @@
         <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6991382</v>
+        <v>6991381</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,56 +10694,56 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J115" t="s">
         <v>50</v>
       </c>
       <c r="K115">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L115">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
+        <v>1.825</v>
+      </c>
+      <c r="S115">
+        <v>1.975</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
         <v>1.8</v>
       </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.925</v>
-      </c>
-      <c r="V115">
-        <v>1.875</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
@@ -10751,19 +10751,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>3</v>
+        <v>0.909</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB115">
         <v>1</v>
       </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6991381</v>
+        <v>6991382</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,55 +10783,55 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>50</v>
       </c>
       <c r="K116">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10840,19 +10840,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.909</v>
+        <v>3</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>45278.38194444445</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11320,7 +11320,7 @@
         <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11584,7 +11584,7 @@
         <v>45280.38888888889</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>38</v>
@@ -11676,7 +11676,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11851,7 +11851,7 @@
         <v>45285.38541666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
         <v>39</v>
@@ -12296,7 +12296,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>44</v>
@@ -12474,10 +12474,10 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13189,7 +13189,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13275,10 +13275,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F144" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" t="s">
         <v>29</v>
-      </c>
-      <c r="G144" t="s">
-        <v>30</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K146">
         <v>2.4</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P146">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z146">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y147">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13809,10 +13809,10 @@
         <v>45300.38541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -14076,7 +14076,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>37</v>
@@ -14165,7 +14165,7 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14435,7 +14435,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14702,7 +14702,7 @@
         <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14791,7 +14791,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14880,7 +14880,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15055,7 +15055,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15322,7 +15322,7 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>45</v>
@@ -15411,7 +15411,7 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>43</v>
@@ -15500,7 +15500,7 @@
         <v>45322.39930555555</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7674257</v>
+        <v>7674258</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,40 +15767,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
         <v>0</v>
       </c>
-      <c r="I172">
-        <v>3</v>
-      </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L172">
+        <v>3.25</v>
+      </c>
+      <c r="M172">
+        <v>4</v>
+      </c>
+      <c r="N172">
+        <v>1.909</v>
+      </c>
+      <c r="O172">
         <v>3.1</v>
       </c>
-      <c r="M172">
-        <v>2.2</v>
-      </c>
-      <c r="N172">
-        <v>2.7</v>
-      </c>
-      <c r="O172">
-        <v>3</v>
-      </c>
       <c r="P172">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
         <v>1.95</v>
@@ -15809,34 +15809,34 @@
         <v>1.85</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
         <v>1.85</v>
       </c>
-      <c r="V172">
-        <v>1.95</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB172">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7674258</v>
+        <v>7674257</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,40 +15856,40 @@
         <v>45327.42013888889</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173" t="s">
+        <v>50</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>3.1</v>
+      </c>
+      <c r="M173">
+        <v>2.2</v>
+      </c>
+      <c r="N173">
+        <v>2.7</v>
+      </c>
+      <c r="O173">
+        <v>3</v>
+      </c>
+      <c r="P173">
+        <v>2.5</v>
+      </c>
+      <c r="Q173">
         <v>0</v>
-      </c>
-      <c r="J173" t="s">
-        <v>48</v>
-      </c>
-      <c r="K173">
-        <v>1.8</v>
-      </c>
-      <c r="L173">
-        <v>3.25</v>
-      </c>
-      <c r="M173">
-        <v>4</v>
-      </c>
-      <c r="N173">
-        <v>1.909</v>
-      </c>
-      <c r="O173">
-        <v>3.1</v>
-      </c>
-      <c r="P173">
-        <v>3.8</v>
-      </c>
-      <c r="Q173">
-        <v>-0.5</v>
       </c>
       <c r="R173">
         <v>1.95</v>
@@ -15898,34 +15898,34 @@
         <v>1.85</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
         <v>1.95</v>
       </c>
-      <c r="V173">
-        <v>1.85</v>
-      </c>
       <c r="W173">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>45328.40277777778</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
         <v>33</v>
@@ -16215,7 +16215,7 @@
         <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16304,7 +16304,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16556,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7712413</v>
+        <v>7712412</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16568,40 +16568,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M181">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N181">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O181">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P181">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q181">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R181">
         <v>1.975</v>
@@ -16610,34 +16610,34 @@
         <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z181">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7712412</v>
+        <v>7712413</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,40 +16657,40 @@
         <v>45334.39930555555</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K182">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L182">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N182">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O182">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q182">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R182">
         <v>1.975</v>
@@ -16699,34 +16699,34 @@
         <v>1.825</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16835,7 +16835,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
         <v>42</v>
@@ -17102,7 +17102,7 @@
         <v>45336.41319444445</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>46</v>
@@ -17194,7 +17194,7 @@
         <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17446,7 +17446,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7712421</v>
+        <v>7712422</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17458,76 +17458,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L191">
+        <v>3.2</v>
+      </c>
+      <c r="M191">
+        <v>3.6</v>
+      </c>
+      <c r="N191">
+        <v>2.05</v>
+      </c>
+      <c r="O191">
+        <v>3.25</v>
+      </c>
+      <c r="P191">
         <v>3.1</v>
       </c>
-      <c r="M191">
-        <v>3.4</v>
-      </c>
-      <c r="N191">
-        <v>2.8</v>
-      </c>
-      <c r="O191">
-        <v>2.875</v>
-      </c>
-      <c r="P191">
-        <v>2.55</v>
-      </c>
       <c r="Q191">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
+        <v>1.8</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>2.25</v>
+      </c>
+      <c r="U191">
         <v>2.025</v>
       </c>
-      <c r="S191">
+      <c r="V191">
         <v>1.775</v>
       </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.975</v>
-      </c>
-      <c r="V191">
-        <v>1.825</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA191">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17535,7 +17535,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7712422</v>
+        <v>7712421</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17547,76 +17547,76 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>49</v>
       </c>
       <c r="K192">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L192">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M192">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N192">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O192">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P192">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA192">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB192">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17992,10 +17992,10 @@
         <v>45343.40625</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18084,7 +18084,7 @@
         <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18440,7 +18440,7 @@
         <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18526,7 +18526,7 @@
         <v>45349.41319444445</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18885,7 +18885,7 @@
         <v>42</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -18974,7 +18974,7 @@
         <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19048,7 +19048,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7783762</v>
+        <v>7784086</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19060,73 +19060,73 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H209">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K209">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N209">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W209">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB209">
-        <v>0.7250000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19137,7 +19137,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7784086</v>
+        <v>7783762</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19149,73 +19149,73 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K210">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L210">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M210">
+        <v>4</v>
+      </c>
+      <c r="N210">
+        <v>1.8</v>
+      </c>
+      <c r="O210">
+        <v>3.2</v>
+      </c>
+      <c r="P210">
+        <v>4</v>
+      </c>
+      <c r="Q210">
+        <v>-0.5</v>
+      </c>
+      <c r="R210">
+        <v>1.85</v>
+      </c>
+      <c r="S210">
         <v>1.95</v>
       </c>
-      <c r="N210">
-        <v>4.5</v>
-      </c>
-      <c r="O210">
-        <v>3.3</v>
-      </c>
-      <c r="P210">
-        <v>1.7</v>
-      </c>
-      <c r="Q210">
-        <v>0.5</v>
-      </c>
-      <c r="R210">
-        <v>2.025</v>
-      </c>
-      <c r="S210">
-        <v>1.775</v>
-      </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="V210">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>1.025</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19327,7 +19327,7 @@
         <v>45355.42361111111</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
         <v>45</v>
@@ -19683,7 +19683,7 @@
         <v>45356.40972222222</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
         <v>46</v>
@@ -19849,7 +19849,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7784092</v>
+        <v>7784093</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19861,76 +19861,76 @@
         <v>45360.42361111111</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>3.25</v>
+      </c>
+      <c r="M218">
+        <v>3.25</v>
+      </c>
+      <c r="N218">
+        <v>1.533</v>
+      </c>
+      <c r="O218">
+        <v>3.8</v>
+      </c>
+      <c r="P218">
+        <v>5.25</v>
+      </c>
+      <c r="Q218">
+        <v>-1</v>
+      </c>
+      <c r="R218">
+        <v>1.975</v>
+      </c>
+      <c r="S218">
+        <v>1.825</v>
+      </c>
+      <c r="T218">
         <v>2.25</v>
       </c>
-      <c r="L218">
-        <v>3</v>
-      </c>
-      <c r="M218">
-        <v>3</v>
-      </c>
-      <c r="N218">
-        <v>2.25</v>
-      </c>
-      <c r="O218">
-        <v>3.2</v>
-      </c>
-      <c r="P218">
-        <v>2.8</v>
-      </c>
-      <c r="Q218">
-        <v>-0.25</v>
-      </c>
-      <c r="R218">
-        <v>2.025</v>
-      </c>
-      <c r="S218">
-        <v>1.775</v>
-      </c>
-      <c r="T218">
-        <v>2.5</v>
-      </c>
       <c r="U218">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA218">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB218">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19938,7 +19938,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7784093</v>
+        <v>7784092</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19950,76 +19950,76 @@
         <v>45360.42361111111</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K219">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L219">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M219">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N219">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O219">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P219">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q219">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W219">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC219">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7783763</v>
+        <v>7784095</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,7 +20128,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
         <v>36</v>
@@ -20137,37 +20137,37 @@
         <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K221">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L221">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M221">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N221">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="O221">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
+        <v>1.725</v>
+      </c>
+      <c r="S221">
         <v>1.975</v>
-      </c>
-      <c r="S221">
-        <v>1.825</v>
       </c>
       <c r="T221">
         <v>2.25</v>
@@ -20179,25 +20179,25 @@
         <v>2</v>
       </c>
       <c r="W221">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA221">
-        <v>-1</v>
-      </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20205,7 +20205,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7784095</v>
+        <v>7783763</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20217,7 +20217,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G222" t="s">
         <v>35</v>
@@ -20226,37 +20226,37 @@
         <v>1</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L222">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M222">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N222">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P222">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S222">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T222">
         <v>2.25</v>
@@ -20268,25 +20268,25 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G223" t="s">
         <v>44</v>
@@ -20472,7 +20472,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7783779</v>
+        <v>7784097</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20484,76 +20484,76 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H225">
         <v>1</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L225">
         <v>3</v>
       </c>
       <c r="M225">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="N225">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O225">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P225">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R225">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
         <v>1.8</v>
       </c>
-      <c r="V225">
-        <v>2</v>
-      </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z225">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC225">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20561,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7784097</v>
+        <v>7783779</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20573,76 +20573,76 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H226">
         <v>1</v>
       </c>
       <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>49</v>
+      </c>
+      <c r="K226">
         <v>3</v>
-      </c>
-      <c r="J226" t="s">
-        <v>50</v>
-      </c>
-      <c r="K226">
-        <v>4</v>
       </c>
       <c r="L226">
         <v>3</v>
       </c>
       <c r="M226">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="N226">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O226">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
+        <v>2.3</v>
+      </c>
+      <c r="Q226">
+        <v>0.25</v>
+      </c>
+      <c r="R226">
+        <v>1.75</v>
+      </c>
+      <c r="S226">
+        <v>2.05</v>
+      </c>
+      <c r="T226">
+        <v>2</v>
+      </c>
+      <c r="U226">
         <v>1.8</v>
       </c>
-      <c r="Q226">
-        <v>0.5</v>
-      </c>
-      <c r="R226">
-        <v>1.975</v>
-      </c>
-      <c r="S226">
-        <v>1.825</v>
-      </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>2</v>
-      </c>
       <c r="V226">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA226">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20665,7 +20665,7 @@
         <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -20751,10 +20751,10 @@
         <v>45366.65625</v>
       </c>
       <c r="F228" t="s">
+        <v>35</v>
+      </c>
+      <c r="G228" t="s">
         <v>36</v>
-      </c>
-      <c r="G228" t="s">
-        <v>35</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7784103</v>
+        <v>7784102</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,10 +20929,10 @@
         <v>45367.64583333334</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H230">
         <v>3</v>
@@ -20944,43 +20944,43 @@
         <v>48</v>
       </c>
       <c r="K230">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L230">
         <v>3.2</v>
       </c>
       <c r="M230">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N230">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O230">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S230">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20989,13 +20989,13 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21006,7 +21006,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7784102</v>
+        <v>7784103</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21018,10 +21018,10 @@
         <v>45367.64583333334</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H231">
         <v>3</v>
@@ -21033,43 +21033,43 @@
         <v>48</v>
       </c>
       <c r="K231">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L231">
         <v>3.2</v>
       </c>
       <c r="M231">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N231">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O231">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P231">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q231">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21078,13 +21078,13 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21184,7 +21184,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7784105</v>
+        <v>7784104</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21196,61 +21196,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233" t="s">
+        <v>49</v>
       </c>
       <c r="K233">
+        <v>4.5</v>
+      </c>
+      <c r="L233">
+        <v>3.75</v>
+      </c>
+      <c r="M233">
+        <v>1.6</v>
+      </c>
+      <c r="N233">
+        <v>4.333</v>
+      </c>
+      <c r="O233">
+        <v>4</v>
+      </c>
+      <c r="P233">
+        <v>1.571</v>
+      </c>
+      <c r="Q233">
+        <v>0.75</v>
+      </c>
+      <c r="R233">
+        <v>1.95</v>
+      </c>
+      <c r="S233">
+        <v>1.75</v>
+      </c>
+      <c r="T233">
         <v>2.75</v>
       </c>
-      <c r="L233">
-        <v>3.2</v>
-      </c>
-      <c r="M233">
-        <v>2.3</v>
-      </c>
-      <c r="N233">
-        <v>2.7</v>
-      </c>
-      <c r="O233">
-        <v>3.2</v>
-      </c>
-      <c r="P233">
-        <v>2.375</v>
-      </c>
-      <c r="Q233">
-        <v>0</v>
-      </c>
-      <c r="R233">
-        <v>2.025</v>
-      </c>
-      <c r="S233">
-        <v>1.775</v>
-      </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>0.95</v>
+      </c>
+      <c r="AC233">
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21258,7 +21273,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7784104</v>
+        <v>7784105</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21270,61 +21285,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>49</v>
       </c>
       <c r="K234">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="L234">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M234">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="N234">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O234">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P234">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="Q234">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S234">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T234">
         <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V234">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA234">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB234">
+        <v>1</v>
+      </c>
+      <c r="AC234">
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21349,6 +21379,15 @@
       <c r="G235" t="s">
         <v>31</v>
       </c>
+      <c r="H235">
+        <v>2</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>48</v>
+      </c>
       <c r="K235">
         <v>2.7</v>
       </c>
@@ -21359,46 +21398,52 @@
         <v>2.3</v>
       </c>
       <c r="N235">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O235">
         <v>3.3</v>
       </c>
       <c r="P235">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q235">
         <v>0</v>
       </c>
       <c r="R235">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA235">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB235">
+        <v>0.45</v>
+      </c>
+      <c r="AC235">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
+++ b/Saudi Arabia Division 1/Saudi Arabia Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Saudi Arabia Division 1</t>
   </si>
   <si>
-    <t>Al Orubah</t>
+    <t>Al Jabalain</t>
   </si>
   <si>
-    <t>Al Jabalain</t>
+    <t>Al Orubah</t>
   </si>
   <si>
     <t>Al Najma</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC235"/>
+  <dimension ref="A1:AC244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6991273</v>
+        <v>6990923</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -640,10 +640,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -652,43 +652,43 @@
         <v>48</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N2">
+        <v>2.55</v>
+      </c>
+      <c r="O2">
+        <v>2.7</v>
+      </c>
+      <c r="P2">
+        <v>2.9</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.85</v>
+      </c>
+      <c r="S2">
         <v>1.95</v>
       </c>
-      <c r="O2">
-        <v>3.2</v>
-      </c>
-      <c r="P2">
-        <v>3.6</v>
-      </c>
-      <c r="Q2">
-        <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1.8</v>
       </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>1.775</v>
-      </c>
-      <c r="V2">
-        <v>2.025</v>
-      </c>
       <c r="W2">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -697,16 +697,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6990923</v>
+        <v>6991273</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -729,10 +729,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -741,43 +741,43 @@
         <v>48</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O3">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
         <v>2</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -786,16 +786,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1441,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2153,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6991313</v>
+        <v>6991279</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,58 +2506,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
         <v>2.875</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>2.25</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6991279</v>
+        <v>6991313</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,58 +2595,58 @@
         <v>45165.53125</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
         <v>2.875</v>
       </c>
       <c r="N24">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2655,16 +2655,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2773,7 +2773,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -2862,7 +2862,7 @@
         <v>45166.55555555555</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -3028,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6991315</v>
+        <v>6991415</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3040,13 +3040,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -3055,43 +3055,43 @@
         <v>48</v>
       </c>
       <c r="K29">
+        <v>2.4</v>
+      </c>
+      <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>2.6</v>
+      </c>
+      <c r="N29">
+        <v>2.3</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
         <v>2.75</v>
       </c>
-      <c r="L29">
-        <v>3.25</v>
-      </c>
-      <c r="M29">
-        <v>2.25</v>
-      </c>
-      <c r="N29">
-        <v>2.75</v>
-      </c>
-      <c r="O29">
-        <v>3.25</v>
-      </c>
-      <c r="P29">
-        <v>2.25</v>
-      </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
+        <v>2.025</v>
+      </c>
+      <c r="S29">
+        <v>1.775</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>1.8</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>2.25</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3100,13 +3100,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
+        <v>1.025</v>
+      </c>
+      <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
         <v>0.8</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6991415</v>
+        <v>6991315</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,13 +3129,13 @@
         <v>45170.52430555555</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -3144,43 +3144,43 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N30">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3189,13 +3189,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6991317</v>
+        <v>6991318</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L32">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M32">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N32">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P32">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.8</v>
       </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>2.025</v>
-      </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC32">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6991318</v>
+        <v>6991317</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33">
+        <v>3.3</v>
+      </c>
+      <c r="L33">
+        <v>3.1</v>
+      </c>
+      <c r="M33">
+        <v>2.05</v>
+      </c>
+      <c r="N33">
+        <v>5.5</v>
+      </c>
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
+        <v>1.571</v>
+      </c>
+      <c r="Q33">
+        <v>0.75</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>2.025</v>
+      </c>
+      <c r="V33">
+        <v>1.775</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>2.5</v>
+      </c>
+      <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33">
-        <v>2.6</v>
-      </c>
-      <c r="L33">
-        <v>2.875</v>
-      </c>
-      <c r="M33">
-        <v>2.625</v>
-      </c>
-      <c r="N33">
-        <v>2.55</v>
-      </c>
-      <c r="O33">
-        <v>2.875</v>
-      </c>
-      <c r="P33">
-        <v>2.7</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.85</v>
-      </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.8</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>1.7</v>
-      </c>
-      <c r="Z33">
-        <v>-1</v>
-      </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3663,7 +3663,7 @@
         <v>45172.54513888889</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -4108,7 +4108,7 @@
         <v>45183.54513888889</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -4200,7 +4200,7 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6991418</v>
+        <v>6991322</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O44">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6991322</v>
+        <v>6991418</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,76 +4464,76 @@
         <v>45184.53125</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
         <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>45188.53472222222</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6991329</v>
+        <v>6991333</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,55 +4820,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>50</v>
       </c>
       <c r="K49">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="L49">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N49">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O49">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4877,19 +4877,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6991333</v>
+        <v>6991329</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,55 +4909,55 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>50</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N50">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P50">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4966,19 +4966,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5354,7 +5354,7 @@
         <v>45190.53819444445</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5446,7 +5446,7 @@
         <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7291339</v>
+        <v>6991339</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5710,76 +5710,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>1.65</v>
+        <v>1.952</v>
       </c>
       <c r="L59">
+        <v>3.2</v>
+      </c>
+      <c r="M59">
+        <v>3.4</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>3.2</v>
+      </c>
+      <c r="P59">
         <v>3.3</v>
       </c>
-      <c r="M59">
-        <v>4.75</v>
-      </c>
-      <c r="N59">
-        <v>1.6</v>
-      </c>
-      <c r="O59">
-        <v>3.4</v>
-      </c>
-      <c r="P59">
-        <v>5</v>
-      </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1.725</v>
+      </c>
+      <c r="V59">
         <v>1.975</v>
       </c>
-      <c r="T59">
-        <v>2.25</v>
-      </c>
-      <c r="U59">
-        <v>1.975</v>
-      </c>
-      <c r="V59">
-        <v>1.825</v>
-      </c>
       <c r="W59">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6991339</v>
+        <v>7291339</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5799,76 +5799,76 @@
         <v>45202.52430555555</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60">
-        <v>1.952</v>
+        <v>1.65</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
+        <v>4.75</v>
+      </c>
+      <c r="N60">
+        <v>1.6</v>
+      </c>
+      <c r="O60">
         <v>3.4</v>
       </c>
-      <c r="N60">
-        <v>2</v>
-      </c>
-      <c r="O60">
-        <v>3.2</v>
-      </c>
       <c r="P60">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X60">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA60">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6991342</v>
+        <v>6991421</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>45203.5</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="L62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62">
-        <v>5.5</v>
-      </c>
-      <c r="L62">
-        <v>3.75</v>
-      </c>
       <c r="M62">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N62">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q62">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6991421</v>
+        <v>6991342</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>45203.5</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63">
+        <v>5.5</v>
+      </c>
+      <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>1.5</v>
+      </c>
+      <c r="N63">
+        <v>4.5</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>1.615</v>
+      </c>
+      <c r="Q63">
+        <v>0.75</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.9</v>
+      </c>
+      <c r="V63">
+        <v>1.9</v>
+      </c>
+      <c r="W63">
+        <v>3.5</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63">
-        <v>2.1</v>
-      </c>
-      <c r="L63">
-        <v>3</v>
-      </c>
-      <c r="M63">
-        <v>3.25</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-      <c r="O63">
-        <v>3</v>
-      </c>
-      <c r="P63">
-        <v>3.8</v>
-      </c>
-      <c r="Q63">
-        <v>-0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.775</v>
-      </c>
-      <c r="S63">
-        <v>2.025</v>
-      </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.725</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>2.8</v>
-      </c>
-      <c r="Z63">
-        <v>-1</v>
-      </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6991345</v>
+        <v>6991344</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,40 +6244,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K65">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="N65">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="O65">
         <v>3.4</v>
       </c>
       <c r="P65">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
         <v>1.75</v>
@@ -6289,31 +6289,31 @@
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6991344</v>
+        <v>6991345</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,40 +6333,40 @@
         <v>45222.48611111111</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L66">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="N66">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="O66">
         <v>3.4</v>
       </c>
       <c r="P66">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
         <v>1.75</v>
@@ -6378,31 +6378,31 @@
         <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA66">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -7490,7 +7490,7 @@
         <v>45231.39930555555</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -7579,7 +7579,7 @@
         <v>45231.5</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
         <v>41</v>
@@ -8116,7 +8116,7 @@
         <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>31</v>
@@ -9270,7 +9270,7 @@
         <v>45259.38888888889</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6991433</v>
+        <v>6991372</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
+        <v>1.363</v>
+      </c>
+      <c r="N104">
+        <v>4.333</v>
+      </c>
+      <c r="O104">
+        <v>3.8</v>
+      </c>
+      <c r="P104">
+        <v>1.65</v>
+      </c>
+      <c r="Q104">
+        <v>0.75</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
         <v>2.5</v>
       </c>
-      <c r="N104">
-        <v>2.875</v>
-      </c>
-      <c r="O104">
-        <v>3.1</v>
-      </c>
-      <c r="P104">
-        <v>2.4</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>2.05</v>
-      </c>
-      <c r="S104">
-        <v>1.75</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6991372</v>
+        <v>6991433</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,76 +9804,76 @@
         <v>45265.38888888889</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="Q105">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>1.75</v>
+      </c>
+      <c r="T105">
+        <v>2.25</v>
+      </c>
+      <c r="U105">
         <v>1.95</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.925</v>
-      </c>
-      <c r="V105">
+      <c r="W105">
         <v>1.875</v>
       </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
       <c r="X105">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>1.05</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.95</v>
       </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9985,7 +9985,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10338,7 +10338,7 @@
         <v>45271.38888888889</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10783,7 +10783,7 @@
         <v>45273.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11320,7 +11320,7 @@
         <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11676,7 +11676,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -12296,7 +12296,7 @@
         <v>45286.39583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>44</v>
@@ -12474,7 +12474,7 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
         <v>35</v>
@@ -13275,10 +13275,10 @@
         <v>45294.40972222222</v>
       </c>
       <c r="F144" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s">
         <v>30</v>
-      </c>
-      <c r="G144" t="s">
-        <v>29</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6991406</v>
+        <v>6991441</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>2.4</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N146">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6991441</v>
+        <v>6991406</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45299.38194444445</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N147">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z147">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13812,7 +13812,7 @@
         <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -14165,7 +14165,7 @@
         <v>45301.40277777778</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14435,7 +14435,7 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14702,7 +14702,7 @@
         <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -15055,7 +15055,7 @@
         <v>45320.41319444445</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7674252</v>
+        <v>7674253</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,61 +15322,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L167">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M167">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N167">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P167">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q167">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
+        <v>1.725</v>
+      </c>
+      <c r="S167">
         <v>1.975</v>
       </c>
-      <c r="S167">
+      <c r="T167">
+        <v>2</v>
+      </c>
+      <c r="U167">
         <v>1.825</v>
       </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.95</v>
-      </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15385,13 +15385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB167">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7674253</v>
+        <v>7674252</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,61 +15411,61 @@
         <v>45321.40972222222</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="L168">
+        <v>4.2</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168">
+        <v>1.45</v>
+      </c>
+      <c r="O168">
+        <v>4.2</v>
+      </c>
+      <c r="P168">
+        <v>5.25</v>
+      </c>
+      <c r="Q168">
+        <v>-1.25</v>
+      </c>
+      <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
         <v>2.75</v>
       </c>
-      <c r="M168">
-        <v>3.1</v>
-      </c>
-      <c r="N168">
-        <v>2</v>
-      </c>
-      <c r="O168">
-        <v>2.875</v>
-      </c>
-      <c r="P168">
-        <v>3.75</v>
-      </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>1.725</v>
-      </c>
-      <c r="S168">
-        <v>1.975</v>
-      </c>
-      <c r="T168">
-        <v>2</v>
-      </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X168">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -15474,13 +15474,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16215,7 +16215,7 @@
         <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16571,7 +16571,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>45335.36805555555</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
         <v>42</v>
@@ -17547,7 +17547,7 @@
         <v>45341.42013888889</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
         <v>32</v>
@@ -17995,7 +17995,7 @@
         <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18440,7 +18440,7 @@
         <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18974,7 +18974,7 @@
         <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19048,7 +19048,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7784086</v>
+        <v>7783762</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19060,73 +19060,73 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K209">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
+        <v>4</v>
+      </c>
+      <c r="N209">
+        <v>1.8</v>
+      </c>
+      <c r="O209">
+        <v>3.2</v>
+      </c>
+      <c r="P209">
+        <v>4</v>
+      </c>
+      <c r="Q209">
+        <v>-0.5</v>
+      </c>
+      <c r="R209">
+        <v>1.85</v>
+      </c>
+      <c r="S209">
         <v>1.95</v>
       </c>
-      <c r="N209">
-        <v>4.5</v>
-      </c>
-      <c r="O209">
-        <v>3.3</v>
-      </c>
-      <c r="P209">
-        <v>1.7</v>
-      </c>
-      <c r="Q209">
-        <v>0.5</v>
-      </c>
-      <c r="R209">
-        <v>2.025</v>
-      </c>
-      <c r="S209">
-        <v>1.775</v>
-      </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="V209">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>1.025</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19137,7 +19137,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7783762</v>
+        <v>7784086</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19149,73 +19149,73 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H210">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K210">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N210">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P210">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="V210">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB210">
-        <v>0.7250000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19315,7 +19315,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7784089</v>
+        <v>7784088</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19327,49 +19327,49 @@
         <v>45355.42361111111</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
         <v>1</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>48</v>
       </c>
       <c r="K212">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N212">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O212">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P212">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q212">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S212">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U212">
         <v>1.95</v>
@@ -19378,7 +19378,7 @@
         <v>1.85</v>
       </c>
       <c r="W212">
-        <v>0.6000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19387,16 +19387,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19404,7 +19404,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7784088</v>
+        <v>7784089</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19416,49 +19416,49 @@
         <v>45355.42361111111</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>48</v>
       </c>
       <c r="K213">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="L213">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M213">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N213">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O213">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
         <v>1.95</v>
@@ -19467,7 +19467,7 @@
         <v>1.85</v>
       </c>
       <c r="W213">
-        <v>2.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19476,16 +19476,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19849,7 +19849,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7784093</v>
+        <v>7784092</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19861,76 +19861,76 @@
         <v>45360.42361111111</v>
       </c>
       <c r="F218" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L218">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M218">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N218">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O218">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q218">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T218">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W218">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19938,7 +19938,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7784092</v>
+        <v>7784093</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19950,76 +19950,76 @@
         <v>45360.42361111111</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>3.25</v>
+      </c>
+      <c r="M219">
+        <v>3.25</v>
+      </c>
+      <c r="N219">
+        <v>1.533</v>
+      </c>
+      <c r="O219">
+        <v>3.8</v>
+      </c>
+      <c r="P219">
+        <v>5.25</v>
+      </c>
+      <c r="Q219">
+        <v>-1</v>
+      </c>
+      <c r="R219">
+        <v>1.975</v>
+      </c>
+      <c r="S219">
+        <v>1.825</v>
+      </c>
+      <c r="T219">
         <v>2.25</v>
       </c>
-      <c r="L219">
-        <v>3</v>
-      </c>
-      <c r="M219">
-        <v>3</v>
-      </c>
-      <c r="N219">
-        <v>2.25</v>
-      </c>
-      <c r="O219">
-        <v>3.2</v>
-      </c>
-      <c r="P219">
-        <v>2.8</v>
-      </c>
-      <c r="Q219">
-        <v>-0.25</v>
-      </c>
-      <c r="R219">
-        <v>2.025</v>
-      </c>
-      <c r="S219">
-        <v>1.775</v>
-      </c>
-      <c r="T219">
-        <v>2.5</v>
-      </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA219">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB219">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G223" t="s">
         <v>44</v>
@@ -20472,7 +20472,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7784097</v>
+        <v>7783779</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20484,76 +20484,76 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H225">
         <v>1</v>
       </c>
       <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>49</v>
+      </c>
+      <c r="K225">
         <v>3</v>
-      </c>
-      <c r="J225" t="s">
-        <v>50</v>
-      </c>
-      <c r="K225">
-        <v>4</v>
       </c>
       <c r="L225">
         <v>3</v>
       </c>
       <c r="M225">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="N225">
-        <v>4.333</v>
+  